--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -628,6 +628,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,7 +646,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -703,6 +712,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +763,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -811,6 +829,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +847,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +913,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +964,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -994,6 +1030,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1048,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1069,6 +1114,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,11 +1144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483407360"/>
-        <c:axId val="483409280"/>
+        <c:axId val="314173312"/>
+        <c:axId val="450797952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483407360"/>
+        <c:axId val="314173312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,14 +1191,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483409280"/>
+        <c:crossAx val="450797952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483409280"/>
+        <c:axId val="450797952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483407360"/>
+        <c:crossAx val="314173312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1410,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,6 +1476,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54186.545765681185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71078.061391139228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122511.25379184079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>110004.9180429735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,8 +1499,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585328512"/>
-        <c:axId val="585326976"/>
+        <c:axId val="485400576"/>
+        <c:axId val="485398784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1462,7 +1525,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1528,6 +1591,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +1609,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1603,6 +1675,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,11 +1700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585323648"/>
-        <c:axId val="585325184"/>
+        <c:axId val="485395456"/>
+        <c:axId val="485397248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585323648"/>
+        <c:axId val="485395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,14 +1747,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585325184"/>
+        <c:crossAx val="485397248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585325184"/>
+        <c:axId val="485397248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,12 +1805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585323648"/>
+        <c:crossAx val="485395456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585326976"/>
+        <c:axId val="485398784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,12 +1847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585328512"/>
+        <c:crossAx val="485400576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585328512"/>
+        <c:axId val="485400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585326976"/>
+        <c:crossAx val="485398784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1912,7 +1993,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1978,6 +2059,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,8 +2082,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610571392"/>
-        <c:axId val="606632576"/>
+        <c:axId val="503442816"/>
+        <c:axId val="503441280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,7 +2108,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2084,6 +2174,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,7 +2192,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2159,6 +2258,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,11 +2283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585350144"/>
-        <c:axId val="606630656"/>
+        <c:axId val="485816576"/>
+        <c:axId val="503439360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585350144"/>
+        <c:axId val="485816576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,14 +2330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606630656"/>
+        <c:crossAx val="503439360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606630656"/>
+        <c:axId val="503439360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,12 +2388,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585350144"/>
+        <c:crossAx val="485816576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606632576"/>
+        <c:axId val="503441280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,12 +2430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610571392"/>
+        <c:crossAx val="503442816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610571392"/>
+        <c:axId val="503442816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606632576"/>
+        <c:crossAx val="503441280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2594,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2552,6 +2660,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2678,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2744,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>564653.76358290331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>590622.57318430196</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>624214.6740239606</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>653209.59286912635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2795,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2735,6 +2861,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +2879,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2810,6 +2945,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>558292.50732720701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>569778.99218897521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>579851.61843013065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637033.7407252636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2996,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2918,6 +3062,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,7 +3080,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2993,6 +3146,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-6361.2562556962948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-20843.580995326745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-44363.055593829951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-16175.85214386275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,11 +3176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617266176"/>
-        <c:axId val="617276544"/>
+        <c:axId val="548727808"/>
+        <c:axId val="551928576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617266176"/>
+        <c:axId val="548727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,14 +3223,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617276544"/>
+        <c:crossAx val="551928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617276544"/>
+        <c:axId val="551928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3281,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617266176"/>
+        <c:crossAx val="548727808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,7 +3442,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3346,6 +3508,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,8 +3531,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="670230784"/>
-        <c:axId val="661805696"/>
+        <c:axId val="567490432"/>
+        <c:axId val="567488512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3386,7 +3557,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3452,6 +3623,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,7 +3641,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3527,6 +3707,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,11 +3732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654548352"/>
-        <c:axId val="656213120"/>
+        <c:axId val="557855488"/>
+        <c:axId val="557857024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654548352"/>
+        <c:axId val="557855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,14 +3779,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656213120"/>
+        <c:crossAx val="557857024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656213120"/>
+        <c:axId val="557857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,12 +3837,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654548352"/>
+        <c:crossAx val="557855488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661805696"/>
+        <c:axId val="567488512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,12 +3879,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670230784"/>
+        <c:crossAx val="567490432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="670230784"/>
+        <c:axId val="567490432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661805696"/>
+        <c:crossAx val="567488512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3854,7 +4043,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3920,6 +4109,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +4127,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3995,6 +4193,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>584093.62379493122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>610062.43339632987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>650372.95440392033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>679367.87324908609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4244,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4103,6 +4310,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,7 +4328,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4178,6 +4394,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>576440.90566780127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>587456.61401936528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>603517.95929292182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>661850.52757046279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,7 +4445,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4286,6 +4511,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,7 +4529,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4361,6 +4595,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-7652.7181271299487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22605.819376964588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-46854.995110998512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17517.3456786233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,11 +4625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="694044160"/>
-        <c:axId val="694045696"/>
+        <c:axId val="484460416"/>
+        <c:axId val="484461952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="694044160"/>
+        <c:axId val="484460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,14 +4672,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694045696"/>
+        <c:crossAx val="484461952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="694045696"/>
+        <c:axId val="484461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +4730,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694044160"/>
+        <c:crossAx val="484460416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4648,7 +4891,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4714,6 +4957,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40310.521007590411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,8 +4980,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="719956608"/>
-        <c:axId val="719954688"/>
+        <c:axId val="484492032"/>
+        <c:axId val="484490240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4754,7 +5006,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4820,6 +5072,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +5090,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4895,6 +5156,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,11 +5181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="719828480"/>
-        <c:axId val="719830016"/>
+        <c:axId val="484487168"/>
+        <c:axId val="484488704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="719828480"/>
+        <c:axId val="484487168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,14 +5228,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719830016"/>
+        <c:crossAx val="484488704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="719830016"/>
+        <c:axId val="484488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,12 +5286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719828480"/>
+        <c:crossAx val="484487168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719954688"/>
+        <c:axId val="484490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,12 +5328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719956608"/>
+        <c:crossAx val="484492032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="719956608"/>
+        <c:axId val="484492032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,7 +5342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="719954688"/>
+        <c:crossAx val="484490240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5222,7 +5492,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5288,6 +5558,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,7 +5576,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5363,6 +5642,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4536714.2101611272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4707443.0891772518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5050257.0351484306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5263093.824727607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,7 +5693,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5471,6 +5759,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,7 +5777,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5546,6 +5843,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4600903.8633038895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4652283.5069824615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4803059.3728076126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5249377.9832880329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5588,7 +5894,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5654,6 +5960,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,7 +5978,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5729,6 +6044,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64189.65314276237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-55159.582194790244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-247197.66234081797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13715.841439574026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,11 +6074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489577472"/>
-        <c:axId val="489583360"/>
+        <c:axId val="485335040"/>
+        <c:axId val="485336576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489577472"/>
+        <c:axId val="485335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5797,14 +6121,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489583360"/>
+        <c:crossAx val="485336576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489583360"/>
+        <c:axId val="485336576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +6179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489577472"/>
+        <c:crossAx val="485335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6016,7 +6340,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6082,6 +6406,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5967449.6734951856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6194785.0688919602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6670915.5304877618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6952818.5648233844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,8 +6429,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489597184"/>
-        <c:axId val="489595648"/>
+        <c:axId val="485355904"/>
+        <c:axId val="485350016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6122,7 +6455,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6188,6 +6521,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,7 +6539,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6263,6 +6605,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,11 +6630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489592320"/>
-        <c:axId val="489593856"/>
+        <c:axId val="485346688"/>
+        <c:axId val="485348480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489592320"/>
+        <c:axId val="485346688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,14 +6677,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489593856"/>
+        <c:crossAx val="485348480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489593856"/>
+        <c:axId val="485348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,12 +6735,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489592320"/>
+        <c:crossAx val="485346688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489595648"/>
+        <c:axId val="485350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,12 +6777,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489597184"/>
+        <c:crossAx val="485355904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489597184"/>
+        <c:axId val="485355904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6440,7 +6791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489595648"/>
+        <c:crossAx val="485350016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6590,7 +6941,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6656,6 +7007,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,7 +7025,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6731,6 +7091,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1487015.4681102138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1558093.5295013529</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1680604.7832931937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1790609.7013361673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6773,7 +7142,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6839,6 +7208,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,7 +7226,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6914,6 +7292,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1542883.8452533809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1573938.8997274791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1631480.724180551</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1820793.6541967946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,7 +7343,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7022,6 +7409,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7031,7 +7427,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7097,6 +7493,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>55868.377143167192</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15845.370226126164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-49124.059112642659</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30183.952860627323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7118,11 +7523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489618048"/>
-        <c:axId val="584331648"/>
+        <c:axId val="485379456"/>
+        <c:axId val="485385344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489618048"/>
+        <c:axId val="485379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,14 +7570,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584331648"/>
+        <c:crossAx val="485385344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584331648"/>
+        <c:axId val="485385344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,7 +7628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489618048"/>
+        <c:crossAx val="485379456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7937,7 +8342,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9022,6 +9427,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="15">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="15">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="15">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="15">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="15">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="15">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="15">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="15">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="15">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="15">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="15">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9038,7 +9557,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10551,6 +11070,201 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:21" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>758693.74428343039</v>
+      </c>
+      <c r="H25" s="15">
+        <v>569778.99218897521</v>
+      </c>
+      <c r="I25" s="15">
+        <v>590622.57318430196</v>
+      </c>
+      <c r="J25" s="15">
+        <v>569778.99218897521</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-20843.580995326745</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.75599999570846554</v>
+      </c>
+      <c r="P25" s="23">
+        <v>0.75769047179676241</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>-1.6904760882968661E-3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>3.2738098541895536E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>4.9107147812843305E-4</v>
+      </c>
+      <c r="T25" s="9">
+        <v>-3.4424236869540712</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="15">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="15">
+        <v>805349.43804013671</v>
+      </c>
+      <c r="H26" s="15">
+        <v>579851.61843013065</v>
+      </c>
+      <c r="I26" s="15">
+        <v>624214.6740239606</v>
+      </c>
+      <c r="J26" s="15">
+        <v>579851.61843013065</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-44363.055593829951</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0.75183332913262502</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>-2.4500001998174703E-2</v>
+      </c>
+      <c r="R26" s="23">
+        <v>3.097619424547466E-2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>4.646429136821199E-4</v>
+      </c>
+      <c r="T26" s="9">
+        <v>-52.728668137907079</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>843753.30430277204</v>
+      </c>
+      <c r="H27" s="15">
+        <v>637033.7407252636</v>
+      </c>
+      <c r="I27" s="15">
+        <v>653209.59286912635</v>
+      </c>
+      <c r="J27" s="15">
+        <v>637033.7407252636</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-16175.85214386275</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0.75338094954263612</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>-6.71427969705507E-3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>2.9428573835463736E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>4.4142860753195601E-4</v>
+      </c>
+      <c r="T27" s="9">
+        <v>-15.21034111177085</v>
+      </c>
+      <c r="U27" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10567,7 +11281,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11773,6 +12487,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>782232.52209094365</v>
+      </c>
+      <c r="H25" s="15">
+        <v>587456.61401936528</v>
+      </c>
+      <c r="I25" s="15">
+        <v>610062.43339632987</v>
+      </c>
+      <c r="J25" s="15">
+        <v>587456.61401936528</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-22605.819376964588</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>40310.521007590411</v>
+      </c>
+      <c r="F26" s="15">
+        <v>55986.832508047613</v>
+      </c>
+      <c r="G26" s="15">
+        <v>838219.35459899122</v>
+      </c>
+      <c r="H26" s="15">
+        <v>603517.95929292182</v>
+      </c>
+      <c r="I26" s="15">
+        <v>650372.95440392033</v>
+      </c>
+      <c r="J26" s="15">
+        <v>603517.95929292182</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-46854.995110998512</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>876623.22086162656</v>
+      </c>
+      <c r="H27" s="15">
+        <v>661850.52757046279</v>
+      </c>
+      <c r="I27" s="15">
+        <v>679367.87324908609</v>
+      </c>
+      <c r="J27" s="15">
+        <v>661850.52757046279</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-17517.3456786233</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11789,7 +12635,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12995,6 +13841,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6194785.0688919602</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4707443.0891772518</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-55159.582194790244</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>342813.94597117882</v>
+      </c>
+      <c r="F26" s="15">
+        <v>476130.46159580146</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6670915.5304877618</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5050257.0351484306</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-247197.66234081797</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6952818.5648233844</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5263093.824727607</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-13715.841439574026</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13011,7 +13989,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14357,6 +15335,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="14">
+        <v>71078.061391139228</v>
+      </c>
+      <c r="H25" s="15">
+        <v>94644.557402996477</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2095790.8478161849</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1573938.8997274791</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1558093.5295013529</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1573938.8997274791</v>
+      </c>
+      <c r="M25" s="15">
+        <v>15845.370226126164</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="14">
+        <v>122511.25379184079</v>
+      </c>
+      <c r="H26" s="15">
+        <v>170154.51239400159</v>
+      </c>
+      <c r="I26" s="15">
+        <v>2265945.3602101863</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1631480.724180551</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1680604.7832931937</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1631480.724180551</v>
+      </c>
+      <c r="M26" s="15">
+        <v>-49124.059112642659</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="14">
+        <v>110004.9180429735</v>
+      </c>
+      <c r="H27" s="15">
+        <v>145701.87912282677</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2411647.2393330131</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1820793.6541967946</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1790609.7013361673</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1820793.6541967946</v>
+      </c>
+      <c r="M27" s="15">
+        <v>30183.952860627323</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -637,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +649,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -721,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +769,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -838,6 +844,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +856,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -922,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +976,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1039,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1063,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1123,6 +1138,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,11 +1162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314173312"/>
-        <c:axId val="450797952"/>
+        <c:axId val="383750528"/>
+        <c:axId val="383752064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="314173312"/>
+        <c:axId val="383750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,14 +1209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450797952"/>
+        <c:crossAx val="383752064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450797952"/>
+        <c:axId val="383752064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314173312"/>
+        <c:crossAx val="383750528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,7 +1428,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1485,6 +1503,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>110004.9180429735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90553.794089931776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,8 +1520,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485400576"/>
-        <c:axId val="485398784"/>
+        <c:axId val="396601216"/>
+        <c:axId val="396599680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1525,7 +1546,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1600,6 +1621,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,7 +1633,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1684,6 +1708,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,11 +1727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485395456"/>
-        <c:axId val="485397248"/>
+        <c:axId val="396592256"/>
+        <c:axId val="396593792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485395456"/>
+        <c:axId val="396592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,14 +1774,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485397248"/>
+        <c:crossAx val="396593792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485397248"/>
+        <c:axId val="396593792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,12 +1832,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485395456"/>
+        <c:crossAx val="396592256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485398784"/>
+        <c:axId val="396599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +1874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485400576"/>
+        <c:crossAx val="396601216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485400576"/>
+        <c:axId val="396601216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485398784"/>
+        <c:crossAx val="396599680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1993,7 +2020,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2068,6 +2095,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,8 +2112,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503442816"/>
-        <c:axId val="503441280"/>
+        <c:axId val="563849088"/>
+        <c:axId val="563847552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2108,7 +2138,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2183,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,7 +2225,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2267,6 +2300,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,11 +2319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485816576"/>
-        <c:axId val="503439360"/>
+        <c:axId val="521065216"/>
+        <c:axId val="521067136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485816576"/>
+        <c:axId val="521065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,14 +2366,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503439360"/>
+        <c:crossAx val="521067136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503439360"/>
+        <c:axId val="521067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,12 +2424,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485816576"/>
+        <c:crossAx val="521065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503441280"/>
+        <c:axId val="563847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,12 +2466,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503442816"/>
+        <c:crossAx val="563849088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503442816"/>
+        <c:axId val="563849088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503441280"/>
+        <c:crossAx val="563847552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2630,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2669,6 +2705,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,7 +2717,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2753,6 +2792,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>653209.59286912635</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>680279.02886123804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2837,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2870,6 +2912,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,7 +2924,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2954,6 +2999,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637033.7407252636</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>669165.68165687367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,7 +3044,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3071,6 +3119,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,7 +3131,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3155,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-16175.85214386275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11113.347204364371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,11 +3230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548727808"/>
-        <c:axId val="551928576"/>
+        <c:axId val="603290240"/>
+        <c:axId val="390832512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548727808"/>
+        <c:axId val="603290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,14 +3277,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551928576"/>
+        <c:crossAx val="390832512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551928576"/>
+        <c:axId val="390832512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3335,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548727808"/>
+        <c:crossAx val="603290240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3442,7 +3496,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3517,6 +3571,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3531,8 +3588,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="567490432"/>
-        <c:axId val="567488512"/>
+        <c:axId val="390851584"/>
+        <c:axId val="390850048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3557,7 +3614,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3632,6 +3689,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3701,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3716,6 +3776,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,11 +3795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557855488"/>
-        <c:axId val="557857024"/>
+        <c:axId val="390846720"/>
+        <c:axId val="390848512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557855488"/>
+        <c:axId val="390846720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,14 +3842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557857024"/>
+        <c:crossAx val="390848512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557857024"/>
+        <c:axId val="390848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,12 +3900,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557855488"/>
+        <c:crossAx val="390846720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567488512"/>
+        <c:axId val="390850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,12 +3942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567490432"/>
+        <c:crossAx val="390851584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="567490432"/>
+        <c:axId val="390851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567488512"/>
+        <c:crossAx val="390850048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4043,7 +4106,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4118,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,7 +4193,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4202,6 +4268,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>679367.87324908609</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>706437.30924119777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4313,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4319,6 +4388,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,7 +4400,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4403,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>661850.52757046279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>694179.68742150278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +4520,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4520,6 +4595,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4529,7 +4607,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4604,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17517.3456786233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12257.621819694992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4625,11 +4706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484460416"/>
-        <c:axId val="484461952"/>
+        <c:axId val="395434240"/>
+        <c:axId val="395436032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484460416"/>
+        <c:axId val="395434240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4672,14 +4753,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484461952"/>
+        <c:crossAx val="395436032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484461952"/>
+        <c:axId val="395436032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484460416"/>
+        <c:crossAx val="395434240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4891,7 +4972,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4966,6 +5047,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,8 +5064,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484492032"/>
-        <c:axId val="484490240"/>
+        <c:axId val="395467776"/>
+        <c:axId val="395466240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5006,7 +5090,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5081,6 +5165,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5090,7 +5177,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5165,6 +5252,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,11 +5271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484487168"/>
-        <c:axId val="484488704"/>
+        <c:axId val="395450624"/>
+        <c:axId val="395464704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484487168"/>
+        <c:axId val="395450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,14 +5318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484488704"/>
+        <c:crossAx val="395464704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484488704"/>
+        <c:axId val="395464704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5286,12 +5376,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484487168"/>
+        <c:crossAx val="395450624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484490240"/>
+        <c:axId val="395466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,12 +5418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484492032"/>
+        <c:crossAx val="395467776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484492032"/>
+        <c:axId val="395467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484490240"/>
+        <c:crossAx val="395466240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5492,7 +5582,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5567,6 +5657,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5669,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5651,6 +5744,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5263093.824727607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5448601.2588873617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,7 +5789,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5768,6 +5864,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5777,7 +5876,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5852,6 +5951,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5249377.9832880329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476602.2061683256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5894,7 +5996,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5969,6 +6071,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5978,7 +6083,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6053,6 +6158,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-13715.841439574026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28000.947280963883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,11 +6182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485335040"/>
-        <c:axId val="485336576"/>
+        <c:axId val="395491584"/>
+        <c:axId val="395493376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485335040"/>
+        <c:axId val="395491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6121,14 +6229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485336576"/>
+        <c:crossAx val="395493376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485336576"/>
+        <c:axId val="395493376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485335040"/>
+        <c:crossAx val="395491584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6340,7 +6448,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6415,6 +6523,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6952818.5648233844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7196586.5538154002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6429,8 +6540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485355904"/>
-        <c:axId val="485350016"/>
+        <c:axId val="395524736"/>
+        <c:axId val="395523200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6455,7 +6566,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6530,6 +6641,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,7 +6653,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6614,6 +6728,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,11 +6747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485346688"/>
-        <c:axId val="485348480"/>
+        <c:axId val="395511680"/>
+        <c:axId val="395513216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485346688"/>
+        <c:axId val="395511680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,14 +6794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485348480"/>
+        <c:crossAx val="395513216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485348480"/>
+        <c:axId val="395513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6735,12 +6852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485346688"/>
+        <c:crossAx val="395511680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485350016"/>
+        <c:axId val="395523200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,12 +6894,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485355904"/>
+        <c:crossAx val="395524736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485355904"/>
+        <c:axId val="395524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,7 +6908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485350016"/>
+        <c:crossAx val="395523200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6941,7 +7058,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7016,6 +7133,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7025,7 +7145,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7100,6 +7220,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1790609.7013361673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1881163.495426099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7142,7 +7265,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7217,6 +7340,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7226,7 +7352,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7301,6 +7427,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1820793.6541967946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1925817.2891740929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7343,7 +7472,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7418,6 +7547,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7427,7 +7559,7 @@
               <c:f>'model2(2)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7502,6 +7634,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>30183.952860627323</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44653.793747993885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7523,11 +7658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485379456"/>
-        <c:axId val="485385344"/>
+        <c:axId val="396568448"/>
+        <c:axId val="396569984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485379456"/>
+        <c:axId val="396568448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,14 +7705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485385344"/>
+        <c:crossAx val="396569984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485385344"/>
+        <c:axId val="396569984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7628,7 +7763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485379456"/>
+        <c:crossAx val="396568448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8342,7 +8477,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9541,6 +9676,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="15">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="15">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="15">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9557,7 +9730,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11265,6 +11438,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:21" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>879324.18050422135</v>
+      </c>
+      <c r="H28" s="15">
+        <v>669165.68165687367</v>
+      </c>
+      <c r="I28" s="15">
+        <v>680279.02886123804</v>
+      </c>
+      <c r="J28" s="15">
+        <v>669165.68165687367</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-11113.347204364371</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.75533334414164222</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0.75549999826295033</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>-1.6665412130811852E-4</v>
+      </c>
+      <c r="R28" s="23">
+        <v>2.7309525115149353E-2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>4.0964287672724028E-4</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-0.40682782681238899</v>
+      </c>
+      <c r="U28" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11281,7 +11519,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12619,6 +12857,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>912194.09706307587</v>
+      </c>
+      <c r="H28" s="15">
+        <v>694179.68742150278</v>
+      </c>
+      <c r="I28" s="15">
+        <v>706437.30924119777</v>
+      </c>
+      <c r="J28" s="15">
+        <v>694179.68742150278</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-12257.621819694992</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12635,7 +12917,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13973,6 +14255,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7196586.5538154002</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5448601.2588873617</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="K28" s="15">
+        <v>28000.947280963883</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13989,7 +14315,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15485,6 +15811,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="14">
+        <v>90553.794089931776</v>
+      </c>
+      <c r="H28" s="15">
+        <v>118993.1626238223</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2530640.4019568353</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1925817.2891740929</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1881163.495426099</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1925817.2891740929</v>
+      </c>
+      <c r="M28" s="15">
+        <v>44653.793747993885</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -11,44 +11,44 @@
     <sheet name="model2(1)&amp;CCI_per_month" sheetId="6" r:id="rId2"/>
     <sheet name="model2(1)&amp;CCI_per_day" sheetId="5" r:id="rId3"/>
     <sheet name="model2(2)&amp;CCI_per_day" sheetId="7" r:id="rId4"/>
-    <sheet name="model2(2)turnover&amp;CCI_per_day" sheetId="8" r:id="rId5"/>
+    <sheet name="model2(2)vol&amp;CCI_per_day" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)'!$P$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model2(1)&amp;CCI_per_day'!$P$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)&amp;CCI_per_month'!$V$1:$V$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(2)&amp;CCI_per_day'!$P$1:$P$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model2(2)turnover&amp;CCI_per_day'!$R$1:$R$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model2(2)vol&amp;CCI_per_day'!$R$1:$R$23</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)'!K1,0,0,COUNTA('model2(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!K1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!K1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!K1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!K:K)-1)</definedName>
-    <definedName name="金额" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!M1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!M1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!M:M)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model2(1)'!E1,0,0,COUNTA('model2(1)'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!E1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!E1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!G1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!G:G)-1)</definedName>
-    <definedName name="买卖" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!G1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!G:G)-1)</definedName>
+    <definedName name="买卖" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!G1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!G:G)-1)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model2(1)'!A1,0,0,COUNTA('model2(1)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!A1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!A1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!A1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!A1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!A1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!A:A)-1)</definedName>
     <definedName name="指数" localSheetId="0">OFFSET('model2(1)'!B1,0,0,COUNTA('model2(1)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!B1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!B1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!B1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!B1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!B1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!B:B)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model2(1)'!J1,0,0,COUNTA('model2(1)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!J1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!J1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!J1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!J:J)-1)</definedName>
-    <definedName name="资产" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!L1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!L1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!L:L)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model2(1)'!I1,0,0,COUNTA('model2(1)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="2">OFFSET('model2(1)&amp;CCI_per_day'!I1,0,0,COUNTA('model2(1)&amp;CCI_per_day'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="1">OFFSET('model2(1)&amp;CCI_per_month'!I1,0,0,COUNTA('model2(1)&amp;CCI_per_month'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="3">OFFSET('model2(2)&amp;CCI_per_day'!I1,0,0,COUNTA('model2(2)&amp;CCI_per_day'!I:I)-1)</definedName>
-    <definedName name="资金" localSheetId="4">OFFSET('model2(2)turnover&amp;CCI_per_day'!K1,0,0,COUNTA('model2(2)turnover&amp;CCI_per_day'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="4">OFFSET('model2(2)vol&amp;CCI_per_day'!K1,0,0,COUNTA('model2(2)vol&amp;CCI_per_day'!K:K)-1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -163,11 +163,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
+    <t>vol</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>turnover mean</t>
+    <t>vol mean</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -640,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +652,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -727,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,7 +775,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -847,6 +853,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +865,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -934,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +988,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1054,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1078,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1141,6 +1156,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,11 +1180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383750528"/>
-        <c:axId val="383752064"/>
+        <c:axId val="90352640"/>
+        <c:axId val="97240192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383750528"/>
+        <c:axId val="90352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,14 +1227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383752064"/>
+        <c:crossAx val="97240192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="383752064"/>
+        <c:axId val="97240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1285,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383750528"/>
+        <c:crossAx val="90352640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1425,10 +1443,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!买卖</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1506,6 +1524,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90553.794089931776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>191535.50007638987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,8 +1541,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396601216"/>
-        <c:axId val="396599680"/>
+        <c:axId val="500492928"/>
+        <c:axId val="500491392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1543,10 +1564,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1624,16 +1645,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!指数</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1711,6 +1735,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,11 +1754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396592256"/>
-        <c:axId val="396593792"/>
+        <c:axId val="500483968"/>
+        <c:axId val="500485504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396592256"/>
+        <c:axId val="500483968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,14 +1801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396593792"/>
+        <c:crossAx val="500485504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396593792"/>
+        <c:axId val="500485504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,12 +1859,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396592256"/>
+        <c:crossAx val="500483968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396599680"/>
+        <c:axId val="500491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,12 +1901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396601216"/>
+        <c:crossAx val="500492928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396601216"/>
+        <c:axId val="500492928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396599680"/>
+        <c:crossAx val="500491392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,7 +2047,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2098,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,8 +2142,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563849088"/>
-        <c:axId val="563847552"/>
+        <c:axId val="508563840"/>
+        <c:axId val="500075136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2138,7 +2168,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2216,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,7 +2258,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2303,6 +2336,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,11 +2355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521065216"/>
-        <c:axId val="521067136"/>
+        <c:axId val="500066944"/>
+        <c:axId val="500073600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521065216"/>
+        <c:axId val="500066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,14 +2402,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521067136"/>
+        <c:crossAx val="500073600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521067136"/>
+        <c:axId val="500073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2460,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521065216"/>
+        <c:crossAx val="500066944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563847552"/>
+        <c:axId val="500075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,12 +2502,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563849088"/>
+        <c:crossAx val="508563840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563849088"/>
+        <c:axId val="508563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563847552"/>
+        <c:crossAx val="500075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2630,7 +2666,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2708,6 +2744,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,7 +2756,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2795,6 +2834,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>680279.02886123804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>712084.0278931536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,7 +2879,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2915,6 +2957,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,7 +2969,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3002,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>669165.68165687367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>659642.45217168517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,7 +3092,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3122,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3182,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3209,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-11113.347204364371</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52441.575721468427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,11 +3284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603290240"/>
-        <c:axId val="390832512"/>
+        <c:axId val="539370240"/>
+        <c:axId val="539372544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603290240"/>
+        <c:axId val="539370240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,14 +3331,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390832512"/>
+        <c:crossAx val="539372544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390832512"/>
+        <c:axId val="539372544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603290240"/>
+        <c:crossAx val="539370240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,7 +3550,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3574,6 +3628,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,8 +3645,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390851584"/>
-        <c:axId val="390850048"/>
+        <c:axId val="338931712"/>
+        <c:axId val="609556736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3614,7 +3671,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3692,6 +3749,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3701,7 +3761,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3779,6 +3839,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,11 +3858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390846720"/>
-        <c:axId val="390848512"/>
+        <c:axId val="609236864"/>
+        <c:axId val="609555200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390846720"/>
+        <c:axId val="609236864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,14 +3905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390848512"/>
+        <c:crossAx val="609555200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390848512"/>
+        <c:axId val="609555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,12 +3963,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390846720"/>
+        <c:crossAx val="609236864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390850048"/>
+        <c:axId val="609556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,12 +4005,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390851584"/>
+        <c:crossAx val="338931712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390851584"/>
+        <c:axId val="338931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +4019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390850048"/>
+        <c:crossAx val="609556736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4106,7 +4169,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4184,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,7 +4259,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4271,6 +4337,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>706437.30924119777</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>738242.30827311333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,7 +4382,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4391,6 +4460,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4400,7 +4472,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4478,6 +4550,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>694179.68742150278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>683111.57215584663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,7 +4595,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4598,6 +4673,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4607,7 +4685,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4685,6 +4763,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12257.621819694992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-55130.736117266701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4706,11 +4787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395434240"/>
-        <c:axId val="395436032"/>
+        <c:axId val="460979584"/>
+        <c:axId val="461051008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395434240"/>
+        <c:axId val="460979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,14 +4834,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395436032"/>
+        <c:crossAx val="461051008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395436032"/>
+        <c:axId val="461051008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4811,7 +4892,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395434240"/>
+        <c:crossAx val="460979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4972,7 +5053,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5050,6 +5131,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5064,8 +5148,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395467776"/>
-        <c:axId val="395466240"/>
+        <c:axId val="461073792"/>
+        <c:axId val="461072256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5090,7 +5174,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5168,6 +5252,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,7 +5264,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5255,6 +5342,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5271,11 +5361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395450624"/>
-        <c:axId val="395464704"/>
+        <c:axId val="461064832"/>
+        <c:axId val="461070720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395450624"/>
+        <c:axId val="461064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5318,14 +5408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395464704"/>
+        <c:crossAx val="461070720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395464704"/>
+        <c:axId val="461070720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,12 +5466,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395450624"/>
+        <c:crossAx val="461064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395466240"/>
+        <c:axId val="461072256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,12 +5508,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395467776"/>
+        <c:crossAx val="461073792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395467776"/>
+        <c:axId val="461073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,7 +5522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395466240"/>
+        <c:crossAx val="461072256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5582,7 +5672,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5660,6 +5750,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,7 +5762,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5747,6 +5840,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5448601.2588873617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5704691.8825380336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5789,7 +5885,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5867,6 +5963,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5876,7 +5975,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5954,6 +6053,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5476602.2061683256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5394453.3269900708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5996,7 +6098,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6074,6 +6176,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,7 +6188,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6161,6 +6266,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>28000.947280963883</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-310238.5555479629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6182,11 +6290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395491584"/>
-        <c:axId val="395493376"/>
+        <c:axId val="490031744"/>
+        <c:axId val="490066304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395491584"/>
+        <c:axId val="490031744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,14 +6337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395493376"/>
+        <c:crossAx val="490066304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395493376"/>
+        <c:axId val="490066304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,7 +6395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395491584"/>
+        <c:crossAx val="490031744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6448,7 +6556,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6526,6 +6634,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7196586.5538154002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7555256.9017697945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,8 +6651,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395524736"/>
-        <c:axId val="395523200"/>
+        <c:axId val="500440064"/>
+        <c:axId val="500438528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6566,7 +6677,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6644,6 +6755,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6653,7 +6767,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6731,6 +6845,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6747,11 +6864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395511680"/>
-        <c:axId val="395513216"/>
+        <c:axId val="500103424"/>
+        <c:axId val="500436992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395511680"/>
+        <c:axId val="500103424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6794,14 +6911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395513216"/>
+        <c:crossAx val="500436992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395513216"/>
+        <c:axId val="500436992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,12 +6969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395511680"/>
+        <c:crossAx val="500103424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395523200"/>
+        <c:axId val="500438528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,12 +7011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395524736"/>
+        <c:crossAx val="500440064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395524736"/>
+        <c:axId val="500440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6908,7 +7025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395523200"/>
+        <c:crossAx val="500438528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7032,7 +7149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!$K$1</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7055,10 +7172,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7136,16 +7253,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!资金</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7223,6 +7343,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1881163.495426099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2072698.9955024889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,7 +7362,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!$L$1</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7262,10 +7385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7343,16 +7466,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!资产</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7430,6 +7556,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1925817.2891740929</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998412.713285876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7446,7 +7575,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!$M$1</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7469,10 +7598,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7550,16 +7679,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;CCI_per_day'!金额</c:f>
+              <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7637,6 +7769,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44653.793747993885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-74286.282216612948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7658,11 +7793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396568448"/>
-        <c:axId val="396569984"/>
+        <c:axId val="500451584"/>
+        <c:axId val="500453376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396568448"/>
+        <c:axId val="500451584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7705,14 +7840,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396569984"/>
+        <c:crossAx val="500453376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396569984"/>
+        <c:axId val="500453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7763,7 +7898,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396568448"/>
+        <c:crossAx val="500451584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8477,7 +8612,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9714,6 +9849,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="15">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="15">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="15">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9730,7 +9903,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11503,6 +11676,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:21" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>923868.99790849735</v>
+      </c>
+      <c r="H29" s="15">
+        <v>659642.45217168517</v>
+      </c>
+      <c r="I29" s="15">
+        <v>712084.0278931536</v>
+      </c>
+      <c r="J29" s="15">
+        <v>659642.45217168517</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-52441.575721468427</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.72366664807001746</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0.74888094787370585</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>-2.5214299803688389E-2</v>
+      </c>
+      <c r="R29" s="23">
+        <v>2.5214288450422728E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>3.7821432675634093E-4</v>
+      </c>
+      <c r="T29" s="9">
+        <v>-66.6666966847407</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11519,7 +11757,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12901,6 +13139,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>956738.91446735186</v>
+      </c>
+      <c r="H29" s="15">
+        <v>683111.57215584663</v>
+      </c>
+      <c r="I29" s="15">
+        <v>738242.30827311333</v>
+      </c>
+      <c r="J29" s="15">
+        <v>683111.57215584663</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-55130.736117266701</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12917,7 +13199,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14299,6 +14581,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7555256.9017697945</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5704691.8825380336</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-310238.5555479629</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14315,7 +14641,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15861,6 +16187,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="14">
+        <v>191535.50007638987</v>
+      </c>
+      <c r="H29" s="15">
+        <v>268257.00792438001</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2798897.4098812155</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1998412.713285876</v>
+      </c>
+      <c r="K29" s="15">
+        <v>2072698.9955024889</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1998412.713285876</v>
+      </c>
+      <c r="M29" s="15">
+        <v>-74286.282216612948</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -643,6 +643,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +655,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -733,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +781,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -856,6 +862,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +874,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -946,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1000,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1069,6 +1081,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1093,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1159,6 +1174,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,11 +1198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90352640"/>
-        <c:axId val="97240192"/>
+        <c:axId val="79544704"/>
+        <c:axId val="79546240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90352640"/>
+        <c:axId val="79544704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,14 +1245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97240192"/>
+        <c:crossAx val="79546240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97240192"/>
+        <c:axId val="79546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90352640"/>
+        <c:crossAx val="79544704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1446,7 +1464,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1527,6 +1545,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>191535.50007638987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137235.15677960418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,8 +1562,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500492928"/>
-        <c:axId val="500491392"/>
+        <c:axId val="475765760"/>
+        <c:axId val="475764224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1567,7 +1588,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1648,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1681,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1738,6 +1762,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,11 +1781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500483968"/>
-        <c:axId val="500485504"/>
+        <c:axId val="475760896"/>
+        <c:axId val="475762688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500483968"/>
+        <c:axId val="475760896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,14 +1828,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500485504"/>
+        <c:crossAx val="475762688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500485504"/>
+        <c:axId val="475762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,12 +1886,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500483968"/>
+        <c:crossAx val="475760896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500491392"/>
+        <c:axId val="475764224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,12 +1928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500492928"/>
+        <c:crossAx val="475765760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500492928"/>
+        <c:axId val="475765760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500491392"/>
+        <c:crossAx val="475764224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2047,7 +2074,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2128,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,8 +2172,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508563840"/>
-        <c:axId val="500075136"/>
+        <c:axId val="429628800"/>
+        <c:axId val="342642048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2168,7 +2198,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2249,6 +2279,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,7 +2291,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2339,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,11 +2391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500066944"/>
-        <c:axId val="500073600"/>
+        <c:axId val="296957824"/>
+        <c:axId val="296993152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500066944"/>
+        <c:axId val="296957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,14 +2438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500073600"/>
+        <c:crossAx val="296993152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500073600"/>
+        <c:axId val="296993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,12 +2496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500066944"/>
+        <c:crossAx val="296957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500075136"/>
+        <c:axId val="342642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2538,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508563840"/>
+        <c:crossAx val="429628800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508563840"/>
+        <c:axId val="429628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500075136"/>
+        <c:crossAx val="342642048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2666,7 +2702,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2747,6 +2783,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2795,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2837,6 +2876,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>712084.0278931536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>756602.26557590941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,7 +2921,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2960,6 +3002,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,7 +3014,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3050,6 +3095,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>659642.45217168517</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>677368.50345275179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,7 +3140,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3173,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3233,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3263,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52441.575721468427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79233.762123157619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,11 +3338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539370240"/>
-        <c:axId val="539372544"/>
+        <c:axId val="451192320"/>
+        <c:axId val="451193856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539370240"/>
+        <c:axId val="451192320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,14 +3385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539372544"/>
+        <c:crossAx val="451193856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539372544"/>
+        <c:axId val="451193856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,7 +3443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539370240"/>
+        <c:crossAx val="451192320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3550,7 +3604,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3631,6 +3685,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44518.237682755796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3645,8 +3702,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="338931712"/>
-        <c:axId val="609556736"/>
+        <c:axId val="482573696"/>
+        <c:axId val="482572160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3671,7 +3728,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3752,6 +3809,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3761,7 +3821,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3842,6 +3902,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,11 +3921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609236864"/>
-        <c:axId val="609555200"/>
+        <c:axId val="479262976"/>
+        <c:axId val="482570240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609236864"/>
+        <c:axId val="479262976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,14 +3968,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555200"/>
+        <c:crossAx val="482570240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609555200"/>
+        <c:axId val="482570240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,12 +4026,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609236864"/>
+        <c:crossAx val="479262976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609556736"/>
+        <c:axId val="482572160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,12 +4068,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338931712"/>
+        <c:crossAx val="482573696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="338931712"/>
+        <c:axId val="482573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609556736"/>
+        <c:crossAx val="482572160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4169,7 +4232,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4250,6 +4313,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,7 +4325,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4340,6 +4406,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>738242.30827311333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>775340.83967540984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,7 +4451,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4463,6 +4532,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4472,7 +4544,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4553,6 +4625,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>683111.57215584663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>692464.69009347586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,7 +4670,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4676,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,7 +4763,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4766,6 +4844,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-55130.736117266701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-82876.149581933976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,11 +4868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460979584"/>
-        <c:axId val="461051008"/>
+        <c:axId val="555044224"/>
+        <c:axId val="555316352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460979584"/>
+        <c:axId val="555044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,14 +4915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461051008"/>
+        <c:crossAx val="555316352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461051008"/>
+        <c:axId val="555316352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4892,7 +4973,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460979584"/>
+        <c:crossAx val="555044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5053,7 +5134,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5134,6 +5215,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,8 +5232,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461073792"/>
-        <c:axId val="461072256"/>
+        <c:axId val="79524224"/>
+        <c:axId val="79518336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5174,7 +5258,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5255,6 +5339,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5264,7 +5351,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5345,6 +5432,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5361,11 +5451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461064832"/>
-        <c:axId val="461070720"/>
+        <c:axId val="79515008"/>
+        <c:axId val="79516800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461064832"/>
+        <c:axId val="79515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,14 +5498,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461070720"/>
+        <c:crossAx val="79516800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461070720"/>
+        <c:axId val="79516800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,12 +5556,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461064832"/>
+        <c:crossAx val="79515008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461072256"/>
+        <c:axId val="79518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,12 +5598,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461073792"/>
+        <c:crossAx val="79524224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461073792"/>
+        <c:axId val="79524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,7 +5612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461072256"/>
+        <c:crossAx val="79518336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5672,7 +5762,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5753,6 +5843,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,7 +5855,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5843,6 +5936,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5704691.8825380336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6053122.5236031422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,7 +5981,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5966,6 +6062,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,7 +6074,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6056,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5394453.3269900708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5523781.636790554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6098,7 +6200,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6179,6 +6281,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6188,7 +6293,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6269,6 +6374,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-310238.5555479629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-529340.8868125882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6290,11 +6398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490031744"/>
-        <c:axId val="490066304"/>
+        <c:axId val="296643584"/>
+        <c:axId val="296649472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490031744"/>
+        <c:axId val="296643584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,14 +6445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490066304"/>
+        <c:crossAx val="296649472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490066304"/>
+        <c:axId val="296649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,7 +6503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490031744"/>
+        <c:crossAx val="296643584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6556,7 +6664,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6637,6 +6745,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7555256.9017697945</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8063914.7701674206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6651,8 +6762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500440064"/>
-        <c:axId val="500438528"/>
+        <c:axId val="296676736"/>
+        <c:axId val="296675200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6677,7 +6788,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6758,6 +6869,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6767,7 +6881,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6848,6 +6962,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,11 +6981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500103424"/>
-        <c:axId val="500436992"/>
+        <c:axId val="296671872"/>
+        <c:axId val="296673664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500103424"/>
+        <c:axId val="296671872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,14 +7028,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500436992"/>
+        <c:crossAx val="296673664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500436992"/>
+        <c:axId val="296673664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6969,12 +7086,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500103424"/>
+        <c:crossAx val="296671872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500438528"/>
+        <c:axId val="296675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7011,12 +7128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500440064"/>
+        <c:crossAx val="296676736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500440064"/>
+        <c:axId val="296676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7025,7 +7142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500438528"/>
+        <c:crossAx val="296675200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7175,7 +7292,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7256,6 +7373,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7265,7 +7385,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7346,6 +7466,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2072698.9955024889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2209934.1522820932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7388,7 +7511,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7469,6 +7592,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7478,7 +7604,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7559,6 +7685,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1998412.713285876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2054479.8892213283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7601,7 +7730,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7682,6 +7811,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7691,7 +7823,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7772,6 +7904,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-74286.282216612948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-155454.26306076488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7793,11 +7928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500451584"/>
-        <c:axId val="500453376"/>
+        <c:axId val="453114496"/>
+        <c:axId val="475730304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500451584"/>
+        <c:axId val="453114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7840,14 +7975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500453376"/>
+        <c:crossAx val="475730304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500453376"/>
+        <c:axId val="475730304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7898,7 +8033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500451584"/>
+        <c:crossAx val="453114496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8612,7 +8747,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9887,6 +10022,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="15">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="15">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="15">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="15">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="15">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9903,7 +10076,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11741,6 +11914,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:21" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44518.237682755796</v>
+      </c>
+      <c r="F30" s="15">
+        <v>64990.127777820817</v>
+      </c>
+      <c r="G30" s="15">
+        <v>988859.12568631815</v>
+      </c>
+      <c r="H30" s="15">
+        <v>677368.50345275179</v>
+      </c>
+      <c r="I30" s="15">
+        <v>756602.26557590941</v>
+      </c>
+      <c r="J30" s="15">
+        <v>677368.50345275179</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-79233.762123157619</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.69533334175745642</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0.7400238055161068</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>-4.4690463758650378E-2</v>
+      </c>
+      <c r="R30" s="23">
+        <v>2.3690478676841358E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <v>3.5535718015262035E-4</v>
+      </c>
+      <c r="T30" s="9">
+        <v>-125.76209587057316</v>
+      </c>
+      <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11757,7 +11995,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13183,6 +13421,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="15">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1010897.3542822025</v>
+      </c>
+      <c r="H30" s="15">
+        <v>692464.69009347586</v>
+      </c>
+      <c r="I30" s="15">
+        <v>775340.83967540984</v>
+      </c>
+      <c r="J30" s="15">
+        <v>692464.69009347586</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-82876.149581933976</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13199,7 +13481,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14625,6 +14907,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8063914.7701674206</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="I30" s="15">
+        <v>6053122.5236031422</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-529340.8868125882</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14641,7 +14967,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16237,6 +16563,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="14">
+        <v>137235.15677960418</v>
+      </c>
+      <c r="H30" s="15">
+        <v>200343.29387145772</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2999240.7037526732</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2054479.8892213283</v>
+      </c>
+      <c r="K30" s="15">
+        <v>2209934.1522820932</v>
+      </c>
+      <c r="L30" s="15">
+        <v>2054479.8892213283</v>
+      </c>
+      <c r="M30" s="15">
+        <v>-155454.26306076488</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -646,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +658,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -739,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +787,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -865,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +883,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -958,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1012,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1084,6 +1096,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1108,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1177,6 +1192,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,11 +1216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79544704"/>
-        <c:axId val="79546240"/>
+        <c:axId val="40785792"/>
+        <c:axId val="40787328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79544704"/>
+        <c:axId val="40785792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,14 +1263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79546240"/>
+        <c:crossAx val="40787328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79546240"/>
+        <c:axId val="40787328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79544704"/>
+        <c:crossAx val="40785792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,7 +1482,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1548,6 +1566,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>137235.15677960418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>287737.60169032536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,8 +1583,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475765760"/>
-        <c:axId val="475764224"/>
+        <c:axId val="484542336"/>
+        <c:axId val="484540800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1588,7 +1609,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1672,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1705,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1765,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,11 +1808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475760896"/>
-        <c:axId val="475762688"/>
+        <c:axId val="484529280"/>
+        <c:axId val="484530816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475760896"/>
+        <c:axId val="484529280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,14 +1855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475762688"/>
+        <c:crossAx val="484530816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475762688"/>
+        <c:axId val="484530816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,12 +1913,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475760896"/>
+        <c:crossAx val="484529280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475764224"/>
+        <c:axId val="484540800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475765760"/>
+        <c:crossAx val="484542336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="475765760"/>
+        <c:axId val="484542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475764224"/>
+        <c:crossAx val="484540800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2101,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2158,6 +2185,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,8 +2202,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429628800"/>
-        <c:axId val="342642048"/>
+        <c:axId val="472338432"/>
+        <c:axId val="447620992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2198,7 +2228,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2282,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2324,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2375,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296957824"/>
-        <c:axId val="296993152"/>
+        <c:axId val="447551360"/>
+        <c:axId val="447552896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296957824"/>
+        <c:axId val="447551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,14 +2474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296993152"/>
+        <c:crossAx val="447552896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296993152"/>
+        <c:axId val="447552896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,12 +2532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296957824"/>
+        <c:crossAx val="447551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342642048"/>
+        <c:axId val="447620992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429628800"/>
+        <c:crossAx val="472338432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="429628800"/>
+        <c:axId val="472338432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342642048"/>
+        <c:crossAx val="447620992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2738,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2786,6 +2822,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2834,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2879,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>756602.26557590941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>802116.32217987371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +2963,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3005,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +3059,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3098,6 +3143,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>677368.50345275179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>701127.64467434923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,7 +3188,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3224,6 +3272,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3284,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3317,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79233.762123157619</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100988.67750552448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3338,11 +3392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451192320"/>
-        <c:axId val="451193856"/>
+        <c:axId val="504781824"/>
+        <c:axId val="504783616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451192320"/>
+        <c:axId val="504781824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,14 +3439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451193856"/>
+        <c:crossAx val="504783616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451193856"/>
+        <c:axId val="504783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451192320"/>
+        <c:crossAx val="504781824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,7 +3658,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3688,6 +3742,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44518.237682755796</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45514.056603964338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,8 +3759,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482573696"/>
-        <c:axId val="482572160"/>
+        <c:axId val="581053056"/>
+        <c:axId val="581051136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3728,7 +3785,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3812,6 +3869,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,7 +3881,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3905,6 +3965,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,11 +3984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479262976"/>
-        <c:axId val="482570240"/>
+        <c:axId val="511205760"/>
+        <c:axId val="511207296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479262976"/>
+        <c:axId val="511205760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,14 +4031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482570240"/>
+        <c:crossAx val="511207296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482570240"/>
+        <c:axId val="511207296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,12 +4089,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479262976"/>
+        <c:crossAx val="511205760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482572160"/>
+        <c:axId val="581051136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482573696"/>
+        <c:crossAx val="581053056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482573696"/>
+        <c:axId val="581053056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482572160"/>
+        <c:crossAx val="581051136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4232,7 +4295,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4316,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,7 +4391,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4409,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>775340.83967540984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>813269.22017871344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,7 +4520,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4535,6 +4604,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4616,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4628,6 +4700,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>692464.69009347586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>708153.31385953503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,7 +4745,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4754,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4841,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4847,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-82876.149581933976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-105115.90631917841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4868,11 +4949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555044224"/>
-        <c:axId val="555316352"/>
+        <c:axId val="481233152"/>
+        <c:axId val="481234944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555044224"/>
+        <c:axId val="481233152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4915,14 +4996,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555316352"/>
+        <c:crossAx val="481234944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555316352"/>
+        <c:axId val="481234944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4973,7 +5054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555044224"/>
+        <c:crossAx val="481233152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5134,7 +5215,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5218,6 +5299,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,8 +5316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79524224"/>
-        <c:axId val="79518336"/>
+        <c:axId val="481266688"/>
+        <c:axId val="481265152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5258,7 +5342,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5342,6 +5426,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5351,7 +5438,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5435,6 +5522,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5451,11 +5541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79515008"/>
-        <c:axId val="79516800"/>
+        <c:axId val="481257728"/>
+        <c:axId val="481263616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79515008"/>
+        <c:axId val="481257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5498,14 +5588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79516800"/>
+        <c:crossAx val="481263616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79516800"/>
+        <c:axId val="481263616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5556,12 +5646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79515008"/>
+        <c:crossAx val="481257728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79518336"/>
+        <c:axId val="481265152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5598,12 +5688,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79524224"/>
+        <c:crossAx val="481266688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79524224"/>
+        <c:axId val="481266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,7 +5702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79518336"/>
+        <c:crossAx val="481265152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5762,7 +5852,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5846,6 +5936,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,7 +5948,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5939,6 +6032,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6053122.5236031422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6417315.4470470361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,7 +6077,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6065,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,7 +6173,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6158,6 +6257,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5523781.636790554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5710568.3160903649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6200,7 +6302,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6284,6 +6386,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6293,7 +6398,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6377,6 +6482,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-529340.8868125882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-706747.1309566712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6398,11 +6506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296643584"/>
-        <c:axId val="296649472"/>
+        <c:axId val="481282304"/>
+        <c:axId val="481284096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296643584"/>
+        <c:axId val="481282304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,14 +6553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296649472"/>
+        <c:crossAx val="481284096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296649472"/>
+        <c:axId val="481284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6503,7 +6611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296643584"/>
+        <c:crossAx val="481282304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6664,7 +6772,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6748,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8063914.7701674206</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8613225.3738689572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,8 +6873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="296676736"/>
-        <c:axId val="296675200"/>
+        <c:axId val="484129408"/>
+        <c:axId val="484127872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6788,7 +6899,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6872,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,7 +6995,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6965,6 +7079,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6981,11 +7098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296671872"/>
-        <c:axId val="296673664"/>
+        <c:axId val="484120448"/>
+        <c:axId val="484121984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296671872"/>
+        <c:axId val="484120448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,14 +7145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296673664"/>
+        <c:crossAx val="484121984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296673664"/>
+        <c:axId val="484121984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,12 +7203,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296671872"/>
+        <c:crossAx val="484120448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296675200"/>
+        <c:axId val="484127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,12 +7245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296676736"/>
+        <c:crossAx val="484129408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296676736"/>
+        <c:axId val="484129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296675200"/>
+        <c:crossAx val="484127872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7292,7 +7409,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7376,6 +7493,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7385,7 +7505,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7469,6 +7589,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2209934.1522820932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2497671.7539724186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7511,7 +7634,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7595,6 +7718,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,7 +7730,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7688,6 +7814,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2054479.8892213283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2276234.1510944632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,7 +7859,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7814,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7823,7 +7955,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7907,6 +8039,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-155454.26306076488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-221437.60287795542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7928,11 +8063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453114496"/>
-        <c:axId val="475730304"/>
+        <c:axId val="484509184"/>
+        <c:axId val="484510720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453114496"/>
+        <c:axId val="484509184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,14 +8110,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475730304"/>
+        <c:crossAx val="484510720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475730304"/>
+        <c:axId val="484510720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8033,7 +8168,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453114496"/>
+        <c:crossAx val="484509184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8747,7 +8882,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10060,6 +10195,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="15">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="15">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="15">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="15">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10076,7 +10249,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11979,6 +12152,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="31" spans="1:21" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>45514.056603964338</v>
+      </c>
+      <c r="F31" s="15">
+        <v>68648.653778362437</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1057507.7794646807</v>
+      </c>
+      <c r="H31" s="15">
+        <v>701127.64467434923</v>
+      </c>
+      <c r="I31" s="15">
+        <v>802116.32217987371</v>
+      </c>
+      <c r="J31" s="15">
+        <v>701127.64467434923</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-100988.67750552448</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.66433332363764441</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0.73140475675037919</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>-6.707143311273478E-2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>2.4653063212933164E-2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>3.6979594819399746E-4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-181.37416983689786</v>
+      </c>
+      <c r="U31" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11995,7 +12233,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13465,6 +13703,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="15">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1068104.5657641713</v>
+      </c>
+      <c r="H31" s="15">
+        <v>708153.31385953503</v>
+      </c>
+      <c r="I31" s="15">
+        <v>813269.22017871344</v>
+      </c>
+      <c r="J31" s="15">
+        <v>708153.31385953503</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-105115.90631917841</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13481,7 +13763,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14951,6 +15233,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8613225.3738689572</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6417315.4470470361</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-706747.1309566712</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14967,7 +15293,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16613,6 +16939,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:16" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="14">
+        <v>287737.60169032536</v>
+      </c>
+      <c r="H31" s="15">
+        <v>433993.37416421372</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3433234.0779168871</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2276234.1510944632</v>
+      </c>
+      <c r="K31" s="15">
+        <v>2497671.7539724186</v>
+      </c>
+      <c r="L31" s="15">
+        <v>2276234.1510944632</v>
+      </c>
+      <c r="M31" s="15">
+        <v>-221437.60287795542</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -649,6 +649,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +664,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -745,6 +751,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +799,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -874,6 +886,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +901,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -970,6 +988,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1036,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1099,6 +1123,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1138,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1195,6 +1225,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40785792"/>
-        <c:axId val="40787328"/>
+        <c:axId val="492739584"/>
+        <c:axId val="493712128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40785792"/>
+        <c:axId val="492739584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,14 +1299,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40787328"/>
+        <c:crossAx val="493712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40787328"/>
+        <c:axId val="493712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40785792"/>
+        <c:crossAx val="492739584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,7 +1518,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1569,6 +1605,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>287737.60169032536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403585.44091227214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>534222.45249187434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,8 +1625,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484542336"/>
-        <c:axId val="484540800"/>
+        <c:axId val="441721216"/>
+        <c:axId val="441719424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1609,7 +1651,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1696,6 +1738,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1753,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1792,6 +1840,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,11 +1862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484529280"/>
-        <c:axId val="484530816"/>
+        <c:axId val="439614848"/>
+        <c:axId val="441717888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484529280"/>
+        <c:axId val="439614848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,14 +1909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484530816"/>
+        <c:crossAx val="441717888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484530816"/>
+        <c:axId val="441717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,12 +1967,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484529280"/>
+        <c:crossAx val="439614848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484540800"/>
+        <c:axId val="441719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +2009,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484542336"/>
+        <c:crossAx val="441721216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484542336"/>
+        <c:axId val="441721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484540800"/>
+        <c:crossAx val="441719424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2101,7 +2155,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2188,6 +2242,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,8 +2262,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472338432"/>
-        <c:axId val="447620992"/>
+        <c:axId val="516183936"/>
+        <c:axId val="516182016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2228,7 +2288,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2315,6 +2375,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,7 +2390,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2411,6 +2477,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,11 +2499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447551360"/>
-        <c:axId val="447552896"/>
+        <c:axId val="516173824"/>
+        <c:axId val="516175360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447551360"/>
+        <c:axId val="516173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552896"/>
+        <c:crossAx val="516175360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447552896"/>
+        <c:axId val="516175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447551360"/>
+        <c:crossAx val="516173824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447620992"/>
+        <c:axId val="516182016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,12 +2646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472338432"/>
+        <c:crossAx val="516183936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472338432"/>
+        <c:axId val="516183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447620992"/>
+        <c:crossAx val="516182016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2810,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2825,6 +2897,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2834,7 +2912,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2921,6 +2999,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>802116.32217987371</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>849998.9363051235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>897331.10390405206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,7 +3047,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3050,6 +3134,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3149,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3146,6 +3236,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>701127.64467434923</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>736320.2027611892</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>776865.96182177088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,7 +3284,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3275,6 +3371,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3386,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3371,6 +3473,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100988.67750552448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-113678.7335439343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-120465.14208228118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,11 +3500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504781824"/>
-        <c:axId val="504783616"/>
+        <c:axId val="560542080"/>
+        <c:axId val="560544000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504781824"/>
+        <c:axId val="560542080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,14 +3547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504783616"/>
+        <c:crossAx val="560544000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504783616"/>
+        <c:axId val="560544000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504781824"/>
+        <c:crossAx val="560542080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3658,7 +3766,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3745,6 +3853,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45514.056603964338</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47882.614125249813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47332.167598928594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,8 +3873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="581053056"/>
-        <c:axId val="581051136"/>
+        <c:axId val="436286976"/>
+        <c:axId val="436285440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3785,7 +3899,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3872,6 +3986,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +4001,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3968,6 +4088,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,11 +4110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511205760"/>
-        <c:axId val="511207296"/>
+        <c:axId val="436282112"/>
+        <c:axId val="436283648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511205760"/>
+        <c:axId val="436282112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,14 +4157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511207296"/>
+        <c:crossAx val="436283648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511207296"/>
+        <c:axId val="436283648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,12 +4215,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511205760"/>
+        <c:crossAx val="436282112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581051136"/>
+        <c:axId val="436285440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,12 +4257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581053056"/>
+        <c:crossAx val="436286976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="581053056"/>
+        <c:axId val="436286976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581051136"/>
+        <c:crossAx val="436285440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4295,7 +4421,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4382,6 +4508,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,7 +4523,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4478,6 +4610,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>813269.22017871344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>861151.83430396323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>900595.30730307044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,7 +4658,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4607,6 +4745,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,7 +4760,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4703,6 +4847,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>708153.31385953503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>743218.71088469878</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>775812.19418300316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,7 +4895,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4832,6 +4982,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4997,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4928,6 +5084,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-105115.90631917841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-117933.12341926445</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-124783.11312006728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4949,11 +5111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481233152"/>
-        <c:axId val="481234944"/>
+        <c:axId val="436318976"/>
+        <c:axId val="436320512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481233152"/>
+        <c:axId val="436318976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4996,14 +5158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481234944"/>
+        <c:crossAx val="436320512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481234944"/>
+        <c:axId val="436320512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481233152"/>
+        <c:crossAx val="436318976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5215,7 +5377,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5302,6 +5464,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47882.614125249813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,8 +5484,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481266688"/>
-        <c:axId val="481265152"/>
+        <c:axId val="436336128"/>
+        <c:axId val="436334592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5342,7 +5510,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5429,6 +5597,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5438,7 +5612,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5525,6 +5699,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,11 +5721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481257728"/>
-        <c:axId val="481263616"/>
+        <c:axId val="436331264"/>
+        <c:axId val="436332800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481257728"/>
+        <c:axId val="436331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,14 +5768,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481263616"/>
+        <c:crossAx val="436332800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481263616"/>
+        <c:axId val="436332800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,12 +5826,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481257728"/>
+        <c:crossAx val="436331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481265152"/>
+        <c:axId val="436334592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5688,12 +5868,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481266688"/>
+        <c:crossAx val="436336128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481266688"/>
+        <c:axId val="436336128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481265152"/>
+        <c:crossAx val="436334592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5852,7 +6032,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5939,6 +6119,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5948,7 +6134,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6035,6 +6221,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6417315.4470470361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6901016.868031756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7294887.1369510712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6269,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6164,6 +6356,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,7 +6371,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6260,6 +6458,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5710568.3160903649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6090911.3365144944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6428643.7831311915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6302,7 +6506,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6389,6 +6593,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6398,7 +6608,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6485,6 +6695,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-706747.1309566712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-810105.53151726164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-866243.3538198797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,11 +6722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481282304"/>
-        <c:axId val="481284096"/>
+        <c:axId val="439476992"/>
+        <c:axId val="439478528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481282304"/>
+        <c:axId val="439476992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,14 +6769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481284096"/>
+        <c:crossAx val="439478528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481284096"/>
+        <c:axId val="439478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,7 +6827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481282304"/>
+        <c:crossAx val="439476992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6772,7 +6988,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6859,6 +7075,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8613225.3738689572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9356238.2832061369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9966889.8809837662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,8 +7095,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484129408"/>
-        <c:axId val="484127872"/>
+        <c:axId val="439571584"/>
+        <c:axId val="439569792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6899,7 +7121,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6986,6 +7208,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +7223,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7082,6 +7310,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,11 +7332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484120448"/>
-        <c:axId val="484121984"/>
+        <c:axId val="439566720"/>
+        <c:axId val="439568256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484120448"/>
+        <c:axId val="439566720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7145,14 +7379,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484121984"/>
+        <c:crossAx val="439568256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484121984"/>
+        <c:axId val="439568256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,12 +7437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484120448"/>
+        <c:crossAx val="439566720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484127872"/>
+        <c:axId val="439569792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,12 +7479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484129408"/>
+        <c:crossAx val="439571584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484129408"/>
+        <c:axId val="439571584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484127872"/>
+        <c:crossAx val="439569792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7409,7 +7643,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7496,6 +7730,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7505,7 +7745,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7592,6 +7832,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2497671.7539724186</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2901257.1948846909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3435479.6473765653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7634,7 +7880,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7721,6 +7967,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,7 +7982,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7817,6 +8069,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2276234.1510944632</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2638620.9042166574</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3148524.1008105045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7859,7 +8117,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7946,6 +8204,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8219,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8042,6 +8306,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-221437.60287795542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-262636.29066803353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-286955.54656606074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8063,11 +8333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484509184"/>
-        <c:axId val="484510720"/>
+        <c:axId val="439595008"/>
+        <c:axId val="439596544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484509184"/>
+        <c:axId val="439595008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8110,14 +8380,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484510720"/>
+        <c:crossAx val="439596544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484510720"/>
+        <c:axId val="439596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8168,7 +8438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484509184"/>
+        <c:crossAx val="439595008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8882,7 +9152,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10233,6 +10503,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="15">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="15">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="15">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="15">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="15">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="15">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="15">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="15">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10249,7 +10595,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12217,6 +12563,136 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="32" spans="1:21" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>47882.614125249813</v>
+      </c>
+      <c r="F32" s="15">
+        <v>73552.400064161251</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1131060.179528842</v>
+      </c>
+      <c r="H32" s="15">
+        <v>736320.2027611892</v>
+      </c>
+      <c r="I32" s="15">
+        <v>849998.9363051235</v>
+      </c>
+      <c r="J32" s="15">
+        <v>736320.2027611892</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-113678.7335439343</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.72697618699073774</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>-6.6976180632908999E-2</v>
+      </c>
+      <c r="R32" s="23">
+        <v>2.8551020190829352E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <v>4.2826530286244025E-4</v>
+      </c>
+      <c r="T32" s="9">
+        <v>-156.38946275884015</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>47332.167598928594</v>
+      </c>
+      <c r="F33" s="15">
+        <v>73383.207749770852</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1204443.3872786129</v>
+      </c>
+      <c r="H33" s="15">
+        <v>776865.96182177088</v>
+      </c>
+      <c r="I33" s="15">
+        <v>897331.10390405206</v>
+      </c>
+      <c r="J33" s="15">
+        <v>776865.96182177088</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-120465.14208228118</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.63599999745686853</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.72223809314909437</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>-8.6238095692225847E-2</v>
+      </c>
+      <c r="R33" s="23">
+        <v>3.4170063855696688E-2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>5.1255095783545035E-4</v>
+      </c>
+      <c r="T33" s="9">
+        <v>-168.25272565369349</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12233,7 +12709,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13747,6 +14223,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>47882.614125249813</v>
+      </c>
+      <c r="F32" s="15">
+        <v>73552.400064161251</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1141656.9658283326</v>
+      </c>
+      <c r="H32" s="15">
+        <v>743218.71088469878</v>
+      </c>
+      <c r="I32" s="15">
+        <v>861151.83430396323</v>
+      </c>
+      <c r="J32" s="15">
+        <v>743218.71088469878</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-117933.12341926445</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="15">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1202809.6389531416</v>
+      </c>
+      <c r="H33" s="15">
+        <v>775812.19418300316</v>
+      </c>
+      <c r="I33" s="15">
+        <v>900595.30730307044</v>
+      </c>
+      <c r="J33" s="15">
+        <v>775812.19418300316</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-124783.11312006728</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13763,7 +14327,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15277,6 +15841,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9356238.2832061369</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6901016.868031756</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-810105.53151726164</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9966889.8809837662</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7294887.1369510712</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-866243.3538198797</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15293,7 +15945,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16989,6 +17641,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="14">
+        <v>403585.44091227214</v>
+      </c>
+      <c r="H32" s="15">
+        <v>619946.89204733307</v>
+      </c>
+      <c r="I32" s="15">
+        <v>4053180.9699642202</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2638620.9042166574</v>
+      </c>
+      <c r="K32" s="15">
+        <v>2901257.1948846909</v>
+      </c>
+      <c r="L32" s="15">
+        <v>2638620.9042166574</v>
+      </c>
+      <c r="M32" s="15">
+        <v>-262636.29066803353</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="14">
+        <v>534222.45249187434</v>
+      </c>
+      <c r="H33" s="15">
+        <v>828251.88882096962</v>
+      </c>
+      <c r="I33" s="15">
+        <v>4881432.8587851897</v>
+      </c>
+      <c r="J33" s="15">
+        <v>3148524.1008105045</v>
+      </c>
+      <c r="K33" s="15">
+        <v>3435479.6473765653</v>
+      </c>
+      <c r="L33" s="15">
+        <v>3148524.1008105045</v>
+      </c>
+      <c r="M33" s="15">
+        <v>-286955.54656606074</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -655,6 +655,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,7 +667,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -757,6 +760,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +805,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -892,6 +898,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +910,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -994,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1048,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1129,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,7 +1153,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1231,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492739584"/>
-        <c:axId val="493712128"/>
+        <c:axId val="442438784"/>
+        <c:axId val="442440704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492739584"/>
+        <c:axId val="442438784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,14 +1317,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493712128"/>
+        <c:crossAx val="442440704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493712128"/>
+        <c:axId val="442440704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492739584"/>
+        <c:crossAx val="442438784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,7 +1536,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1611,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>534222.45249187434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1739102.5544275802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,8 +1646,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441721216"/>
-        <c:axId val="441719424"/>
+        <c:axId val="392215552"/>
+        <c:axId val="392214016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1651,7 +1672,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1744,6 +1765,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1777,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1846,6 +1870,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,11 +1889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439614848"/>
-        <c:axId val="441717888"/>
+        <c:axId val="392210688"/>
+        <c:axId val="392212480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439614848"/>
+        <c:axId val="392210688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,14 +1936,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441717888"/>
+        <c:crossAx val="392212480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441717888"/>
+        <c:axId val="392212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,12 +1994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439614848"/>
+        <c:crossAx val="392210688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441719424"/>
+        <c:axId val="392214016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,12 +2036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441721216"/>
+        <c:crossAx val="392215552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441721216"/>
+        <c:axId val="392215552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,7 +2050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441719424"/>
+        <c:crossAx val="392214016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2182,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2248,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,8 +2292,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516183936"/>
-        <c:axId val="516182016"/>
+        <c:axId val="454866432"/>
+        <c:axId val="454864896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2288,7 +2318,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2381,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2423,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2483,6 +2516,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,11 +2535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516173824"/>
-        <c:axId val="516175360"/>
+        <c:axId val="447949056"/>
+        <c:axId val="454810240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516173824"/>
+        <c:axId val="447949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,14 +2582,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516175360"/>
+        <c:crossAx val="454810240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516175360"/>
+        <c:axId val="454810240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,12 +2640,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516173824"/>
+        <c:crossAx val="447949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516182016"/>
+        <c:axId val="454864896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,12 +2682,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516183936"/>
+        <c:crossAx val="454866432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516183936"/>
+        <c:axId val="454866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516182016"/>
+        <c:crossAx val="454864896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2810,7 +2846,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2903,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,7 +2951,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3005,6 +3044,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>897331.10390405206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>954005.50289780961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,7 +3089,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3140,6 +3182,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3194,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3242,6 +3287,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>776865.96182177088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>732367.12662194541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3332,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3425,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3437,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3479,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-120465.14208228118</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-221638.3762758642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560542080"/>
-        <c:axId val="560544000"/>
+        <c:axId val="370339840"/>
+        <c:axId val="370341376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560542080"/>
+        <c:axId val="370339840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,14 +3601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560544000"/>
+        <c:crossAx val="370341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560544000"/>
+        <c:axId val="370341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560542080"/>
+        <c:crossAx val="370339840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,7 +3820,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3859,6 +3913,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>47332.167598928594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56674.398993757561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,8 +3930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436286976"/>
-        <c:axId val="436285440"/>
+        <c:axId val="371220864"/>
+        <c:axId val="371219072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3899,7 +3956,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3992,6 +4049,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,7 +4061,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4094,6 +4154,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,11 +4173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436282112"/>
-        <c:axId val="436283648"/>
+        <c:axId val="371215744"/>
+        <c:axId val="371217536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436282112"/>
+        <c:axId val="371215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,14 +4220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436283648"/>
+        <c:crossAx val="371217536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436283648"/>
+        <c:axId val="371217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,12 +4278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436282112"/>
+        <c:crossAx val="371215744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436285440"/>
+        <c:axId val="371219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,12 +4320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436286976"/>
+        <c:crossAx val="371220864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436286976"/>
+        <c:axId val="371220864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436285440"/>
+        <c:crossAx val="371219072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4421,7 +4484,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4514,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,7 +4589,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4616,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>900595.30730307044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>957269.70629682799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,7 +4727,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4751,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4760,7 +4832,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4853,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>775812.19418300316</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>731450.59382849478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4895,7 +4970,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4988,6 +5063,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,7 +5075,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5090,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-124783.11312006728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-225819.11246833322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5111,11 +5192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436318976"/>
-        <c:axId val="436320512"/>
+        <c:axId val="371248512"/>
+        <c:axId val="371250304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436318976"/>
+        <c:axId val="371248512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,14 +5239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436320512"/>
+        <c:crossAx val="371250304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436320512"/>
+        <c:axId val="371250304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,7 +5297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436318976"/>
+        <c:crossAx val="371248512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5377,7 +5458,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5470,6 +5551,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56674.398993757561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5484,8 +5568,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436336128"/>
-        <c:axId val="436334592"/>
+        <c:axId val="391651712"/>
+        <c:axId val="391645824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5510,7 +5594,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5603,6 +5687,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,7 +5699,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5705,6 +5792,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,11 +5811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436331264"/>
-        <c:axId val="436332800"/>
+        <c:axId val="371260800"/>
+        <c:axId val="391644288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436331264"/>
+        <c:axId val="371260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,14 +5858,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436332800"/>
+        <c:crossAx val="391644288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436332800"/>
+        <c:axId val="391644288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,12 +5916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436331264"/>
+        <c:crossAx val="371260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436334592"/>
+        <c:axId val="391645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5868,12 +5958,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436336128"/>
+        <c:crossAx val="391651712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436336128"/>
+        <c:axId val="391651712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +5972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436334592"/>
+        <c:crossAx val="391645824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6032,7 +6122,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6125,6 +6215,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,7 +6227,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6227,6 +6320,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7294887.1369510712</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7972521.6308969846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6269,7 +6365,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6362,6 +6458,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,7 +6470,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6464,6 +6563,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6428643.7831311915</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6269059.6126209693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,7 +6608,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6599,6 +6701,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6713,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6701,6 +6806,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-866243.3538198797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1703462.0182760153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,11 +6830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439476992"/>
-        <c:axId val="439478528"/>
+        <c:axId val="391859584"/>
+        <c:axId val="391861376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439476992"/>
+        <c:axId val="391859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6769,14 +6877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439478528"/>
+        <c:crossAx val="391861376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439478528"/>
+        <c:axId val="391861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +6935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439476992"/>
+        <c:crossAx val="391859584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6988,7 +7096,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7081,6 +7189,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>9966889.8809837662</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11174794.52736048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7095,8 +7206,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439571584"/>
-        <c:axId val="439569792"/>
+        <c:axId val="391884800"/>
+        <c:axId val="391883008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7121,7 +7232,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7214,6 +7325,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7223,7 +7337,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7316,6 +7430,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7332,11 +7449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439566720"/>
-        <c:axId val="439568256"/>
+        <c:axId val="391879680"/>
+        <c:axId val="391881472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439566720"/>
+        <c:axId val="391879680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7379,14 +7496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439568256"/>
+        <c:crossAx val="391881472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439568256"/>
+        <c:axId val="391881472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7437,12 +7554,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439566720"/>
+        <c:crossAx val="391879680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439569792"/>
+        <c:axId val="391883008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7479,12 +7596,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439571584"/>
+        <c:crossAx val="391884800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439571584"/>
+        <c:axId val="391884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,7 +7610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439569792"/>
+        <c:crossAx val="391883008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7643,7 +7760,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7736,6 +7853,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7745,7 +7865,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7838,6 +7958,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3435479.6473765653</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5174582.2018041452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,7 +8003,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7973,6 +8096,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7982,7 +8108,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8075,6 +8201,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3148524.1008105045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4477586.3369978033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,7 +8246,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8210,6 +8339,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8219,7 +8351,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8312,6 +8444,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-286955.54656606074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-696995.86480634194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8333,11 +8468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439595008"/>
-        <c:axId val="439596544"/>
+        <c:axId val="392170112"/>
+        <c:axId val="392171904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439595008"/>
+        <c:axId val="392170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8380,14 +8515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439596544"/>
+        <c:crossAx val="392171904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439596544"/>
+        <c:axId val="392171904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8438,7 +8573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439595008"/>
+        <c:crossAx val="392170112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9152,7 +9287,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10579,6 +10714,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="15">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="15">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="15">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="15">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10595,7 +10768,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12693,6 +12866,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="34" spans="1:21" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>56674.398993757561</v>
+      </c>
+      <c r="F34" s="15">
+        <v>101023.88601344082</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1305467.2732920537</v>
+      </c>
+      <c r="H34" s="15">
+        <v>732367.12662194541</v>
+      </c>
+      <c r="I34" s="15">
+        <v>954005.50289780961</v>
+      </c>
+      <c r="J34" s="15">
+        <v>732367.12662194541</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-221638.3762758642</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.58833332856496179</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0.71309523450760626</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>-0.12476190594264447</v>
+      </c>
+      <c r="R34" s="23">
+        <v>4.5925167823324356E-2</v>
+      </c>
+      <c r="S34" s="9">
+        <v>6.8887751734986527E-4</v>
+      </c>
+      <c r="T34" s="9">
+        <v>-181.10898207653469</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12709,7 +12947,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14311,6 +14549,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>56674.398993757561</v>
+      </c>
+      <c r="F34" s="15">
+        <v>101023.88601344082</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1303833.5249665824</v>
+      </c>
+      <c r="H34" s="15">
+        <v>731450.59382849478</v>
+      </c>
+      <c r="I34" s="15">
+        <v>957269.70629682799</v>
+      </c>
+      <c r="J34" s="15">
+        <v>731450.59382849478</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-225819.11246833322</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14327,7 +14609,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15929,6 +16211,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11174794.52736048</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7972521.6308969846</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1703462.0182760153</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15945,7 +16271,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17741,6 +18067,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1739102.5544275802</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3100004.6113153705</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7981437.4701005602</v>
+      </c>
+      <c r="J34" s="15">
+        <v>4477586.3369978033</v>
+      </c>
+      <c r="K34" s="15">
+        <v>5174582.2018041452</v>
+      </c>
+      <c r="L34" s="15">
+        <v>4477586.3369978033</v>
+      </c>
+      <c r="M34" s="15">
+        <v>-696995.86480634194</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +565,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -658,6 +661,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +673,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -763,6 +769,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,7 +814,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -901,6 +910,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +922,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1006,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1063,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1144,6 +1159,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,7 +1171,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1249,6 +1267,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,11 +1291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442438784"/>
-        <c:axId val="442440704"/>
+        <c:axId val="92250496"/>
+        <c:axId val="92252416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442438784"/>
+        <c:axId val="92250496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,14 +1338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442440704"/>
+        <c:crossAx val="92252416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442440704"/>
+        <c:axId val="92252416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442438784"/>
+        <c:crossAx val="92250496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1557,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1632,6 +1653,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1739102.5544275802</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1082902.248820764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,8 +1670,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="392215552"/>
-        <c:axId val="392214016"/>
+        <c:axId val="445186816"/>
+        <c:axId val="443608064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1672,8 +1696,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1768,6 +1792,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1804,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1873,6 +1900,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,17 +1919,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392210688"/>
-        <c:axId val="392212480"/>
+        <c:axId val="443604992"/>
+        <c:axId val="443606528"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="392210688"/>
+      <c:catAx>
+        <c:axId val="443604992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1936,14 +1966,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392212480"/>
+        <c:crossAx val="443606528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="392212480"/>
+        <c:axId val="443606528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,12 +2025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392210688"/>
+        <c:crossAx val="443604992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392214016"/>
+        <c:axId val="443608064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392215552"/>
+        <c:crossAx val="445186816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="392215552"/>
+        <c:axId val="445186816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392214016"/>
+        <c:crossAx val="443608064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2213,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2278,6 +2309,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,8 +2326,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="454866432"/>
-        <c:axId val="454864896"/>
+        <c:axId val="442549760"/>
+        <c:axId val="442548224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2318,7 +2352,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2414,6 +2448,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2460,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2519,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,11 +2575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447949056"/>
-        <c:axId val="454810240"/>
+        <c:axId val="405486208"/>
+        <c:axId val="417691904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447949056"/>
+        <c:axId val="405486208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,14 +2622,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454810240"/>
+        <c:crossAx val="417691904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454810240"/>
+        <c:axId val="417691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,12 +2680,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447949056"/>
+        <c:crossAx val="405486208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454864896"/>
+        <c:axId val="442548224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,12 +2722,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866432"/>
+        <c:crossAx val="442549760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="454866432"/>
+        <c:axId val="442549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="454864896"/>
+        <c:crossAx val="442548224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +2886,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2942,6 +2982,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,7 +2994,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3047,6 +3090,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>954005.50289780961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>999634.90089132695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,7 +3135,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3185,6 +3231,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3243,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3290,6 +3339,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>732367.12662194541</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>878517.53329373489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,7 +3384,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3428,6 +3480,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3492,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3533,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-221638.3762758642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-121117.36759759206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,11 +3612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370339840"/>
-        <c:axId val="370341376"/>
+        <c:axId val="463481856"/>
+        <c:axId val="489698048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370339840"/>
+        <c:axId val="463481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,14 +3659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370341376"/>
+        <c:crossAx val="489698048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370341376"/>
+        <c:axId val="489698048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370339840"/>
+        <c:crossAx val="463481856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3820,7 +3878,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3916,6 +3974,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56674.398993757561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45629.397993517334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3930,8 +3991,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371220864"/>
-        <c:axId val="371219072"/>
+        <c:axId val="371877760"/>
+        <c:axId val="371876224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3956,7 +4017,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4052,6 +4113,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4125,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4157,6 +4221,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,11 +4240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371215744"/>
-        <c:axId val="371217536"/>
+        <c:axId val="371872896"/>
+        <c:axId val="371874432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371215744"/>
+        <c:axId val="371872896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,14 +4287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371217536"/>
+        <c:crossAx val="371874432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371217536"/>
+        <c:axId val="371874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,12 +4345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371215744"/>
+        <c:crossAx val="371872896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371219072"/>
+        <c:axId val="371876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,12 +4387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371220864"/>
+        <c:crossAx val="371877760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371220864"/>
+        <c:axId val="371877760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371219072"/>
+        <c:crossAx val="371876224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4484,7 +4551,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4580,6 +4647,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4659,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4685,6 +4755,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>957269.70629682799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>995294.20462475915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,7 +4800,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4823,6 +4896,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +4908,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4928,6 +5004,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>731450.59382849478</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>869870.30217780126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,7 +5049,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5066,6 +5145,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5157,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5171,6 +5253,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-225819.11246833322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-125423.90244695789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,11 +5277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371248512"/>
-        <c:axId val="371250304"/>
+        <c:axId val="442573952"/>
+        <c:axId val="442575488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371248512"/>
+        <c:axId val="442573952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5239,14 +5324,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371250304"/>
+        <c:crossAx val="442575488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371250304"/>
+        <c:axId val="442575488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,7 +5382,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371248512"/>
+        <c:crossAx val="442573952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5458,7 +5543,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5554,6 +5639,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56674.398993757561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,8 +5656,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391651712"/>
-        <c:axId val="391645824"/>
+        <c:axId val="442607488"/>
+        <c:axId val="442605952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5594,7 +5682,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5690,6 +5778,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,7 +5790,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5795,6 +5886,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,11 +5905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371260800"/>
-        <c:axId val="391644288"/>
+        <c:axId val="442602624"/>
+        <c:axId val="442604160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371260800"/>
+        <c:axId val="442602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,14 +5952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391644288"/>
+        <c:crossAx val="442604160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391644288"/>
+        <c:axId val="442604160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,12 +6010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371260800"/>
+        <c:crossAx val="442602624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391645824"/>
+        <c:axId val="442605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,12 +6052,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391651712"/>
+        <c:crossAx val="442607488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391651712"/>
+        <c:axId val="442607488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +6066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391645824"/>
+        <c:crossAx val="442605952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6122,7 +6216,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6218,6 +6312,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +6324,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6323,6 +6420,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7972521.6308969846</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8338562.763325044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6365,7 +6465,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6461,6 +6561,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6573,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6566,6 +6669,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6269059.6126209693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7495560.1687694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6714,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6704,6 +6810,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6713,7 +6822,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6809,6 +6918,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1703462.0182760153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-843002.59455562383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,11 +6942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391859584"/>
-        <c:axId val="391861376"/>
+        <c:axId val="442639488"/>
+        <c:axId val="442641024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391859584"/>
+        <c:axId val="442639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6877,14 +6989,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391861376"/>
+        <c:crossAx val="442641024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391861376"/>
+        <c:axId val="442641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +7047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391859584"/>
+        <c:crossAx val="442639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7096,7 +7208,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7192,6 +7304,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11174794.52736048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11748526.69955831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7206,8 +7321,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391884800"/>
-        <c:axId val="391883008"/>
+        <c:axId val="442672256"/>
+        <c:axId val="442666368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7232,7 +7347,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7328,6 +7443,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7337,7 +7455,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7433,6 +7551,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7449,11 +7570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391879680"/>
-        <c:axId val="391881472"/>
+        <c:axId val="442663296"/>
+        <c:axId val="442664832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391879680"/>
+        <c:axId val="442663296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7496,14 +7617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391881472"/>
+        <c:crossAx val="442664832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391881472"/>
+        <c:axId val="442664832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7554,12 +7675,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391879680"/>
+        <c:crossAx val="442663296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391883008"/>
+        <c:axId val="442666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7596,12 +7717,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391884800"/>
+        <c:crossAx val="442672256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391884800"/>
+        <c:axId val="442672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7610,7 +7731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391883008"/>
+        <c:crossAx val="442666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7760,8 +7881,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -7856,6 +7977,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7865,7 +7989,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7961,6 +8085,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5174582.2018041452</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6257484.4506249093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8003,8 +8130,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8099,6 +8226,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,7 +8238,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8204,6 +8334,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4477586.3369978033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6175059.4460852249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8246,8 +8379,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8342,6 +8475,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8351,7 +8487,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8447,6 +8583,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-696995.86480634194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-82425.004539684393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8468,17 +8607,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392170112"/>
-        <c:axId val="392171904"/>
+        <c:axId val="443519360"/>
+        <c:axId val="443520896"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="392170112"/>
+      <c:catAx>
+        <c:axId val="443519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -8515,14 +8654,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392171904"/>
+        <c:crossAx val="443520896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="392171904"/>
+        <c:axId val="443520896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8573,7 +8713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392170112"/>
+        <c:crossAx val="443519360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9287,7 +9427,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10752,6 +10892,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="15">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="15">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="15">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="15">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10768,7 +10946,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12931,6 +13109,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:21" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>45629.397993517334</v>
+      </c>
+      <c r="F35" s="15">
+        <v>71519.431308843879</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1376986.7046008976</v>
+      </c>
+      <c r="H35" s="15">
+        <v>878517.53329373489</v>
+      </c>
+      <c r="I35" s="15">
+        <v>999634.90089132695</v>
+      </c>
+      <c r="J35" s="15">
+        <v>878517.53329373489</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-121117.36759759206</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="N35" s="23">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.60466667016347253</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0.70433333043825086</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>-9.9666660274778329E-2</v>
+      </c>
+      <c r="R35" s="23">
+        <v>5.3904759241610103E-2</v>
+      </c>
+      <c r="S35" s="9">
+        <v>8.0857138862415153E-4</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-123.2626601398413</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12947,7 +13190,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14593,6 +14836,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="15">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1363433.0510572856</v>
+      </c>
+      <c r="H35" s="15">
+        <v>869870.30217780126</v>
+      </c>
+      <c r="I35" s="15">
+        <v>995294.20462475915</v>
+      </c>
+      <c r="J35" s="15">
+        <v>869870.30217780126</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-125423.90244695789</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14609,7 +14896,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16255,6 +16542,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11748526.69955831</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8338562.763325044</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-843002.59455562383</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16271,7 +16602,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16383,7 +16714,7 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="31">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -18115,6 +18446,56 @@
       </c>
       <c r="P34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1082902.248820764</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1697338.9175489994</v>
+      </c>
+      <c r="I35" s="15">
+        <v>9678776.3876495603</v>
+      </c>
+      <c r="J35" s="15">
+        <v>6175059.4460852249</v>
+      </c>
+      <c r="K35" s="15">
+        <v>6257484.4506249093</v>
+      </c>
+      <c r="L35" s="15">
+        <v>6175059.4460852249</v>
+      </c>
+      <c r="M35" s="15">
+        <v>-82425.004539684393</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -565,7 +565,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -664,6 +664,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,7 +676,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -772,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,7 +820,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -913,6 +919,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,7 +931,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1021,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1075,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1162,6 +1174,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1186,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,6 +1285,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,11 +1309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92250496"/>
-        <c:axId val="92252416"/>
+        <c:axId val="524006144"/>
+        <c:axId val="524008064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92250496"/>
+        <c:axId val="524006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +1356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92252416"/>
+        <c:crossAx val="524008064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92252416"/>
+        <c:axId val="524008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92250496"/>
+        <c:crossAx val="524006144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1557,7 +1575,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1656,6 +1674,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1082902.248820764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>643024.82427448209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,8 +1691,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445186816"/>
-        <c:axId val="443608064"/>
+        <c:axId val="426685184"/>
+        <c:axId val="426679296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1696,7 +1717,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1795,6 +1816,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,7 +1828,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1903,6 +1927,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,11 +1946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443604992"/>
-        <c:axId val="443606528"/>
+        <c:axId val="426676224"/>
+        <c:axId val="426677760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443604992"/>
+        <c:axId val="426676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443606528"/>
+        <c:crossAx val="426677760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1974,7 +2001,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443606528"/>
+        <c:axId val="426677760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2052,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443604992"/>
+        <c:crossAx val="426676224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443608064"/>
+        <c:axId val="426679296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,12 +2094,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445186816"/>
+        <c:crossAx val="426685184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="445186816"/>
+        <c:axId val="426685184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443608064"/>
+        <c:crossAx val="426679296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2213,7 +2240,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2312,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,8 +2356,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442549760"/>
-        <c:axId val="442548224"/>
+        <c:axId val="581445120"/>
+        <c:axId val="581443584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2352,7 +2382,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2451,6 +2481,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,7 +2493,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2559,6 +2592,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,11 +2611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405486208"/>
-        <c:axId val="417691904"/>
+        <c:axId val="567378304"/>
+        <c:axId val="567379840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405486208"/>
+        <c:axId val="567378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,14 +2658,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417691904"/>
+        <c:crossAx val="567379840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="417691904"/>
+        <c:axId val="567379840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,12 +2716,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405486208"/>
+        <c:crossAx val="567378304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442548224"/>
+        <c:axId val="581443584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,12 +2758,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442549760"/>
+        <c:crossAx val="581445120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442549760"/>
+        <c:axId val="581445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442548224"/>
+        <c:crossAx val="581443584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2886,7 +2922,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2985,6 +3021,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,7 +3033,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3093,6 +3132,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>999634.90089132695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1035894.3987891263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3135,7 +3177,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3234,6 +3276,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,7 +3288,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3342,6 +3387,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>878517.53329373489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>925792.94715268794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,7 +3432,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3483,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,7 +3543,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3591,6 +3642,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-121117.36759759206</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-110101.45163643837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,11 +3666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463481856"/>
-        <c:axId val="489698048"/>
+        <c:axId val="617568896"/>
+        <c:axId val="617582976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463481856"/>
+        <c:axId val="617568896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,14 +3713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489698048"/>
+        <c:crossAx val="617582976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489698048"/>
+        <c:axId val="617582976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463481856"/>
+        <c:crossAx val="617568896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3878,7 +3932,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3977,6 +4031,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45629.397993517334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,8 +4048,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371877760"/>
-        <c:axId val="371876224"/>
+        <c:axId val="617624320"/>
+        <c:axId val="617617280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4017,7 +4074,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4116,6 +4173,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,7 +4185,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4224,6 +4284,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4240,11 +4303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371872896"/>
-        <c:axId val="371874432"/>
+        <c:axId val="617612416"/>
+        <c:axId val="617615360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371872896"/>
+        <c:axId val="617612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,14 +4350,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371874432"/>
+        <c:crossAx val="617615360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371874432"/>
+        <c:axId val="617615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,12 +4408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371872896"/>
+        <c:crossAx val="617612416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371876224"/>
+        <c:axId val="617617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4387,12 +4450,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371877760"/>
+        <c:crossAx val="617624320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371877760"/>
+        <c:axId val="617624320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371876224"/>
+        <c:crossAx val="617617280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4551,7 +4614,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4650,6 +4713,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,7 +4725,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4758,6 +4824,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>995294.20462475915</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1031553.7025225585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4800,7 +4869,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4899,6 +4968,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,7 +4980,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5007,6 +5079,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>869870.30217780126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>917037.28658866719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,7 +5124,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5148,6 +5223,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5157,7 +5235,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5256,6 +5334,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-125423.90244695789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-114516.41593389132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5277,11 +5358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442573952"/>
-        <c:axId val="442575488"/>
+        <c:axId val="617690240"/>
+        <c:axId val="617692544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442573952"/>
+        <c:axId val="617690240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5324,14 +5405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442575488"/>
+        <c:crossAx val="617692544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442575488"/>
+        <c:axId val="617692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,7 +5463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442573952"/>
+        <c:crossAx val="617690240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5543,7 +5624,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5642,6 +5723,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5656,8 +5740,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442607488"/>
-        <c:axId val="442605952"/>
+        <c:axId val="617971712"/>
+        <c:axId val="617933056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5682,7 +5766,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5781,6 +5865,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5790,7 +5877,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5889,6 +5976,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,11 +5995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442602624"/>
-        <c:axId val="442604160"/>
+        <c:axId val="617925248"/>
+        <c:axId val="617931136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442602624"/>
+        <c:axId val="617925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,14 +6042,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442604160"/>
+        <c:crossAx val="617931136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442604160"/>
+        <c:axId val="617931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,12 +6100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442602624"/>
+        <c:crossAx val="617925248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442605952"/>
+        <c:axId val="617933056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6052,12 +6142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442607488"/>
+        <c:crossAx val="617971712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442607488"/>
+        <c:axId val="617971712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442605952"/>
+        <c:crossAx val="617933056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6216,7 +6306,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6315,6 +6405,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,7 +6417,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6423,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8338562.763325044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8671411.165299857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6465,7 +6561,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6564,6 +6660,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6573,7 +6672,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6672,6 +6771,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7495560.1687694201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7922396.9748132583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6714,7 +6816,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6813,6 +6915,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6822,7 +6927,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6921,6 +7026,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-843002.59455562383</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-749014.19048659876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6942,11 +7050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442639488"/>
-        <c:axId val="442641024"/>
+        <c:axId val="618146816"/>
+        <c:axId val="618156800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442639488"/>
+        <c:axId val="618146816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6989,14 +7097,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442641024"/>
+        <c:crossAx val="618156800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442641024"/>
+        <c:axId val="618156800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7047,7 +7155,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442639488"/>
+        <c:crossAx val="618146816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7208,7 +7316,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7307,6 +7415,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>11748526.69955831</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12263771.881795008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7321,8 +7432,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442672256"/>
-        <c:axId val="442666368"/>
+        <c:axId val="631296384"/>
+        <c:axId val="631092736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7347,7 +7458,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7446,6 +7557,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7455,7 +7569,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7554,6 +7668,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7570,11 +7687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442663296"/>
-        <c:axId val="442664832"/>
+        <c:axId val="631084160"/>
+        <c:axId val="631086080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442663296"/>
+        <c:axId val="631084160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7617,14 +7734,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442664832"/>
+        <c:crossAx val="631086080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442664832"/>
+        <c:axId val="631086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,12 +7792,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442663296"/>
+        <c:crossAx val="631084160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442666368"/>
+        <c:axId val="631092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7717,12 +7834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442672256"/>
+        <c:crossAx val="631296384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442672256"/>
+        <c:axId val="631296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7731,7 +7848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442666368"/>
+        <c:crossAx val="631092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7881,7 +7998,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7980,6 +8097,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7989,7 +8109,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8088,6 +8208,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6257484.4506249093</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6900509.2748993915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8130,7 +8253,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8229,6 +8352,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8238,7 +8364,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8337,6 +8463,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6175059.4460852249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6895514.6383777121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8379,7 +8508,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8478,6 +8607,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8487,7 +8619,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8586,6 +8718,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-82425.004539684393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4994.6365216793492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8607,11 +8742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443519360"/>
-        <c:axId val="443520896"/>
+        <c:axId val="426656128"/>
+        <c:axId val="426657664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443519360"/>
+        <c:axId val="426656128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8654,7 +8789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443520896"/>
+        <c:crossAx val="426657664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8662,7 +8797,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443520896"/>
+        <c:axId val="426657664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,7 +8848,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443519360"/>
+        <c:crossAx val="426656128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9427,7 +9562,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10930,6 +11065,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="15">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="15">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="15">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10946,7 +11119,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13174,6 +13347,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:21" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1433115.9559096554</v>
+      </c>
+      <c r="H36" s="15">
+        <v>925792.94715268794</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1035894.3987891263</v>
+      </c>
+      <c r="J36" s="15">
+        <v>925792.94715268794</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-110101.45163643837</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0.69566666607629701</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>-4.566665018172511E-2</v>
+      </c>
+      <c r="R36" s="23">
+        <v>5.2999996957324789E-2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>7.9499995435987185E-4</v>
+      </c>
+      <c r="T36" s="9">
+        <v>-57.442330570315015</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13190,7 +13428,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14880,6 +15118,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1419562.3023660434</v>
+      </c>
+      <c r="H36" s="15">
+        <v>917037.28658866719</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1031553.7025225585</v>
+      </c>
+      <c r="J36" s="15">
+        <v>917037.28658866719</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-114516.41593389132</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14896,7 +15178,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16586,6 +16868,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12263771.881795008</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8671411.165299857</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-749014.19048659876</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16602,7 +16928,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18498,6 +18824,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="14">
+        <v>643024.82427448209</v>
+      </c>
+      <c r="H36" s="15">
+        <v>995394.42220634886</v>
+      </c>
+      <c r="I36" s="15">
+        <v>10674170.80985591</v>
+      </c>
+      <c r="J36" s="15">
+        <v>6895514.6383777121</v>
+      </c>
+      <c r="K36" s="15">
+        <v>6900509.2748993915</v>
+      </c>
+      <c r="L36" s="15">
+        <v>6895514.6383777121</v>
+      </c>
+      <c r="M36" s="15">
+        <v>-4994.6365216793492</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,9 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -667,6 +664,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +676,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -778,6 +778,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>972150.5019069548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005663.5411852957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +823,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -922,6 +925,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +937,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1033,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>862228.92259935837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>919766.84470354044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1084,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1177,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,7 +1198,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1288,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-109921.57930759643</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85896.696481755236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524006144"/>
-        <c:axId val="524008064"/>
+        <c:axId val="162409472"/>
+        <c:axId val="407597824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524006144"/>
+        <c:axId val="162409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,14 +1371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524008064"/>
+        <c:crossAx val="407597824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524008064"/>
+        <c:axId val="407597824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524006144"/>
+        <c:crossAx val="162409472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,7 +1590,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1676,7 +1691,10 @@
                   <c:v>1082902.248820764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>643024.82427448209</c:v>
+                  <c:v>637440.66862040793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>327892.26090209873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,8 +1709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="426685184"/>
-        <c:axId val="426679296"/>
+        <c:axId val="485014912"/>
+        <c:axId val="485013376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1717,8 +1735,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1819,6 +1837,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,7 +1849,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1930,6 +1951,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,17 +1970,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426676224"/>
-        <c:axId val="426677760"/>
+        <c:axId val="485010048"/>
+        <c:axId val="485011840"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="426676224"/>
+      <c:dateAx>
+        <c:axId val="485010048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1993,15 +2017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426677760"/>
+        <c:crossAx val="485011840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="426677760"/>
+        <c:axId val="485011840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,12 +2075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426676224"/>
+        <c:crossAx val="485010048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426679296"/>
+        <c:axId val="485013376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426685184"/>
+        <c:crossAx val="485014912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="426685184"/>
+        <c:axId val="485014912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426679296"/>
+        <c:crossAx val="485013376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2263,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2342,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,8 +2382,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="581445120"/>
-        <c:axId val="581443584"/>
+        <c:axId val="458362880"/>
+        <c:axId val="458234112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2382,7 +2408,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2484,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,7 +2522,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2595,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567378304"/>
-        <c:axId val="567379840"/>
+        <c:axId val="446073472"/>
+        <c:axId val="458232192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567378304"/>
+        <c:axId val="446073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,14 +2690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567379840"/>
+        <c:crossAx val="458232192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567379840"/>
+        <c:axId val="458232192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,12 +2748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567378304"/>
+        <c:crossAx val="446073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581443584"/>
+        <c:axId val="458234112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,12 +2790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581445120"/>
+        <c:crossAx val="458362880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="581445120"/>
+        <c:axId val="458362880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581443584"/>
+        <c:crossAx val="458234112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2922,7 +2954,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3024,6 +3056,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3068,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3135,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1035894.3987891263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1069407.4380674672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,7 +3215,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3279,6 +3317,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3288,7 +3329,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3390,6 +3431,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>925792.94715268794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>985101.99778411631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3476,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3534,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3590,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3645,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-110101.45163643837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-84305.440283350879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3666,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617568896"/>
-        <c:axId val="617582976"/>
+        <c:axId val="485282176"/>
+        <c:axId val="485284096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617568896"/>
+        <c:axId val="485282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,14 +3763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617582976"/>
+        <c:crossAx val="485284096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617582976"/>
+        <c:axId val="485284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617568896"/>
+        <c:crossAx val="485282176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3932,7 +3982,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4034,6 +4084,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,8 +4101,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617624320"/>
-        <c:axId val="617617280"/>
+        <c:axId val="502966912"/>
+        <c:axId val="502965376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4074,7 +4127,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4176,6 +4229,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,7 +4241,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4287,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617612416"/>
-        <c:axId val="617615360"/>
+        <c:axId val="492234624"/>
+        <c:axId val="492236160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617612416"/>
+        <c:axId val="492234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617615360"/>
+        <c:crossAx val="492236160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617615360"/>
+        <c:axId val="492236160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617612416"/>
+        <c:crossAx val="492234624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617617280"/>
+        <c:axId val="502965376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617624320"/>
+        <c:crossAx val="502966912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617624320"/>
+        <c:axId val="502966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617617280"/>
+        <c:crossAx val="502965376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4614,7 +4673,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4716,6 +4775,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,7 +4787,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4827,6 +4889,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1031553.7025225585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1065066.7418008994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,7 +4934,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4971,6 +5036,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,7 +5048,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5082,6 +5150,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>917037.28658866719</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>976102.37217369094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,7 +5195,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5226,6 +5297,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,7 +5309,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5337,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-114516.41593389132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-88964.369627208449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5358,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617690240"/>
-        <c:axId val="617692544"/>
+        <c:axId val="537683072"/>
+        <c:axId val="537684992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617690240"/>
+        <c:axId val="537683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5405,14 +5482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617692544"/>
+        <c:crossAx val="537684992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617692544"/>
+        <c:axId val="537684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617690240"/>
+        <c:crossAx val="537683072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5624,7 +5701,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5726,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617971712"/>
-        <c:axId val="617933056"/>
+        <c:axId val="482915072"/>
+        <c:axId val="594201216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5766,7 +5846,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5868,6 +5948,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,7 +5960,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5979,6 +6062,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5995,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617925248"/>
-        <c:axId val="617931136"/>
+        <c:axId val="555023360"/>
+        <c:axId val="594199296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617925248"/>
+        <c:axId val="555023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6042,14 +6128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617931136"/>
+        <c:crossAx val="594199296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617931136"/>
+        <c:axId val="594199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,12 +6186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617925248"/>
+        <c:crossAx val="555023360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617933056"/>
+        <c:axId val="594201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6142,12 +6228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617971712"/>
+        <c:crossAx val="482915072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617971712"/>
+        <c:axId val="482915072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6156,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617933056"/>
+        <c:crossAx val="594201216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6306,7 +6392,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6408,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,7 +6506,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6519,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8671411.165299857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8955746.3049635589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6561,7 +6653,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6663,6 +6755,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6672,7 +6767,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6774,6 +6869,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7922396.9748132583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8427479.3592410143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6816,7 +6914,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6918,6 +7016,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6927,7 +7028,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7029,6 +7130,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-749014.19048659876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-528266.94572254457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7050,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618146816"/>
-        <c:axId val="618156800"/>
+        <c:axId val="482971648"/>
+        <c:axId val="482973184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618146816"/>
+        <c:axId val="482971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7097,14 +7201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618156800"/>
+        <c:crossAx val="482973184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618156800"/>
+        <c:axId val="482973184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,7 +7259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618146816"/>
+        <c:crossAx val="482971648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7316,7 +7420,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7418,6 +7522,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12263771.881795008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12691987.469875919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7432,8 +7539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="631296384"/>
-        <c:axId val="631092736"/>
+        <c:axId val="482992128"/>
+        <c:axId val="482986240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7458,7 +7565,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7560,6 +7667,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,7 +7679,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7671,6 +7781,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7687,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631084160"/>
-        <c:axId val="631086080"/>
+        <c:axId val="482982912"/>
+        <c:axId val="482984704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631084160"/>
+        <c:axId val="482982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7734,14 +7847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631086080"/>
+        <c:crossAx val="482984704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631086080"/>
+        <c:axId val="482984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,12 +7905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631084160"/>
+        <c:crossAx val="482982912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631092736"/>
+        <c:axId val="482986240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7834,12 +7947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631296384"/>
+        <c:crossAx val="482992128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="631296384"/>
+        <c:axId val="482992128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7848,7 +7961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631092736"/>
+        <c:crossAx val="482986240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7998,8 +8111,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8100,6 +8213,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8109,7 +8225,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8210,7 +8326,10 @@
                   <c:v>6257484.4506249093</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6900509.2748993915</c:v>
+                  <c:v>6894925.1192453168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7222817.3801474152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8253,8 +8372,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8355,6 +8474,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,7 +8486,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8465,7 +8587,10 @@
                   <c:v>6175059.4460852249</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6895514.6383777121</c:v>
+                  <c:v>6889930.4827236375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7409801.6580265714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8508,8 +8633,8 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8610,6 +8735,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,7 +8747,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8721,6 +8849,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-4994.6365216793492</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186984.27787915617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8742,17 +8873,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426656128"/>
-        <c:axId val="426657664"/>
+        <c:axId val="484981760"/>
+        <c:axId val="484987648"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="426656128"/>
+      <c:dateAx>
+        <c:axId val="484981760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -8789,15 +8920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426657664"/>
+        <c:crossAx val="484987648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="426657664"/>
+        <c:axId val="484987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8848,7 +8978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426656128"/>
+        <c:crossAx val="484981760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9562,7 +9692,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11103,6 +11233,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1385191.0839015078</v>
+      </c>
+      <c r="H37" s="15">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1005663.5411852957</v>
+      </c>
+      <c r="J37" s="15">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-85896.696481755236</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11119,7 +11287,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13412,6 +13580,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:21" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1483587.4025269356</v>
+      </c>
+      <c r="H37" s="15">
+        <v>985101.99778411631</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1069407.4380674672</v>
+      </c>
+      <c r="J37" s="15">
+        <v>985101.99778411631</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-84305.440283350879</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="N37" s="23">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0.65533332029978431</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.68721428466978529</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>-3.1880964370000986E-2</v>
+      </c>
+      <c r="R37" s="23">
+        <v>5.026190433048066E-2</v>
+      </c>
+      <c r="S37" s="9">
+        <v>7.5392856495720988E-4</v>
+      </c>
+      <c r="T37" s="9">
+        <v>-42.286452393285337</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13428,7 +13661,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15162,6 +15395,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1470033.7489833236</v>
+      </c>
+      <c r="H37" s="15">
+        <v>976102.37217369094</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1065066.7418008994</v>
+      </c>
+      <c r="J37" s="15">
+        <v>976102.37217369094</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-88964.369627208449</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15178,7 +15455,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16912,6 +17189,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12691987.469875919</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8955746.3049635589</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-528266.94572254457</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16928,7 +17249,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17040,7 +17361,7 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="12">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -18832,10 +19153,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="14">
         <v>8545319</v>
@@ -18844,22 +19165,22 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="14">
-        <v>643024.82427448209</v>
+        <v>637440.66862040793</v>
       </c>
       <c r="H36" s="15">
-        <v>995394.42220634886</v>
+        <v>986750.21877754806</v>
       </c>
       <c r="I36" s="15">
-        <v>10674170.80985591</v>
+        <v>10665526.606427109</v>
       </c>
       <c r="J36" s="15">
-        <v>6895514.6383777121</v>
+        <v>6889930.4827236375</v>
       </c>
       <c r="K36" s="15">
-        <v>6900509.2748993915</v>
+        <v>6894925.1192453168</v>
       </c>
       <c r="L36" s="15">
-        <v>6895514.6383777121</v>
+        <v>6889930.4827236375</v>
       </c>
       <c r="M36" s="15">
         <v>-4994.6365216793492</v>
@@ -18871,6 +19192,56 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="14">
+        <v>327892.26090209873</v>
+      </c>
+      <c r="H37" s="15">
+        <v>493813.66473183746</v>
+      </c>
+      <c r="I37" s="15">
+        <v>11159340.271158947</v>
+      </c>
+      <c r="J37" s="15">
+        <v>7409801.6580265714</v>
+      </c>
+      <c r="K37" s="15">
+        <v>7222817.3801474152</v>
+      </c>
+      <c r="L37" s="15">
+        <v>7409801.6580265714</v>
+      </c>
+      <c r="M37" s="15">
+        <v>186984.27787915617</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="P37" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -690,97 +690,97 @@
                   <c:v>32769.298882683892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44436.113265071559</c:v>
+                  <c:v>44436.113276487529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57255.838220634025</c:v>
+                  <c:v>57255.835236507555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71470.226080923632</c:v>
+                  <c:v>71470.218956071636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97894.943696992981</c:v>
+                  <c:v>97894.934844368792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122460.50354360542</c:v>
+                  <c:v>122460.49475229948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156825.66970732121</c:v>
+                  <c:v>156825.66098482403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>198048.32868455962</c:v>
+                  <c:v>198048.32002150436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239958.11501198969</c:v>
+                  <c:v>239958.10640418634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>264878.271952888</c:v>
+                  <c:v>264878.26341526926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>293854.29077638953</c:v>
+                  <c:v>293854.28227490676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>325443.26614530955</c:v>
+                  <c:v>325443.2577102746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>365060.51285164926</c:v>
+                  <c:v>365060.50204947242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>404537.02305768989</c:v>
+                  <c:v>404537.01229307556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>439721.86278135609</c:v>
+                  <c:v>439721.85207247699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473423.67442442547</c:v>
+                  <c:v>473423.66374890588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>497558.03436598374</c:v>
+                  <c:v>497558.02372686984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>524214.31724401086</c:v>
+                  <c:v>524214.30663086759</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>548835.01220042724</c:v>
+                  <c:v>548835.00163068029</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>574803.82180182589</c:v>
+                  <c:v>574803.81124950666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>608395.92264148453</c:v>
+                  <c:v>608395.912105361</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>637390.84148665029</c:v>
+                  <c:v>637390.8309686397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>664460.27747876197</c:v>
+                  <c:v>664460.26699966309</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>696265.27651067753</c:v>
+                  <c:v>696265.26606489299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>733363.80791297404</c:v>
+                  <c:v>733363.79749379389</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>771292.18841627764</c:v>
+                  <c:v>771292.17803173757</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>811194.36685398582</c:v>
+                  <c:v>811194.35651351546</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>850637.83985309303</c:v>
+                  <c:v>850637.82951930468</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>897866.50568122428</c:v>
+                  <c:v>897866.49535342399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>935891.00400915544</c:v>
+                  <c:v>935890.99369570205</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>972150.5019069548</c:v>
+                  <c:v>971992.70594601275</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1005663.5411852957</c:v>
+                  <c:v>1005505.7452450263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,97 +951,97 @@
                   <c:v>32539.676068672419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45290.016660959976</c:v>
+                  <c:v>45290.016672375939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58930.711732953183</c:v>
+                  <c:v>58930.708749033642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72037.595509193401</c:v>
+                  <c:v>72037.588440626103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91127.839279100357</c:v>
+                  <c:v>91127.831202443733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114772.92162732928</c:v>
+                  <c:v>114772.91369357279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137426.56121874889</c:v>
+                  <c:v>137426.55416336839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165982.37559535407</c:v>
+                  <c:v>165982.36924972216</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214356.00915354106</c:v>
+                  <c:v>214356.00261604332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267397.85299832979</c:v>
+                  <c:v>267397.84567335254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282450.18775213772</c:v>
+                  <c:v>282450.18084471551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301344.76793716248</c:v>
+                  <c:v>301344.76140663412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>313781.89555750543</c:v>
+                  <c:v>313781.88724886329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>349200.87963044492</c:v>
+                  <c:v>349200.8714668047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>401159.5877231498</c:v>
+                  <c:v>401159.57922310429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>436532.87606210314</c:v>
+                  <c:v>436532.8675600008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500516.70150597335</c:v>
+                  <c:v>500516.69226415147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>510679.42763015447</c:v>
+                  <c:v>510679.41871884948</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>540654.57034428499</c:v>
+                  <c:v>540654.5613829419</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>552598.59015013964</c:v>
+                  <c:v>552598.58143868495</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>563380.39316840307</c:v>
+                  <c:v>563380.38483273762</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>619761.83169761067</c:v>
+                  <c:v>619761.82297485252</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>651756.51282777358</c:v>
+                  <c:v>651756.50407460728</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>643308.4880749624</c:v>
+                  <c:v>643308.47989571327</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>654278.2570400479</c:v>
+                  <c:v>654278.24921961338</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>671193.30721299967</c:v>
+                  <c:v>671193.29967837257</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>698947.22599237598</c:v>
+                  <c:v>698947.21863819147</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>731948.744248776</c:v>
+                  <c:v>731948.73696905444</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>683853.85960763111</c:v>
+                  <c:v>683853.8532819543</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>815740.68088465545</c:v>
+                  <c:v>815740.67370509531</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>862228.92259935837</c:v>
+                  <c:v>862071.12968228362</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>919766.84470354044</c:v>
+                  <c:v>919604.65511358727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,97 +1212,97 @@
                   <c:v>-229.62281401147266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>853.90339588841744</c:v>
+                  <c:v>853.90339588841016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1674.8735123191582</c:v>
+                  <c:v>1674.8735125260864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567.36942826976883</c:v>
+                  <c:v>567.36948455446691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6767.104417892624</c:v>
+                  <c:v>-6767.1036419250595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7687.5819162761327</c:v>
+                  <c:v>-7687.5810587266897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19399.108488572325</c:v>
+                  <c:v>-19399.106821455644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-32065.953089205548</c:v>
+                  <c:v>-32065.950771782198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25602.105858448631</c:v>
+                  <c:v>-25602.103788143024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2519.5810454417951</c:v>
+                  <c:v>2519.5822580832755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11404.103024251817</c:v>
+                  <c:v>-11404.101430191251</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-24098.498208147066</c:v>
+                  <c:v>-24098.496303640481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-51278.617294143827</c:v>
+                  <c:v>-51278.614800609124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-55336.14342724497</c:v>
+                  <c:v>-55336.140826270857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-38562.275058206287</c:v>
+                  <c:v>-38562.272849372705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-36890.798362322326</c:v>
+                  <c:v>-36890.796188905078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2958.667139989615</c:v>
+                  <c:v>2958.6685372816282</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13534.889613856387</c:v>
+                  <c:v>-13534.887912018108</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8180.4418561422499</c:v>
+                  <c:v>-8180.4402477383846</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-22205.231651686248</c:v>
+                  <c:v>-22205.229810821707</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-45015.529473081464</c:v>
+                  <c:v>-45015.527272623382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17629.009789039614</c:v>
+                  <c:v>-17629.007993787178</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-12703.764650988393</c:v>
+                  <c:v>-12703.762925055809</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52956.788435715134</c:v>
+                  <c:v>-52956.786169179715</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79085.550872926135</c:v>
+                  <c:v>-79085.548274180503</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-100098.88120327797</c:v>
+                  <c:v>-100098.878353365</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-112247.14086160983</c:v>
+                  <c:v>-112247.137875324</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-118689.09560431703</c:v>
+                  <c:v>-118689.09255025024</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-214012.64607359318</c:v>
+                  <c:v>-214012.64207146969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-120150.32312449999</c:v>
+                  <c:v>-120150.31999060675</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-109921.57930759643</c:v>
+                  <c:v>-109921.57626372913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-85896.696481755236</c:v>
+                  <c:v>-85901.090131439036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162409472"/>
-        <c:axId val="407597824"/>
+        <c:axId val="493245952"/>
+        <c:axId val="493247488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162409472"/>
+        <c:axId val="493245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407597824"/>
+        <c:crossAx val="493247488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407597824"/>
+        <c:axId val="493247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162409472"/>
+        <c:crossAx val="493245952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,97 +1604,97 @@
                   <c:v>14073.180477764858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9444.4439653868267</c:v>
+                  <c:v>9444.4439838695889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10529.943202574319</c:v>
+                  <c:v>10529.938281581366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9742.9190789600725</c:v>
+                  <c:v>9742.9134026343309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50602.742580682214</c:v>
+                  <c:v>50602.735963392326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15926.604991622415</c:v>
+                  <c:v>15926.605071131393</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53482.445421510238</c:v>
+                  <c:v>53482.445635684089</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>154861.50898191135</c:v>
+                  <c:v>154861.50942852328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74485.671907816402</c:v>
+                  <c:v>74485.672104213299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67019.993833764995</c:v>
+                  <c:v>67019.994211272453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90738.218869170247</c:v>
+                  <c:v>90738.219095489127</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37511.237525913144</c:v>
+                  <c:v>37511.237683723812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>182643.36358255849</c:v>
+                  <c:v>182643.34175657245</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>295648.28280026297</c:v>
+                  <c:v>295648.28336289077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>149173.3432647716</c:v>
+                  <c:v>149173.34373737345</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113716.04641061314</c:v>
+                  <c:v>113716.04663573549</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69842.983786171506</c:v>
+                  <c:v>69842.98399688222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25759.858300658798</c:v>
+                  <c:v>25759.858350853305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54186.545765681185</c:v>
+                  <c:v>54186.545956699294</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71078.061391139228</c:v>
+                  <c:v>71078.061486540464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>122511.25379184079</c:v>
+                  <c:v>122511.25390997293</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110004.9180429735</c:v>
+                  <c:v>110004.91818041205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90553.794089931776</c:v>
+                  <c:v>90553.794350269542</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>191535.50007638987</c:v>
+                  <c:v>191535.50047763943</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>137235.15677960418</c:v>
+                  <c:v>137235.15697643414</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>287737.60169032536</c:v>
+                  <c:v>287737.60221590794</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403585.44091227214</c:v>
+                  <c:v>403585.44180374639</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>534222.45249187434</c:v>
+                  <c:v>534222.45267287875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1739102.5544275802</c:v>
+                  <c:v>1739102.554868575</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1082902.248820764</c:v>
+                  <c:v>1082902.2496379393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>637440.66862040793</c:v>
+                  <c:v>637440.66900952836</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>327892.26090209873</c:v>
+                  <c:v>327892.26130662102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,8 +1709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485014912"/>
-        <c:axId val="485013376"/>
+        <c:axId val="493026304"/>
+        <c:axId val="493024768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1970,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485010048"/>
-        <c:axId val="485011840"/>
+        <c:axId val="493021440"/>
+        <c:axId val="493023232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485010048"/>
+        <c:axId val="493021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,14 +2017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485011840"/>
+        <c:crossAx val="493023232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485011840"/>
+        <c:axId val="493023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,12 +2075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485010048"/>
+        <c:crossAx val="493021440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485013376"/>
+        <c:axId val="493024768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485014912"/>
+        <c:crossAx val="493026304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485014912"/>
+        <c:axId val="493026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485013376"/>
+        <c:crossAx val="493024768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,97 +2277,97 @@
                   <c:v>18607.735896751474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>11666.814393803639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>12819.721960020022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>14214.383719564079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39617.246706339683</c:v>
+                  <c:v>39617.24433919783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39476.510206040606</c:v>
+                  <c:v>39476.510243603116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39902.178437708179</c:v>
+                  <c:v>39902.178481777861</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47228.665828131299</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33513.039278340933</c:v>
+                  <c:v>33513.039299013537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,8 +2382,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458362880"/>
-        <c:axId val="458234112"/>
+        <c:axId val="504876416"/>
+        <c:axId val="504873344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2643,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446073472"/>
-        <c:axId val="458232192"/>
+        <c:axId val="499822592"/>
+        <c:axId val="499824512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446073472"/>
+        <c:axId val="499822592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458232192"/>
+        <c:crossAx val="499824512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458232192"/>
+        <c:axId val="499824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,12 +2748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446073472"/>
+        <c:crossAx val="499822592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458234112"/>
+        <c:axId val="504873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,12 +2790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458362880"/>
+        <c:crossAx val="504876416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458362880"/>
+        <c:axId val="504876416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458234112"/>
+        <c:crossAx val="504873344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,97 +3082,97 @@
                   <c:v>32769.298882683892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44436.113265071559</c:v>
+                  <c:v>44436.113276487529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57255.838220634025</c:v>
+                  <c:v>57255.835236507555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71470.226080923632</c:v>
+                  <c:v>71470.218956071636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97894.943696992981</c:v>
+                  <c:v>97894.934844368792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122460.50354360542</c:v>
+                  <c:v>122460.49475229948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156825.66970732121</c:v>
+                  <c:v>156825.66098482403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>198048.32868455962</c:v>
+                  <c:v>198048.32002150436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239958.11501198969</c:v>
+                  <c:v>239958.10640418634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>264878.271952888</c:v>
+                  <c:v>264878.26341526926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>293854.29077638953</c:v>
+                  <c:v>293854.28227490676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>325443.26614530955</c:v>
+                  <c:v>325443.2577102746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>372983.96219291718</c:v>
+                  <c:v>372983.950917312</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>420355.7744401659</c:v>
+                  <c:v>420355.76320963574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>455540.6141638321</c:v>
+                  <c:v>455540.60298903717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>489242.42580690148</c:v>
+                  <c:v>489242.41466546606</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>513376.78574845975</c:v>
+                  <c:v>513376.77464343002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>540033.06862648693</c:v>
+                  <c:v>540033.05754742783</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>564653.76358290331</c:v>
+                  <c:v>564653.75254724058</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>590622.57318430196</c:v>
+                  <c:v>590622.56216606684</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>624214.6740239606</c:v>
+                  <c:v>624214.66302192118</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>653209.59286912635</c:v>
+                  <c:v>653209.58188519988</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>680279.02886123804</c:v>
+                  <c:v>680279.01791622327</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>712084.0278931536</c:v>
+                  <c:v>712084.01698145317</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>756602.26557590941</c:v>
+                  <c:v>756602.25469613413</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>802116.32217987371</c:v>
+                  <c:v>802116.3113416665</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>849998.9363051235</c:v>
+                  <c:v>849998.92551979993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>897331.10390405206</c:v>
+                  <c:v>897331.09312674706</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>954005.50289780961</c:v>
+                  <c:v>954005.49212769023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>999634.90089132695</c:v>
+                  <c:v>999634.89013842389</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1035894.3987891263</c:v>
+                  <c:v>1035736.6023887346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1069407.4380674672</c:v>
+                  <c:v>1069249.641687748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,97 +3343,97 @@
                   <c:v>32539.676068672419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45290.016660959976</c:v>
+                  <c:v>45290.016672375939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58930.711732953183</c:v>
+                  <c:v>58930.708749033642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72037.595509193401</c:v>
+                  <c:v>72037.588440626103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91127.839279100357</c:v>
+                  <c:v>91127.831202443733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114772.92162732928</c:v>
+                  <c:v>114772.91369357279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137426.56121874889</c:v>
+                  <c:v>137426.55416336839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165982.37559535407</c:v>
+                  <c:v>165982.36924972216</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214356.00915354106</c:v>
+                  <c:v>214356.00261604332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267397.85299832979</c:v>
+                  <c:v>267397.84567335254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282450.18775213772</c:v>
+                  <c:v>282450.18084471551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301344.76793716248</c:v>
+                  <c:v>301344.76140663412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>321705.3448987733</c:v>
+                  <c:v>321705.33611670288</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>364917.17257531936</c:v>
+                  <c:v>364917.16395188519</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>417630.81298487732</c:v>
+                  <c:v>417630.80400295166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>453072.73054277548</c:v>
+                  <c:v>453072.72155678517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>518566.41789323674</c:v>
+                  <c:v>518566.40812335454</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>528134.35063544195</c:v>
+                  <c:v>528134.34121347789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>558292.50732720701</c:v>
+                  <c:v>558292.49784985057</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>569778.99218897521</c:v>
+                  <c:v>569778.98297489283</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>579851.61843013065</c:v>
+                  <c:v>579851.60961258505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>637033.7407252636</c:v>
+                  <c:v>637033.73149720056</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>669165.68165687367</c:v>
+                  <c:v>669165.67239438684</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>659642.45217168517</c:v>
+                  <c:v>659642.44351457164</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>677368.50345275179</c:v>
+                  <c:v>677368.49517918273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>701127.64467434923</c:v>
+                  <c:v>701127.63670806878</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>736320.2027611892</c:v>
+                  <c:v>736320.194991978</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>776865.96182177088</c:v>
+                  <c:v>776865.95413218427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>732367.12662194541</c:v>
+                  <c:v>732367.11994097894</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>878517.53329373489</c:v>
+                  <c:v>878517.52571298915</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>925792.94715268794</c:v>
+                  <c:v>925635.15382939705</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>985101.99778411631</c:v>
+                  <c:v>984939.80777662841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,97 +3604,97 @@
                   <c:v>-229.62281401147266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>853.90339588841744</c:v>
+                  <c:v>853.90339588841016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1674.8735123191582</c:v>
+                  <c:v>1674.8735125260864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567.36942826976883</c:v>
+                  <c:v>567.36948455446691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6767.104417892624</c:v>
+                  <c:v>-6767.1036419250595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7687.5819162761327</c:v>
+                  <c:v>-7687.5810587266897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19399.108488572325</c:v>
+                  <c:v>-19399.106821455644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-32065.953089205548</c:v>
+                  <c:v>-32065.950771782198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25602.105858448631</c:v>
+                  <c:v>-25602.103788143024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2519.5810454417951</c:v>
+                  <c:v>2519.5822580832755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11404.103024251817</c:v>
+                  <c:v>-11404.101430191251</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-24098.498208147066</c:v>
+                  <c:v>-24098.496303640481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-51278.617294143885</c:v>
+                  <c:v>-51278.614800609124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-55438.60186484654</c:v>
+                  <c:v>-55438.599257750553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-37909.801178954775</c:v>
+                  <c:v>-37909.798986085516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-36169.695264126</c:v>
+                  <c:v>-36169.693108680891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5189.6321447769878</c:v>
+                  <c:v>5189.6334799245233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-11898.717991044978</c:v>
+                  <c:v>-11898.716333949938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-6361.2562556962948</c:v>
+                  <c:v>-6361.2546973900171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-20843.580995326745</c:v>
+                  <c:v>-20843.579191174009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-44363.055593829951</c:v>
+                  <c:v>-44363.053409336135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-16175.85214386275</c:v>
+                  <c:v>-16175.850387999322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-11113.347204364371</c:v>
+                  <c:v>-11113.345521836425</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52441.575721468427</c:v>
+                  <c:v>-52441.573466881528</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79233.762123157619</c:v>
+                  <c:v>-79233.759516951395</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-100988.67750552448</c:v>
+                  <c:v>-100988.67463359772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-113678.7335439343</c:v>
+                  <c:v>-113678.73052782193</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-120465.14208228118</c:v>
+                  <c:v>-120465.13899456279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-221638.3762758642</c:v>
+                  <c:v>-221638.37218671129</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-121117.36759759206</c:v>
+                  <c:v>-121117.36442543473</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-110101.45163643837</c:v>
+                  <c:v>-110101.44855933753</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-84305.440283350879</c:v>
+                  <c:v>-84309.833911119611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485282176"/>
-        <c:axId val="485284096"/>
+        <c:axId val="520545792"/>
+        <c:axId val="543356800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485282176"/>
+        <c:axId val="520545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,14 +3763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485284096"/>
+        <c:crossAx val="543356800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485284096"/>
+        <c:axId val="543356800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485282176"/>
+        <c:crossAx val="520545792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,97 +3996,97 @@
                   <c:v>18607.735896751474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>11666.814393803639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>12819.721960020022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>14214.383719564079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47540.69604760762</c:v>
+                  <c:v>47540.693207037395</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47371.812247248723</c:v>
+                  <c:v>47371.812292323739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44518.237682755796</c:v>
+                  <c:v>44518.23771468101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45514.056603964338</c:v>
+                  <c:v>45514.056645532415</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47882.614125249813</c:v>
+                  <c:v>47882.61417813343</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47332.167598928594</c:v>
+                  <c:v>47332.1676069471</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56674.398993757561</c:v>
+                  <c:v>56674.399000943209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45629.397993517334</c:v>
+                  <c:v>45629.398010733668</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33513.039278340933</c:v>
+                  <c:v>33513.039299013537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,8 +4101,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502966912"/>
-        <c:axId val="502965376"/>
+        <c:axId val="617173760"/>
+        <c:axId val="617167104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4362,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492234624"/>
-        <c:axId val="492236160"/>
+        <c:axId val="608956800"/>
+        <c:axId val="617164800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492234624"/>
+        <c:axId val="608956800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492236160"/>
+        <c:crossAx val="617164800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492236160"/>
+        <c:axId val="617164800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492234624"/>
+        <c:crossAx val="608956800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502965376"/>
+        <c:axId val="617167104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502966912"/>
+        <c:crossAx val="617173760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502966912"/>
+        <c:axId val="617173760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502965376"/>
+        <c:crossAx val="617167104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4801,97 +4801,97 @@
                   <c:v>34811.216733013702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46478.031115401376</c:v>
+                  <c:v>46478.031126817339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59297.756070963842</c:v>
+                  <c:v>59297.753086837358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73512.143931253449</c:v>
+                  <c:v>73512.136806401439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105221.80507053666</c:v>
+                  <c:v>105221.79587235802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129787.3649171491</c:v>
+                  <c:v>129787.35578028869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164152.53108086489</c:v>
+                  <c:v>164152.52201281325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205375.1900581033</c:v>
+                  <c:v>205375.18104949358</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247284.97638553337</c:v>
+                  <c:v>247284.96743217556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>272205.13332643168</c:v>
+                  <c:v>272205.12444325851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306976.35591463349</c:v>
+                  <c:v>306976.34707482345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344883.12635733752</c:v>
+                  <c:v>344883.11759726482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>392423.82240494515</c:v>
+                  <c:v>392423.81080430222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>439795.63465219387</c:v>
+                  <c:v>439795.62309662596</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>474980.47437586007</c:v>
+                  <c:v>474980.46287602739</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>508682.28601892944</c:v>
+                  <c:v>508682.27455245628</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>532816.64596048766</c:v>
+                  <c:v>532816.6345304203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>559472.92883851484</c:v>
+                  <c:v>559472.91743441811</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>584093.62379493122</c:v>
+                  <c:v>584093.61243423074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>610062.43339632987</c:v>
+                  <c:v>610062.422053057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>650372.95440392033</c:v>
+                  <c:v>650372.94308008219</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>679367.87324908609</c:v>
+                  <c:v>679367.86194336088</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>706437.30924119777</c:v>
+                  <c:v>706437.29797438427</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>738242.30827311333</c:v>
+                  <c:v>738242.29703961418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>775340.83967540984</c:v>
+                  <c:v>775340.82846851507</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>813269.22017871344</c:v>
+                  <c:v>813269.20900645875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>861151.83430396323</c:v>
+                  <c:v>861151.82318459218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>900595.30730307044</c:v>
+                  <c:v>900595.2961903814</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>957269.70629682799</c:v>
+                  <c:v>957269.69519132457</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>995294.20462475915</c:v>
+                  <c:v>995294.19353360264</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1031553.7025225585</c:v>
+                  <c:v>1031395.9057839133</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1065066.7418008994</c:v>
+                  <c:v>1064908.9450829269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,97 +5062,97 @@
                   <c:v>34571.024986029508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47389.006687858629</c:v>
+                  <c:v>47389.0066992746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61067.75005865618</c:v>
+                  <c:v>61067.747074736646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74134.471776711682</c:v>
+                  <c:v>74134.464708144384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98296.166600601107</c:v>
+                  <c:v>98296.158178390047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121868.84205262041</c:v>
+                  <c:v>121868.8337767999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143798.40788659453</c:v>
+                  <c:v>143798.40052405451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>171766.91809983505</c:v>
+                  <c:v>171766.91147535504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220365.81894266396</c:v>
+                  <c:v>220365.81211545898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>274196.09876323445</c:v>
+                  <c:v>274196.09111054277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294689.64556042821</c:v>
+                  <c:v>294689.63834958326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>319351.93262318522</c:v>
+                  <c:v>319351.92581616063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338088.33378138766</c:v>
+                  <c:v>338088.32474775985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>381088.31237909693</c:v>
+                  <c:v>381088.3035073583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>434578.73367973673</c:v>
+                  <c:v>434578.72443757928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>470091.2666619001</c:v>
+                  <c:v>470091.25741459371</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>537138.512988484</c:v>
+                  <c:v>537138.50293343118</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>546094.43837195449</c:v>
+                  <c:v>546094.42867421708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>576440.90566780127</c:v>
+                  <c:v>576440.89591177995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>587456.61401936528</c:v>
+                  <c:v>587456.60453384661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>603517.95929292182</c:v>
+                  <c:v>603517.95021838357</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>661850.52757046279</c:v>
+                  <c:v>661850.51807291445</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>694179.68742150278</c:v>
+                  <c:v>694179.67788738909</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>683111.57215584663</c:v>
+                  <c:v>683111.56324388203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>692464.69009347586</c:v>
+                  <c:v>692464.68157008593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>708153.31385953503</c:v>
+                  <c:v>708153.30564452917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>743218.71088469878</c:v>
+                  <c:v>743218.70287126396</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>775812.19418300316</c:v>
+                  <c:v>775812.18625010748</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>731450.59382849478</c:v>
+                  <c:v>731450.58693590597</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>869870.30217780126</c:v>
+                  <c:v>869870.29435351759</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>917037.28658866719</c:v>
+                  <c:v>916879.49301878468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>976102.37217369094</c:v>
+                  <c:v>975940.18191274046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5323,97 +5323,97 @@
                   <c:v>-240.19174698419374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>910.97557245725329</c:v>
+                  <c:v>910.97557245726057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1769.9939876923381</c:v>
+                  <c:v>1769.9939878992882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>622.32784545823233</c:v>
+                  <c:v>622.32790174294496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6925.6384699355549</c:v>
+                  <c:v>-6925.6376939679758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7918.5228645286843</c:v>
+                  <c:v>-7918.5220034887898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20354.12319427036</c:v>
+                  <c:v>-20354.121488758741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-33608.271958268248</c:v>
+                  <c:v>-33608.26957413854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26919.157442869415</c:v>
+                  <c:v>-26919.155316716584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1990.9654368027695</c:v>
+                  <c:v>1990.9666672842577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-12286.710354205279</c:v>
+                  <c:v>-12286.708725240198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-25531.193734152301</c:v>
+                  <c:v>-25531.191781104193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-54335.488623557496</c:v>
+                  <c:v>-54335.486056542373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-58707.322273096943</c:v>
+                  <c:v>-58707.319589267659</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-40401.740696123336</c:v>
+                  <c:v>-40401.738438448112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-38591.019357029349</c:v>
+                  <c:v>-38591.017137862567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4321.8670279963408</c:v>
+                  <c:v>4321.8684030108852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13378.490466560354</c:v>
+                  <c:v>-13378.488760201028</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7652.7181271299487</c:v>
+                  <c:v>-7652.7165224507917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-22605.819376964588</c:v>
+                  <c:v>-22605.817519210395</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-46854.995110998512</c:v>
+                  <c:v>-46854.992861698614</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17517.3456786233</c:v>
+                  <c:v>-17517.343870446435</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-12257.621819694992</c:v>
+                  <c:v>-12257.620086995186</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-55130.736117266701</c:v>
+                  <c:v>-55130.733795732143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-82876.149581933976</c:v>
+                  <c:v>-82876.146898429142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-105115.90631917841</c:v>
+                  <c:v>-105115.90336192958</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-117933.12341926445</c:v>
+                  <c:v>-117933.12031332823</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-124783.11312006728</c:v>
+                  <c:v>-124783.10994027392</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-225819.11246833322</c:v>
+                  <c:v>-225819.1082554186</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-125423.90244695789</c:v>
+                  <c:v>-125423.89918008505</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-114516.41593389132</c:v>
+                  <c:v>-114516.41276512865</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-88964.369627208449</c:v>
+                  <c:v>-88968.76317018643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5435,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537683072"/>
-        <c:axId val="537684992"/>
+        <c:axId val="617370368"/>
+        <c:axId val="617372288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537683072"/>
+        <c:axId val="617370368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,14 +5482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537684992"/>
+        <c:crossAx val="617372288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537684992"/>
+        <c:axId val="617372288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537683072"/>
+        <c:crossAx val="617370368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5715,97 +5715,97 @@
                   <c:v>18607.735896751474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>11666.814393803639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>12819.721960020022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>14214.383719564079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31709.661139283213</c:v>
+                  <c:v>31709.659065956592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34771.222588201839</c:v>
+                  <c:v>34771.222631564953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37906.770442704037</c:v>
+                  <c:v>37906.77052244138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47540.69604760762</c:v>
+                  <c:v>47540.693207037395</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47371.812247248723</c:v>
+                  <c:v>47371.812292323739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40310.521007590411</c:v>
+                  <c:v>40310.521027025221</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47882.614125249813</c:v>
+                  <c:v>47882.61417813343</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56674.398993757561</c:v>
+                  <c:v>56674.399000943209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33513.039278340933</c:v>
+                  <c:v>33513.039299013537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482915072"/>
-        <c:axId val="594201216"/>
+        <c:axId val="617659392"/>
+        <c:axId val="617656704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6081,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555023360"/>
-        <c:axId val="594199296"/>
+        <c:axId val="617644800"/>
+        <c:axId val="617646720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555023360"/>
+        <c:axId val="617644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,14 +6128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594199296"/>
+        <c:crossAx val="617646720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594199296"/>
+        <c:axId val="617646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6186,12 +6186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555023360"/>
+        <c:crossAx val="617644800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594201216"/>
+        <c:axId val="617656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,12 +6228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482915072"/>
+        <c:crossAx val="617659392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482915072"/>
+        <c:axId val="617659392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594201216"/>
+        <c:crossAx val="617656704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6520,97 +6520,97 @@
                   <c:v>123278.17387964162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157737.55560953726</c:v>
+                  <c:v>157737.55567697421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199343.97280859321</c:v>
+                  <c:v>199343.95343196651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250495.57337637764</c:v>
+                  <c:v>250495.52419829773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>462626.92560594896</c:v>
+                  <c:v>462626.84868758108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>615403.31309392303</c:v>
+                  <c:v>615403.23693824711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>914381.70434956788</c:v>
+                  <c:v>914381.62939116999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1344586.1633758196</c:v>
+                  <c:v>1344586.0896581071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1789252.0342646409</c:v>
+                  <c:v>1789251.9617193821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1946470.8246340088</c:v>
+                  <c:v>1946470.7529743256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2201542.1158319577</c:v>
+                  <c:v>2201542.044808472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2504690.4798395233</c:v>
+                  <c:v>2504690.4100913899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2981508.5770317204</c:v>
+                  <c:v>2981508.4503035527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3454944.9896031516</c:v>
+                  <c:v>3454944.8637759481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3768355.8621044373</c:v>
+                  <c:v>3768355.7372701629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4055903.2312246719</c:v>
+                  <c:v>4055903.1069596517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4203363.3147154804</c:v>
+                  <c:v>4203363.1908953348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4383251.2683543162</c:v>
+                  <c:v>4383251.1448846925</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4536714.2101611272</c:v>
+                  <c:v>4536714.0872324901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4707443.0891772518</c:v>
+                  <c:v>4707442.9664777676</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5050257.0351484306</c:v>
+                  <c:v>5050256.9127795063</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5263093.824727607</c:v>
+                  <c:v>5263093.7026245976</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5448601.2588873617</c:v>
+                  <c:v>5448601.137317677</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5704691.8825380336</c:v>
+                  <c:v>5704691.7615048354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6053122.5236031422</c:v>
+                  <c:v>6053122.4030696824</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6417315.4470470361</c:v>
+                  <c:v>6417315.3271788126</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6901016.868031756</c:v>
+                  <c:v>6901016.7492319737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7294887.1369510712</c:v>
+                  <c:v>7294887.0182847399</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7972521.6308969846</c:v>
+                  <c:v>7972521.5124024851</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8338562.763325044</c:v>
+                  <c:v>8338562.6451067654</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8671411.165299857</c:v>
+                  <c:v>8668520.5254622679</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8955746.3049635589</c:v>
+                  <c:v>8952855.6654767562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6781,97 +6781,97 @@
                   <c:v>122937.40188239964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161490.42906947364</c:v>
+                  <c:v>161490.42913691059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206024.17608931765</c:v>
+                  <c:v>206024.1567139134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253303.89712736208</c:v>
+                  <c:v>253303.84831463292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>439645.2324153693</c:v>
+                  <c:v>439645.16083219717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>587980.7865980512</c:v>
+                  <c:v>587980.71650062886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>826961.11813188985</c:v>
+                  <c:v>826961.05638454598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1180943.1360139658</c:v>
+                  <c:v>1180943.0811986674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1671598.4439862443</c:v>
+                  <c:v>1671598.3882087287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2048116.745745284</c:v>
+                  <c:v>2048116.6835358078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2196540.4697102061</c:v>
+                  <c:v>2196540.4113762402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2400967.8770003007</c:v>
+                  <c:v>2400967.8225634391</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2661228.0652390928</c:v>
+                  <c:v>2661227.9587321887</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3100252.0321795726</c:v>
+                  <c:v>3100251.9279508772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3562583.5475889151</c:v>
+                  <c:v>3562583.4393465216</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3864974.823122385</c:v>
+                  <c:v>3864974.714998242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4365254.1083894381</c:v>
+                  <c:v>4365253.9908399191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4401293.5827166978</c:v>
+                  <c:v>4401293.4693913162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4600903.8633038895</c:v>
+                  <c:v>4600903.7493312843</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4652283.5069824615</c:v>
+                  <c:v>4652283.396195503</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4803059.3728076126</c:v>
+                  <c:v>4803059.2669243049</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5249377.9832880329</c:v>
+                  <c:v>5249377.8725235397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5476602.2061683256</c:v>
+                  <c:v>5476602.095056911</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5394453.3269900708</c:v>
+                  <c:v>5394453.2232774766</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5523781.636790554</c:v>
+                  <c:v>5523781.5377901113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5710568.3160903649</c:v>
+                  <c:v>5710568.2209347375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6090911.3365144944</c:v>
+                  <c:v>6090911.2441495769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6428643.7831311915</c:v>
+                  <c:v>6428643.6917510191</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6269059.6126209693</c:v>
+                  <c:v>6269059.5333133023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7495560.1687694201</c:v>
+                  <c:v>7495560.0788526041</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7922396.9748132583</c:v>
+                  <c:v>7919506.3621496465</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8427479.3592410143</c:v>
+                  <c:v>8424508.2037815619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,94 +7045,94 @@
                   <c:v>3752.8734599363816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6680.2032807244395</c:v>
+                  <c:v>6680.2032819468877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2808.3237509844475</c:v>
+                  <c:v>2808.3241163351922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22981.693190579652</c:v>
+                  <c:v>-22981.687855383905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27422.526495871833</c:v>
+                  <c:v>-27422.520437618252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-87420.586217678036</c:v>
+                  <c:v>-87420.573006624007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-163643.02736185375</c:v>
+                  <c:v>-163643.00845943973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-117653.59027839662</c:v>
+                  <c:v>-117653.57351065334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101645.92111127521</c:v>
+                  <c:v>101645.93056148221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5001.6461217515171</c:v>
+                  <c:v>-5001.6334322318435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-103722.60283922264</c:v>
+                  <c:v>-103722.58752795076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-320280.51179262763</c:v>
+                  <c:v>-320280.49157136399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-354692.95742357895</c:v>
+                  <c:v>-354692.93582507083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-205772.31451552222</c:v>
+                  <c:v>-205772.29792364128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-190928.40810228698</c:v>
+                  <c:v>-190928.39196140971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161890.7936739577</c:v>
+                  <c:v>161890.79994458426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18042.314362381585</c:v>
+                  <c:v>18042.32450662367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64189.65314276237</c:v>
+                  <c:v>64189.662098794244</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-55159.582194790244</c:v>
+                  <c:v>-55159.570282264613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-247197.66234081797</c:v>
+                  <c:v>-247197.64585520141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-13715.841439574026</c:v>
+                  <c:v>-13715.830101057887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28000.947280963883</c:v>
+                  <c:v>28000.957739233971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-310238.5555479629</c:v>
+                  <c:v>-310238.53822735883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-529340.8868125882</c:v>
+                  <c:v>-529340.86527957115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-706747.1309566712</c:v>
+                  <c:v>-706747.10624407511</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-810105.53151726164</c:v>
+                  <c:v>-810105.50508239679</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-866243.3538198797</c:v>
+                  <c:v>-866243.32653372083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1703462.0182760153</c:v>
+                  <c:v>-1703461.9790891828</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-843002.59455562383</c:v>
+                  <c:v>-843002.5662541613</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-749014.19048659876</c:v>
+                  <c:v>-749014.16331262141</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-528266.94572254457</c:v>
+                  <c:v>-528347.46169519424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482971648"/>
-        <c:axId val="482973184"/>
+        <c:axId val="617937920"/>
+        <c:axId val="617944192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482971648"/>
+        <c:axId val="617937920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,14 +7201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482973184"/>
+        <c:crossAx val="617944192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482973184"/>
+        <c:axId val="617944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482971648"/>
+        <c:crossAx val="617937920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,97 +7434,97 @@
                   <c:v>127926.53681831389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162628.83564941533</c:v>
+                  <c:v>162628.83571732766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203782.56034616427</c:v>
+                  <c:v>203782.54118157126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>255346.67466447651</c:v>
+                  <c:v>255346.62545809551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>493429.00766176271</c:v>
+                  <c:v>493428.92732149974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>666644.8607792604</c:v>
+                  <c:v>666644.78130372753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1044142.8315818999</c:v>
+                  <c:v>1044142.7536180816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1642480.0636653628</c:v>
+                  <c:v>1642479.9874271154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2237748.9838501825</c:v>
+                  <c:v>2237748.909181485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2423806.7176326835</c:v>
+                  <c:v>2423806.6440120041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2742247.7806809205</c:v>
+                  <c:v>2742247.7078544958</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3138520.1593427341</c:v>
+                  <c:v>3138520.0881834365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3823603.652033071</c:v>
+                  <c:v>3823603.4990059054</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4512739.6471904339</c:v>
+                  <c:v>4512739.4954747148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4948032.5083674574</c:v>
+                  <c:v>4948032.3580308063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5345746.7173616169</c:v>
+                  <c:v>5345746.5678123161</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5532641.6327153379</c:v>
+                  <c:v>5532641.483729884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5768405.657539363</c:v>
+                  <c:v>5768405.5090133082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5967449.6734951856</c:v>
+                  <c:v>5967449.5256708004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6194785.0688919602</c:v>
+                  <c:v>6194784.9213727051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6670915.5304877618</c:v>
+                  <c:v>6670915.3834276181</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6952818.5648233844</c:v>
+                  <c:v>6952818.4181154454</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7196586.5538154002</c:v>
+                  <c:v>7196586.4078082815</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7555256.9017697945</c:v>
+                  <c:v>7555256.7565140575</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8063914.7701674206</c:v>
+                  <c:v>8063914.6256412277</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8613225.3738689572</c:v>
+                  <c:v>8613225.2303461377</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9356238.2832061369</c:v>
+                  <c:v>9356238.1413245481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9966889.8809837662</c:v>
+                  <c:v>9966889.7393090762</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11174794.52736048</c:v>
+                  <c:v>11174794.385992087</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11748526.69955831</c:v>
+                  <c:v>11748526.558622865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12263771.881795008</c:v>
+                  <c:v>12259297.249380365</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12691987.469875919</c:v>
+                  <c:v>12687512.837989567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7539,8 +7539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482992128"/>
-        <c:axId val="482986240"/>
+        <c:axId val="621247872"/>
+        <c:axId val="621245952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7800,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482982912"/>
-        <c:axId val="482984704"/>
+        <c:axId val="618492288"/>
+        <c:axId val="618494208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482982912"/>
+        <c:axId val="618492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,14 +7847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482984704"/>
+        <c:crossAx val="618494208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482984704"/>
+        <c:axId val="618494208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7905,12 +7905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482982912"/>
+        <c:crossAx val="618492288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482986240"/>
+        <c:axId val="621245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,12 +7947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482992128"/>
+        <c:crossAx val="621247872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482992128"/>
+        <c:axId val="621247872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +7961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482986240"/>
+        <c:crossAx val="621245952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8239,97 +8239,97 @@
                   <c:v>21699.313840183637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31143.757805570465</c:v>
+                  <c:v>31143.757824053224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41673.701008144781</c:v>
+                  <c:v>41673.69610563459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51416.62008710485</c:v>
+                  <c:v>51416.609508268921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102019.36266778706</c:v>
+                  <c:v>102019.34547166125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117945.96765940948</c:v>
+                  <c:v>117945.95054279263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171428.41308091971</c:v>
+                  <c:v>171428.39617847672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>326289.92206283106</c:v>
+                  <c:v>326289.90560699999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400775.59397064743</c:v>
+                  <c:v>400775.57771121326</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>467795.58780441241</c:v>
+                  <c:v>467795.57192248572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>558533.80667358264</c:v>
+                  <c:v>558533.79101797484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>596045.04419949581</c:v>
+                  <c:v>596045.02870169864</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>778688.40778205427</c:v>
+                  <c:v>778688.37045827112</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1074336.6905823173</c:v>
+                  <c:v>1074336.6538211619</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1223510.0338470889</c:v>
+                  <c:v>1223509.9975585353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1337226.0802577022</c:v>
+                  <c:v>1337226.0441942709</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1407069.0640438737</c:v>
+                  <c:v>1407069.028191153</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1432828.9223445326</c:v>
+                  <c:v>1432828.8865420062</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1487015.4681102138</c:v>
+                  <c:v>1487015.4324987056</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558093.5295013529</c:v>
+                  <c:v>1558093.4939852459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1680604.7832931937</c:v>
+                  <c:v>1680604.7478952189</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1790609.7013361673</c:v>
+                  <c:v>1790609.666075631</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1881163.495426099</c:v>
+                  <c:v>1881163.4604259005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2072698.9955024889</c:v>
+                  <c:v>2072698.96090354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2209934.1522820932</c:v>
+                  <c:v>2209934.1178799742</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2497671.7539724186</c:v>
+                  <c:v>2497671.7200958822</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2901257.1948846909</c:v>
+                  <c:v>2901257.1618996286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3435479.6473765653</c:v>
+                  <c:v>3435479.6145725073</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5174582.2018041452</c:v>
+                  <c:v>5174582.1694410825</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6257484.4506249093</c:v>
+                  <c:v>6257484.4190790216</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6894925.1192453168</c:v>
+                  <c:v>6894925.0880885497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7222817.3801474152</c:v>
+                  <c:v>7222817.3493951708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8500,97 +8500,97 @@
                   <c:v>21618.10108867531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31782.397921939832</c:v>
+                  <c:v>31782.397940422594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42888.459237204421</c:v>
+                  <c:v>42888.454335029259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51825.361514958466</c:v>
+                  <c:v>51825.351028585741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97151.529330581179</c:v>
+                  <c:v>97151.513294583681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112096.8118483056</c:v>
+                  <c:v>112096.79605379584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154140.80321622037</c:v>
+                  <c:v>154140.78924756969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>294794.88691119035</c:v>
+                  <c:v>294794.8746766664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>380760.74824615178</c:v>
+                  <c:v>380760.73573157599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>497733.31672315701</c:v>
+                  <c:v>497733.30294428259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>562554.04457545932</c:v>
+                  <c:v>562554.03174038406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>574781.94484826957</c:v>
+                  <c:v>574781.93274786242</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>705582.22578366392</c:v>
+                  <c:v>705582.19294868014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>992106.59684554499</c:v>
+                  <c:v>992106.56499777944</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1188935.7921836376</c:v>
+                  <c:v>1188935.7592786662</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1307605.6737520157</c:v>
+                  <c:v>1307605.6409350643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1496815.1246342307</c:v>
+                  <c:v>1496815.0890322526</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1473250.3447482153</c:v>
+                  <c:v>1473250.3103696257</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1542883.8452533809</c:v>
+                  <c:v>1542883.8107053516</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1573938.8997274791</c:v>
+                  <c:v>1573938.8661710403</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1631480.724180551</c:v>
+                  <c:v>1631480.6921273952</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1820793.6541967946</c:v>
+                  <c:v>1820793.6207229395</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925817.2891740929</c:v>
+                  <c:v>1925817.2556945588</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1998412.713285876</c:v>
+                  <c:v>1998412.682275315</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2054479.8892213283</c:v>
+                  <c:v>2054479.8596671293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2276234.1510944632</c:v>
+                  <c:v>2276234.1230150335</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2638620.9042166574</c:v>
+                  <c:v>2638620.8775369255</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3148524.1008105045</c:v>
+                  <c:v>3148524.074557675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4477586.3369978033</c:v>
+                  <c:v>4477586.3146049408</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6175059.4460852249</c:v>
+                  <c:v>6175059.4214360062</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6889930.4827236375</c:v>
+                  <c:v>6889930.4581544576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7409801.6580265714</c:v>
+                  <c:v>7409801.6331773251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8761,97 +8761,97 @@
                   <c:v>-81.212751508326619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>638.6401163693663</c:v>
+                  <c:v>638.64011636936993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1214.7582290596401</c:v>
+                  <c:v>1214.7582293946689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>408.74142785361619</c:v>
+                  <c:v>408.74152031682024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4867.8333372058842</c:v>
+                  <c:v>-4867.8321770775656</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5849.1558111038757</c:v>
+                  <c:v>-5849.1544889967918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17287.609864699334</c:v>
+                  <c:v>-17287.60693090703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-31495.03515164071</c:v>
+                  <c:v>-31495.030930333596</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20014.845724495652</c:v>
+                  <c:v>-20014.841979637276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29937.7289187446</c:v>
+                  <c:v>29937.731021796877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4020.2379018766806</c:v>
+                  <c:v>4020.2407224092167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21263.099351226236</c:v>
+                  <c:v>-21263.095953836222</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-73106.181998390355</c:v>
+                  <c:v>-73106.177509590983</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82230.093736772309</c:v>
+                  <c:v>-82230.08882338251</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-34574.241663451307</c:v>
+                  <c:v>-34574.238279869081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-29620.406505686464</c:v>
+                  <c:v>-29620.403259206563</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89746.060590357054</c:v>
+                  <c:v>89746.060841099592</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40421.422403682722</c:v>
+                  <c:v>40421.423827619525</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55868.377143167192</c:v>
+                  <c:v>55868.37820664607</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15845.370226126164</c:v>
+                  <c:v>15845.372185794404</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-49124.059112642659</c:v>
+                  <c:v>-49124.055767823709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30183.952860627323</c:v>
+                  <c:v>30183.954647308448</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44653.793747993885</c:v>
+                  <c:v>44653.795268658316</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-74286.282216612948</c:v>
+                  <c:v>-74286.278628224973</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-155454.26306076488</c:v>
+                  <c:v>-155454.25821284484</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-221437.60287795542</c:v>
+                  <c:v>-221437.59708084865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-262636.29066803353</c:v>
+                  <c:v>-262636.2843627031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-286955.54656606074</c:v>
+                  <c:v>-286955.54001483228</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-696995.86480634194</c:v>
+                  <c:v>-696995.85483614169</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-82425.004539684393</c:v>
+                  <c:v>-82424.997643015347</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4994.6365216793492</c:v>
+                  <c:v>-4994.6299340920523</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>186984.27787915617</c:v>
+                  <c:v>186984.28378215432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,11 +8873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484981760"/>
-        <c:axId val="484987648"/>
+        <c:axId val="492989056"/>
+        <c:axId val="492990848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484981760"/>
+        <c:axId val="492989056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8920,14 +8920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484987648"/>
+        <c:crossAx val="492990848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484987648"/>
+        <c:axId val="492990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +8978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484981760"/>
+        <c:crossAx val="492989056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9905,25 +9905,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="R4" s="8">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="S4" s="8">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="T4" s="8">
-        <v>567.36942826976883</v>
+        <v>567.36948455446691</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>7.9385425145759737E-3</v>
+        <v>7.9385440934943013E-3</v>
       </c>
       <c r="W4" s="19">
-        <v>7.9385425145759737E-3</v>
+        <v>7.9385440934943013E-3</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -9984,22 +9984,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>401953.44834350183</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="R5" s="8">
-        <v>473423.67442442547</v>
+        <v>473423.66374890588</v>
       </c>
       <c r="S5" s="8">
-        <v>436532.87606210314</v>
+        <v>436532.8675600008</v>
       </c>
       <c r="T5" s="8">
-        <v>-36890.798362322326</v>
+        <v>-36890.796188905078</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-7.7923433818921431E-2</v>
+        <v>-7.7923430985214107E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-6.8314848168957498E-2</v>
@@ -10074,31 +10074,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>11666.814382387671</v>
+        <v>11666.814393803639</v>
       </c>
       <c r="F7" s="15">
-        <v>11749.058131050662</v>
+        <v>11749.058142547106</v>
       </c>
       <c r="G7" s="15">
-        <v>45609.28296837888</v>
+        <v>45609.282979875323</v>
       </c>
       <c r="H7" s="15">
-        <v>45290.016660959976</v>
+        <v>45290.016672375939</v>
       </c>
       <c r="I7" s="15">
-        <v>44436.113265071559</v>
+        <v>44436.113276487529</v>
       </c>
       <c r="J7" s="15">
-        <v>45290.016660959976</v>
+        <v>45290.016672375939</v>
       </c>
       <c r="K7" s="15">
-        <v>853.90339588841744</v>
+        <v>853.90339588841016</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -10117,31 +10117,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>12819.724955562464</v>
+        <v>12819.721960020022</v>
       </c>
       <c r="F8" s="15">
-        <v>12680.241823879769</v>
+        <v>12680.238860929887</v>
       </c>
       <c r="G8" s="15">
-        <v>58289.52479225865</v>
+        <v>58289.52184080521</v>
       </c>
       <c r="H8" s="15">
-        <v>58930.711732953183</v>
+        <v>58930.708749033642</v>
       </c>
       <c r="I8" s="15">
-        <v>57255.838220634025</v>
+        <v>57255.835236507555</v>
       </c>
       <c r="J8" s="15">
-        <v>58930.711732953183</v>
+        <v>58930.708749033642</v>
       </c>
       <c r="K8" s="15">
-        <v>1674.8735123191582</v>
+        <v>1674.8735125260864</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -10156,31 +10156,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>14214.387860289606</v>
+        <v>14214.383719564079</v>
       </c>
       <c r="F9" s="15">
-        <v>14329.020254635405</v>
+        <v>14329.016080516862</v>
       </c>
       <c r="G9" s="15">
-        <v>72618.545046894054</v>
+        <v>72618.537921322073</v>
       </c>
       <c r="H9" s="15">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="I9" s="15">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="J9" s="15">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="K9" s="15">
-        <v>567.36942826976883</v>
+        <v>567.36948455446691</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -10198,31 +10198,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F10" s="15">
-        <v>29657.371966496466</v>
+        <v>29657.370027358153</v>
       </c>
       <c r="G10" s="15">
-        <v>102275.91701339051</v>
+        <v>102275.90794868022</v>
       </c>
       <c r="H10" s="15">
-        <v>91127.839279100357</v>
+        <v>91127.831202443733</v>
       </c>
       <c r="I10" s="15">
-        <v>97894.943696992981</v>
+        <v>97894.934844368792</v>
       </c>
       <c r="J10" s="15">
-        <v>91127.839279100357</v>
+        <v>91127.831202443733</v>
       </c>
       <c r="K10" s="15">
-        <v>-6767.104417892624</v>
+        <v>-6767.1036419250595</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -10240,31 +10240,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F11" s="15">
-        <v>27852.107751106949</v>
+        <v>27852.107820628753</v>
       </c>
       <c r="G11" s="15">
-        <v>130128.02476449746</v>
+        <v>130128.01576930897</v>
       </c>
       <c r="H11" s="15">
-        <v>114772.92162732928</v>
+        <v>114772.91369357279</v>
       </c>
       <c r="I11" s="15">
-        <v>122460.50354360542</v>
+        <v>122460.49475229948</v>
       </c>
       <c r="J11" s="15">
-        <v>114772.92162732928</v>
+        <v>114772.91369357279</v>
       </c>
       <c r="K11" s="15">
-        <v>-7687.5819162761327</v>
+        <v>-7687.5810587266897</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -10282,31 +10282,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F12" s="15">
-        <v>43390.361552938171</v>
+        <v>43390.3616398179</v>
       </c>
       <c r="G12" s="15">
-        <v>173518.38631743562</v>
+        <v>173518.37740912687</v>
       </c>
       <c r="H12" s="15">
-        <v>137426.56121874889</v>
+        <v>137426.55416336839</v>
       </c>
       <c r="I12" s="15">
-        <v>156825.66970732121</v>
+        <v>156825.66098482403</v>
       </c>
       <c r="J12" s="15">
-        <v>137426.56121874889</v>
+        <v>137426.55416336839</v>
       </c>
       <c r="K12" s="15">
-        <v>-19399.108488572325</v>
+        <v>-19399.106821455644</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -10322,31 +10322,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F13" s="15">
-        <v>57333.324083598687</v>
+        <v>57333.324166271741</v>
       </c>
       <c r="G13" s="15">
-        <v>230851.7104010343</v>
+        <v>230851.70157539862</v>
       </c>
       <c r="H13" s="15">
-        <v>165982.37559535407</v>
+        <v>165982.36924972216</v>
       </c>
       <c r="I13" s="15">
-        <v>198048.32868455962</v>
+        <v>198048.32002150436</v>
       </c>
       <c r="J13" s="15">
-        <v>165982.37559535407</v>
+        <v>165982.36924972216</v>
       </c>
       <c r="K13" s="15">
-        <v>-32065.953089205548</v>
+        <v>-32065.950771782198</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -10362,31 +10362,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F14" s="15">
-        <v>56104.133205544349</v>
+        <v>56104.133279509435</v>
       </c>
       <c r="G14" s="15">
-        <v>286955.84360657865</v>
+        <v>286955.83485490805</v>
       </c>
       <c r="H14" s="15">
-        <v>214356.00915354106</v>
+        <v>214356.00261604332</v>
       </c>
       <c r="I14" s="15">
-        <v>239958.11501198969</v>
+        <v>239958.10640418634</v>
       </c>
       <c r="J14" s="15">
-        <v>214356.00915354106</v>
+        <v>214356.00261604332</v>
       </c>
       <c r="K14" s="15">
-        <v>-25602.105858448631</v>
+        <v>-25602.103788143024</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -10401,31 +10401,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F15" s="15">
-        <v>29491.308990704383</v>
+        <v>29491.309073763103</v>
       </c>
       <c r="G15" s="15">
-        <v>316447.15259728301</v>
+        <v>316447.14392867114</v>
       </c>
       <c r="H15" s="15">
-        <v>267397.85299832979</v>
+        <v>267397.84567335254</v>
       </c>
       <c r="I15" s="15">
-        <v>264878.271952888</v>
+        <v>264878.26341526926</v>
       </c>
       <c r="J15" s="15">
-        <v>267397.85299832979</v>
+        <v>267397.84567335254</v>
       </c>
       <c r="K15" s="15">
-        <v>2519.5810454417951</v>
+        <v>2519.5822580832755</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -10440,31 +10440,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F16" s="15">
-        <v>36174.805066167937</v>
+        <v>36174.805111281457</v>
       </c>
       <c r="G16" s="15">
-        <v>352621.95766345097</v>
+        <v>352621.9490399526</v>
       </c>
       <c r="H16" s="15">
-        <v>282450.18775213772</v>
+        <v>282450.18084471551</v>
       </c>
       <c r="I16" s="15">
-        <v>293854.29077638953</v>
+        <v>293854.28227490676</v>
       </c>
       <c r="J16" s="15">
-        <v>282450.18775213772</v>
+        <v>282450.18084471551</v>
       </c>
       <c r="K16" s="15">
-        <v>-11404.103024251817</v>
+        <v>-11404.101430191251</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -10479,31 +10479,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F17" s="15">
-        <v>41292.779032180362</v>
+        <v>41292.779119040213</v>
       </c>
       <c r="G17" s="15">
-        <v>393914.73669563135</v>
+        <v>393914.72815899283</v>
       </c>
       <c r="H17" s="15">
-        <v>301344.76793716248</v>
+        <v>301344.76140663412</v>
       </c>
       <c r="I17" s="15">
-        <v>325443.26614530955</v>
+        <v>325443.2577102746</v>
       </c>
       <c r="J17" s="15">
-        <v>301344.76793716248</v>
+        <v>301344.76140663412</v>
       </c>
       <c r="K17" s="15">
-        <v>-24098.498208147066</v>
+        <v>-24098.496303640481</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -10518,31 +10518,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>39617.246706339683</v>
+        <v>39617.24433919783</v>
       </c>
       <c r="F18" s="15">
-        <v>56921.333112517765</v>
+        <v>56921.329711451792</v>
       </c>
       <c r="G18" s="15">
-        <v>450836.06980814913</v>
+        <v>450836.05787044461</v>
       </c>
       <c r="H18" s="15">
-        <v>313781.89555750543</v>
+        <v>313781.88724886329</v>
       </c>
       <c r="I18" s="15">
-        <v>365060.51285164926</v>
+        <v>365060.50204947242</v>
       </c>
       <c r="J18" s="15">
-        <v>313781.89555750543</v>
+        <v>313781.88724886329</v>
       </c>
       <c r="K18" s="15">
-        <v>-51278.617294143827</v>
+        <v>-51278.614800609124</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -10557,31 +10557,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>39476.510206040606</v>
+        <v>39476.510243603116</v>
       </c>
       <c r="F19" s="15">
-        <v>57462.171104287372</v>
+        <v>57462.171158963516</v>
       </c>
       <c r="G19" s="15">
-        <v>508298.24091243651</v>
+        <v>508298.22902940813</v>
       </c>
       <c r="H19" s="15">
-        <v>349200.87963044492</v>
+        <v>349200.8714668047</v>
       </c>
       <c r="I19" s="15">
-        <v>404537.02305768989</v>
+        <v>404537.01229307556</v>
       </c>
       <c r="J19" s="15">
-        <v>349200.87963044492</v>
+        <v>349200.8714668047</v>
       </c>
       <c r="K19" s="15">
-        <v>-55336.14342724497</v>
+        <v>-55336.140826270857</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -10595,31 +10595,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F20" s="15">
-        <v>48867.831007703237</v>
+        <v>48867.83108511327</v>
       </c>
       <c r="G20" s="15">
-        <v>557166.07192013972</v>
+        <v>557166.06011452142</v>
       </c>
       <c r="H20" s="15">
-        <v>401159.5877231498</v>
+        <v>401159.57922310429</v>
       </c>
       <c r="I20" s="15">
-        <v>439721.86278135609</v>
+        <v>439721.85207247699</v>
       </c>
       <c r="J20" s="15">
-        <v>401159.5877231498</v>
+        <v>401159.57922310429</v>
       </c>
       <c r="K20" s="15">
-        <v>-38562.275058206287</v>
+        <v>-38562.272849372705</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -10633,31 +10633,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F21" s="15">
-        <v>46613.848008078661</v>
+        <v>46613.848054219117</v>
       </c>
       <c r="G21" s="15">
-        <v>603779.91992821835</v>
+        <v>603779.90816874057</v>
       </c>
       <c r="H21" s="15">
-        <v>436532.87606210314</v>
+        <v>436532.8675600008</v>
       </c>
       <c r="I21" s="15">
-        <v>473423.67442442547</v>
+        <v>473423.66374890588</v>
       </c>
       <c r="J21" s="15">
-        <v>436532.87606210314</v>
+        <v>436532.8675600008</v>
       </c>
       <c r="K21" s="15">
-        <v>-36890.798362322326</v>
+        <v>-36890.796188905078</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -10674,28 +10674,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F22" s="15">
-        <v>30588.543364516147</v>
+        <v>30588.543410657745</v>
       </c>
       <c r="G22" s="15">
-        <v>634368.46329273446</v>
+        <v>634368.45157939836</v>
       </c>
       <c r="H22" s="15">
-        <v>500516.70150597335</v>
+        <v>500516.69226415147</v>
       </c>
       <c r="I22" s="15">
-        <v>497558.03436598374</v>
+        <v>497558.02372686984</v>
       </c>
       <c r="J22" s="15">
-        <v>500516.70150597335</v>
+        <v>500516.69226415147</v>
       </c>
       <c r="K22" s="15">
-        <v>2958.667139989615</v>
+        <v>2958.6685372816282</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -10709,31 +10709,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F23" s="15">
-        <v>34936.150036978543</v>
+        <v>34936.150071016047</v>
       </c>
       <c r="G23" s="15">
-        <v>669304.613329713</v>
+        <v>669304.60165041441</v>
       </c>
       <c r="H23" s="15">
-        <v>510679.42763015447</v>
+        <v>510679.41871884948</v>
       </c>
       <c r="I23" s="15">
-        <v>524214.31724401086</v>
+        <v>524214.30663086759</v>
       </c>
       <c r="J23" s="15">
-        <v>510679.42763015447</v>
+        <v>510679.41871884948</v>
       </c>
       <c r="K23" s="15">
-        <v>-13534.889613856387</v>
+        <v>-13534.887912018108</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -10747,31 +10747,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F24" s="15">
-        <v>31933.455347920826</v>
+        <v>31933.455404206645</v>
       </c>
       <c r="G24" s="15">
-        <v>701238.06867763377</v>
+        <v>701238.05705462105</v>
       </c>
       <c r="H24" s="15">
-        <v>540654.57034428499</v>
+        <v>540654.5613829419</v>
       </c>
       <c r="I24" s="15">
-        <v>548835.01220042724</v>
+        <v>548835.00163068029</v>
       </c>
       <c r="J24" s="15">
-        <v>540654.57034428499</v>
+        <v>540654.5613829419</v>
       </c>
       <c r="K24" s="15">
-        <v>-8180.4418561422499</v>
+        <v>-8180.4402477383846</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -10785,31 +10785,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F25" s="15">
-        <v>34578.974762435661</v>
+        <v>34578.974785641672</v>
       </c>
       <c r="G25" s="15">
-        <v>735817.04344006942</v>
+        <v>735817.0318402627</v>
       </c>
       <c r="H25" s="15">
-        <v>552598.59015013964</v>
+        <v>552598.58143868495</v>
       </c>
       <c r="I25" s="15">
-        <v>574803.82180182589</v>
+        <v>574803.81124950666</v>
       </c>
       <c r="J25" s="15">
-        <v>552598.59015013964</v>
+        <v>552598.58143868495</v>
       </c>
       <c r="K25" s="15">
-        <v>-22205.231651686248</v>
+        <v>-22205.229810821707</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -10823,31 +10823,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F26" s="15">
-        <v>46655.693756706351</v>
+        <v>46655.693779200345</v>
       </c>
       <c r="G26" s="15">
-        <v>782472.73719677574</v>
+        <v>782472.72561946302</v>
       </c>
       <c r="H26" s="15">
-        <v>563380.39316840307</v>
+        <v>563380.38483273762</v>
       </c>
       <c r="I26" s="15">
-        <v>608395.92264148453</v>
+        <v>608395.912105361</v>
       </c>
       <c r="J26" s="15">
-        <v>563380.39316840307</v>
+        <v>563380.38483273762</v>
       </c>
       <c r="K26" s="15">
-        <v>-45015.529473081464</v>
+        <v>-45015.527272623382</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -10861,31 +10861,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F27" s="15">
-        <v>38403.866262635274</v>
+        <v>38403.866286625889</v>
       </c>
       <c r="G27" s="15">
-        <v>820876.60345941107</v>
+        <v>820876.59190608887</v>
       </c>
       <c r="H27" s="15">
-        <v>619761.83169761067</v>
+        <v>619761.82297485252</v>
       </c>
       <c r="I27" s="15">
-        <v>637390.84148665029</v>
+        <v>637390.8309686397</v>
       </c>
       <c r="J27" s="15">
-        <v>619761.83169761067</v>
+        <v>619761.82297485252</v>
       </c>
       <c r="K27" s="15">
-        <v>-17629.009789039614</v>
+        <v>-17629.007993787178</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F28" s="15">
-        <v>35570.876201449297</v>
+        <v>35570.876252581569</v>
       </c>
       <c r="G28" s="15">
-        <v>856447.47966086038</v>
+        <v>856447.46815867047</v>
       </c>
       <c r="H28" s="15">
-        <v>651756.51282777358</v>
+        <v>651756.50407460728</v>
       </c>
       <c r="I28" s="15">
-        <v>664460.27747876197</v>
+        <v>664460.26699966309</v>
       </c>
       <c r="J28" s="15">
-        <v>651756.51282777358</v>
+        <v>651756.50407460728</v>
       </c>
       <c r="K28" s="15">
-        <v>-12703.764650988393</v>
+        <v>-12703.762925055809</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -10937,31 +10937,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F29" s="15">
-        <v>44544.817404276022</v>
+        <v>44544.817450934708</v>
       </c>
       <c r="G29" s="15">
-        <v>900992.29706513637</v>
+        <v>900992.28560960514</v>
       </c>
       <c r="H29" s="15">
-        <v>643308.4880749624</v>
+        <v>643308.47989571327</v>
       </c>
       <c r="I29" s="15">
-        <v>696265.27651067753</v>
+        <v>696265.26606489299</v>
       </c>
       <c r="J29" s="15">
-        <v>643308.4880749624</v>
+        <v>643308.47989571327</v>
       </c>
       <c r="K29" s="15">
-        <v>-52956.788435715134</v>
+        <v>-52956.786169179715</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F30" s="15">
-        <v>54158.439814850673</v>
+        <v>54158.439853689146</v>
       </c>
       <c r="G30" s="15">
-        <v>955150.73687998706</v>
+        <v>955150.72546329431</v>
       </c>
       <c r="H30" s="15">
-        <v>654278.2570400479</v>
+        <v>654278.24921961338</v>
       </c>
       <c r="I30" s="15">
-        <v>733363.80791297404</v>
+        <v>733363.79749379389</v>
       </c>
       <c r="J30" s="15">
-        <v>654278.2570400479</v>
+        <v>654278.24921961338</v>
       </c>
       <c r="K30" s="15">
-        <v>-79085.550872926135</v>
+        <v>-79085.548274180503</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -11013,31 +11013,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F31" s="15">
-        <v>57207.211481968698</v>
+        <v>57207.211534216156</v>
       </c>
       <c r="G31" s="15">
-        <v>1012357.9483619558</v>
+        <v>1012357.9369975105</v>
       </c>
       <c r="H31" s="15">
-        <v>671193.30721299967</v>
+        <v>671193.29967837257</v>
       </c>
       <c r="I31" s="15">
-        <v>771292.18841627764</v>
+        <v>771292.17803173757</v>
       </c>
       <c r="J31" s="15">
-        <v>671193.30721299967</v>
+        <v>671193.29967837257</v>
       </c>
       <c r="K31" s="15">
-        <v>-100098.88120327797</v>
+        <v>-100098.878353365</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -11051,31 +11051,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>39902.178437708179</v>
+        <v>39902.178481777861</v>
       </c>
       <c r="F32" s="15">
-        <v>61293.666720134381</v>
+        <v>61293.666787829745</v>
       </c>
       <c r="G32" s="15">
-        <v>1073651.6150820903</v>
+        <v>1073651.6037853402</v>
       </c>
       <c r="H32" s="15">
-        <v>698947.22599237598</v>
+        <v>698947.21863819147</v>
       </c>
       <c r="I32" s="15">
-        <v>811194.36685398582</v>
+        <v>811194.35651351546</v>
       </c>
       <c r="J32" s="15">
-        <v>698947.22599237598</v>
+        <v>698947.21863819147</v>
       </c>
       <c r="K32" s="15">
-        <v>-112247.14086160983</v>
+        <v>-112247.137875324</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -11089,31 +11089,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F33" s="15">
-        <v>61152.673124809051</v>
+        <v>61152.67313516888</v>
       </c>
       <c r="G33" s="15">
-        <v>1134804.2882068993</v>
+        <v>1134804.2769205091</v>
       </c>
       <c r="H33" s="15">
-        <v>731948.744248776</v>
+        <v>731948.73696905444</v>
       </c>
       <c r="I33" s="15">
-        <v>850637.83985309303</v>
+        <v>850637.82951930468</v>
       </c>
       <c r="J33" s="15">
-        <v>731948.744248776</v>
+        <v>731948.73696905444</v>
       </c>
       <c r="K33" s="15">
-        <v>-118689.09560431703</v>
+        <v>-118689.09255025024</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -11127,31 +11127,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>47228.665828131299</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F34" s="15">
-        <v>84186.571677867352</v>
+        <v>84186.571688541211</v>
       </c>
       <c r="G34" s="15">
-        <v>1218990.8598847666</v>
+        <v>1218990.8486090503</v>
       </c>
       <c r="H34" s="15">
-        <v>683853.85960763111</v>
+        <v>683853.8532819543</v>
       </c>
       <c r="I34" s="15">
-        <v>897866.50568122428</v>
+        <v>897866.49535342399</v>
       </c>
       <c r="J34" s="15">
-        <v>683853.85960763111</v>
+        <v>683853.8532819543</v>
       </c>
       <c r="K34" s="15">
-        <v>-214012.64607359318</v>
+        <v>-214012.64207146969</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -11165,31 +11165,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="15">
-        <v>59599.526090703235</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="15">
-        <v>1278590.3859754698</v>
+        <v>1278590.374722241</v>
       </c>
       <c r="H35" s="15">
-        <v>815740.68088465545</v>
+        <v>815740.67370509531</v>
       </c>
       <c r="I35" s="15">
-        <v>935891.00400915544</v>
+        <v>935890.99369570205</v>
       </c>
       <c r="J35" s="15">
-        <v>815740.68088465545</v>
+        <v>815740.67370509531</v>
       </c>
       <c r="K35" s="15">
-        <v>-120150.32312449999</v>
+        <v>-120150.31999060675</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -11203,31 +11203,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F36" s="15">
-        <v>56129.251308757863</v>
+        <v>55885.001090904167</v>
       </c>
       <c r="G36" s="15">
-        <v>1334719.6372842276</v>
+        <v>1334475.3758131452</v>
       </c>
       <c r="H36" s="15">
-        <v>862228.92259935837</v>
+        <v>862071.12968228362</v>
       </c>
       <c r="I36" s="15">
-        <v>972150.5019069548</v>
+        <v>971992.70594601275</v>
       </c>
       <c r="J36" s="15">
-        <v>862228.92259935837</v>
+        <v>862071.12968228362</v>
       </c>
       <c r="K36" s="15">
-        <v>-109921.57930759643</v>
+        <v>-109921.57626372913</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -11241,31 +11241,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>33513.039278340933</v>
+        <v>33513.039299013537</v>
       </c>
       <c r="F37" s="15">
-        <v>50471.446617280082</v>
+        <v>50471.446648413526</v>
       </c>
       <c r="G37" s="15">
-        <v>1385191.0839015078</v>
+        <v>1384946.8224615587</v>
       </c>
       <c r="H37" s="15">
-        <v>919766.84470354044</v>
+        <v>919604.65511358727</v>
       </c>
       <c r="I37" s="15">
-        <v>1005663.5411852957</v>
+        <v>1005505.7452450263</v>
       </c>
       <c r="J37" s="15">
-        <v>919766.84470354044</v>
+        <v>919604.65511358727</v>
       </c>
       <c r="K37" s="15">
-        <v>-85896.696481755236</v>
+        <v>-85901.090131439036</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -11556,25 +11556,25 @@
         <v>44561</v>
       </c>
       <c r="W4" s="18">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="X4" s="8">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="Y4" s="8">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="Z4" s="8">
-        <v>567.36942826976883</v>
+        <v>567.36948455446691</v>
       </c>
       <c r="AA4" s="8">
         <v>0</v>
       </c>
       <c r="AB4" s="19">
-        <v>7.9385425145759737E-3</v>
+        <v>7.9385440934943013E-3</v>
       </c>
       <c r="AC4" s="19">
-        <v>7.9385425145759737E-3</v>
+        <v>7.9385440934943013E-3</v>
       </c>
       <c r="AE4" s="24">
         <v>44925</v>
@@ -11647,22 +11647,22 @@
         <v>44925</v>
       </c>
       <c r="W5" s="18">
-        <v>417772.19972597784</v>
+        <v>417772.19570939441</v>
       </c>
       <c r="X5" s="8">
-        <v>489242.42580690148</v>
+        <v>489242.41466546606</v>
       </c>
       <c r="Y5" s="8">
-        <v>453072.73054277548</v>
+        <v>453072.72155678517</v>
       </c>
       <c r="Z5" s="8">
-        <v>-36169.695264126</v>
+        <v>-36169.693108680891</v>
       </c>
       <c r="AA5" s="8">
         <v>0</v>
       </c>
       <c r="AB5" s="19">
-        <v>-7.3930005568245166E-2</v>
+        <v>-7.3930002846161622E-2</v>
       </c>
       <c r="AC5" s="19">
         <v>-6.5045944429880764E-2</v>
@@ -11749,31 +11749,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>11666.814382387671</v>
+        <v>11666.814393803639</v>
       </c>
       <c r="F7" s="15">
-        <v>11749.058131050662</v>
+        <v>11749.058142547106</v>
       </c>
       <c r="G7" s="15">
-        <v>45609.28296837888</v>
+        <v>45609.282979875323</v>
       </c>
       <c r="H7" s="15">
-        <v>45290.016660959976</v>
+        <v>45290.016672375939</v>
       </c>
       <c r="I7" s="15">
-        <v>44436.113265071559</v>
+        <v>44436.113276487529</v>
       </c>
       <c r="J7" s="15">
-        <v>45290.016660959976</v>
+        <v>45290.016672375939</v>
       </c>
       <c r="K7" s="15">
-        <v>853.90339588841744</v>
+        <v>853.90339588841016</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -11804,31 +11804,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>12819.724955562464</v>
+        <v>12819.721960020022</v>
       </c>
       <c r="F8" s="15">
-        <v>12680.241823879769</v>
+        <v>12680.238860929887</v>
       </c>
       <c r="G8" s="15">
-        <v>58289.52479225865</v>
+        <v>58289.52184080521</v>
       </c>
       <c r="H8" s="15">
-        <v>58930.711732953183</v>
+        <v>58930.708749033642</v>
       </c>
       <c r="I8" s="15">
-        <v>57255.838220634025</v>
+        <v>57255.835236507555</v>
       </c>
       <c r="J8" s="15">
-        <v>58930.711732953183</v>
+        <v>58930.708749033642</v>
       </c>
       <c r="K8" s="15">
-        <v>1674.8735123191582</v>
+        <v>1674.8735125260864</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -11855,31 +11855,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>14214.387860289606</v>
+        <v>14214.383719564079</v>
       </c>
       <c r="F9" s="15">
-        <v>14329.020254635405</v>
+        <v>14329.016080516862</v>
       </c>
       <c r="G9" s="15">
-        <v>72618.545046894054</v>
+        <v>72618.537921322073</v>
       </c>
       <c r="H9" s="15">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="I9" s="15">
-        <v>71470.226080923632</v>
+        <v>71470.218956071636</v>
       </c>
       <c r="J9" s="15">
-        <v>72037.595509193401</v>
+        <v>72037.588440626103</v>
       </c>
       <c r="K9" s="15">
-        <v>567.36942826976883</v>
+        <v>567.36948455446691</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -11909,31 +11909,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F10" s="15">
-        <v>29657.371966496466</v>
+        <v>29657.370027358153</v>
       </c>
       <c r="G10" s="15">
-        <v>102275.91701339051</v>
+        <v>102275.90794868022</v>
       </c>
       <c r="H10" s="15">
-        <v>91127.839279100357</v>
+        <v>91127.831202443733</v>
       </c>
       <c r="I10" s="15">
-        <v>97894.943696992981</v>
+        <v>97894.934844368792</v>
       </c>
       <c r="J10" s="15">
-        <v>91127.839279100357</v>
+        <v>91127.831202443733</v>
       </c>
       <c r="K10" s="15">
-        <v>-6767.104417892624</v>
+        <v>-6767.1036419250595</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -11963,31 +11963,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F11" s="15">
-        <v>27852.107751106949</v>
+        <v>27852.107820628753</v>
       </c>
       <c r="G11" s="15">
-        <v>130128.02476449746</v>
+        <v>130128.01576930897</v>
       </c>
       <c r="H11" s="15">
-        <v>114772.92162732928</v>
+        <v>114772.91369357279</v>
       </c>
       <c r="I11" s="15">
-        <v>122460.50354360542</v>
+        <v>122460.49475229948</v>
       </c>
       <c r="J11" s="15">
-        <v>114772.92162732928</v>
+        <v>114772.91369357279</v>
       </c>
       <c r="K11" s="15">
-        <v>-7687.5819162761327</v>
+        <v>-7687.5810587266897</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -12017,31 +12017,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F12" s="15">
-        <v>43390.361552938171</v>
+        <v>43390.3616398179</v>
       </c>
       <c r="G12" s="15">
-        <v>173518.38631743562</v>
+        <v>173518.37740912687</v>
       </c>
       <c r="H12" s="15">
-        <v>137426.56121874889</v>
+        <v>137426.55416336839</v>
       </c>
       <c r="I12" s="15">
-        <v>156825.66970732121</v>
+        <v>156825.66098482403</v>
       </c>
       <c r="J12" s="15">
-        <v>137426.56121874889</v>
+        <v>137426.55416336839</v>
       </c>
       <c r="K12" s="15">
-        <v>-19399.108488572325</v>
+        <v>-19399.106821455644</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -12069,31 +12069,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F13" s="15">
-        <v>57333.324083598687</v>
+        <v>57333.324166271741</v>
       </c>
       <c r="G13" s="15">
-        <v>230851.7104010343</v>
+        <v>230851.70157539862</v>
       </c>
       <c r="H13" s="15">
-        <v>165982.37559535407</v>
+        <v>165982.36924972216</v>
       </c>
       <c r="I13" s="15">
-        <v>198048.32868455962</v>
+        <v>198048.32002150436</v>
       </c>
       <c r="J13" s="15">
-        <v>165982.37559535407</v>
+        <v>165982.36924972216</v>
       </c>
       <c r="K13" s="15">
-        <v>-32065.953089205548</v>
+        <v>-32065.950771782198</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -12121,31 +12121,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F14" s="15">
-        <v>56104.133205544349</v>
+        <v>56104.133279509435</v>
       </c>
       <c r="G14" s="15">
-        <v>286955.84360657865</v>
+        <v>286955.83485490805</v>
       </c>
       <c r="H14" s="15">
-        <v>214356.00915354106</v>
+        <v>214356.00261604332</v>
       </c>
       <c r="I14" s="15">
-        <v>239958.11501198969</v>
+        <v>239958.10640418634</v>
       </c>
       <c r="J14" s="15">
-        <v>214356.00915354106</v>
+        <v>214356.00261604332</v>
       </c>
       <c r="K14" s="15">
-        <v>-25602.105858448631</v>
+        <v>-25602.103788143024</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -12172,31 +12172,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F15" s="15">
-        <v>29491.308990704383</v>
+        <v>29491.309073763103</v>
       </c>
       <c r="G15" s="15">
-        <v>316447.15259728301</v>
+        <v>316447.14392867114</v>
       </c>
       <c r="H15" s="15">
-        <v>267397.85299832979</v>
+        <v>267397.84567335254</v>
       </c>
       <c r="I15" s="15">
-        <v>264878.271952888</v>
+        <v>264878.26341526926</v>
       </c>
       <c r="J15" s="15">
-        <v>267397.85299832979</v>
+        <v>267397.84567335254</v>
       </c>
       <c r="K15" s="15">
-        <v>2519.5810454417951</v>
+        <v>2519.5822580832755</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -12223,31 +12223,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F16" s="15">
-        <v>36174.805066167937</v>
+        <v>36174.805111281457</v>
       </c>
       <c r="G16" s="15">
-        <v>352621.95766345097</v>
+        <v>352621.9490399526</v>
       </c>
       <c r="H16" s="15">
-        <v>282450.18775213772</v>
+        <v>282450.18084471551</v>
       </c>
       <c r="I16" s="15">
-        <v>293854.29077638953</v>
+        <v>293854.28227490676</v>
       </c>
       <c r="J16" s="15">
-        <v>282450.18775213772</v>
+        <v>282450.18084471551</v>
       </c>
       <c r="K16" s="15">
-        <v>-11404.103024251817</v>
+        <v>-11404.101430191251</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -12288,31 +12288,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F17" s="15">
-        <v>41292.779032180362</v>
+        <v>41292.779119040213</v>
       </c>
       <c r="G17" s="15">
-        <v>393914.73669563135</v>
+        <v>393914.72815899283</v>
       </c>
       <c r="H17" s="15">
-        <v>301344.76793716248</v>
+        <v>301344.76140663412</v>
       </c>
       <c r="I17" s="15">
-        <v>325443.26614530955</v>
+        <v>325443.2577102746</v>
       </c>
       <c r="J17" s="15">
-        <v>301344.76793716248</v>
+        <v>301344.76140663412</v>
       </c>
       <c r="K17" s="15">
-        <v>-24098.498208147066</v>
+        <v>-24098.496303640481</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -12353,31 +12353,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>47540.69604760762</v>
+        <v>47540.693207037395</v>
       </c>
       <c r="F18" s="15">
-        <v>68305.599735021315</v>
+        <v>68305.595653742144</v>
       </c>
       <c r="G18" s="15">
-        <v>462220.33643065265</v>
+        <v>462220.32381273498</v>
       </c>
       <c r="H18" s="15">
-        <v>321705.3448987733</v>
+        <v>321705.33611670288</v>
       </c>
       <c r="I18" s="15">
-        <v>372983.96219291718</v>
+        <v>372983.950917312</v>
       </c>
       <c r="J18" s="15">
-        <v>321705.3448987733</v>
+        <v>321705.33611670288</v>
       </c>
       <c r="K18" s="15">
-        <v>-51278.617294143885</v>
+        <v>-51278.614800609124</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -12418,31 +12418,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>47371.812247248723</v>
+        <v>47371.812292323739</v>
       </c>
       <c r="F19" s="15">
-        <v>68954.605325144847</v>
+        <v>68954.605390756216</v>
       </c>
       <c r="G19" s="15">
-        <v>531174.94175579748</v>
+        <v>531174.92920349119</v>
       </c>
       <c r="H19" s="15">
-        <v>364917.17257531936</v>
+        <v>364917.16395188519</v>
       </c>
       <c r="I19" s="15">
-        <v>420355.7744401659</v>
+        <v>420355.76320963574</v>
       </c>
       <c r="J19" s="15">
-        <v>364917.17257531936</v>
+        <v>364917.16395188519</v>
       </c>
       <c r="K19" s="15">
-        <v>-55438.60186484654</v>
+        <v>-55438.599257750553</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -12483,31 +12483,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F20" s="15">
-        <v>48867.831007703237</v>
+        <v>48867.83108511327</v>
       </c>
       <c r="G20" s="15">
-        <v>580042.77276350069</v>
+        <v>580042.76028860442</v>
       </c>
       <c r="H20" s="15">
-        <v>417630.81298487732</v>
+        <v>417630.80400295166</v>
       </c>
       <c r="I20" s="15">
-        <v>455540.6141638321</v>
+        <v>455540.60298903717</v>
       </c>
       <c r="J20" s="15">
-        <v>417630.81298487732</v>
+        <v>417630.80400295166</v>
       </c>
       <c r="K20" s="15">
-        <v>-37909.801178954775</v>
+        <v>-37909.798986085516</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -12548,31 +12548,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F21" s="15">
-        <v>46613.848008078661</v>
+        <v>46613.848054219117</v>
       </c>
       <c r="G21" s="15">
-        <v>626656.62077157933</v>
+        <v>626656.60834282357</v>
       </c>
       <c r="H21" s="15">
-        <v>453072.73054277548</v>
+        <v>453072.72155678517</v>
       </c>
       <c r="I21" s="15">
-        <v>489242.42580690148</v>
+        <v>489242.41466546606</v>
       </c>
       <c r="J21" s="15">
-        <v>453072.73054277548</v>
+        <v>453072.72155678517</v>
       </c>
       <c r="K21" s="15">
-        <v>-36169.695264126</v>
+        <v>-36169.693108680891</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -12616,28 +12616,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F22" s="15">
-        <v>30588.543364516147</v>
+        <v>30588.543410657745</v>
       </c>
       <c r="G22" s="15">
-        <v>657245.16413609544</v>
+        <v>657245.15175348136</v>
       </c>
       <c r="H22" s="15">
-        <v>518566.41789323674</v>
+        <v>518566.40812335454</v>
       </c>
       <c r="I22" s="15">
-        <v>513376.78574845975</v>
+        <v>513376.77464343002</v>
       </c>
       <c r="J22" s="15">
-        <v>518566.41789323674</v>
+        <v>518566.40812335454</v>
       </c>
       <c r="K22" s="15">
-        <v>5189.6321447769878</v>
+        <v>5189.6334799245233</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -12678,31 +12678,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F23" s="15">
-        <v>34936.150036978543</v>
+        <v>34936.150071016047</v>
       </c>
       <c r="G23" s="15">
-        <v>692181.31417307397</v>
+        <v>692181.30182449741</v>
       </c>
       <c r="H23" s="15">
-        <v>528134.35063544195</v>
+        <v>528134.34121347789</v>
       </c>
       <c r="I23" s="15">
-        <v>540033.06862648693</v>
+        <v>540033.05754742783</v>
       </c>
       <c r="J23" s="15">
-        <v>528134.35063544195</v>
+        <v>528134.34121347789</v>
       </c>
       <c r="K23" s="15">
-        <v>-11898.717991044978</v>
+        <v>-11898.716333949938</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -12743,31 +12743,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F24" s="15">
-        <v>31933.455347920826</v>
+        <v>31933.455404206645</v>
       </c>
       <c r="G24" s="15">
-        <v>724114.76952099474</v>
+        <v>724114.75722870405</v>
       </c>
       <c r="H24" s="15">
-        <v>558292.50732720701</v>
+        <v>558292.49784985057</v>
       </c>
       <c r="I24" s="15">
-        <v>564653.76358290331</v>
+        <v>564653.75254724058</v>
       </c>
       <c r="J24" s="15">
-        <v>558292.50732720701</v>
+        <v>558292.49784985057</v>
       </c>
       <c r="K24" s="15">
-        <v>-6361.2562556962948</v>
+        <v>-6361.2546973900171</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -12808,31 +12808,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F25" s="15">
-        <v>34578.974762435661</v>
+        <v>34578.974785641672</v>
       </c>
       <c r="G25" s="15">
-        <v>758693.74428343039</v>
+        <v>758693.7320143457</v>
       </c>
       <c r="H25" s="15">
-        <v>569778.99218897521</v>
+        <v>569778.98297489283</v>
       </c>
       <c r="I25" s="15">
-        <v>590622.57318430196</v>
+        <v>590622.56216606684</v>
       </c>
       <c r="J25" s="15">
-        <v>569778.99218897521</v>
+        <v>569778.98297489283</v>
       </c>
       <c r="K25" s="15">
-        <v>-20843.580995326745</v>
+        <v>-20843.579191174009</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -12873,31 +12873,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F26" s="15">
-        <v>46655.693756706351</v>
+        <v>46655.693779200345</v>
       </c>
       <c r="G26" s="15">
-        <v>805349.43804013671</v>
+        <v>805349.42579354602</v>
       </c>
       <c r="H26" s="15">
-        <v>579851.61843013065</v>
+        <v>579851.60961258505</v>
       </c>
       <c r="I26" s="15">
-        <v>624214.6740239606</v>
+        <v>624214.66302192118</v>
       </c>
       <c r="J26" s="15">
-        <v>579851.61843013065</v>
+        <v>579851.60961258505</v>
       </c>
       <c r="K26" s="15">
-        <v>-44363.055593829951</v>
+        <v>-44363.053409336135</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -12938,31 +12938,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F27" s="15">
-        <v>38403.866262635274</v>
+        <v>38403.866286625889</v>
       </c>
       <c r="G27" s="15">
-        <v>843753.30430277204</v>
+        <v>843753.29208017187</v>
       </c>
       <c r="H27" s="15">
-        <v>637033.7407252636</v>
+        <v>637033.73149720056</v>
       </c>
       <c r="I27" s="15">
-        <v>653209.59286912635</v>
+        <v>653209.58188519988</v>
       </c>
       <c r="J27" s="15">
-        <v>637033.7407252636</v>
+        <v>637033.73149720056</v>
       </c>
       <c r="K27" s="15">
-        <v>-16175.85214386275</v>
+        <v>-16175.850387999322</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -13003,31 +13003,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F28" s="15">
-        <v>35570.876201449297</v>
+        <v>35570.876252581569</v>
       </c>
       <c r="G28" s="15">
-        <v>879324.18050422135</v>
+        <v>879324.16833275347</v>
       </c>
       <c r="H28" s="15">
-        <v>669165.68165687367</v>
+        <v>669165.67239438684</v>
       </c>
       <c r="I28" s="15">
-        <v>680279.02886123804</v>
+        <v>680279.01791622327</v>
       </c>
       <c r="J28" s="15">
-        <v>669165.68165687367</v>
+        <v>669165.67239438684</v>
       </c>
       <c r="K28" s="15">
-        <v>-11113.347204364371</v>
+        <v>-11113.345521836425</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -13068,31 +13068,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F29" s="15">
-        <v>44544.817404276022</v>
+        <v>44544.817450934708</v>
       </c>
       <c r="G29" s="15">
-        <v>923868.99790849735</v>
+        <v>923868.98578368814</v>
       </c>
       <c r="H29" s="15">
-        <v>659642.45217168517</v>
+        <v>659642.44351457164</v>
       </c>
       <c r="I29" s="15">
-        <v>712084.0278931536</v>
+        <v>712084.01698145317</v>
       </c>
       <c r="J29" s="15">
-        <v>659642.45217168517</v>
+        <v>659642.44351457164</v>
       </c>
       <c r="K29" s="15">
-        <v>-52441.575721468427</v>
+        <v>-52441.573466881528</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -13136,28 +13136,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>44518.237682755796</v>
+        <v>44518.23771468101</v>
       </c>
       <c r="F30" s="15">
-        <v>64990.127777820817</v>
+        <v>64990.127824426963</v>
       </c>
       <c r="G30" s="15">
-        <v>988859.12568631815</v>
+        <v>988859.11360811512</v>
       </c>
       <c r="H30" s="15">
-        <v>677368.50345275179</v>
+        <v>677368.49517918273</v>
       </c>
       <c r="I30" s="15">
-        <v>756602.26557590941</v>
+        <v>756602.25469613413</v>
       </c>
       <c r="J30" s="15">
-        <v>677368.50345275179</v>
+        <v>677368.49517918273</v>
       </c>
       <c r="K30" s="15">
-        <v>-79233.762123157619</v>
+        <v>-79233.759516951395</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -13198,31 +13198,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>45514.056603964338</v>
+        <v>45514.056645532415</v>
       </c>
       <c r="F31" s="15">
-        <v>68648.653778362437</v>
+        <v>68648.653841059378</v>
       </c>
       <c r="G31" s="15">
-        <v>1057507.7794646807</v>
+        <v>1057507.7674491745</v>
       </c>
       <c r="H31" s="15">
-        <v>701127.64467434923</v>
+        <v>701127.63670806878</v>
       </c>
       <c r="I31" s="15">
-        <v>802116.32217987371</v>
+        <v>802116.3113416665</v>
       </c>
       <c r="J31" s="15">
-        <v>701127.64467434923</v>
+        <v>701127.63670806878</v>
       </c>
       <c r="K31" s="15">
-        <v>-100988.67750552448</v>
+        <v>-100988.67463359772</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -13263,31 +13263,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>47882.614125249813</v>
+        <v>47882.61417813343</v>
       </c>
       <c r="F32" s="15">
-        <v>73552.400064161251</v>
+        <v>73552.400145395688</v>
       </c>
       <c r="G32" s="15">
-        <v>1131060.179528842</v>
+        <v>1131060.1675945702</v>
       </c>
       <c r="H32" s="15">
-        <v>736320.2027611892</v>
+        <v>736320.194991978</v>
       </c>
       <c r="I32" s="15">
-        <v>849998.9363051235</v>
+        <v>849998.92551979993</v>
       </c>
       <c r="J32" s="15">
-        <v>736320.2027611892</v>
+        <v>736320.194991978</v>
       </c>
       <c r="K32" s="15">
-        <v>-113678.7335439343</v>
+        <v>-113678.73052782193</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -13328,31 +13328,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>47332.167598928594</v>
+        <v>47332.1676069471</v>
       </c>
       <c r="F33" s="15">
-        <v>73383.207749770852</v>
+        <v>73383.207762202655</v>
       </c>
       <c r="G33" s="15">
-        <v>1204443.3872786129</v>
+        <v>1204443.3753567729</v>
       </c>
       <c r="H33" s="15">
-        <v>776865.96182177088</v>
+        <v>776865.95413218427</v>
       </c>
       <c r="I33" s="15">
-        <v>897331.10390405206</v>
+        <v>897331.09312674706</v>
       </c>
       <c r="J33" s="15">
-        <v>776865.96182177088</v>
+        <v>776865.95413218427</v>
       </c>
       <c r="K33" s="15">
-        <v>-120465.14208228118</v>
+        <v>-120465.13899456279</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -13393,31 +13393,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>56674.398993757561</v>
+        <v>56674.399000943209</v>
       </c>
       <c r="F34" s="15">
-        <v>101023.88601344082</v>
+        <v>101023.88602624946</v>
       </c>
       <c r="G34" s="15">
-        <v>1305467.2732920537</v>
+        <v>1305467.2613830224</v>
       </c>
       <c r="H34" s="15">
-        <v>732367.12662194541</v>
+        <v>732367.11994097894</v>
       </c>
       <c r="I34" s="15">
-        <v>954005.50289780961</v>
+        <v>954005.49212769023</v>
       </c>
       <c r="J34" s="15">
-        <v>732367.12662194541</v>
+        <v>732367.11994097894</v>
       </c>
       <c r="K34" s="15">
-        <v>-221638.3762758642</v>
+        <v>-221638.37218671129</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -13458,31 +13458,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>45629.397993517334</v>
+        <v>45629.398010733668</v>
       </c>
       <c r="F35" s="15">
-        <v>71519.431308843879</v>
+        <v>71519.431335828733</v>
       </c>
       <c r="G35" s="15">
-        <v>1376986.7046008976</v>
+        <v>1376986.6927188511</v>
       </c>
       <c r="H35" s="15">
-        <v>878517.53329373489</v>
+        <v>878517.52571298915</v>
       </c>
       <c r="I35" s="15">
-        <v>999634.90089132695</v>
+        <v>999634.89013842389</v>
       </c>
       <c r="J35" s="15">
-        <v>878517.53329373489</v>
+        <v>878517.52571298915</v>
       </c>
       <c r="K35" s="15">
-        <v>-121117.36759759206</v>
+        <v>-121117.36442543473</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -13523,31 +13523,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F36" s="15">
-        <v>56129.251308757863</v>
+        <v>55885.001090904167</v>
       </c>
       <c r="G36" s="15">
-        <v>1433115.9559096554</v>
+        <v>1432871.6938097554</v>
       </c>
       <c r="H36" s="15">
-        <v>925792.94715268794</v>
+        <v>925635.15382939705</v>
       </c>
       <c r="I36" s="15">
-        <v>1035894.3987891263</v>
+        <v>1035736.6023887346</v>
       </c>
       <c r="J36" s="15">
-        <v>925792.94715268794</v>
+        <v>925635.15382939705</v>
       </c>
       <c r="K36" s="15">
-        <v>-110101.45163643837</v>
+        <v>-110101.44855933753</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -13588,31 +13588,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>33513.039278340933</v>
+        <v>33513.039299013537</v>
       </c>
       <c r="F37" s="15">
-        <v>50471.446617280082</v>
+        <v>50471.446648413526</v>
       </c>
       <c r="G37" s="15">
-        <v>1483587.4025269356</v>
+        <v>1483343.1404581689</v>
       </c>
       <c r="H37" s="15">
-        <v>985101.99778411631</v>
+        <v>984939.80777662841</v>
       </c>
       <c r="I37" s="15">
-        <v>1069407.4380674672</v>
+        <v>1069249.641687748</v>
       </c>
       <c r="J37" s="15">
-        <v>985101.99778411631</v>
+        <v>984939.80777662841</v>
       </c>
       <c r="K37" s="15">
-        <v>-84305.440283350879</v>
+        <v>-84309.833911119611</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -13889,25 +13889,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>73512.143931253449</v>
+        <v>73512.136806401439</v>
       </c>
       <c r="R4" s="8">
-        <v>73512.143931253449</v>
+        <v>73512.136806401439</v>
       </c>
       <c r="S4" s="8">
-        <v>74134.471776711682</v>
+        <v>74134.464708144384</v>
       </c>
       <c r="T4" s="8">
-        <v>622.32784545823233</v>
+        <v>622.32790174294496</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>8.4656467921846532E-3</v>
+        <v>8.4656483783335304E-3</v>
       </c>
       <c r="W4" s="19">
-        <v>8.4656467921846532E-3</v>
+        <v>8.4656483783335304E-3</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -13973,22 +13973,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>435170.14208767598</v>
+        <v>435170.13774605485</v>
       </c>
       <c r="R5" s="8">
-        <v>508682.28601892944</v>
+        <v>508682.27455245628</v>
       </c>
       <c r="S5" s="8">
-        <v>470091.2666619001</v>
+        <v>470091.25741459371</v>
       </c>
       <c r="T5" s="8">
-        <v>-38591.019357029349</v>
+        <v>-38591.017137862567</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-7.5864680995778325E-2</v>
+        <v>-7.5864678343304431E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-6.6849723583970788E-2</v>
@@ -14068,31 +14068,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>11666.814382387671</v>
+        <v>11666.814393803639</v>
       </c>
       <c r="F7" s="15">
-        <v>11749.058131050662</v>
+        <v>11749.058142547106</v>
       </c>
       <c r="G7" s="15">
-        <v>47723.0695629232</v>
+        <v>47723.069574419642</v>
       </c>
       <c r="H7" s="15">
-        <v>47389.006687858629</v>
+        <v>47389.0066992746</v>
       </c>
       <c r="I7" s="15">
-        <v>46478.031115401376</v>
+        <v>46478.031126817339</v>
       </c>
       <c r="J7" s="15">
-        <v>47389.006687858629</v>
+        <v>47389.0066992746</v>
       </c>
       <c r="K7" s="15">
-        <v>910.97557245725329</v>
+        <v>910.97557245726057</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -14116,31 +14116,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>12819.724955562464</v>
+        <v>12819.721960020022</v>
       </c>
       <c r="F8" s="15">
-        <v>12680.241823879769</v>
+        <v>12680.238860929887</v>
       </c>
       <c r="G8" s="15">
-        <v>60403.311386802969</v>
+        <v>60403.308435349529</v>
       </c>
       <c r="H8" s="15">
-        <v>61067.75005865618</v>
+        <v>61067.747074736646</v>
       </c>
       <c r="I8" s="15">
-        <v>59297.756070963842</v>
+        <v>59297.753086837358</v>
       </c>
       <c r="J8" s="15">
-        <v>61067.75005865618</v>
+        <v>61067.747074736646</v>
       </c>
       <c r="K8" s="15">
-        <v>1769.9939876923381</v>
+        <v>1769.9939878992882</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -14160,31 +14160,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>14214.387860289606</v>
+        <v>14214.383719564079</v>
       </c>
       <c r="F9" s="15">
-        <v>14329.020254635405</v>
+        <v>14329.016080516862</v>
       </c>
       <c r="G9" s="15">
-        <v>74732.331641438373</v>
+        <v>74732.324515866392</v>
       </c>
       <c r="H9" s="15">
-        <v>74134.471776711682</v>
+        <v>74134.464708144384</v>
       </c>
       <c r="I9" s="15">
-        <v>73512.143931253449</v>
+        <v>73512.136806401439</v>
       </c>
       <c r="J9" s="15">
-        <v>74134.471776711682</v>
+        <v>74134.464708144384</v>
       </c>
       <c r="K9" s="15">
-        <v>622.32784545823233</v>
+        <v>622.32790174294496</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -14207,31 +14207,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>31709.661139283213</v>
+        <v>31709.659065956592</v>
       </c>
       <c r="F10" s="15">
-        <v>35588.84635979576</v>
+        <v>35588.84403282978</v>
       </c>
       <c r="G10" s="15">
-        <v>110321.17800123413</v>
+        <v>110321.16854869618</v>
       </c>
       <c r="H10" s="15">
-        <v>98296.166600601107</v>
+        <v>98296.158178390047</v>
       </c>
       <c r="I10" s="15">
-        <v>105221.80507053666</v>
+        <v>105221.79587235802</v>
       </c>
       <c r="J10" s="15">
-        <v>98296.166600601107</v>
+        <v>98296.158178390047</v>
       </c>
       <c r="K10" s="15">
-        <v>-6925.6384699355549</v>
+        <v>-6925.6376939679758</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -14254,31 +14254,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F11" s="15">
-        <v>27852.107751106949</v>
+        <v>27852.107820628753</v>
       </c>
       <c r="G11" s="15">
-        <v>138173.28575234109</v>
+        <v>138173.27636932494</v>
       </c>
       <c r="H11" s="15">
-        <v>121868.84205262041</v>
+        <v>121868.8337767999</v>
       </c>
       <c r="I11" s="15">
-        <v>129787.3649171491</v>
+        <v>129787.35578028869</v>
       </c>
       <c r="J11" s="15">
-        <v>121868.84205262041</v>
+        <v>121868.8337767999</v>
       </c>
       <c r="K11" s="15">
-        <v>-7918.5228645286843</v>
+        <v>-7918.5220034887898</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -14301,31 +14301,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F12" s="15">
-        <v>43390.361552938171</v>
+        <v>43390.3616398179</v>
       </c>
       <c r="G12" s="15">
-        <v>181563.64730527927</v>
+        <v>181563.63800914283</v>
       </c>
       <c r="H12" s="15">
-        <v>143798.40788659453</v>
+        <v>143798.40052405451</v>
       </c>
       <c r="I12" s="15">
-        <v>164152.53108086489</v>
+        <v>164152.52201281325</v>
       </c>
       <c r="J12" s="15">
-        <v>143798.40788659453</v>
+        <v>143798.40052405451</v>
       </c>
       <c r="K12" s="15">
-        <v>-20354.12319427036</v>
+        <v>-20354.121488758741</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -14346,31 +14346,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F13" s="15">
-        <v>57333.324083598687</v>
+        <v>57333.324166271741</v>
       </c>
       <c r="G13" s="15">
-        <v>238896.97138887795</v>
+        <v>238896.96217541458</v>
       </c>
       <c r="H13" s="15">
-        <v>171766.91809983505</v>
+        <v>171766.91147535504</v>
       </c>
       <c r="I13" s="15">
-        <v>205375.1900581033</v>
+        <v>205375.18104949358</v>
       </c>
       <c r="J13" s="15">
-        <v>171766.91809983505</v>
+        <v>171766.91147535504</v>
       </c>
       <c r="K13" s="15">
-        <v>-33608.271958268248</v>
+        <v>-33608.26957413854</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -14391,31 +14391,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F14" s="15">
-        <v>56104.133205544349</v>
+        <v>56104.133279509435</v>
       </c>
       <c r="G14" s="15">
-        <v>295001.10459442227</v>
+        <v>295001.09545492404</v>
       </c>
       <c r="H14" s="15">
-        <v>220365.81894266396</v>
+        <v>220365.81211545898</v>
       </c>
       <c r="I14" s="15">
-        <v>247284.97638553337</v>
+        <v>247284.96743217556</v>
       </c>
       <c r="J14" s="15">
-        <v>220365.81894266396</v>
+        <v>220365.81211545898</v>
       </c>
       <c r="K14" s="15">
-        <v>-26919.157442869415</v>
+        <v>-26919.155316716584</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -14435,31 +14435,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F15" s="15">
-        <v>29491.308990704383</v>
+        <v>29491.309073763103</v>
       </c>
       <c r="G15" s="15">
-        <v>324492.41358512663</v>
+        <v>324492.40452868713</v>
       </c>
       <c r="H15" s="15">
-        <v>274196.09876323445</v>
+        <v>274196.09111054277</v>
       </c>
       <c r="I15" s="15">
-        <v>272205.13332643168</v>
+        <v>272205.12444325851</v>
       </c>
       <c r="J15" s="15">
-        <v>274196.09876323445</v>
+        <v>274196.09111054277</v>
       </c>
       <c r="K15" s="15">
-        <v>1990.9654368027695</v>
+        <v>1990.9666672842577</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -14479,31 +14479,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>34771.222588201839</v>
+        <v>34771.222631564953</v>
       </c>
       <c r="F16" s="15">
-        <v>43409.766079401517</v>
+        <v>43409.766133537742</v>
       </c>
       <c r="G16" s="15">
-        <v>367902.17966452817</v>
+        <v>367902.17066222487</v>
       </c>
       <c r="H16" s="15">
-        <v>294689.64556042821</v>
+        <v>294689.63834958326</v>
       </c>
       <c r="I16" s="15">
-        <v>306976.35591463349</v>
+        <v>306976.34707482345</v>
       </c>
       <c r="J16" s="15">
-        <v>294689.64556042821</v>
+        <v>294689.63834958326</v>
       </c>
       <c r="K16" s="15">
-        <v>-12286.710354205279</v>
+        <v>-12286.708725240198</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -14523,31 +14523,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>37906.770442704037</v>
+        <v>37906.77052244138</v>
       </c>
       <c r="F17" s="15">
-        <v>49551.334838616429</v>
+        <v>49551.334942848254</v>
       </c>
       <c r="G17" s="15">
-        <v>417453.5145031446</v>
+        <v>417453.50560507312</v>
       </c>
       <c r="H17" s="15">
-        <v>319351.93262318522</v>
+        <v>319351.92581616063</v>
       </c>
       <c r="I17" s="15">
-        <v>344883.12635733752</v>
+        <v>344883.11759726482</v>
       </c>
       <c r="J17" s="15">
-        <v>319351.93262318522</v>
+        <v>319351.92581616063</v>
       </c>
       <c r="K17" s="15">
-        <v>-25531.193734152301</v>
+        <v>-25531.191781104193</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -14567,31 +14567,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>47540.69604760762</v>
+        <v>47540.693207037395</v>
       </c>
       <c r="F18" s="15">
-        <v>68305.599735021315</v>
+        <v>68305.595653742144</v>
       </c>
       <c r="G18" s="15">
-        <v>485759.1142381659</v>
+        <v>485759.10125881527</v>
       </c>
       <c r="H18" s="15">
-        <v>338088.33378138766</v>
+        <v>338088.32474775985</v>
       </c>
       <c r="I18" s="15">
-        <v>392423.82240494515</v>
+        <v>392423.81080430222</v>
       </c>
       <c r="J18" s="15">
-        <v>338088.33378138766</v>
+        <v>338088.32474775985</v>
       </c>
       <c r="K18" s="15">
-        <v>-54335.488623557496</v>
+        <v>-54335.486056542373</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -14611,31 +14611,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>47371.812247248723</v>
+        <v>47371.812292323739</v>
       </c>
       <c r="F19" s="15">
-        <v>68954.605325144847</v>
+        <v>68954.605390756216</v>
       </c>
       <c r="G19" s="15">
-        <v>554713.71956331073</v>
+        <v>554713.70664957142</v>
       </c>
       <c r="H19" s="15">
-        <v>381088.31237909693</v>
+        <v>381088.3035073583</v>
       </c>
       <c r="I19" s="15">
-        <v>439795.63465219387</v>
+        <v>439795.62309662596</v>
       </c>
       <c r="J19" s="15">
-        <v>381088.31237909693</v>
+        <v>381088.3035073583</v>
       </c>
       <c r="K19" s="15">
-        <v>-58707.322273096943</v>
+        <v>-58707.319589267659</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -14655,31 +14655,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F20" s="15">
-        <v>48867.831007703237</v>
+        <v>48867.83108511327</v>
       </c>
       <c r="G20" s="15">
-        <v>603581.55057101394</v>
+        <v>603581.53773468465</v>
       </c>
       <c r="H20" s="15">
-        <v>434578.73367973673</v>
+        <v>434578.72443757928</v>
       </c>
       <c r="I20" s="15">
-        <v>474980.47437586007</v>
+        <v>474980.46287602739</v>
       </c>
       <c r="J20" s="15">
-        <v>434578.73367973673</v>
+        <v>434578.72443757928</v>
       </c>
       <c r="K20" s="15">
-        <v>-40401.740696123336</v>
+        <v>-40401.738438448112</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -14699,31 +14699,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F21" s="15">
-        <v>46613.848008078661</v>
+        <v>46613.848054219117</v>
       </c>
       <c r="G21" s="15">
-        <v>650195.39857909258</v>
+        <v>650195.3857889038</v>
       </c>
       <c r="H21" s="15">
-        <v>470091.2666619001</v>
+        <v>470091.25741459371</v>
       </c>
       <c r="I21" s="15">
-        <v>508682.28601892944</v>
+        <v>508682.27455245628</v>
       </c>
       <c r="J21" s="15">
-        <v>470091.2666619001</v>
+        <v>470091.25741459371</v>
       </c>
       <c r="K21" s="15">
-        <v>-38591.019357029349</v>
+        <v>-38591.017137862567</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -14746,28 +14746,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F22" s="15">
-        <v>30588.543364516147</v>
+        <v>30588.543410657745</v>
       </c>
       <c r="G22" s="15">
-        <v>680783.94194360869</v>
+        <v>680783.92919956159</v>
       </c>
       <c r="H22" s="15">
-        <v>537138.512988484</v>
+        <v>537138.50293343118</v>
       </c>
       <c r="I22" s="15">
-        <v>532816.64596048766</v>
+        <v>532816.6345304203</v>
       </c>
       <c r="J22" s="15">
-        <v>537138.512988484</v>
+        <v>537138.50293343118</v>
       </c>
       <c r="K22" s="15">
-        <v>4321.8670279963408</v>
+        <v>4321.8684030108852</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -14787,31 +14787,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F23" s="15">
-        <v>34936.150036978543</v>
+        <v>34936.150071016047</v>
       </c>
       <c r="G23" s="15">
-        <v>715720.09198058723</v>
+        <v>715720.07927057764</v>
       </c>
       <c r="H23" s="15">
-        <v>546094.43837195449</v>
+        <v>546094.42867421708</v>
       </c>
       <c r="I23" s="15">
-        <v>559472.92883851484</v>
+        <v>559472.91743441811</v>
       </c>
       <c r="J23" s="15">
-        <v>546094.43837195449</v>
+        <v>546094.42867421708</v>
       </c>
       <c r="K23" s="15">
-        <v>-13378.490466560354</v>
+        <v>-13378.488760201028</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -14831,31 +14831,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F24" s="15">
-        <v>31933.455347920826</v>
+        <v>31933.455404206645</v>
       </c>
       <c r="G24" s="15">
-        <v>747653.54732850799</v>
+        <v>747653.53467478429</v>
       </c>
       <c r="H24" s="15">
-        <v>576440.90566780127</v>
+        <v>576440.89591177995</v>
       </c>
       <c r="I24" s="15">
-        <v>584093.62379493122</v>
+        <v>584093.61243423074</v>
       </c>
       <c r="J24" s="15">
-        <v>576440.90566780127</v>
+        <v>576440.89591177995</v>
       </c>
       <c r="K24" s="15">
-        <v>-7652.7181271299487</v>
+        <v>-7652.7165224507917</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -14875,31 +14875,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F25" s="15">
-        <v>34578.974762435661</v>
+        <v>34578.974785641672</v>
       </c>
       <c r="G25" s="15">
-        <v>782232.52209094365</v>
+        <v>782232.50946042594</v>
       </c>
       <c r="H25" s="15">
-        <v>587456.61401936528</v>
+        <v>587456.60453384661</v>
       </c>
       <c r="I25" s="15">
-        <v>610062.43339632987</v>
+        <v>610062.422053057</v>
       </c>
       <c r="J25" s="15">
-        <v>587456.61401936528</v>
+        <v>587456.60453384661</v>
       </c>
       <c r="K25" s="15">
-        <v>-22605.819376964588</v>
+        <v>-22605.817519210395</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -14919,31 +14919,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>40310.521007590411</v>
+        <v>40310.521027025221</v>
       </c>
       <c r="F26" s="15">
-        <v>55986.832508047613</v>
+        <v>55986.832535040405</v>
       </c>
       <c r="G26" s="15">
-        <v>838219.35459899122</v>
+        <v>838219.34199546638</v>
       </c>
       <c r="H26" s="15">
-        <v>603517.95929292182</v>
+        <v>603517.95021838357</v>
       </c>
       <c r="I26" s="15">
-        <v>650372.95440392033</v>
+        <v>650372.94308008219</v>
       </c>
       <c r="J26" s="15">
-        <v>603517.95929292182</v>
+        <v>603517.95021838357</v>
       </c>
       <c r="K26" s="15">
-        <v>-46854.995110998512</v>
+        <v>-46854.992861698614</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -14963,31 +14963,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F27" s="15">
-        <v>38403.866262635274</v>
+        <v>38403.866286625889</v>
       </c>
       <c r="G27" s="15">
-        <v>876623.22086162656</v>
+        <v>876623.20828209224</v>
       </c>
       <c r="H27" s="15">
-        <v>661850.52757046279</v>
+        <v>661850.51807291445</v>
       </c>
       <c r="I27" s="15">
-        <v>679367.87324908609</v>
+        <v>679367.86194336088</v>
       </c>
       <c r="J27" s="15">
-        <v>661850.52757046279</v>
+        <v>661850.51807291445</v>
       </c>
       <c r="K27" s="15">
-        <v>-17517.3456786233</v>
+        <v>-17517.343870446435</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -15007,31 +15007,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F28" s="15">
-        <v>35570.876201449297</v>
+        <v>35570.876252581569</v>
       </c>
       <c r="G28" s="15">
-        <v>912194.09706307587</v>
+        <v>912194.08453467384</v>
       </c>
       <c r="H28" s="15">
-        <v>694179.68742150278</v>
+        <v>694179.67788738909</v>
       </c>
       <c r="I28" s="15">
-        <v>706437.30924119777</v>
+        <v>706437.29797438427</v>
       </c>
       <c r="J28" s="15">
-        <v>694179.68742150278</v>
+        <v>694179.67788738909</v>
       </c>
       <c r="K28" s="15">
-        <v>-12257.621819694992</v>
+        <v>-12257.620086995186</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -15051,31 +15051,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F29" s="15">
-        <v>44544.817404276022</v>
+        <v>44544.817450934708</v>
       </c>
       <c r="G29" s="15">
-        <v>956738.91446735186</v>
+        <v>956738.90198560851</v>
       </c>
       <c r="H29" s="15">
-        <v>683111.57215584663</v>
+        <v>683111.56324388203</v>
       </c>
       <c r="I29" s="15">
-        <v>738242.30827311333</v>
+        <v>738242.29703961418</v>
       </c>
       <c r="J29" s="15">
-        <v>683111.57215584663</v>
+        <v>683111.56324388203</v>
       </c>
       <c r="K29" s="15">
-        <v>-55130.736117266701</v>
+        <v>-55130.733795732143</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -15098,28 +15098,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F30" s="15">
-        <v>54158.439814850673</v>
+        <v>54158.439853689146</v>
       </c>
       <c r="G30" s="15">
-        <v>1010897.3542822025</v>
+        <v>1010897.3418392977</v>
       </c>
       <c r="H30" s="15">
-        <v>692464.69009347586</v>
+        <v>692464.68157008593</v>
       </c>
       <c r="I30" s="15">
-        <v>775340.83967540984</v>
+        <v>775340.82846851507</v>
       </c>
       <c r="J30" s="15">
-        <v>692464.69009347586</v>
+        <v>692464.68157008593</v>
       </c>
       <c r="K30" s="15">
-        <v>-82876.149581933976</v>
+        <v>-82876.146898429142</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -15139,31 +15139,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F31" s="15">
-        <v>57207.211481968698</v>
+        <v>57207.211534216156</v>
       </c>
       <c r="G31" s="15">
-        <v>1068104.5657641713</v>
+        <v>1068104.5533735137</v>
       </c>
       <c r="H31" s="15">
-        <v>708153.31385953503</v>
+        <v>708153.30564452917</v>
       </c>
       <c r="I31" s="15">
-        <v>813269.22017871344</v>
+        <v>813269.20900645875</v>
       </c>
       <c r="J31" s="15">
-        <v>708153.31385953503</v>
+        <v>708153.30564452917</v>
       </c>
       <c r="K31" s="15">
-        <v>-105115.90631917841</v>
+        <v>-105115.90336192958</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -15183,31 +15183,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>47882.614125249813</v>
+        <v>47882.61417813343</v>
       </c>
       <c r="F32" s="15">
-        <v>73552.400064161251</v>
+        <v>73552.400145395688</v>
       </c>
       <c r="G32" s="15">
-        <v>1141656.9658283326</v>
+        <v>1141656.9535189094</v>
       </c>
       <c r="H32" s="15">
-        <v>743218.71088469878</v>
+        <v>743218.70287126396</v>
       </c>
       <c r="I32" s="15">
-        <v>861151.83430396323</v>
+        <v>861151.82318459218</v>
       </c>
       <c r="J32" s="15">
-        <v>743218.71088469878</v>
+        <v>743218.70287126396</v>
       </c>
       <c r="K32" s="15">
-        <v>-117933.12341926445</v>
+        <v>-117933.12031332823</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -15227,31 +15227,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F33" s="15">
-        <v>61152.673124809051</v>
+        <v>61152.67313516888</v>
       </c>
       <c r="G33" s="15">
-        <v>1202809.6389531416</v>
+        <v>1202809.6266540783</v>
       </c>
       <c r="H33" s="15">
-        <v>775812.19418300316</v>
+        <v>775812.18625010748</v>
       </c>
       <c r="I33" s="15">
-        <v>900595.30730307044</v>
+        <v>900595.2961903814</v>
       </c>
       <c r="J33" s="15">
-        <v>775812.19418300316</v>
+        <v>775812.18625010748</v>
       </c>
       <c r="K33" s="15">
-        <v>-124783.11312006728</v>
+        <v>-124783.10994027392</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -15271,31 +15271,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>56674.398993757561</v>
+        <v>56674.399000943209</v>
       </c>
       <c r="F34" s="15">
-        <v>101023.88601344082</v>
+        <v>101023.88602624946</v>
       </c>
       <c r="G34" s="15">
-        <v>1303833.5249665824</v>
+        <v>1303833.5126803278</v>
       </c>
       <c r="H34" s="15">
-        <v>731450.59382849478</v>
+        <v>731450.58693590597</v>
       </c>
       <c r="I34" s="15">
-        <v>957269.70629682799</v>
+        <v>957269.69519132457</v>
       </c>
       <c r="J34" s="15">
-        <v>731450.59382849478</v>
+        <v>731450.58693590597</v>
       </c>
       <c r="K34" s="15">
-        <v>-225819.11246833322</v>
+        <v>-225819.1082554186</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -15315,31 +15315,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="15">
-        <v>59599.526090703235</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="15">
-        <v>1363433.0510572856</v>
+        <v>1363433.0387935184</v>
       </c>
       <c r="H35" s="15">
-        <v>869870.30217780126</v>
+        <v>869870.29435351759</v>
       </c>
       <c r="I35" s="15">
-        <v>995294.20462475915</v>
+        <v>995294.19353360264</v>
       </c>
       <c r="J35" s="15">
-        <v>869870.30217780126</v>
+        <v>869870.29435351759</v>
       </c>
       <c r="K35" s="15">
-        <v>-125423.90244695789</v>
+        <v>-125423.89918008505</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -15359,31 +15359,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F36" s="15">
-        <v>56129.251308757863</v>
+        <v>55885.001090904167</v>
       </c>
       <c r="G36" s="15">
-        <v>1419562.3023660434</v>
+        <v>1419318.0398844227</v>
       </c>
       <c r="H36" s="15">
-        <v>917037.28658866719</v>
+        <v>916879.49301878468</v>
       </c>
       <c r="I36" s="15">
-        <v>1031553.7025225585</v>
+        <v>1031395.9057839133</v>
       </c>
       <c r="J36" s="15">
-        <v>917037.28658866719</v>
+        <v>916879.49301878468</v>
       </c>
       <c r="K36" s="15">
-        <v>-114516.41593389132</v>
+        <v>-114516.41276512865</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -15403,31 +15403,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>33513.039278340933</v>
+        <v>33513.039299013537</v>
       </c>
       <c r="F37" s="15">
-        <v>50471.446617280082</v>
+        <v>50471.446648413526</v>
       </c>
       <c r="G37" s="15">
-        <v>1470033.7489833236</v>
+        <v>1469789.4865328362</v>
       </c>
       <c r="H37" s="15">
-        <v>976102.37217369094</v>
+        <v>975940.18191274046</v>
       </c>
       <c r="I37" s="15">
-        <v>1065066.7418008994</v>
+        <v>1064908.9450829269</v>
       </c>
       <c r="J37" s="15">
-        <v>976102.37217369094</v>
+        <v>975940.18191274046</v>
       </c>
       <c r="K37" s="15">
-        <v>-88964.369627208449</v>
+        <v>-88968.76317018643</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -15683,25 +15683,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="R4" s="8">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="S4" s="8">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="T4" s="8">
-        <v>2808.3237509844475</v>
+        <v>2808.3241163351922</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>1.1211071369971281E-2</v>
+        <v>1.121107502947662E-2</v>
       </c>
       <c r="W4" s="19">
-        <v>1.1211071369971281E-2</v>
+        <v>1.121107502947662E-2</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -15767,22 +15767,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>3805407.6578482944</v>
+        <v>3805407.5827613538</v>
       </c>
       <c r="R5" s="8">
-        <v>4055903.2312246719</v>
+        <v>4055903.1069596517</v>
       </c>
       <c r="S5" s="8">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="T5" s="8">
-        <v>-190928.40810228698</v>
+        <v>-190928.39196140971</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-4.7074202025435531E-2</v>
+        <v>-4.7074199488096664E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-4.4450912908414297E-2</v>
@@ -15862,28 +15862,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F7" s="15">
-        <v>34702.298831101441</v>
+        <v>34702.298899013775</v>
       </c>
       <c r="G7" s="15">
-        <v>162628.83564941533</v>
+        <v>162628.83571732766</v>
       </c>
       <c r="H7" s="15">
-        <v>161490.42906947364</v>
+        <v>161490.42913691059</v>
       </c>
       <c r="I7" s="15">
-        <v>157737.55560953726</v>
+        <v>157737.55567697421</v>
       </c>
       <c r="J7" s="15">
-        <v>161490.42906947364</v>
+        <v>161490.42913691059</v>
       </c>
       <c r="K7" s="15">
         <v>3752.8734599363816</v>
@@ -15910,31 +15910,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F8" s="15">
-        <v>41153.724696748955</v>
+        <v>41153.705464243583</v>
       </c>
       <c r="G8" s="15">
-        <v>203782.56034616427</v>
+        <v>203782.54118157126</v>
       </c>
       <c r="H8" s="15">
-        <v>206024.17608931765</v>
+        <v>206024.1567139134</v>
       </c>
       <c r="I8" s="15">
-        <v>199343.97280859321</v>
+        <v>199343.95343196651</v>
       </c>
       <c r="J8" s="15">
-        <v>206024.17608931765</v>
+        <v>206024.1567139134</v>
       </c>
       <c r="K8" s="15">
-        <v>6680.2032807244395</v>
+        <v>6680.2032819468877</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -15954,31 +15954,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F9" s="15">
-        <v>51564.11431831224</v>
+        <v>51564.084276524249</v>
       </c>
       <c r="G9" s="15">
-        <v>255346.67466447651</v>
+        <v>255346.62545809551</v>
       </c>
       <c r="H9" s="15">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="I9" s="15">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="J9" s="15">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="K9" s="15">
-        <v>2808.3237509844475</v>
+        <v>2808.3241163351922</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -16001,31 +16001,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>212131.35222957132</v>
+        <v>212131.32448928335</v>
       </c>
       <c r="F10" s="15">
-        <v>238082.3329972862</v>
+        <v>238082.30186340422</v>
       </c>
       <c r="G10" s="15">
-        <v>493429.00766176271</v>
+        <v>493428.92732149974</v>
       </c>
       <c r="H10" s="15">
-        <v>439645.2324153693</v>
+        <v>439645.16083219717</v>
       </c>
       <c r="I10" s="15">
-        <v>462626.92560594896</v>
+        <v>462626.84868758108</v>
       </c>
       <c r="J10" s="15">
-        <v>439645.2324153693</v>
+        <v>439645.16083219717</v>
       </c>
       <c r="K10" s="15">
-        <v>-22981.693190579652</v>
+        <v>-22981.687855383905</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -16048,31 +16048,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="15">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="15">
-        <v>666644.8607792604</v>
+        <v>666644.78130372753</v>
       </c>
       <c r="H11" s="15">
-        <v>587980.7865980512</v>
+        <v>587980.71650062886</v>
       </c>
       <c r="I11" s="15">
-        <v>615403.31309392303</v>
+        <v>615403.23693824711</v>
       </c>
       <c r="J11" s="15">
-        <v>587980.7865980512</v>
+        <v>587980.71650062886</v>
       </c>
       <c r="K11" s="15">
-        <v>-27422.526495871833</v>
+        <v>-27422.520437618252</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -16095,31 +16095,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="15">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="15">
-        <v>1044142.8315818999</v>
+        <v>1044142.7536180816</v>
       </c>
       <c r="H12" s="15">
-        <v>826961.11813188985</v>
+        <v>826961.05638454598</v>
       </c>
       <c r="I12" s="15">
-        <v>914381.70434956788</v>
+        <v>914381.62939116999</v>
       </c>
       <c r="J12" s="15">
-        <v>826961.11813188985</v>
+        <v>826961.05638454598</v>
       </c>
       <c r="K12" s="15">
-        <v>-87420.586217678036</v>
+        <v>-87420.573006624007</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -16140,31 +16140,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="15">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="15">
-        <v>1642480.0636653628</v>
+        <v>1642479.9874271154</v>
       </c>
       <c r="H13" s="15">
-        <v>1180943.1360139658</v>
+        <v>1180943.0811986674</v>
       </c>
       <c r="I13" s="15">
-        <v>1344586.1633758196</v>
+        <v>1344586.0896581071</v>
       </c>
       <c r="J13" s="15">
-        <v>1180943.1360139658</v>
+        <v>1180943.0811986674</v>
       </c>
       <c r="K13" s="15">
-        <v>-163643.02736185375</v>
+        <v>-163643.00845943973</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -16185,31 +16185,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="15">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="15">
-        <v>2237748.9838501825</v>
+        <v>2237748.909181485</v>
       </c>
       <c r="H14" s="15">
-        <v>1671598.4439862443</v>
+        <v>1671598.3882087287</v>
       </c>
       <c r="I14" s="15">
-        <v>1789252.0342646409</v>
+        <v>1789251.9617193821</v>
       </c>
       <c r="J14" s="15">
-        <v>1671598.4439862443</v>
+        <v>1671598.3882087287</v>
       </c>
       <c r="K14" s="15">
-        <v>-117653.59027839662</v>
+        <v>-117653.57351065334</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -16229,31 +16229,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="15">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="15">
-        <v>2423806.7176326835</v>
+        <v>2423806.6440120041</v>
       </c>
       <c r="H15" s="15">
-        <v>2048116.745745284</v>
+        <v>2048116.6835358078</v>
       </c>
       <c r="I15" s="15">
-        <v>1946470.8246340088</v>
+        <v>1946470.7529743256</v>
       </c>
       <c r="J15" s="15">
-        <v>2048116.745745284</v>
+        <v>2048116.6835358078</v>
       </c>
       <c r="K15" s="15">
-        <v>101645.92111127521</v>
+        <v>101645.93056148221</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -16273,31 +16273,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>255071.29119794891</v>
+        <v>255071.29183414666</v>
       </c>
       <c r="F16" s="15">
-        <v>318441.06304823718</v>
+        <v>318441.06384249154</v>
       </c>
       <c r="G16" s="15">
-        <v>2742247.7806809205</v>
+        <v>2742247.7078544958</v>
       </c>
       <c r="H16" s="15">
-        <v>2196540.4697102061</v>
+        <v>2196540.4113762402</v>
       </c>
       <c r="I16" s="15">
-        <v>2201542.1158319577</v>
+        <v>2201542.044808472</v>
       </c>
       <c r="J16" s="15">
-        <v>2196540.4697102061</v>
+        <v>2196540.4113762402</v>
       </c>
       <c r="K16" s="15">
-        <v>-5001.6461217515171</v>
+        <v>-5001.6334322318435</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -16317,31 +16317,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>303148.36400756554</v>
+        <v>303148.36528291792</v>
       </c>
       <c r="F17" s="15">
-        <v>396272.37866181356</v>
+        <v>396272.38032894093</v>
       </c>
       <c r="G17" s="15">
-        <v>3138520.1593427341</v>
+        <v>3138520.0881834365</v>
       </c>
       <c r="H17" s="15">
-        <v>2400967.8770003007</v>
+        <v>2400967.8225634391</v>
       </c>
       <c r="I17" s="15">
-        <v>2504690.4798395233</v>
+        <v>2504690.4100913899</v>
       </c>
       <c r="J17" s="15">
-        <v>2400967.8770003007</v>
+        <v>2400967.8225634391</v>
       </c>
       <c r="K17" s="15">
-        <v>-103722.60283922264</v>
+        <v>-103722.58752795076</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -16361,31 +16361,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>476818.09719219716</v>
+        <v>476818.04021216277</v>
       </c>
       <c r="F18" s="15">
-        <v>685083.49269033666</v>
+        <v>685083.41082246881</v>
       </c>
       <c r="G18" s="15">
-        <v>3823603.652033071</v>
+        <v>3823603.4990059054</v>
       </c>
       <c r="H18" s="15">
-        <v>2661228.0652390928</v>
+        <v>2661227.9587321887</v>
       </c>
       <c r="I18" s="15">
-        <v>2981508.5770317204</v>
+        <v>2981508.4503035527</v>
       </c>
       <c r="J18" s="15">
-        <v>2661228.0652390928</v>
+        <v>2661227.9587321887</v>
       </c>
       <c r="K18" s="15">
-        <v>-320280.51179262763</v>
+        <v>-320280.49157136399</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -16405,31 +16405,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>473436.41257143137</v>
+        <v>473436.41347239545</v>
       </c>
       <c r="F19" s="15">
-        <v>689135.99515736278</v>
+        <v>689135.99646880978</v>
       </c>
       <c r="G19" s="15">
-        <v>4512739.6471904339</v>
+        <v>4512739.4954747148</v>
       </c>
       <c r="H19" s="15">
-        <v>3100252.0321795726</v>
+        <v>3100251.9279508772</v>
       </c>
       <c r="I19" s="15">
-        <v>3454944.9896031516</v>
+        <v>3454944.8637759481</v>
       </c>
       <c r="J19" s="15">
-        <v>3100252.0321795726</v>
+        <v>3100251.9279508772</v>
       </c>
       <c r="K19" s="15">
-        <v>-354692.95742357895</v>
+        <v>-354692.93582507083</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -16449,31 +16449,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="15">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="15">
-        <v>4948032.5083674574</v>
+        <v>4948032.3580308063</v>
       </c>
       <c r="H20" s="15">
-        <v>3562583.5475889151</v>
+        <v>3562583.4393465216</v>
       </c>
       <c r="I20" s="15">
-        <v>3768355.8621044373</v>
+        <v>3768355.7372701629</v>
       </c>
       <c r="J20" s="15">
-        <v>3562583.5475889151</v>
+        <v>3562583.4393465216</v>
       </c>
       <c r="K20" s="15">
-        <v>-205772.31451552222</v>
+        <v>-205772.29792364128</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -16493,31 +16493,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="15">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="15">
-        <v>5345746.7173616169</v>
+        <v>5345746.5678123161</v>
       </c>
       <c r="H21" s="15">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="I21" s="15">
-        <v>4055903.2312246719</v>
+        <v>4055903.1069596517</v>
       </c>
       <c r="J21" s="15">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="K21" s="15">
-        <v>-190928.40810228698</v>
+        <v>-190928.39196140971</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -16540,28 +16540,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="15">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="15">
-        <v>5532641.6327153379</v>
+        <v>5532641.483729884</v>
       </c>
       <c r="H22" s="15">
-        <v>4365254.1083894381</v>
+        <v>4365253.9908399191</v>
       </c>
       <c r="I22" s="15">
-        <v>4203363.3147154804</v>
+        <v>4203363.1908953348</v>
       </c>
       <c r="J22" s="15">
-        <v>4365254.1083894381</v>
+        <v>4365253.9908399191</v>
       </c>
       <c r="K22" s="15">
-        <v>161890.7936739577</v>
+        <v>161890.79994458426</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -16581,31 +16581,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="15">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="15">
-        <v>5768405.657539363</v>
+        <v>5768405.5090133082</v>
       </c>
       <c r="H23" s="15">
-        <v>4401293.5827166978</v>
+        <v>4401293.4693913162</v>
       </c>
       <c r="I23" s="15">
-        <v>4383251.2683543162</v>
+        <v>4383251.1448846925</v>
       </c>
       <c r="J23" s="15">
-        <v>4401293.5827166978</v>
+        <v>4401293.4693913162</v>
       </c>
       <c r="K23" s="15">
-        <v>18042.314362381585</v>
+        <v>18042.32450662367</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -16625,31 +16625,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="15">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="15">
-        <v>5967449.6734951856</v>
+        <v>5967449.5256708004</v>
       </c>
       <c r="H24" s="15">
-        <v>4600903.8633038895</v>
+        <v>4600903.7493312843</v>
       </c>
       <c r="I24" s="15">
-        <v>4536714.2101611272</v>
+        <v>4536714.0872324901</v>
       </c>
       <c r="J24" s="15">
-        <v>4600903.8633038895</v>
+        <v>4600903.7493312843</v>
       </c>
       <c r="K24" s="15">
-        <v>64189.65314276237</v>
+        <v>64189.662098794244</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -16669,31 +16669,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="15">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="15">
-        <v>6194785.0688919602</v>
+        <v>6194784.9213727051</v>
       </c>
       <c r="H25" s="15">
-        <v>4652283.5069824615</v>
+        <v>4652283.396195503</v>
       </c>
       <c r="I25" s="15">
-        <v>4707443.0891772518</v>
+        <v>4707442.9664777676</v>
       </c>
       <c r="J25" s="15">
-        <v>4652283.5069824615</v>
+        <v>4652283.396195503</v>
       </c>
       <c r="K25" s="15">
-        <v>-55159.582194790244</v>
+        <v>-55159.570282264613</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -16713,31 +16713,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>342813.94597117882</v>
+        <v>342813.94630173902</v>
       </c>
       <c r="F26" s="15">
-        <v>476130.46159580146</v>
+        <v>476130.46205491282</v>
       </c>
       <c r="G26" s="15">
-        <v>6670915.5304877618</v>
+        <v>6670915.3834276181</v>
       </c>
       <c r="H26" s="15">
-        <v>4803059.3728076126</v>
+        <v>4803059.2669243049</v>
       </c>
       <c r="I26" s="15">
-        <v>5050257.0351484306</v>
+        <v>5050256.9127795063</v>
       </c>
       <c r="J26" s="15">
-        <v>4803059.3728076126</v>
+        <v>4803059.2669243049</v>
       </c>
       <c r="K26" s="15">
-        <v>-247197.66234081797</v>
+        <v>-247197.64585520141</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -16757,31 +16757,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="15">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="15">
-        <v>6952818.5648233844</v>
+        <v>6952818.4181154454</v>
       </c>
       <c r="H27" s="15">
-        <v>5249377.9832880329</v>
+        <v>5249377.8725235397</v>
       </c>
       <c r="I27" s="15">
-        <v>5263093.824727607</v>
+        <v>5263093.7026245976</v>
       </c>
       <c r="J27" s="15">
-        <v>5249377.9832880329</v>
+        <v>5249377.8725235397</v>
       </c>
       <c r="K27" s="15">
-        <v>-13715.841439574026</v>
+        <v>-13715.830101057887</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -16801,31 +16801,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="15">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="15">
-        <v>7196586.5538154002</v>
+        <v>7196586.4078082815</v>
       </c>
       <c r="H28" s="15">
-        <v>5476602.2061683256</v>
+        <v>5476602.095056911</v>
       </c>
       <c r="I28" s="15">
-        <v>5448601.2588873617</v>
+        <v>5448601.137317677</v>
       </c>
       <c r="J28" s="15">
-        <v>5476602.2061683256</v>
+        <v>5476602.095056911</v>
       </c>
       <c r="K28" s="15">
-        <v>28000.947280963883</v>
+        <v>28000.957739233971</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -16845,31 +16845,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="15">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="15">
-        <v>7555256.9017697945</v>
+        <v>7555256.7565140575</v>
       </c>
       <c r="H29" s="15">
-        <v>5394453.3269900708</v>
+        <v>5394453.2232774766</v>
       </c>
       <c r="I29" s="15">
-        <v>5704691.8825380336</v>
+        <v>5704691.7615048354</v>
       </c>
       <c r="J29" s="15">
-        <v>5394453.3269900708</v>
+        <v>5394453.2232774766</v>
       </c>
       <c r="K29" s="15">
-        <v>-310238.5555479629</v>
+        <v>-310238.53822735883</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -16892,28 +16892,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F30" s="15">
-        <v>508657.86839762604</v>
+        <v>508657.8691271703</v>
       </c>
       <c r="G30" s="15">
-        <v>8063914.7701674206</v>
+        <v>8063914.6256412277</v>
       </c>
       <c r="H30" s="15">
-        <v>5523781.636790554</v>
+        <v>5523781.5377901113</v>
       </c>
       <c r="I30" s="15">
-        <v>6053122.5236031422</v>
+        <v>6053122.4030696824</v>
       </c>
       <c r="J30" s="15">
-        <v>5523781.636790554</v>
+        <v>5523781.5377901113</v>
       </c>
       <c r="K30" s="15">
-        <v>-529340.8868125882</v>
+        <v>-529340.86527957115</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -16933,31 +16933,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F31" s="15">
-        <v>549310.60370153643</v>
+        <v>549310.60470490914</v>
       </c>
       <c r="G31" s="15">
-        <v>8613225.3738689572</v>
+        <v>8613225.2303461377</v>
       </c>
       <c r="H31" s="15">
-        <v>5710568.3160903649</v>
+        <v>5710568.2209347375</v>
       </c>
       <c r="I31" s="15">
-        <v>6417315.4470470361</v>
+        <v>6417315.3271788126</v>
       </c>
       <c r="J31" s="15">
-        <v>5710568.3160903649</v>
+        <v>5710568.2209347375</v>
       </c>
       <c r="K31" s="15">
-        <v>-706747.1309566712</v>
+        <v>-706747.10624407511</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -16977,31 +16977,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>483701.42098472</v>
+        <v>483701.42205316125</v>
       </c>
       <c r="F32" s="15">
-        <v>743012.90933717985</v>
+        <v>743012.91097841063</v>
       </c>
       <c r="G32" s="15">
-        <v>9356238.2832061369</v>
+        <v>9356238.1413245481</v>
       </c>
       <c r="H32" s="15">
-        <v>6090911.3365144944</v>
+        <v>6090911.2441495769</v>
       </c>
       <c r="I32" s="15">
-        <v>6901016.868031756</v>
+        <v>6901016.7492319737</v>
       </c>
       <c r="J32" s="15">
-        <v>6090911.3365144944</v>
+        <v>6090911.2441495769</v>
       </c>
       <c r="K32" s="15">
-        <v>-810105.53151726164</v>
+        <v>-810105.50508239679</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -17021,31 +17021,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F33" s="15">
-        <v>610651.59777762846</v>
+        <v>610651.59798452829</v>
       </c>
       <c r="G33" s="15">
-        <v>9966889.8809837662</v>
+        <v>9966889.7393090762</v>
       </c>
       <c r="H33" s="15">
-        <v>6428643.7831311915</v>
+        <v>6428643.6917510191</v>
       </c>
       <c r="I33" s="15">
-        <v>7294887.1369510712</v>
+        <v>7294887.0182847399</v>
       </c>
       <c r="J33" s="15">
-        <v>6428643.7831311915</v>
+        <v>6428643.6917510191</v>
       </c>
       <c r="K33" s="15">
-        <v>-866243.3538198797</v>
+        <v>-866243.32653372083</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -17065,31 +17065,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>677634.49394591316</v>
+        <v>677634.49411774508</v>
       </c>
       <c r="F34" s="15">
-        <v>1207904.646376715</v>
+        <v>1207904.646683011</v>
       </c>
       <c r="G34" s="15">
-        <v>11174794.52736048</v>
+        <v>11174794.385992087</v>
       </c>
       <c r="H34" s="15">
-        <v>6269059.6126209693</v>
+        <v>6269059.5333133023</v>
       </c>
       <c r="I34" s="15">
-        <v>7972521.6308969846</v>
+        <v>7972521.5124024851</v>
       </c>
       <c r="J34" s="15">
-        <v>6269059.6126209693</v>
+        <v>6269059.5333133023</v>
       </c>
       <c r="K34" s="15">
-        <v>-1703462.0182760153</v>
+        <v>-1703461.9790891828</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -17109,31 +17109,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="15">
-        <v>573732.17219783086</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="15">
-        <v>11748526.69955831</v>
+        <v>11748526.558622865</v>
       </c>
       <c r="H35" s="15">
-        <v>7495560.1687694201</v>
+        <v>7495560.0788526041</v>
       </c>
       <c r="I35" s="15">
-        <v>8338562.763325044</v>
+        <v>8338562.6451067654</v>
       </c>
       <c r="J35" s="15">
-        <v>7495560.1687694201</v>
+        <v>7495560.0788526041</v>
       </c>
       <c r="K35" s="15">
-        <v>-843002.59455562383</v>
+        <v>-843002.5662541613</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -17153,31 +17153,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="15">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="15">
-        <v>12263771.881795008</v>
+        <v>12259297.249380365</v>
       </c>
       <c r="H36" s="15">
-        <v>7922396.9748132583</v>
+        <v>7919506.3621496465</v>
       </c>
       <c r="I36" s="15">
-        <v>8671411.165299857</v>
+        <v>8668520.5254622679</v>
       </c>
       <c r="J36" s="15">
-        <v>7922396.9748132583</v>
+        <v>7919506.3621496465</v>
       </c>
       <c r="K36" s="15">
-        <v>-749014.19048659876</v>
+        <v>-749014.16331262141</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -17197,31 +17197,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F37" s="15">
-        <v>428215.58808091015</v>
+        <v>428215.58860920183</v>
       </c>
       <c r="G37" s="15">
-        <v>12691987.469875919</v>
+        <v>12687512.837989567</v>
       </c>
       <c r="H37" s="15">
-        <v>8427479.3592410143</v>
+        <v>8424508.2037815619</v>
       </c>
       <c r="I37" s="15">
-        <v>8955746.3049635589</v>
+        <v>8952855.6654767562</v>
       </c>
       <c r="J37" s="15">
-        <v>8427479.3592410143</v>
+        <v>8424508.2037815619</v>
       </c>
       <c r="K37" s="15">
-        <v>-528266.94572254457</v>
+        <v>-528347.46169519424</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -17497,25 +17497,25 @@
         <v>44561</v>
       </c>
       <c r="S4" s="18">
-        <v>51416.62008710485</v>
+        <v>51416.609508268921</v>
       </c>
       <c r="T4" s="8">
-        <v>51416.62008710485</v>
+        <v>51416.609508268921</v>
       </c>
       <c r="U4" s="8">
-        <v>51825.361514958466</v>
+        <v>51825.351028585741</v>
       </c>
       <c r="V4" s="8">
-        <v>408.74142785361619</v>
+        <v>408.74152031682024</v>
       </c>
       <c r="W4" s="8">
         <v>0</v>
       </c>
       <c r="X4" s="19">
-        <v>7.9495973706783466E-3</v>
+        <v>7.9496008046015879E-3</v>
       </c>
       <c r="Y4" s="19">
-        <v>7.9495973706783466E-3</v>
+        <v>7.9496008046015879E-3</v>
       </c>
       <c r="AA4" s="24">
         <v>44925</v>
@@ -17587,22 +17587,22 @@
         <v>44925</v>
       </c>
       <c r="S5" s="18">
-        <v>1285809.4601705973</v>
+        <v>1285809.4346860019</v>
       </c>
       <c r="T5" s="8">
-        <v>1337226.0802577022</v>
+        <v>1337226.0441942709</v>
       </c>
       <c r="U5" s="8">
-        <v>1307605.6737520157</v>
+        <v>1307605.6409350643</v>
       </c>
       <c r="V5" s="8">
-        <v>-29620.406505686464</v>
+        <v>-29620.403259206563</v>
       </c>
       <c r="W5" s="8">
         <v>0</v>
       </c>
       <c r="X5" s="19">
-        <v>-2.215063476774114E-2</v>
+        <v>-2.2150632937346038E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>-2.1347346964258551E-2</v>
@@ -17688,10 +17688,10 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
         <v>3805620</v>
@@ -17700,25 +17700,25 @@
         <v>13885339.653614458</v>
       </c>
       <c r="G7" s="14">
-        <v>9444.4439653868267</v>
+        <v>9444.4439838695889</v>
       </c>
       <c r="H7" s="15">
-        <v>9511.0213917769779</v>
+        <v>9511.0214103900325</v>
       </c>
       <c r="I7" s="15">
-        <v>32006.443960637866</v>
+        <v>32006.443979250918</v>
       </c>
       <c r="J7" s="15">
-        <v>31782.397921939832</v>
+        <v>31782.397940422594</v>
       </c>
       <c r="K7" s="15">
-        <v>31143.757805570465</v>
+        <v>31143.757824053224</v>
       </c>
       <c r="L7" s="15">
-        <v>31782.397921939832</v>
+        <v>31782.397940422594</v>
       </c>
       <c r="M7" s="15">
-        <v>638.6401163693663</v>
+        <v>638.64011636936993</v>
       </c>
       <c r="N7" s="14">
         <v>0</v>
@@ -17742,10 +17742,10 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
         <v>3040778</v>
@@ -17754,25 +17754,25 @@
         <v>12014868.042857142</v>
       </c>
       <c r="G8" s="14">
-        <v>10529.943202574319</v>
+        <v>10529.938281581366</v>
       </c>
       <c r="H8" s="15">
-        <v>10415.37370444334</v>
+        <v>10415.368836992528</v>
       </c>
       <c r="I8" s="15">
-        <v>42421.817665081209</v>
+        <v>42421.812816243444</v>
       </c>
       <c r="J8" s="15">
-        <v>42888.459237204421</v>
+        <v>42888.454335029259</v>
       </c>
       <c r="K8" s="15">
-        <v>41673.701008144781</v>
+        <v>41673.69610563459</v>
       </c>
       <c r="L8" s="15">
-        <v>42888.459237204421</v>
+        <v>42888.454335029259</v>
       </c>
       <c r="M8" s="15">
-        <v>1214.7582290596401</v>
+        <v>1214.7582293946689</v>
       </c>
       <c r="N8" s="14">
         <v>0</v>
@@ -17792,10 +17792,10 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
         <v>1988017</v>
@@ -17804,25 +17804,25 @@
         <v>10437349.492675781</v>
       </c>
       <c r="G9" s="14">
-        <v>9742.9190789600725</v>
+        <v>9742.9134026343309</v>
       </c>
       <c r="H9" s="15">
-        <v>9821.4911675308849</v>
+        <v>9821.4854454282304</v>
       </c>
       <c r="I9" s="15">
-        <v>52243.308832612092</v>
+        <v>52243.298261671676</v>
       </c>
       <c r="J9" s="15">
-        <v>51825.361514958466</v>
+        <v>51825.351028585741</v>
       </c>
       <c r="K9" s="15">
-        <v>51416.62008710485</v>
+        <v>51416.609508268921</v>
       </c>
       <c r="L9" s="15">
-        <v>51825.361514958466</v>
+        <v>51825.351028585741</v>
       </c>
       <c r="M9" s="15">
-        <v>408.74142785361619</v>
+        <v>408.74152031682024</v>
       </c>
       <c r="N9" s="14">
         <v>0</v>
@@ -17845,10 +17845,10 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
         <v>2257005</v>
@@ -17857,25 +17857,25 @@
         <v>9461572.5990646258</v>
       </c>
       <c r="G10" s="14">
-        <v>50602.742580682214</v>
+        <v>50602.735963392326</v>
       </c>
       <c r="H10" s="15">
-        <v>56793.20328204878</v>
+        <v>56793.19585523611</v>
       </c>
       <c r="I10" s="15">
-        <v>109036.51211466087</v>
+        <v>109036.49411690779</v>
       </c>
       <c r="J10" s="15">
-        <v>97151.529330581179</v>
+        <v>97151.513294583681</v>
       </c>
       <c r="K10" s="15">
-        <v>102019.36266778706</v>
+        <v>102019.34547166125</v>
       </c>
       <c r="L10" s="15">
-        <v>97151.529330581179</v>
+        <v>97151.513294583681</v>
       </c>
       <c r="M10" s="15">
-        <v>-4867.8333372058842</v>
+        <v>-4867.8321770775656</v>
       </c>
       <c r="N10" s="14">
         <v>0</v>
@@ -17898,10 +17898,10 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
         <v>906904</v>
@@ -17910,25 +17910,25 @@
         <v>8699501.0544478521</v>
       </c>
       <c r="G11" s="14">
-        <v>15926.604991622415</v>
+        <v>15926.605071131393</v>
       </c>
       <c r="H11" s="15">
-        <v>18057.374678442578</v>
+        <v>18057.374768588808</v>
       </c>
       <c r="I11" s="15">
-        <v>127093.88679310345</v>
+        <v>127093.8688854966</v>
       </c>
       <c r="J11" s="15">
-        <v>112096.8118483056</v>
+        <v>112096.79605379584</v>
       </c>
       <c r="K11" s="15">
-        <v>117945.96765940948</v>
+        <v>117945.95054279263</v>
       </c>
       <c r="L11" s="15">
-        <v>112096.8118483056</v>
+        <v>112096.79605379584</v>
       </c>
       <c r="M11" s="15">
-        <v>-5849.1558111038757</v>
+        <v>-5849.1544889967918</v>
       </c>
       <c r="N11" s="14">
         <v>0</v>
@@ -17951,10 +17951,10 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
         <v>1401901</v>
@@ -17963,25 +17963,25 @@
         <v>7836928.591733871</v>
       </c>
       <c r="G12" s="14">
-        <v>53482.445421510238</v>
+        <v>53482.445635684089</v>
       </c>
       <c r="H12" s="15">
-        <v>67528.340544583887</v>
+        <v>67528.340815005417</v>
       </c>
       <c r="I12" s="15">
-        <v>194622.22733768733</v>
+        <v>194622.20970050202</v>
       </c>
       <c r="J12" s="15">
-        <v>154140.80321622037</v>
+        <v>154140.78924756969</v>
       </c>
       <c r="K12" s="15">
-        <v>171428.41308091971</v>
+        <v>171428.39617847672</v>
       </c>
       <c r="L12" s="15">
-        <v>154140.80321622037</v>
+        <v>154140.78924756969</v>
       </c>
       <c r="M12" s="15">
-        <v>-17287.609864699334</v>
+        <v>-17287.60693090703</v>
       </c>
       <c r="N12" s="14">
         <v>0</v>
@@ -18002,10 +18002,10 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
         <v>2631500</v>
@@ -18014,25 +18014,25 @@
         <v>7310293.186280488</v>
       </c>
       <c r="G13" s="14">
-        <v>154861.50898191135</v>
+        <v>154861.50942852328</v>
       </c>
       <c r="H13" s="15">
-        <v>215384.57981173776</v>
+        <v>215384.58043289484</v>
       </c>
       <c r="I13" s="15">
-        <v>410006.80714942509</v>
+        <v>410006.79013339686</v>
       </c>
       <c r="J13" s="15">
-        <v>294794.88691119035</v>
+        <v>294794.8746766664</v>
       </c>
       <c r="K13" s="15">
-        <v>326289.92206283106</v>
+        <v>326289.90560699999</v>
       </c>
       <c r="L13" s="15">
-        <v>294794.88691119035</v>
+        <v>294794.8746766664</v>
       </c>
       <c r="M13" s="15">
-        <v>-31495.03515164071</v>
+        <v>-31495.030930333596</v>
       </c>
       <c r="N13" s="14">
         <v>0</v>
@@ -18053,10 +18053,10 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
         <v>1147010</v>
@@ -18065,25 +18065,25 @@
         <v>6847440.4204799104</v>
       </c>
       <c r="G14" s="14">
-        <v>74485.671907816402</v>
+        <v>74485.672104213299</v>
       </c>
       <c r="H14" s="15">
-        <v>99713.084337188979</v>
+        <v>99713.084600103175</v>
       </c>
       <c r="I14" s="15">
-        <v>509719.89148661407</v>
+        <v>509719.87473350007</v>
       </c>
       <c r="J14" s="15">
-        <v>380760.74824615178</v>
+        <v>380760.73573157599</v>
       </c>
       <c r="K14" s="15">
-        <v>400775.59397064743</v>
+        <v>400775.57771121326</v>
       </c>
       <c r="L14" s="15">
-        <v>380760.74824615178</v>
+        <v>380760.73573157599</v>
       </c>
       <c r="M14" s="15">
-        <v>-20014.845724495652</v>
+        <v>-20014.841979637276</v>
       </c>
       <c r="N14" s="14">
         <v>0</v>
@@ -18103,10 +18103,10 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
         <v>2764909</v>
@@ -18115,25 +18115,25 @@
         <v>6486059.213010204</v>
       </c>
       <c r="G15" s="14">
-        <v>67019.993833764995</v>
+        <v>67019.994211272453</v>
       </c>
       <c r="H15" s="15">
-        <v>79313.59948471564</v>
+        <v>79313.599931470002</v>
       </c>
       <c r="I15" s="15">
-        <v>589033.49097132974</v>
+        <v>589033.47466497007</v>
       </c>
       <c r="J15" s="15">
-        <v>497733.31672315701</v>
+        <v>497733.30294428259</v>
       </c>
       <c r="K15" s="15">
-        <v>467795.58780441241</v>
+        <v>467795.57192248572</v>
       </c>
       <c r="L15" s="15">
-        <v>497733.31672315701</v>
+        <v>497733.30294428259</v>
       </c>
       <c r="M15" s="15">
-        <v>29937.7289187446</v>
+        <v>29937.731021796877</v>
       </c>
       <c r="N15" s="14">
         <v>0</v>
@@ -18153,10 +18153,10 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
         <v>2184000</v>
@@ -18165,25 +18165,25 @@
         <v>6139372.2173402254</v>
       </c>
       <c r="G16" s="14">
-        <v>90738.218869170247</v>
+        <v>90738.219095489127</v>
       </c>
       <c r="H16" s="15">
-        <v>113281.17225618426</v>
+        <v>113281.17253872968</v>
       </c>
       <c r="I16" s="15">
-        <v>702314.66322751401</v>
+        <v>702314.64720369969</v>
       </c>
       <c r="J16" s="15">
-        <v>562554.04457545932</v>
+        <v>562554.03174038406</v>
       </c>
       <c r="K16" s="15">
-        <v>558533.80667358264</v>
+        <v>558533.79101797484</v>
       </c>
       <c r="L16" s="15">
-        <v>562554.04457545932</v>
+        <v>562554.03174038406</v>
       </c>
       <c r="M16" s="15">
-        <v>4020.2379018766806</v>
+        <v>4020.2407224092167</v>
       </c>
       <c r="N16" s="14">
         <v>0</v>
@@ -18203,10 +18203,10 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
         <v>719700</v>
@@ -18215,25 +18215,25 @@
         <v>5816280.4526384082</v>
       </c>
       <c r="G17" s="14">
-        <v>37511.237525913144</v>
+        <v>37511.237683723812</v>
       </c>
       <c r="H17" s="15">
-        <v>49034.29833641099</v>
+        <v>49034.298542699449</v>
       </c>
       <c r="I17" s="15">
-        <v>751348.96156392503</v>
+        <v>751348.94574639911</v>
       </c>
       <c r="J17" s="15">
-        <v>574781.94484826957</v>
+        <v>574781.93274786242</v>
       </c>
       <c r="K17" s="15">
-        <v>596045.04419949581</v>
+        <v>596045.02870169864</v>
       </c>
       <c r="L17" s="15">
-        <v>574781.94484826957</v>
+        <v>574781.93274786242</v>
       </c>
       <c r="M17" s="15">
-        <v>-21263.099351226236</v>
+        <v>-21263.095953836222</v>
       </c>
       <c r="N17" s="14">
         <v>0</v>
@@ -18253,10 +18253,10 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
         <v>2128200</v>
@@ -18265,25 +18265,25 @@
         <v>5555987.6610887097</v>
       </c>
       <c r="G18" s="14">
-        <v>182643.36358255849</v>
+        <v>182643.34175657245</v>
       </c>
       <c r="H18" s="15">
-        <v>262418.63338801527</v>
+        <v>262418.602028839</v>
       </c>
       <c r="I18" s="15">
-        <v>1013767.5949519402</v>
+        <v>1013767.5477752381</v>
       </c>
       <c r="J18" s="15">
-        <v>705582.22578366392</v>
+        <v>705582.19294868014</v>
       </c>
       <c r="K18" s="15">
-        <v>778688.40778205427</v>
+        <v>778688.37045827112</v>
       </c>
       <c r="L18" s="15">
-        <v>705582.22578366392</v>
+        <v>705582.19294868014</v>
       </c>
       <c r="M18" s="15">
-        <v>-73106.181998390355</v>
+        <v>-73106.177509590983</v>
       </c>
       <c r="N18" s="14">
         <v>0</v>
@@ -18303,10 +18303,10 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
         <v>3400007.75</v>
@@ -18315,25 +18315,25 @@
         <v>5444602.8119248468</v>
       </c>
       <c r="G19" s="14">
-        <v>295648.28280026297</v>
+        <v>295648.28336289077</v>
       </c>
       <c r="H19" s="15">
-        <v>430346.8600514211</v>
+        <v>430346.86087038444</v>
       </c>
       <c r="I19" s="15">
-        <v>1444114.4550033612</v>
+        <v>1444114.4086456224</v>
       </c>
       <c r="J19" s="15">
-        <v>992106.59684554499</v>
+        <v>992106.56499777944</v>
       </c>
       <c r="K19" s="15">
-        <v>1074336.6905823173</v>
+        <v>1074336.6538211619</v>
       </c>
       <c r="L19" s="15">
-        <v>992106.59684554499</v>
+        <v>992106.56499777944</v>
       </c>
       <c r="M19" s="15">
-        <v>-82230.093736772309</v>
+        <v>-82230.08882338251</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
@@ -18353,10 +18353,10 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
         <v>2516800</v>
@@ -18365,25 +18365,25 @@
         <v>5287757.6291307472</v>
       </c>
       <c r="G20" s="14">
-        <v>149173.3432647716</v>
+        <v>149173.34373737345</v>
       </c>
       <c r="H20" s="15">
-        <v>207185.19074604963</v>
+        <v>207185.19140244107</v>
       </c>
       <c r="I20" s="15">
-        <v>1651299.6457494108</v>
+        <v>1651299.6000480636</v>
       </c>
       <c r="J20" s="15">
-        <v>1188935.7921836376</v>
+        <v>1188935.7592786662</v>
       </c>
       <c r="K20" s="15">
-        <v>1223510.0338470889</v>
+        <v>1223509.9975585353</v>
       </c>
       <c r="L20" s="15">
-        <v>1188935.7921836376</v>
+        <v>1188935.7592786662</v>
       </c>
       <c r="M20" s="15">
-        <v>-34574.241663451307</v>
+        <v>-34574.238279869081</v>
       </c>
       <c r="N20" s="14">
         <v>0</v>
@@ -18403,10 +18403,10 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
         <v>2041800</v>
@@ -18415,25 +18415,25 @@
         <v>5162984.7923986483</v>
       </c>
       <c r="G21" s="14">
-        <v>113716.04641061314</v>
+        <v>113716.04663573549</v>
       </c>
       <c r="H21" s="15">
-        <v>157283.60717231699</v>
+        <v>157283.60748368953</v>
       </c>
       <c r="I21" s="15">
-        <v>1808583.252921728</v>
+        <v>1808583.207531753</v>
       </c>
       <c r="J21" s="15">
-        <v>1307605.6737520157</v>
+        <v>1307605.6409350643</v>
       </c>
       <c r="K21" s="15">
-        <v>1337226.0802577022</v>
+        <v>1337226.0441942709</v>
       </c>
       <c r="L21" s="15">
-        <v>1307605.6737520157</v>
+        <v>1307605.6409350643</v>
       </c>
       <c r="M21" s="15">
-        <v>-29620.406505686464</v>
+        <v>-29620.403259206563</v>
       </c>
       <c r="N21" s="14">
         <v>0</v>
@@ -18456,7 +18456,7 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
         <v>2396100</v>
@@ -18465,25 +18465,25 @@
         <v>5058906.2336463733</v>
       </c>
       <c r="G22" s="14">
-        <v>69842.983786171506</v>
+        <v>69842.98399688222</v>
       </c>
       <c r="H22" s="15">
-        <v>88520.894833085244</v>
+        <v>88520.895100145732</v>
       </c>
       <c r="I22" s="15">
-        <v>1897104.1477548131</v>
+        <v>1897104.1026318988</v>
       </c>
       <c r="J22" s="15">
-        <v>1496815.1246342307</v>
+        <v>1496815.0890322526</v>
       </c>
       <c r="K22" s="15">
-        <v>1407069.0640438737</v>
+        <v>1407069.028191153</v>
       </c>
       <c r="L22" s="15">
-        <v>1496815.1246342307</v>
+        <v>1496815.0890322526</v>
       </c>
       <c r="M22" s="15">
-        <v>89746.060590357054</v>
+        <v>89746.060841099592</v>
       </c>
       <c r="N22" s="14">
         <v>0</v>
@@ -18503,10 +18503,10 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
         <v>699600</v>
@@ -18515,25 +18515,25 @@
         <v>4885493.1924261088</v>
       </c>
       <c r="G23" s="14">
-        <v>25759.858300658798</v>
+        <v>25759.858350853305</v>
       </c>
       <c r="H23" s="15">
-        <v>33761.281670106931</v>
+        <v>33761.281735892655</v>
       </c>
       <c r="I23" s="15">
-        <v>1930865.4294249201</v>
+        <v>1930865.3843677915</v>
       </c>
       <c r="J23" s="15">
-        <v>1473250.3447482153</v>
+        <v>1473250.3103696257</v>
       </c>
       <c r="K23" s="15">
-        <v>1432828.9223445326</v>
+        <v>1432828.8865420062</v>
       </c>
       <c r="L23" s="15">
-        <v>1473250.3447482153</v>
+        <v>1473250.3103696257</v>
       </c>
       <c r="M23" s="15">
-        <v>40421.422403682722</v>
+        <v>40421.423827619525</v>
       </c>
       <c r="N23" s="14">
         <v>0</v>
@@ -18553,10 +18553,10 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
         <v>1673001</v>
@@ -18565,25 +18565,25 @@
         <v>4738143.9705710951</v>
       </c>
       <c r="G24" s="14">
-        <v>54186.545765681185</v>
+        <v>54186.545956699294</v>
       </c>
       <c r="H24" s="15">
-        <v>70280.860988268061</v>
+        <v>70280.861236021767</v>
       </c>
       <c r="I24" s="15">
-        <v>2001146.2904131883</v>
+        <v>2001146.2456038133</v>
       </c>
       <c r="J24" s="15">
-        <v>1542883.8452533809</v>
+        <v>1542883.8107053516</v>
       </c>
       <c r="K24" s="15">
-        <v>1487015.4681102138</v>
+        <v>1487015.4324987056</v>
       </c>
       <c r="L24" s="15">
-        <v>1542883.8452533809</v>
+        <v>1542883.8107053516</v>
       </c>
       <c r="M24" s="15">
-        <v>55868.377143167192</v>
+        <v>55868.37820664607</v>
       </c>
       <c r="N24" s="14">
         <v>0</v>
@@ -18603,10 +18603,10 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
         <v>1925900</v>
@@ -18615,25 +18615,25 @@
         <v>4625994.8803013396</v>
       </c>
       <c r="G25" s="14">
-        <v>71078.061391139228</v>
+        <v>71078.061486540464</v>
       </c>
       <c r="H25" s="15">
-        <v>94644.557402996477</v>
+        <v>94644.55753002876</v>
       </c>
       <c r="I25" s="15">
-        <v>2095790.8478161849</v>
+        <v>2095790.8031338421</v>
       </c>
       <c r="J25" s="15">
-        <v>1573938.8997274791</v>
+        <v>1573938.8661710403</v>
       </c>
       <c r="K25" s="15">
-        <v>1558093.5295013529</v>
+        <v>1558093.4939852459</v>
       </c>
       <c r="L25" s="15">
-        <v>1573938.8997274791</v>
+        <v>1573938.8661710403</v>
       </c>
       <c r="M25" s="15">
-        <v>15845.370226126164</v>
+        <v>15845.372185794404</v>
       </c>
       <c r="N25" s="14">
         <v>0</v>
@@ -18653,10 +18653,10 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
         <v>1602700</v>
@@ -18665,25 +18665,25 @@
         <v>4484713.805488782</v>
       </c>
       <c r="G26" s="14">
-        <v>122511.25379184079</v>
+        <v>122511.25390997293</v>
       </c>
       <c r="H26" s="15">
-        <v>170154.51239400159</v>
+        <v>170154.512558074</v>
       </c>
       <c r="I26" s="15">
-        <v>2265945.3602101863</v>
+        <v>2265945.3156919163</v>
       </c>
       <c r="J26" s="15">
-        <v>1631480.724180551</v>
+        <v>1631480.6921273952</v>
       </c>
       <c r="K26" s="15">
-        <v>1680604.7832931937</v>
+        <v>1680604.7478952189</v>
       </c>
       <c r="L26" s="15">
-        <v>1631480.724180551</v>
+        <v>1631480.6921273952</v>
       </c>
       <c r="M26" s="15">
-        <v>-49124.059112642659</v>
+        <v>-49124.055767823709</v>
       </c>
       <c r="N26" s="14">
         <v>0</v>
@@ -18703,10 +18703,10 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
         <v>2280700</v>
@@ -18715,25 +18715,25 @@
         <v>4412683.3111552252</v>
       </c>
       <c r="G27" s="14">
-        <v>110004.9180429735</v>
+        <v>110004.91818041205</v>
       </c>
       <c r="H27" s="15">
-        <v>145701.87912282677</v>
+        <v>145701.87930486456</v>
       </c>
       <c r="I27" s="15">
-        <v>2411647.2393330131</v>
+        <v>2411647.1949967807</v>
       </c>
       <c r="J27" s="15">
-        <v>1820793.6541967946</v>
+        <v>1820793.6207229395</v>
       </c>
       <c r="K27" s="15">
-        <v>1790609.7013361673</v>
+        <v>1790609.666075631</v>
       </c>
       <c r="L27" s="15">
-        <v>1820793.6541967946</v>
+        <v>1820793.6207229395</v>
       </c>
       <c r="M27" s="15">
-        <v>30183.952860627323</v>
+        <v>30183.954647308448</v>
       </c>
       <c r="N27" s="14">
         <v>0</v>
@@ -18753,10 +18753,10 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
         <v>2111506</v>
@@ -18765,25 +18765,25 @@
         <v>4325606.2786714146</v>
       </c>
       <c r="G28" s="14">
-        <v>90553.794089931776</v>
+        <v>90553.794350269542</v>
       </c>
       <c r="H28" s="15">
-        <v>118993.1626238223</v>
+        <v>118993.16296592186</v>
       </c>
       <c r="I28" s="15">
-        <v>2530640.4019568353</v>
+        <v>2530640.3579627024</v>
       </c>
       <c r="J28" s="15">
-        <v>1925817.2891740929</v>
+        <v>1925817.2556945588</v>
       </c>
       <c r="K28" s="15">
-        <v>1881163.495426099</v>
+        <v>1881163.4604259005</v>
       </c>
       <c r="L28" s="15">
-        <v>1925817.2891740929</v>
+        <v>1925817.2556945588</v>
       </c>
       <c r="M28" s="15">
-        <v>44653.793747993885</v>
+        <v>44653.795268658316</v>
       </c>
       <c r="N28" s="14">
         <v>0</v>
@@ -18803,10 +18803,10 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
         <v>3152600</v>
@@ -18815,25 +18815,25 @@
         <v>4215152.2814262221</v>
       </c>
       <c r="G29" s="14">
-        <v>191535.50007638987</v>
+        <v>191535.50047763943</v>
       </c>
       <c r="H29" s="15">
-        <v>268257.00792438001</v>
+        <v>268257.0084863542</v>
       </c>
       <c r="I29" s="15">
-        <v>2798897.4098812155</v>
+        <v>2798897.3664490567</v>
       </c>
       <c r="J29" s="15">
-        <v>1998412.713285876</v>
+        <v>1998412.682275315</v>
       </c>
       <c r="K29" s="15">
-        <v>2072698.9955024889</v>
+        <v>2072698.96090354</v>
       </c>
       <c r="L29" s="15">
-        <v>1998412.713285876</v>
+        <v>1998412.682275315</v>
       </c>
       <c r="M29" s="15">
-        <v>-74286.282216612948</v>
+        <v>-74286.278628224973</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
@@ -18856,7 +18856,7 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
         <v>1644900</v>
@@ -18865,25 +18865,25 @@
         <v>4176288.16796875</v>
       </c>
       <c r="G30" s="14">
-        <v>137235.15677960418</v>
+        <v>137235.15697643414</v>
       </c>
       <c r="H30" s="15">
-        <v>200343.29387145772</v>
+        <v>200343.29415880074</v>
       </c>
       <c r="I30" s="15">
-        <v>2999240.7037526732</v>
+        <v>2999240.6606078576</v>
       </c>
       <c r="J30" s="15">
-        <v>2054479.8892213283</v>
+        <v>2054479.8596671293</v>
       </c>
       <c r="K30" s="15">
-        <v>2209934.1522820932</v>
+        <v>2209934.1178799742</v>
       </c>
       <c r="L30" s="15">
-        <v>2054479.8892213283</v>
+        <v>2054479.8596671293</v>
       </c>
       <c r="M30" s="15">
-        <v>-155454.26306076488</v>
+        <v>-155454.25821284484</v>
       </c>
       <c r="N30" s="14">
         <v>0</v>
@@ -18903,10 +18903,10 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
         <v>3279702</v>
@@ -18915,25 +18915,25 @@
         <v>4151158.042563708</v>
       </c>
       <c r="G31" s="14">
-        <v>287737.60169032536</v>
+        <v>287737.60221590794</v>
       </c>
       <c r="H31" s="15">
-        <v>433993.37416421372</v>
+        <v>433993.37495694769</v>
       </c>
       <c r="I31" s="15">
-        <v>3433234.0779168871</v>
+        <v>3433234.0355648054</v>
       </c>
       <c r="J31" s="15">
-        <v>2276234.1510944632</v>
+        <v>2276234.1230150335</v>
       </c>
       <c r="K31" s="15">
-        <v>2497671.7539724186</v>
+        <v>2497671.7200958822</v>
       </c>
       <c r="L31" s="15">
-        <v>2276234.1510944632</v>
+        <v>2276234.1230150335</v>
       </c>
       <c r="M31" s="15">
-        <v>-221437.60287795542</v>
+        <v>-221437.59708084865</v>
       </c>
       <c r="N31" s="14">
         <v>0</v>
@@ -18953,10 +18953,10 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
         <v>3444800</v>
@@ -18965,25 +18965,25 @@
         <v>4128629.2469860404</v>
       </c>
       <c r="G32" s="14">
-        <v>403585.44091227214</v>
+        <v>403585.44180374639</v>
       </c>
       <c r="H32" s="15">
-        <v>619946.89204733307</v>
+        <v>619946.8934167251</v>
       </c>
       <c r="I32" s="15">
-        <v>4053180.9699642202</v>
+        <v>4053180.9289815305</v>
       </c>
       <c r="J32" s="15">
-        <v>2638620.9042166574</v>
+        <v>2638620.8775369255</v>
       </c>
       <c r="K32" s="15">
-        <v>2901257.1948846909</v>
+        <v>2901257.1618996286</v>
       </c>
       <c r="L32" s="15">
-        <v>2638620.9042166574</v>
+        <v>2638620.8775369255</v>
       </c>
       <c r="M32" s="15">
-        <v>-262636.29066803353</v>
+        <v>-262636.2843627031</v>
       </c>
       <c r="N32" s="14">
         <v>0</v>
@@ -19003,10 +19003,10 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
         <v>5609700</v>
@@ -19015,25 +19015,25 @@
         <v>4135906.376174428</v>
       </c>
       <c r="G33" s="14">
-        <v>534222.45249187434</v>
+        <v>534222.45267287875</v>
       </c>
       <c r="H33" s="15">
-        <v>828251.88882096962</v>
+        <v>828251.88910159667</v>
       </c>
       <c r="I33" s="15">
-        <v>4881432.8587851897</v>
+        <v>4881432.818083127</v>
       </c>
       <c r="J33" s="15">
-        <v>3148524.1008105045</v>
+        <v>3148524.074557675</v>
       </c>
       <c r="K33" s="15">
-        <v>3435479.6473765653</v>
+        <v>3435479.6145725073</v>
       </c>
       <c r="L33" s="15">
-        <v>3148524.1008105045</v>
+        <v>3148524.074557675</v>
       </c>
       <c r="M33" s="15">
-        <v>-286955.54656606074</v>
+        <v>-286955.54001483228</v>
       </c>
       <c r="N33" s="14">
         <v>0</v>
@@ -19053,10 +19053,10 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
         <v>10787006</v>
@@ -19065,25 +19065,25 @@
         <v>4203114.608389196</v>
       </c>
       <c r="G34" s="14">
-        <v>1739102.5544275802</v>
+        <v>1739102.554868575</v>
       </c>
       <c r="H34" s="15">
-        <v>3100004.6113153705</v>
+        <v>3100004.6121014571</v>
       </c>
       <c r="I34" s="15">
-        <v>7981437.4701005602</v>
+        <v>7981437.4301845841</v>
       </c>
       <c r="J34" s="15">
-        <v>4477586.3369978033</v>
+        <v>4477586.3146049408</v>
       </c>
       <c r="K34" s="15">
-        <v>5174582.2018041452</v>
+        <v>5174582.1694410825</v>
       </c>
       <c r="L34" s="15">
-        <v>4477586.3369978033</v>
+        <v>4477586.3146049408</v>
       </c>
       <c r="M34" s="15">
-        <v>-696995.86480634194</v>
+        <v>-696995.85483614169</v>
       </c>
       <c r="N34" s="14">
         <v>0</v>
@@ -19103,10 +19103,10 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
         <v>12736000</v>
@@ -19115,25 +19115,25 @@
         <v>4305005.2464849772</v>
       </c>
       <c r="G35" s="14">
-        <v>1082902.248820764</v>
+        <v>1082902.2496379393</v>
       </c>
       <c r="H35" s="15">
-        <v>1697338.9175489994</v>
+        <v>1697338.9188298383</v>
       </c>
       <c r="I35" s="15">
-        <v>9678776.3876495603</v>
+        <v>9678776.3490144219</v>
       </c>
       <c r="J35" s="15">
-        <v>6175059.4460852249</v>
+        <v>6175059.4214360062</v>
       </c>
       <c r="K35" s="15">
-        <v>6257484.4506249093</v>
+        <v>6257484.4190790216</v>
       </c>
       <c r="L35" s="15">
-        <v>6175059.4460852249</v>
+        <v>6175059.4214360062</v>
       </c>
       <c r="M35" s="15">
-        <v>-82425.004539684393</v>
+        <v>-82424.997643015347</v>
       </c>
       <c r="N35" s="14">
         <v>0</v>
@@ -19153,10 +19153,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.700000760000002</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839674744630816</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
         <v>8545319</v>
@@ -19165,25 +19165,25 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="14">
-        <v>637440.66862040793</v>
+        <v>637440.66900952836</v>
       </c>
       <c r="H36" s="15">
-        <v>986750.21877754806</v>
+        <v>986750.21937990165</v>
       </c>
       <c r="I36" s="15">
-        <v>10665526.606427109</v>
+        <v>10665526.568394324</v>
       </c>
       <c r="J36" s="15">
-        <v>6889930.4827236375</v>
+        <v>6889930.4581544576</v>
       </c>
       <c r="K36" s="15">
-        <v>6894925.1192453168</v>
+        <v>6894925.0880885497</v>
       </c>
       <c r="L36" s="15">
-        <v>6889930.4827236375</v>
+        <v>6889930.4581544576</v>
       </c>
       <c r="M36" s="15">
-        <v>-4994.6365216793492</v>
+        <v>-4994.6299340920523</v>
       </c>
       <c r="N36" s="14">
         <v>0</v>
@@ -19203,10 +19203,10 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
         <v>5195700</v>
@@ -19215,25 +19215,25 @@
         <v>4505504.5858242754</v>
       </c>
       <c r="G37" s="14">
-        <v>327892.26090209873</v>
+        <v>327892.26130662102</v>
       </c>
       <c r="H37" s="15">
-        <v>493813.66473183746</v>
+        <v>493813.66534105781</v>
       </c>
       <c r="I37" s="15">
-        <v>11159340.271158947</v>
+        <v>11159340.233735383</v>
       </c>
       <c r="J37" s="15">
-        <v>7409801.6580265714</v>
+        <v>7409801.6331773251</v>
       </c>
       <c r="K37" s="15">
-        <v>7222817.3801474152</v>
+        <v>7222817.3493951708</v>
       </c>
       <c r="L37" s="15">
-        <v>7409801.6580265714</v>
+        <v>7409801.6331773251</v>
       </c>
       <c r="M37" s="15">
-        <v>186984.27787915617</v>
+        <v>186984.28378215432</v>
       </c>
       <c r="N37" s="14">
         <v>0</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -1324,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493245952"/>
-        <c:axId val="493247488"/>
+        <c:axId val="68571520"/>
+        <c:axId val="68573056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493245952"/>
+        <c:axId val="68571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493247488"/>
+        <c:crossAx val="68573056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493247488"/>
+        <c:axId val="68573056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493245952"/>
+        <c:crossAx val="68571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,8 +1709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493026304"/>
-        <c:axId val="493024768"/>
+        <c:axId val="699585280"/>
+        <c:axId val="699431936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1970,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493021440"/>
-        <c:axId val="493023232"/>
+        <c:axId val="698178560"/>
+        <c:axId val="699430016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493021440"/>
+        <c:axId val="698178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,14 +2017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493023232"/>
+        <c:crossAx val="699430016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493023232"/>
+        <c:axId val="699430016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,12 +2075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493021440"/>
+        <c:crossAx val="698178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493024768"/>
+        <c:axId val="699431936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493026304"/>
+        <c:crossAx val="699585280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493026304"/>
+        <c:axId val="699585280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493024768"/>
+        <c:crossAx val="699431936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2382,8 +2382,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504876416"/>
-        <c:axId val="504873344"/>
+        <c:axId val="507361536"/>
+        <c:axId val="507360000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2643,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499822592"/>
-        <c:axId val="499824512"/>
+        <c:axId val="507348480"/>
+        <c:axId val="507350016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499822592"/>
+        <c:axId val="507348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499824512"/>
+        <c:crossAx val="507350016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499824512"/>
+        <c:axId val="507350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,12 +2748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499822592"/>
+        <c:crossAx val="507348480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504873344"/>
+        <c:axId val="507360000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,12 +2790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504876416"/>
+        <c:crossAx val="507361536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504876416"/>
+        <c:axId val="507361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504873344"/>
+        <c:crossAx val="507360000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520545792"/>
-        <c:axId val="543356800"/>
+        <c:axId val="518935296"/>
+        <c:axId val="518936832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520545792"/>
+        <c:axId val="518935296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,14 +3763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543356800"/>
+        <c:crossAx val="518936832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543356800"/>
+        <c:axId val="518936832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520545792"/>
+        <c:crossAx val="518935296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4101,8 +4101,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617173760"/>
-        <c:axId val="617167104"/>
+        <c:axId val="617409152"/>
+        <c:axId val="617406464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4362,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608956800"/>
-        <c:axId val="617164800"/>
+        <c:axId val="557406464"/>
+        <c:axId val="617375616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608956800"/>
+        <c:axId val="557406464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617164800"/>
+        <c:crossAx val="617375616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617164800"/>
+        <c:axId val="617375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608956800"/>
+        <c:crossAx val="557406464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617167104"/>
+        <c:axId val="617406464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617173760"/>
+        <c:crossAx val="617409152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617173760"/>
+        <c:axId val="617409152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617167104"/>
+        <c:crossAx val="617406464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5435,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617370368"/>
-        <c:axId val="617372288"/>
+        <c:axId val="617440384"/>
+        <c:axId val="617442304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617370368"/>
+        <c:axId val="617440384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,14 +5482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617372288"/>
+        <c:crossAx val="617442304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617372288"/>
+        <c:axId val="617442304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617370368"/>
+        <c:crossAx val="617440384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5820,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617659392"/>
-        <c:axId val="617656704"/>
+        <c:axId val="693435008"/>
+        <c:axId val="631672192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6081,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617644800"/>
-        <c:axId val="617646720"/>
+        <c:axId val="631668736"/>
+        <c:axId val="631670656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617644800"/>
+        <c:axId val="631668736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,14 +6128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617646720"/>
+        <c:crossAx val="631670656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617646720"/>
+        <c:axId val="631670656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6186,12 +6186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617644800"/>
+        <c:crossAx val="631668736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617656704"/>
+        <c:axId val="631672192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,12 +6228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617659392"/>
+        <c:crossAx val="693435008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617659392"/>
+        <c:axId val="693435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617656704"/>
+        <c:crossAx val="631672192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7154,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617937920"/>
-        <c:axId val="617944192"/>
+        <c:axId val="697775232"/>
+        <c:axId val="697777536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617937920"/>
+        <c:axId val="697775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,14 +7201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617944192"/>
+        <c:crossAx val="697777536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617944192"/>
+        <c:axId val="697777536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617937920"/>
+        <c:crossAx val="697775232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7539,8 +7539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="621247872"/>
-        <c:axId val="621245952"/>
+        <c:axId val="697878016"/>
+        <c:axId val="697875456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7800,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618492288"/>
-        <c:axId val="618494208"/>
+        <c:axId val="697872384"/>
+        <c:axId val="697873920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618492288"/>
+        <c:axId val="697872384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,14 +7847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618494208"/>
+        <c:crossAx val="697873920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618494208"/>
+        <c:axId val="697873920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7905,12 +7905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618492288"/>
+        <c:crossAx val="697872384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="621245952"/>
+        <c:axId val="697875456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,12 +7947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621247872"/>
+        <c:crossAx val="697878016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="621247872"/>
+        <c:axId val="697878016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +7961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="621245952"/>
+        <c:crossAx val="697875456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8873,11 +8873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492989056"/>
-        <c:axId val="492990848"/>
+        <c:axId val="698025472"/>
+        <c:axId val="698134912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492989056"/>
+        <c:axId val="698025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8920,14 +8920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492990848"/>
+        <c:crossAx val="698134912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492990848"/>
+        <c:axId val="698134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +8978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492989056"/>
+        <c:crossAx val="698025472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +398,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,7 +563,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -667,6 +668,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +680,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -781,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1005505.7452450263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1037341.6312729785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +830,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -928,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,7 +947,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1042,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>919604.65511358727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>932051.28760826006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1097,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1189,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,7 +1214,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1303,6 +1319,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-85901.090131439036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105290.34366471844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,11 +1343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68571520"/>
-        <c:axId val="68573056"/>
+        <c:axId val="77426048"/>
+        <c:axId val="90707456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68571520"/>
+        <c:axId val="77426048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1390,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68573056"/>
+        <c:crossAx val="90707456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68573056"/>
+        <c:axId val="90707456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1448,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68571520"/>
+        <c:crossAx val="77426048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,7 +1609,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1695,6 +1714,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>327892.26130662102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>365774.00759471167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,8 +1731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="699585280"/>
-        <c:axId val="699431936"/>
+        <c:axId val="436811648"/>
+        <c:axId val="436810112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1735,7 +1757,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1840,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1874,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1954,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,11 +1998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="698178560"/>
-        <c:axId val="699430016"/>
+        <c:axId val="436798592"/>
+        <c:axId val="436800128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="698178560"/>
+        <c:axId val="436798592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,14 +2045,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699430016"/>
+        <c:crossAx val="436800128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="699430016"/>
+        <c:axId val="436800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,12 +2103,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698178560"/>
+        <c:crossAx val="436798592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699431936"/>
+        <c:axId val="436810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2145,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699585280"/>
+        <c:crossAx val="436811648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="699585280"/>
+        <c:axId val="436811648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699431936"/>
+        <c:crossAx val="436810112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2291,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2368,6 +2396,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,8 +2413,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507361536"/>
-        <c:axId val="507360000"/>
+        <c:axId val="390673536"/>
+        <c:axId val="181836032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2408,7 +2439,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2513,6 +2544,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2556,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2627,6 +2661,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,11 +2680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507348480"/>
-        <c:axId val="507350016"/>
+        <c:axId val="162083200"/>
+        <c:axId val="181834496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507348480"/>
+        <c:axId val="162083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2727,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507350016"/>
+        <c:crossAx val="181834496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507350016"/>
+        <c:axId val="181834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,12 +2785,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507348480"/>
+        <c:crossAx val="162083200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507360000"/>
+        <c:axId val="181836032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,12 +2827,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507361536"/>
+        <c:crossAx val="390673536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507361536"/>
+        <c:axId val="390673536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507360000"/>
+        <c:crossAx val="181836032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2954,7 +2991,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3059,6 +3096,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,7 +3108,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3173,6 +3213,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1069249.641687748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1101085.5277157002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3258,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3320,6 +3363,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,7 +3375,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3434,6 +3480,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>984939.80777662841</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>996008.89196010563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,7 +3525,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3581,6 +3630,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3642,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3695,6 +3747,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-84309.833911119611</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105076.63575559459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,11 +3771,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518935296"/>
-        <c:axId val="518936832"/>
+        <c:axId val="475824512"/>
+        <c:axId val="475826048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518935296"/>
+        <c:axId val="475824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,14 +3818,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518936832"/>
+        <c:crossAx val="475826048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518936832"/>
+        <c:axId val="475826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518935296"/>
+        <c:crossAx val="475824512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3982,7 +4037,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4087,6 +4142,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,8 +4159,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617409152"/>
-        <c:axId val="617406464"/>
+        <c:axId val="502364800"/>
+        <c:axId val="502363264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4127,7 +4185,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4232,6 +4290,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4241,7 +4302,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4346,6 +4407,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,11 +4426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557406464"/>
-        <c:axId val="617375616"/>
+        <c:axId val="477623808"/>
+        <c:axId val="477625728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557406464"/>
+        <c:axId val="477623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617375616"/>
+        <c:crossAx val="477625728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617375616"/>
+        <c:axId val="477625728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4531,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557406464"/>
+        <c:crossAx val="477623808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617406464"/>
+        <c:axId val="502363264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617409152"/>
+        <c:crossAx val="502364800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617409152"/>
+        <c:axId val="502364800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617406464"/>
+        <c:crossAx val="502363264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4673,7 +4737,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4778,6 +4842,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,7 +4854,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4892,6 +4959,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1064908.9450829269</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1096744.8311108791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4934,7 +5004,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5039,6 +5109,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,7 +5121,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5153,6 +5226,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>975940.18191274046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>987199.0172317836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5195,7 +5271,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5300,6 +5376,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5309,7 +5388,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5414,6 +5493,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-88968.76317018643</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-109545.81387909548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5435,11 +5517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617440384"/>
-        <c:axId val="617442304"/>
+        <c:axId val="574332928"/>
+        <c:axId val="574334848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617440384"/>
+        <c:axId val="574332928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,14 +5564,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617442304"/>
+        <c:crossAx val="574334848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617442304"/>
+        <c:axId val="574334848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5622,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617440384"/>
+        <c:crossAx val="574332928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5701,7 +5783,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5806,6 +5888,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,8 +5905,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="693435008"/>
-        <c:axId val="631672192"/>
+        <c:axId val="797694592"/>
+        <c:axId val="797693056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5846,7 +5931,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5951,6 +6036,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5960,7 +6048,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6065,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6081,11 +6172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631668736"/>
-        <c:axId val="631670656"/>
+        <c:axId val="787981056"/>
+        <c:axId val="787982592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631668736"/>
+        <c:axId val="787981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,14 +6219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631670656"/>
+        <c:crossAx val="787982592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631670656"/>
+        <c:axId val="787982592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6186,12 +6277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631668736"/>
+        <c:crossAx val="787981056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631672192"/>
+        <c:axId val="797693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,12 +6319,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693435008"/>
+        <c:crossAx val="797694592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="693435008"/>
+        <c:axId val="797694592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631672192"/>
+        <c:crossAx val="797693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6392,7 +6483,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6497,6 +6588,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,7 +6600,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6611,6 +6705,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8952855.6654767562</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9209443.9285615068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6653,7 +6750,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6758,6 +6855,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6767,7 +6867,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6872,6 +6972,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8424508.2037815619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8503471.3052840903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,7 +7017,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7019,6 +7122,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7028,7 +7134,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7133,6 +7239,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-528347.46169519424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-705972.62327741645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,11 +7263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697775232"/>
-        <c:axId val="697777536"/>
+        <c:axId val="436733824"/>
+        <c:axId val="436735360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697775232"/>
+        <c:axId val="436733824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,14 +7310,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697777536"/>
+        <c:crossAx val="436735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697777536"/>
+        <c:axId val="436735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7368,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697775232"/>
+        <c:crossAx val="436733824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7420,7 +7529,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7525,6 +7634,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>12687512.837989567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13082264.026445493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7539,8 +7651,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="697878016"/>
-        <c:axId val="697875456"/>
+        <c:axId val="436766976"/>
+        <c:axId val="436765440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7565,7 +7677,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7670,6 +7782,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7679,7 +7794,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7784,6 +7899,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7800,11 +7918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697872384"/>
-        <c:axId val="697873920"/>
+        <c:axId val="436758016"/>
+        <c:axId val="436759552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697872384"/>
+        <c:axId val="436758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,14 +7965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697873920"/>
+        <c:crossAx val="436759552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697873920"/>
+        <c:axId val="436759552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7905,12 +8023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697872384"/>
+        <c:crossAx val="436758016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697875456"/>
+        <c:axId val="436765440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,12 +8065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697878016"/>
+        <c:crossAx val="436766976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="697878016"/>
+        <c:axId val="436766976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +8079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697875456"/>
+        <c:crossAx val="436765440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8111,7 +8229,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8216,6 +8334,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8225,7 +8346,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8330,6 +8451,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7222817.3493951708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7588591.3569898829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8372,7 +8496,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8477,6 +8601,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8486,7 +8613,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8591,6 +8718,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7409801.6331773251</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7619344.8934633061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8633,7 +8763,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8738,6 +8868,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8747,7 +8880,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8852,6 +8985,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>186984.28378215432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30753.536473423243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,11 +9009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="698025472"/>
-        <c:axId val="698134912"/>
+        <c:axId val="436782592"/>
+        <c:axId val="436784128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="698025472"/>
+        <c:axId val="436782592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8920,14 +9056,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698134912"/>
+        <c:crossAx val="436784128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="698134912"/>
+        <c:axId val="436784128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +9114,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698025472"/>
+        <c:crossAx val="436782592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9692,7 +9828,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9862,6 +9998,16 @@
         <f>-Z3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -9935,9 +10081,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -10011,9 +10164,16 @@
       <c r="AA5" s="9">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -10056,14 +10216,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="9"/>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="8">
+        <v>850637.82951930468</v>
+      </c>
+      <c r="S6" s="8">
+        <v>731948.73696905444</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-118689.09255025024</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.13952952529435639</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>731948.73696905444</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -10107,6 +10295,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -11270,6 +11461,47 @@
       <c r="L37" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1433925.1104549211</v>
+      </c>
+      <c r="H38" s="15">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1037341.6312729785</v>
+      </c>
+      <c r="J38" s="15">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-105290.34366471844</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11287,7 +11519,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11501,6 +11733,16 @@
         <f>-AF3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AH3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>-AI3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -11586,9 +11828,16 @@
         <f>-AF4</f>
         <v>-417772.19972597784</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+      <c r="AH4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>417772.19570939441</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>-AI4</f>
+        <v>-417772.19570939441</v>
+      </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
@@ -11674,9 +11923,16 @@
       <c r="AG5" s="9">
         <v>453072.73054277548</v>
       </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
+      <c r="AH5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>408088.678461281</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f>-AI5</f>
+        <v>-408088.678461281</v>
+      </c>
       <c r="AK5" s="17"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
@@ -11731,14 +11987,42 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="9"/>
+      <c r="V6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="W6" s="18">
+        <v>408088.678461281</v>
+      </c>
+      <c r="X6" s="8">
+        <v>897331.09312674706</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>776865.95413218427</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>-120465.13899456279</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>-0.1342482612240733</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>-8.5780570033674008E-2</v>
+      </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="20">
         <v>-6.5045944429880764E-2</v>
       </c>
-      <c r="AH6" s="9"/>
+      <c r="AH6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AI6" s="9"/>
-      <c r="AJ6" s="20"/>
+      <c r="AJ6" s="20">
+        <v>776865.95413218427</v>
+      </c>
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
@@ -11794,6 +12078,9 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
+      <c r="AJ7" s="10">
+        <v>-8.5780570033674008E-2</v>
+      </c>
       <c r="AM7" s="10"/>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
@@ -13644,6 +13931,74 @@
       <c r="U37" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:21" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1532321.4284515313</v>
+      </c>
+      <c r="H38" s="15">
+        <v>996008.89196010563</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1101085.5277157002</v>
+      </c>
+      <c r="J38" s="15">
+        <v>996008.89196010563</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-105076.63575559459</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="N38" s="23">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="O38" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P38" s="23">
+        <v>0.68021428538504092</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>-2.0214279027212179E-2</v>
+      </c>
+      <c r="R38" s="23">
+        <v>4.6149659192480992E-2</v>
+      </c>
+      <c r="S38" s="9">
+        <v>6.9224488788721488E-4</v>
+      </c>
+      <c r="T38" s="9">
+        <v>-29.201052085639414</v>
+      </c>
+      <c r="U38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13661,7 +14016,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13841,6 +14196,16 @@
         <f>-Z3</f>
         <v>-73512.143931253449</v>
       </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>73512.136806401439</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-73512.136806401439</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -13919,9 +14284,16 @@
         <f>-Z4</f>
         <v>-435170.14208767598</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>435170.13774605485</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-435170.13774605485</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -14000,9 +14372,16 @@
       <c r="AA5" s="9">
         <v>470091.2666619001</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-391913.02163792512</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -14050,14 +14429,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="R6" s="8">
+        <v>900595.2961903814</v>
+      </c>
+      <c r="S6" s="8">
+        <v>775812.18625010748</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-124783.10994027392</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.13855625325617443</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-8.750731270976897E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-6.6849723583970788E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>775812.18625010748</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -14106,6 +14513,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-8.750731270976897E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -15438,6 +15848,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1518767.7745261986</v>
+      </c>
+      <c r="H38" s="15">
+        <v>987199.0172317836</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1096744.8311108791</v>
+      </c>
+      <c r="J38" s="15">
+        <v>987199.0172317836</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-109545.81387909548</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15455,7 +15912,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15635,6 +16092,16 @@
         <f>-Z3</f>
         <v>-250495.57337637764</v>
       </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-250495.52419829773</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -15713,9 +16180,16 @@
         <f>-Z4</f>
         <v>-3805407.6578482944</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-3805407.5827613538</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -15794,9 +16268,16 @@
       <c r="AA5" s="9">
         <v>3864974.823122385</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-3238983.9113250882</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -15844,14 +16325,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7294887.0182847399</v>
+      </c>
+      <c r="S6" s="8">
+        <v>6428643.6917510191</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-866243.32653372083</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.11874664053911588</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-4.4450912908414297E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>6428643.6917510191</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -15900,6 +16409,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -17232,6 +17744,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="15">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13082264.026445493</v>
+      </c>
+      <c r="H38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9209443.9285615068</v>
+      </c>
+      <c r="J38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-705972.62327741645</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17249,7 +17808,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17443,6 +18002,16 @@
         <f>-AB3</f>
         <v>-51416.62008710485</v>
       </c>
+      <c r="AD3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>51416.609508268921</v>
+      </c>
+      <c r="AF3" s="11">
+        <f>-AE3</f>
+        <v>-51416.609508268921</v>
+      </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -17527,9 +18096,16 @@
         <f>-AB4</f>
         <v>-1285809.4601705973</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="AD4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>1285809.4346860019</v>
+      </c>
+      <c r="AF4" s="9">
+        <f>-AE4</f>
+        <v>-1285809.4346860019</v>
+      </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
@@ -17614,9 +18190,16 @@
       <c r="AC5" s="9">
         <v>1307605.6737520157</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="AD5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>-AE5</f>
+        <v>-2098253.5703782365</v>
+      </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -17670,14 +18253,42 @@
       <c r="P6" s="9">
         <v>1</v>
       </c>
+      <c r="R6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="18">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="T6" s="8">
+        <v>3435479.6145725073</v>
+      </c>
+      <c r="U6" s="8">
+        <v>3148524.074557675</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-286955.54001483228</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>-8.3527068185074785E-2</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>-6.0576496447798278E-2</v>
+      </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="20">
         <v>-2.1347346964258551E-2</v>
       </c>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="20"/>
+      <c r="AF6" s="20">
+        <v>3148524.074557675</v>
+      </c>
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
@@ -17732,6 +18343,9 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
+      <c r="AF7" s="10">
+        <v>-6.0576496447798278E-2</v>
+      </c>
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
@@ -19244,6 +19858,59 @@
       <c r="P37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="14">
+        <v>365774.00759471167</v>
+      </c>
+      <c r="H38" s="15">
+        <v>562729.26309418888</v>
+      </c>
+      <c r="I38" s="15">
+        <v>11722069.496829571</v>
+      </c>
+      <c r="J38" s="15">
+        <v>7619344.8934633061</v>
+      </c>
+      <c r="K38" s="15">
+        <v>7588591.3569898829</v>
+      </c>
+      <c r="L38" s="15">
+        <v>7619344.8934633061</v>
+      </c>
+      <c r="M38" s="15">
+        <v>30753.536473423243</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,7 +398,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -671,6 +670,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +682,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -788,6 +790,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1037341.6312729785</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1070260.4159355557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,7 +835,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -938,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +955,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1055,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>932051.28760826006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>944895.12277571461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,7 +1108,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1205,6 +1216,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,7 +1228,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1322,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105290.34366471844</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125365.29315984109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,11 +1360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77426048"/>
-        <c:axId val="90707456"/>
+        <c:axId val="105024512"/>
+        <c:axId val="105608320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77426048"/>
+        <c:axId val="105024512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,14 +1407,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90707456"/>
+        <c:crossAx val="105608320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90707456"/>
+        <c:axId val="105608320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77426048"/>
+        <c:crossAx val="105024512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +1626,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1717,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>365774.00759471167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>594275.72184410866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,8 +1751,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436811648"/>
-        <c:axId val="436810112"/>
+        <c:axId val="515039232"/>
+        <c:axId val="515037440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1757,7 +1777,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1865,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,7 +1897,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1982,6 +2005,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,11 +2024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436798592"/>
-        <c:axId val="436800128"/>
+        <c:axId val="515034112"/>
+        <c:axId val="515035904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436798592"/>
+        <c:axId val="515034112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,14 +2071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436800128"/>
+        <c:crossAx val="515035904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436800128"/>
+        <c:axId val="515035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,12 +2129,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436798592"/>
+        <c:crossAx val="515034112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436810112"/>
+        <c:axId val="515037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436811648"/>
+        <c:crossAx val="515039232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436811648"/>
+        <c:axId val="515039232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436810112"/>
+        <c:crossAx val="515037440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2291,7 +2317,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2399,6 +2425,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,8 +2442,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390673536"/>
-        <c:axId val="181836032"/>
+        <c:axId val="512226432"/>
+        <c:axId val="507022336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2439,7 +2468,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2547,6 +2576,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,7 +2588,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2664,6 +2696,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162083200"/>
-        <c:axId val="181834496"/>
+        <c:axId val="493800832"/>
+        <c:axId val="507020416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162083200"/>
+        <c:axId val="493800832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +2762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181834496"/>
+        <c:crossAx val="507020416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181834496"/>
+        <c:axId val="507020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,12 +2820,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162083200"/>
+        <c:crossAx val="493800832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181836032"/>
+        <c:axId val="507022336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,12 +2862,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390673536"/>
+        <c:crossAx val="512226432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390673536"/>
+        <c:axId val="512226432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181836032"/>
+        <c:crossAx val="507022336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2991,7 +3026,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3099,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3146,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3216,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1101085.5277157002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1134004.3123782773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,7 +3299,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3366,6 +3407,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,7 +3419,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,6 +3527,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>996008.89196010563</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1007475.1788163647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3525,7 +3572,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3633,6 +3680,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,7 +3692,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3750,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105076.63575559459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-126529.13356191257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,11 +3824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475824512"/>
-        <c:axId val="475826048"/>
+        <c:axId val="515073920"/>
+        <c:axId val="515448832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475824512"/>
+        <c:axId val="515073920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,14 +3871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475826048"/>
+        <c:crossAx val="515448832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475826048"/>
+        <c:axId val="515448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,7 +3929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475824512"/>
+        <c:crossAx val="515073920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4037,7 +4090,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4145,6 +4198,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,8 +4215,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502364800"/>
-        <c:axId val="502363264"/>
+        <c:axId val="563401088"/>
+        <c:axId val="540555520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4185,7 +4241,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4293,6 +4349,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4361,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4410,6 +4469,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,11 +4488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477623808"/>
-        <c:axId val="477625728"/>
+        <c:axId val="525343744"/>
+        <c:axId val="540553984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477623808"/>
+        <c:axId val="525343744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,14 +4535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477625728"/>
+        <c:crossAx val="540553984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477625728"/>
+        <c:axId val="540553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,12 +4593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477623808"/>
+        <c:crossAx val="525343744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502363264"/>
+        <c:axId val="540555520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,12 +4635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502364800"/>
+        <c:crossAx val="563401088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502364800"/>
+        <c:axId val="563401088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502363264"/>
+        <c:crossAx val="540555520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4737,7 +4799,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4845,6 +4907,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,7 +4919,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4962,6 +5027,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1096744.8311108791</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1136247.3727059716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5004,7 +5072,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5112,6 +5180,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,7 +5192,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5229,6 +5300,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>987199.0172317836</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1005438.8121561242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5271,7 +5345,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5379,6 +5453,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5388,7 +5465,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5496,6 +5573,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-109545.81387909548</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-130808.56054984743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5517,11 +5597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574332928"/>
-        <c:axId val="574334848"/>
+        <c:axId val="512127360"/>
+        <c:axId val="512128896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574332928"/>
+        <c:axId val="512127360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5564,14 +5644,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574334848"/>
+        <c:crossAx val="512128896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574334848"/>
+        <c:axId val="512128896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5622,7 +5702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574332928"/>
+        <c:crossAx val="512127360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5783,7 +5863,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5891,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39502.541595092531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,8 +5988,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="797694592"/>
-        <c:axId val="797693056"/>
+        <c:axId val="512160896"/>
+        <c:axId val="512146816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5931,7 +6014,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6039,6 +6122,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6048,7 +6134,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6156,6 +6242,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,11 +6261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="787981056"/>
-        <c:axId val="787982592"/>
+        <c:axId val="512143744"/>
+        <c:axId val="512145280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="787981056"/>
+        <c:axId val="512143744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6219,14 +6308,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787982592"/>
+        <c:crossAx val="512145280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="787982592"/>
+        <c:axId val="512145280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6277,12 +6366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787981056"/>
+        <c:crossAx val="512143744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="797693056"/>
+        <c:axId val="512146816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6319,12 +6408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797694592"/>
+        <c:crossAx val="512160896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="797694592"/>
+        <c:axId val="512160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6333,7 +6422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="797693056"/>
+        <c:crossAx val="512146816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6483,7 +6572,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6591,6 +6680,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6600,7 +6692,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6708,6 +6800,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9209443.9285615068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9538652.9565091897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6750,7 +6845,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6858,6 +6953,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,7 +6965,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6975,6 +7073,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8503471.3052840903</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8649528.6555758659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7017,7 +7118,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7125,6 +7226,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +7238,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7242,6 +7346,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-705972.62327741645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-889124.3009333238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,11 +7370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436733824"/>
-        <c:axId val="436735360"/>
+        <c:axId val="513757184"/>
+        <c:axId val="513758720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436733824"/>
+        <c:axId val="513757184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,14 +7417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436735360"/>
+        <c:crossAx val="513758720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436735360"/>
+        <c:axId val="513758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436733824"/>
+        <c:crossAx val="513757184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7529,7 +7636,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7637,6 +7744,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>13082264.026445493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13599888.302464895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,8 +7761,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436766976"/>
-        <c:axId val="436765440"/>
+        <c:axId val="513778048"/>
+        <c:axId val="513776256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7677,7 +7787,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7785,6 +7895,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7794,7 +7907,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7902,6 +8015,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7918,11 +8034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436758016"/>
-        <c:axId val="436759552"/>
+        <c:axId val="513772928"/>
+        <c:axId val="513774720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436758016"/>
+        <c:axId val="513772928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7965,14 +8081,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436759552"/>
+        <c:crossAx val="513774720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436759552"/>
+        <c:axId val="513774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8023,12 +8139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436758016"/>
+        <c:crossAx val="513772928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436765440"/>
+        <c:axId val="513776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8065,12 +8181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436766976"/>
+        <c:crossAx val="513778048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436766976"/>
+        <c:axId val="513778048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8079,7 +8195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436765440"/>
+        <c:crossAx val="513776256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8229,7 +8345,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8337,6 +8453,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8346,7 +8465,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8454,6 +8573,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7588591.3569898829</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8182867.0788339917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8496,7 +8618,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8604,6 +8726,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8613,7 +8738,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8721,6 +8846,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7619344.8934633061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8049511.6591203548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8763,7 +8891,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8871,6 +8999,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8880,7 +9011,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8988,6 +9119,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>30753.536473423243</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-133355.41971363686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9009,11 +9143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436782592"/>
-        <c:axId val="436784128"/>
+        <c:axId val="515005824"/>
+        <c:axId val="515011712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436782592"/>
+        <c:axId val="515005824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,14 +9190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436784128"/>
+        <c:crossAx val="515011712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436784128"/>
+        <c:axId val="515011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9114,7 +9248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436782592"/>
+        <c:crossAx val="515005824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11500,8 +11634,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="15">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1485684.2076602171</v>
+      </c>
+      <c r="H39" s="15">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1070260.4159355557</v>
+      </c>
+      <c r="J39" s="15">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-125365.29315984109</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13997,8 +14166,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:21" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="15">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1584080.5256568273</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1007475.1788163647</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1134004.3123782773</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1007475.1788163647</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-126529.13356191257</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="23">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="N39" s="23">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0.64500000079472863</v>
+      </c>
+      <c r="P39" s="23">
+        <v>0.67228571431977413</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>-2.7285713525045496E-2</v>
+      </c>
+      <c r="R39" s="23">
+        <v>4.0986394192896743E-2</v>
+      </c>
+      <c r="S39" s="9">
+        <v>6.1479591289345117E-4</v>
+      </c>
+      <c r="T39" s="9">
+        <v>-44.381741896476008</v>
+      </c>
+      <c r="U39" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15893,8 +16124,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>39502.541595092531</v>
+      </c>
+      <c r="F39" s="15">
+        <v>62110.916646355035</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1580878.6911725537</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1005438.8121561242</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1136247.3727059716</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1005438.8121561242</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-130808.56054984743</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17789,8 +18061,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>329209.02794768271</v>
+      </c>
+      <c r="F39" s="15">
+        <v>517624.27601940202</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13599888.302464895</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="I39" s="15">
+        <v>9538652.9565091897</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-889124.3009333238</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19909,8 +20222,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:16" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="14">
+        <v>594275.72184410866</v>
+      </c>
+      <c r="H39" s="15">
+        <v>934395.82198927226</v>
+      </c>
+      <c r="I39" s="15">
+        <v>12656465.318818843</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8049511.6591203548</v>
+      </c>
+      <c r="K39" s="15">
+        <v>8182867.0788339917</v>
+      </c>
+      <c r="L39" s="15">
+        <v>8049511.6591203548</v>
+      </c>
+      <c r="M39" s="15">
+        <v>-133355.41971363686</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -673,6 +673,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +685,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -793,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1070260.4159355557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1102813.3837142217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,7 +841,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -946,6 +952,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,7 +964,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1066,6 +1075,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>944895.12277571461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>972991.0953141842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1120,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1219,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1243,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1339,6 +1354,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125365.29315984109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129822.28840003745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,11 +1378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105024512"/>
-        <c:axId val="105608320"/>
+        <c:axId val="225120640"/>
+        <c:axId val="225122560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105024512"/>
+        <c:axId val="225120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,14 +1425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105608320"/>
+        <c:crossAx val="225122560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105608320"/>
+        <c:axId val="225122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105024512"/>
+        <c:crossAx val="225120640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,7 +1644,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1737,6 +1755,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>594275.72184410866</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>507434.47455627128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,8 +1772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515039232"/>
-        <c:axId val="515037440"/>
+        <c:axId val="491425152"/>
+        <c:axId val="491423616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1777,7 +1798,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1888,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1921,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2008,6 +2032,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,11 +2051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515034112"/>
-        <c:axId val="515035904"/>
+        <c:axId val="491420288"/>
+        <c:axId val="491422080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515034112"/>
+        <c:axId val="491420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,14 +2098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515035904"/>
+        <c:crossAx val="491422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515035904"/>
+        <c:axId val="491422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,12 +2156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515034112"/>
+        <c:crossAx val="491420288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515037440"/>
+        <c:axId val="491423616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515039232"/>
+        <c:crossAx val="491425152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="515039232"/>
+        <c:axId val="491425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515037440"/>
+        <c:crossAx val="491423616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2317,7 +2344,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2428,6 +2455,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,8 +2472,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="512226432"/>
-        <c:axId val="507022336"/>
+        <c:axId val="448466944"/>
+        <c:axId val="442675200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2468,7 +2498,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2579,6 +2609,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,7 +2621,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2699,6 +2732,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,11 +2751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493800832"/>
-        <c:axId val="507020416"/>
+        <c:axId val="441789440"/>
+        <c:axId val="442635392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493800832"/>
+        <c:axId val="441789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,14 +2798,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507020416"/>
+        <c:crossAx val="442635392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507020416"/>
+        <c:axId val="442635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,12 +2856,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800832"/>
+        <c:crossAx val="441789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507022336"/>
+        <c:axId val="442675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,12 +2898,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512226432"/>
+        <c:crossAx val="448466944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="512226432"/>
+        <c:axId val="448466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507022336"/>
+        <c:crossAx val="442675200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3026,7 +3062,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3137,6 +3173,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3146,7 +3185,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3257,6 +3296,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1134004.3123782773</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1166557.2801569432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,7 +3341,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3410,6 +3452,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,7 +3464,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3530,6 +3575,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1007475.1788163647</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1035275.9662012851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,7 +3620,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3683,6 +3731,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,7 +3743,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3803,6 +3854,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-126529.13356191257</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-131281.31395565812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,11 +3878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515073920"/>
-        <c:axId val="515448832"/>
+        <c:axId val="496461312"/>
+        <c:axId val="496462848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515073920"/>
+        <c:axId val="496461312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,14 +3925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515448832"/>
+        <c:crossAx val="496462848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515448832"/>
+        <c:axId val="496462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +3983,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515073920"/>
+        <c:crossAx val="496461312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4090,7 +4144,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4201,6 +4255,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,8 +4272,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563401088"/>
-        <c:axId val="540555520"/>
+        <c:axId val="562592768"/>
+        <c:axId val="562591232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4241,7 +4298,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4352,6 +4409,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4361,7 +4421,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4472,6 +4532,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,11 +4551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525343744"/>
-        <c:axId val="540553984"/>
+        <c:axId val="557162496"/>
+        <c:axId val="557165184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525343744"/>
+        <c:axId val="557162496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,14 +4598,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540553984"/>
+        <c:crossAx val="557165184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540553984"/>
+        <c:axId val="557165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4593,12 +4656,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525343744"/>
+        <c:crossAx val="557162496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="540555520"/>
+        <c:axId val="562591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,12 +4698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563401088"/>
+        <c:crossAx val="562592768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563401088"/>
+        <c:axId val="562592768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4649,7 +4712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540555520"/>
+        <c:crossAx val="562591232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4799,7 +4862,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4910,6 +4973,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4985,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5030,6 +5096,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1136247.3727059716</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1168800.3404846375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,7 +5141,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5183,6 +5252,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,7 +5264,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5303,6 +5375,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1005438.8121561242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1033249.2049208303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,7 +5420,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5456,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,7 +5543,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5576,6 +5654,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-130808.56054984743</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-135551.13556380721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,11 +5678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512127360"/>
-        <c:axId val="512128896"/>
+        <c:axId val="454844416"/>
+        <c:axId val="454845952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512127360"/>
+        <c:axId val="454844416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5644,14 +5725,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512128896"/>
+        <c:crossAx val="454845952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512128896"/>
+        <c:axId val="454845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512127360"/>
+        <c:crossAx val="454844416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,7 +5944,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5974,6 +6055,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>39502.541595092531</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,8 +6072,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="512160896"/>
-        <c:axId val="512146816"/>
+        <c:axId val="454873856"/>
+        <c:axId val="454867968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6014,7 +6098,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6125,6 +6209,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,7 +6221,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6245,6 +6332,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6261,11 +6351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512143744"/>
-        <c:axId val="512145280"/>
+        <c:axId val="454864896"/>
+        <c:axId val="454866432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512143744"/>
+        <c:axId val="454864896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,14 +6398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512145280"/>
+        <c:crossAx val="454866432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512145280"/>
+        <c:axId val="454866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6366,12 +6456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512143744"/>
+        <c:crossAx val="454864896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512146816"/>
+        <c:axId val="454867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6408,12 +6498,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512160896"/>
+        <c:crossAx val="454873856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="512160896"/>
+        <c:axId val="454873856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6422,7 +6512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512146816"/>
+        <c:crossAx val="454867968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6572,7 +6662,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6683,6 +6773,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6692,7 +6785,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6803,6 +6896,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9538652.9565091897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9806930.351749409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6845,7 +6941,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6956,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,7 +7064,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7076,6 +7175,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8649528.6555758659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8877006.9111881889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7118,7 +7220,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7229,6 +7331,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7238,7 +7343,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7349,6 +7454,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-889124.3009333238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-929923.44056122005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7370,11 +7478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513757184"/>
-        <c:axId val="513758720"/>
+        <c:axId val="491241472"/>
+        <c:axId val="491243008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513757184"/>
+        <c:axId val="491241472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7417,14 +7525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513758720"/>
+        <c:crossAx val="491243008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513758720"/>
+        <c:axId val="491243008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,7 +7583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513757184"/>
+        <c:crossAx val="491241472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7636,7 +7744,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7747,6 +7855,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>13599888.302464895</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14023707.241436571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,8 +7872,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513778048"/>
-        <c:axId val="513776256"/>
+        <c:axId val="491327488"/>
+        <c:axId val="491325696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7787,7 +7898,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7898,6 +8009,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7907,7 +8021,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8018,6 +8132,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,11 +8151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513772928"/>
-        <c:axId val="513774720"/>
+        <c:axId val="491256832"/>
+        <c:axId val="491324160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513772928"/>
+        <c:axId val="491256832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8081,14 +8198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513774720"/>
+        <c:crossAx val="491324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513774720"/>
+        <c:axId val="491324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8139,12 +8256,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513772928"/>
+        <c:crossAx val="491256832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513776256"/>
+        <c:axId val="491325696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8181,12 +8298,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513778048"/>
+        <c:crossAx val="491327488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="513778048"/>
+        <c:axId val="491327488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,7 +8312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513776256"/>
+        <c:crossAx val="491325696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8345,7 +8462,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8456,6 +8573,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8465,7 +8585,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8576,6 +8696,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8182867.0788339917</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8690301.5533902626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8618,7 +8741,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8729,6 +8852,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,7 +8864,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8849,6 +8975,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8049511.6591203548</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8518977.2265610788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +9020,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9002,6 +9131,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9011,7 +9143,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9122,6 +9254,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-133355.41971363686</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-171324.32682918385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,11 +9278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515005824"/>
-        <c:axId val="515011712"/>
+        <c:axId val="491404288"/>
+        <c:axId val="491406080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515005824"/>
+        <c:axId val="491404288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9190,14 +9325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515011712"/>
+        <c:crossAx val="491406080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515011712"/>
+        <c:axId val="491406080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9248,7 +9383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515005824"/>
+        <c:crossAx val="491404288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9962,7 +10097,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11672,6 +11807,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1537110.6957248552</v>
+      </c>
+      <c r="H40" s="15">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1102813.3837142217</v>
+      </c>
+      <c r="J40" s="15">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-129822.28840003745</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11688,7 +11861,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14231,6 +14404,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:21" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1635507.0137214654</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1035275.9662012851</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1166557.2801569432</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1035275.9662012851</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-131281.31395565812</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="N40" s="23">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="O40" s="23">
+        <v>0.63166666030883789</v>
+      </c>
+      <c r="P40" s="23">
+        <v>0.66545238097508741</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>-3.3785720666249519E-2</v>
+      </c>
+      <c r="R40" s="23">
+        <v>3.7027211416335297E-2</v>
+      </c>
+      <c r="S40" s="9">
+        <v>5.5540817124502941E-4</v>
+      </c>
+      <c r="T40" s="9">
+        <v>-60.830435012351074</v>
+      </c>
+      <c r="U40" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14247,7 +14485,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16168,6 +16406,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1632305.1792371918</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1033249.2049208303</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1168800.3404846375</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1033249.2049208303</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-135551.13556380721</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16184,7 +16466,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18105,6 +18387,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="15">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="15">
+        <v>14023707.241436571</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="I40" s="15">
+        <v>9806930.351749409</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-929923.44056122005</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18121,7 +18447,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20272,6 +20598,56 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="40" spans="1:16" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="14">
+        <v>507434.47455627128</v>
+      </c>
+      <c r="H40" s="15">
+        <v>801634.22047362686</v>
+      </c>
+      <c r="I40" s="15">
+        <v>13458099.53929247</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8518977.2265610788</v>
+      </c>
+      <c r="K40" s="15">
+        <v>8690301.5533902626</v>
+      </c>
+      <c r="L40" s="15">
+        <v>8518977.2265610788</v>
+      </c>
+      <c r="M40" s="15">
+        <v>-171324.32682918385</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -676,6 +676,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +688,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -799,6 +802,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1102813.3837142217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1123194.2613669224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,7 +847,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -955,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +973,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1078,6 +1087,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>972991.0953141842</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>958018.42403340735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1132,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1234,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +1258,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1357,6 +1372,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129822.28840003745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165175.83733351505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225120640"/>
-        <c:axId val="225122560"/>
+        <c:axId val="342445056"/>
+        <c:axId val="421815040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="225120640"/>
+        <c:axId val="342445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,14 +1443,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225122560"/>
+        <c:crossAx val="421815040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="225122560"/>
+        <c:axId val="421815040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225120640"/>
+        <c:crossAx val="342445056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1662,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1758,6 +1776,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>507434.47455627128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>153276.65795835006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,8 +1793,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491425152"/>
-        <c:axId val="491423616"/>
+        <c:axId val="465084416"/>
+        <c:axId val="465082624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1798,7 +1819,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1912,6 +1933,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1945,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2035,6 +2059,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,11 +2078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491420288"/>
-        <c:axId val="491422080"/>
+        <c:axId val="465075200"/>
+        <c:axId val="465081088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491420288"/>
+        <c:axId val="465075200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,14 +2125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491422080"/>
+        <c:crossAx val="465081088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491422080"/>
+        <c:axId val="465081088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,12 +2183,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491420288"/>
+        <c:crossAx val="465075200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491423616"/>
+        <c:axId val="465082624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,12 +2225,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491425152"/>
+        <c:crossAx val="465084416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491425152"/>
+        <c:axId val="465084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491423616"/>
+        <c:crossAx val="465082624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +2371,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2458,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,8 +2502,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448466944"/>
-        <c:axId val="442675200"/>
+        <c:axId val="466513280"/>
+        <c:axId val="466511360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2498,7 +2528,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2612,6 +2642,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,7 +2654,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2735,6 +2768,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,11 +2787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441789440"/>
-        <c:axId val="442635392"/>
+        <c:axId val="451164800"/>
+        <c:axId val="466509824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441789440"/>
+        <c:axId val="451164800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,14 +2834,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442635392"/>
+        <c:crossAx val="466509824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442635392"/>
+        <c:axId val="466509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,12 +2892,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441789440"/>
+        <c:crossAx val="451164800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442675200"/>
+        <c:axId val="466511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,12 +2934,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448466944"/>
+        <c:crossAx val="466513280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448466944"/>
+        <c:axId val="466513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442675200"/>
+        <c:crossAx val="466511360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3098,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3176,6 +3212,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3224,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3299,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1166557.2801569432</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1186938.157809644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3383,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3455,6 +3497,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,7 +3509,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3578,6 +3623,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1035275.9662012851</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1018040.1794189102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,7 +3668,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3734,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3743,7 +3794,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3857,6 +3908,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-131281.31395565812</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-168897.97839073383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,11 +3932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496461312"/>
-        <c:axId val="496462848"/>
+        <c:axId val="497785856"/>
+        <c:axId val="500839552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496461312"/>
+        <c:axId val="497785856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,14 +3979,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496462848"/>
+        <c:crossAx val="500839552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496462848"/>
+        <c:axId val="500839552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +4037,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496461312"/>
+        <c:crossAx val="497785856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4144,7 +4198,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4258,6 +4312,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,8 +4329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="562592768"/>
-        <c:axId val="562591232"/>
+        <c:axId val="554134912"/>
+        <c:axId val="554132608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4298,7 +4355,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4412,6 +4469,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,7 +4481,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4535,6 +4595,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4551,11 +4614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557162496"/>
-        <c:axId val="557165184"/>
+        <c:axId val="543011968"/>
+        <c:axId val="543013888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557162496"/>
+        <c:axId val="543011968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,14 +4661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557165184"/>
+        <c:crossAx val="543013888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557165184"/>
+        <c:axId val="543013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4656,12 +4719,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557162496"/>
+        <c:crossAx val="543011968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562591232"/>
+        <c:axId val="554132608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,12 +4761,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562592768"/>
+        <c:crossAx val="554134912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="562592768"/>
+        <c:axId val="554134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562591232"/>
+        <c:crossAx val="554132608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4862,7 +4925,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4976,6 +5039,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4985,7 +5051,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5099,6 +5165,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1168800.3404846375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1189181.2181373383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,7 +5210,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5255,6 +5324,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5264,7 +5336,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5378,6 +5450,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1033249.2049208303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1016087.0603377006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5420,7 +5495,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5534,6 +5609,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,7 +5621,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5657,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-135551.13556380721</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-173094.15779963764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5678,11 +5759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454844416"/>
-        <c:axId val="454845952"/>
+        <c:axId val="448213376"/>
+        <c:axId val="448214912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454844416"/>
+        <c:axId val="448213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5725,14 +5806,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454845952"/>
+        <c:crossAx val="448214912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454845952"/>
+        <c:axId val="448214912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454844416"/>
+        <c:crossAx val="448213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5944,7 +6025,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6058,6 +6139,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6072,8 +6156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="454873856"/>
-        <c:axId val="454867968"/>
+        <c:axId val="448234624"/>
+        <c:axId val="448232832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6098,7 +6182,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6212,6 +6296,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,7 +6308,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6335,6 +6422,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,11 +6441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454864896"/>
-        <c:axId val="454866432"/>
+        <c:axId val="448229760"/>
+        <c:axId val="448231296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454864896"/>
+        <c:axId val="448229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,14 +6488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866432"/>
+        <c:crossAx val="448231296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454866432"/>
+        <c:axId val="448231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,12 +6546,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454864896"/>
+        <c:crossAx val="448229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454867968"/>
+        <c:axId val="448232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,12 +6588,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454873856"/>
+        <c:crossAx val="448234624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="454873856"/>
+        <c:axId val="448234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,7 +6602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="454867968"/>
+        <c:crossAx val="448232832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6662,7 +6752,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6776,6 +6866,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6785,7 +6878,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6899,6 +6992,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9806930.351749409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9912089.8894441836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6941,7 +7037,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7055,6 +7151,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,7 +7163,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7178,6 +7277,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8877006.9111881889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8659621.1555818245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7220,7 +7322,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7334,6 +7436,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7343,7 +7448,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7457,6 +7562,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-929923.44056122005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1252468.7338623591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7478,11 +7586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491241472"/>
-        <c:axId val="491243008"/>
+        <c:axId val="448262144"/>
+        <c:axId val="448263680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491241472"/>
+        <c:axId val="448262144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,14 +7633,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491243008"/>
+        <c:crossAx val="448263680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491243008"/>
+        <c:axId val="448263680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7583,7 +7691,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491241472"/>
+        <c:crossAx val="448262144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7744,7 +7852,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7858,6 +7966,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>14023707.241436571</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14196099.922139321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,8 +7983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491327488"/>
-        <c:axId val="491325696"/>
+        <c:axId val="451174784"/>
+        <c:axId val="451172992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7898,7 +8009,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8012,6 +8123,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8021,7 +8135,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8135,6 +8249,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8151,11 +8268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491256832"/>
-        <c:axId val="491324160"/>
+        <c:axId val="451157376"/>
+        <c:axId val="451171456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491256832"/>
+        <c:axId val="451157376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8198,14 +8315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491324160"/>
+        <c:crossAx val="451171456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491324160"/>
+        <c:axId val="451171456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8256,12 +8373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491256832"/>
+        <c:crossAx val="451157376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491325696"/>
+        <c:axId val="451172992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8298,12 +8415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491327488"/>
+        <c:crossAx val="451174784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491327488"/>
+        <c:axId val="451174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8312,7 +8429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491325696"/>
+        <c:crossAx val="451172992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8462,7 +8579,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8576,6 +8693,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8585,7 +8705,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8699,6 +8819,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8690301.5533902626</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8843578.2113486119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8741,7 +8864,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8855,6 +8978,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8864,7 +8990,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8978,6 +9104,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8518977.2265610788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8362717.5694464147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9020,7 +9149,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9134,6 +9263,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,7 +9275,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9257,6 +9389,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-171324.32682918385</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-480860.64190219715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9278,11 +9413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491404288"/>
-        <c:axId val="491406080"/>
+        <c:axId val="465059200"/>
+        <c:axId val="465060992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491404288"/>
+        <c:axId val="465059200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,14 +9460,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491406080"/>
+        <c:crossAx val="465060992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491406080"/>
+        <c:axId val="465060992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9383,7 +9518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491404288"/>
+        <c:crossAx val="465059200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10097,7 +10232,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11845,6 +11980,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1570521.9697818202</v>
+      </c>
+      <c r="H41" s="15">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1123194.2613669224</v>
+      </c>
+      <c r="J41" s="15">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-165175.83733351505</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11861,7 +12034,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14469,6 +14642,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:21" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1668918.2877784304</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1018040.1794189102</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1186938.157809644</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1018040.1794189102</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-168897.97839073383</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="23">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="N41" s="23">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="O41" s="23">
+        <v>0.60999999443689978</v>
+      </c>
+      <c r="P41" s="23">
+        <v>0.65569047558875304</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>-4.5690481151853257E-2</v>
+      </c>
+      <c r="R41" s="23">
+        <v>3.2074830969985625E-2</v>
+      </c>
+      <c r="S41" s="9">
+        <v>4.8112246454978433E-4</v>
+      </c>
+      <c r="T41" s="9">
+        <v>-94.966426468172983</v>
+      </c>
+      <c r="U41" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14485,7 +14723,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16450,6 +16688,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1665716.4532941568</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1016087.0603377006</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1189181.2181373383</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1016087.0603377006</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-173094.15779963764</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16466,7 +16748,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18431,6 +18713,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="15">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="15">
+        <v>14196099.922139321</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="I41" s="15">
+        <v>9912089.8894441836</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-1252468.7338623591</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18447,7 +18773,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20648,6 +20974,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:16" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="14">
+        <v>153276.65795835006</v>
+      </c>
+      <c r="H41" s="15">
+        <v>251273.20387517713</v>
+      </c>
+      <c r="I41" s="15">
+        <v>13709372.743167646</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8362717.5694464147</v>
+      </c>
+      <c r="K41" s="15">
+        <v>8843578.2113486119</v>
+      </c>
+      <c r="L41" s="15">
+        <v>8362717.5694464147</v>
+      </c>
+      <c r="M41" s="15">
+        <v>-480860.64190219715</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -679,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +691,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -805,6 +808,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1123194.2613669224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1124647.3973650639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +853,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -964,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +982,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1090,6 +1099,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>958018.42403340735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1206043.51752501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1144,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1249,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1273,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1375,6 +1390,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165175.83733351505</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81396.120159946149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342445056"/>
-        <c:axId val="421815040"/>
+        <c:axId val="370584960"/>
+        <c:axId val="437444992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342445056"/>
+        <c:axId val="370584960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,14 +1461,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421815040"/>
+        <c:crossAx val="437444992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421815040"/>
+        <c:axId val="437444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1519,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342445056"/>
+        <c:crossAx val="370584960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,7 +1680,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1779,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>153276.65795835006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1382.6542794842405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,8 +1814,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465084416"/>
-        <c:axId val="465082624"/>
+        <c:axId val="443242752"/>
+        <c:axId val="443241216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1819,7 +1840,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1936,6 +1957,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1969,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2062,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,11 +2105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465075200"/>
-        <c:axId val="465081088"/>
+        <c:axId val="443237888"/>
+        <c:axId val="443239424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465075200"/>
+        <c:axId val="443237888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,14 +2152,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465081088"/>
+        <c:crossAx val="443239424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465081088"/>
+        <c:axId val="443239424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,12 +2210,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465075200"/>
+        <c:crossAx val="443237888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465082624"/>
+        <c:axId val="443241216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,12 +2252,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465084416"/>
+        <c:crossAx val="443242752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465084416"/>
+        <c:axId val="443242752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465082624"/>
+        <c:crossAx val="443241216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2398,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2488,6 +2515,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2502,8 +2532,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="466513280"/>
-        <c:axId val="466511360"/>
+        <c:axId val="444315904"/>
+        <c:axId val="444313984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2528,7 +2558,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2645,6 +2675,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2654,7 +2687,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2771,6 +2804,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,11 +2823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451164800"/>
-        <c:axId val="466509824"/>
+        <c:axId val="442471552"/>
+        <c:axId val="442473088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451164800"/>
+        <c:axId val="442471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,14 +2870,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466509824"/>
+        <c:crossAx val="442473088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466509824"/>
+        <c:axId val="442473088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,12 +2928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451164800"/>
+        <c:crossAx val="442471552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466511360"/>
+        <c:axId val="444313984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,12 +2970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466513280"/>
+        <c:crossAx val="444315904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="466513280"/>
+        <c:axId val="444315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466511360"/>
+        <c:crossAx val="444313984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3134,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3215,6 +3251,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3263,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3341,6 +3380,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1186938.157809644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1188391.2938077855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3425,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3500,6 +3542,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,7 +3554,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3626,6 +3671,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1018040.1794189102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1281513.4953520899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,7 +3716,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3785,6 +3833,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,7 +3845,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3911,6 +3962,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-168897.97839073383</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93122.201544304378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,11 +3986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497785856"/>
-        <c:axId val="500839552"/>
+        <c:axId val="449772160"/>
+        <c:axId val="467768832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497785856"/>
+        <c:axId val="449772160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,14 +4033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500839552"/>
+        <c:crossAx val="467768832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500839552"/>
+        <c:axId val="467768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497785856"/>
+        <c:crossAx val="449772160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4198,7 +4252,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4315,6 +4369,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,8 +4386,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="554134912"/>
-        <c:axId val="554132608"/>
+        <c:axId val="615200640"/>
+        <c:axId val="615198720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4355,7 +4412,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4472,6 +4529,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,7 +4541,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4598,6 +4658,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,11 +4677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543011968"/>
-        <c:axId val="543013888"/>
+        <c:axId val="569026816"/>
+        <c:axId val="615190528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543011968"/>
+        <c:axId val="569026816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,14 +4724,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543013888"/>
+        <c:crossAx val="615190528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543013888"/>
+        <c:axId val="615190528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,12 +4782,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543011968"/>
+        <c:crossAx val="569026816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554132608"/>
+        <c:axId val="615198720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4761,12 +4824,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554134912"/>
+        <c:crossAx val="615200640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="554134912"/>
+        <c:axId val="615200640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554132608"/>
+        <c:crossAx val="615198720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4925,7 +4988,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5042,6 +5105,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5051,7 +5117,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5168,6 +5234,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1189181.2181373383</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1190634.3541354798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,7 +5279,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5327,6 +5396,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5336,7 +5408,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5453,6 +5525,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1016087.0603377006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1279057.6882400552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,7 +5570,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5612,6 +5687,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,7 +5699,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5738,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-173094.15779963764</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88423.33410457545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5759,11 +5840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448213376"/>
-        <c:axId val="448214912"/>
+        <c:axId val="442402688"/>
+        <c:axId val="442404224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448213376"/>
+        <c:axId val="442402688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,14 +5887,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448214912"/>
+        <c:crossAx val="442404224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448214912"/>
+        <c:axId val="442404224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5864,7 +5945,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448213376"/>
+        <c:crossAx val="442402688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6025,7 +6106,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6142,6 +6223,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6156,8 +6240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448234624"/>
-        <c:axId val="448232832"/>
+        <c:axId val="442424320"/>
+        <c:axId val="442422784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6182,7 +6266,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6299,6 +6383,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6308,7 +6395,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6425,6 +6512,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6441,11 +6531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448229760"/>
-        <c:axId val="448231296"/>
+        <c:axId val="442419456"/>
+        <c:axId val="442421248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448229760"/>
+        <c:axId val="442419456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,14 +6578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448231296"/>
+        <c:crossAx val="442421248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448231296"/>
+        <c:axId val="442421248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6546,12 +6636,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448229760"/>
+        <c:crossAx val="442419456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448232832"/>
+        <c:axId val="442422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,12 +6678,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448234624"/>
+        <c:crossAx val="442424320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448234624"/>
+        <c:axId val="442424320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,7 +6692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448232832"/>
+        <c:crossAx val="442422784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6842,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6869,6 +6959,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,7 +6971,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6995,6 +7088,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9912089.8894441836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9912624.4727933221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7037,7 +7133,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7154,6 +7250,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,7 +7262,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7280,6 +7379,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8659621.1555818245</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10888943.501168342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7322,7 +7424,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7439,6 +7541,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7448,7 +7553,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7565,6 +7670,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1252468.7338623591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>976319.02837502025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7586,11 +7694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448262144"/>
-        <c:axId val="448263680"/>
+        <c:axId val="442452224"/>
+        <c:axId val="442458112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448262144"/>
+        <c:axId val="442452224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7633,14 +7741,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448263680"/>
+        <c:crossAx val="442458112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448263680"/>
+        <c:axId val="442458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7691,7 +7799,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448262144"/>
+        <c:crossAx val="442452224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7852,7 +7960,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7969,6 +8077,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>14196099.922139321</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14196796.901716258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7983,8 +8094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451174784"/>
-        <c:axId val="451172992"/>
+        <c:axId val="442485376"/>
+        <c:axId val="442483840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8009,7 +8120,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8126,6 +8237,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8135,7 +8249,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8252,6 +8366,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8268,11 +8385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451157376"/>
-        <c:axId val="451171456"/>
+        <c:axId val="442480512"/>
+        <c:axId val="442482048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451157376"/>
+        <c:axId val="442480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,14 +8432,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451171456"/>
+        <c:crossAx val="442482048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451171456"/>
+        <c:axId val="442482048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,12 +8490,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451157376"/>
+        <c:crossAx val="442480512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451172992"/>
+        <c:axId val="442483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8415,12 +8532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451174784"/>
+        <c:crossAx val="442485376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451174784"/>
+        <c:axId val="442485376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,7 +8546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451172992"/>
+        <c:crossAx val="442483840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8579,7 +8696,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8696,6 +8813,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8705,7 +8825,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8822,6 +8942,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8843578.2113486119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8844960.8656280953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8864,7 +8987,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8981,6 +9104,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8990,7 +9116,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9107,6 +9233,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8362717.5694464147</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10516471.816311741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,7 +9278,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9266,6 +9395,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9275,7 +9407,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9392,6 +9524,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-480860.64190219715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1671510.9506836459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9413,11 +9548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465059200"/>
-        <c:axId val="465060992"/>
+        <c:axId val="443147776"/>
+        <c:axId val="443149312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465059200"/>
+        <c:axId val="443147776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9460,14 +9595,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465060992"/>
+        <c:crossAx val="443149312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465060992"/>
+        <c:axId val="443149312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9518,7 +9653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465059200"/>
+        <c:crossAx val="443147776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10232,7 +10367,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12018,6 +12153,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1572416.5407871683</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1124647.3973650639</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="K42" s="15">
+        <v>81396.120159946149</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12034,7 +12207,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14707,6 +14880,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:21" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1670812.8587837785</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1281513.4953520899</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1188391.2938077855</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1281513.4953520899</v>
+      </c>
+      <c r="K42" s="15">
+        <v>93122.201544304378</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="23">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="N42" s="23">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="O42" s="23">
+        <v>0.70766667524973548</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0.6522857135250455</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>5.5380961724689981E-2</v>
+      </c>
+      <c r="R42" s="23">
+        <v>2.8619046722139607E-2</v>
+      </c>
+      <c r="S42" s="9">
+        <v>4.2928570083209408E-4</v>
+      </c>
+      <c r="T42" s="9">
+        <v>129.00723601402009</v>
+      </c>
+      <c r="U42" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14723,7 +14961,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16732,6 +16970,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1667611.0242995049</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1279057.6882400552</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1190634.3541354798</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1279057.6882400552</v>
+      </c>
+      <c r="K42" s="15">
+        <v>88423.33410457545</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16748,7 +17030,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18757,6 +19039,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="15">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="15">
+        <v>14196796.901716258</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="I42" s="15">
+        <v>9912624.4727933221</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="K42" s="15">
+        <v>976319.02837502025</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18773,7 +19099,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21024,6 +21350,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:16" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1382.6542794842405</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1802.6782845388486</v>
+      </c>
+      <c r="I42" s="15">
+        <v>13711175.421452185</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10516471.816311741</v>
+      </c>
+      <c r="K42" s="15">
+        <v>8844960.8656280953</v>
+      </c>
+      <c r="L42" s="15">
+        <v>10516471.816311741</v>
+      </c>
+      <c r="M42" s="15">
+        <v>1671510.9506836459</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -682,6 +682,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,7 +694,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -811,6 +814,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1124647.3973650639</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1127257.6528514628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +859,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -973,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +991,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1102,6 +1111,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1206043.51752501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1224377.923423548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,7 +1156,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1264,6 +1276,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1288,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1393,6 +1408,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81396.120159946149</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97120.270572085166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,11 +1432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370584960"/>
-        <c:axId val="437444992"/>
+        <c:axId val="87315968"/>
+        <c:axId val="87317888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370584960"/>
+        <c:axId val="87315968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,14 +1479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437444992"/>
+        <c:crossAx val="87317888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="437444992"/>
+        <c:axId val="87317888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370584960"/>
+        <c:crossAx val="87315968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,7 +1698,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1796,10 +1814,13 @@
                   <c:v>507434.47455627128</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>153276.65795835006</c:v>
+                  <c:v>153276.65797483371</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1382.6542794842405</c:v>
+                  <c:v>1382.6542815230166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,8 +1835,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443242752"/>
-        <c:axId val="443241216"/>
+        <c:axId val="485914496"/>
+        <c:axId val="485912960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1840,7 +1861,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1960,6 +1981,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,7 +1993,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2089,6 +2113,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,11 +2132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443237888"/>
-        <c:axId val="443239424"/>
+        <c:axId val="485893248"/>
+        <c:axId val="485894784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443237888"/>
+        <c:axId val="485893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,14 +2179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443239424"/>
+        <c:crossAx val="485894784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443239424"/>
+        <c:axId val="485894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2237,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443237888"/>
+        <c:crossAx val="485893248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443241216"/>
+        <c:axId val="485912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2279,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443242752"/>
+        <c:crossAx val="485914496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="443242752"/>
+        <c:axId val="485914496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443241216"/>
+        <c:crossAx val="485912960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2398,7 +2425,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2518,6 +2545,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,8 +2562,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="444315904"/>
-        <c:axId val="444313984"/>
+        <c:axId val="482671616"/>
+        <c:axId val="482668928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2558,7 +2588,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2678,6 +2708,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,7 +2720,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2807,6 +2840,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,11 +2859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442471552"/>
-        <c:axId val="442473088"/>
+        <c:axId val="482653312"/>
+        <c:axId val="482654848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442471552"/>
+        <c:axId val="482653312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,14 +2906,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442473088"/>
+        <c:crossAx val="482654848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442473088"/>
+        <c:axId val="482654848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,12 +2964,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442471552"/>
+        <c:crossAx val="482653312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444313984"/>
+        <c:axId val="482668928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,12 +3006,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444315904"/>
+        <c:crossAx val="482671616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="444315904"/>
+        <c:axId val="482671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +3020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444313984"/>
+        <c:crossAx val="482668928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +3170,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3254,6 +3290,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,7 +3302,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3383,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1188391.2938077855</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1191001.5492941844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3467,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3545,6 +3587,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,7 +3599,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3674,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1281513.4953520899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1300831.8634922137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,7 +3764,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3836,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,7 +3896,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3965,6 +4016,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>93122.201544304378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>109830.31419802923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,11 +4040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449772160"/>
-        <c:axId val="467768832"/>
+        <c:axId val="493918848"/>
+        <c:axId val="482689408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449772160"/>
+        <c:axId val="493918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,14 +4087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467768832"/>
+        <c:crossAx val="482689408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467768832"/>
+        <c:axId val="482689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449772160"/>
+        <c:crossAx val="493918848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4252,7 +4306,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4372,6 +4426,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,8 +4443,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="615200640"/>
-        <c:axId val="615198720"/>
+        <c:axId val="482722176"/>
+        <c:axId val="482720384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4412,7 +4469,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4532,6 +4589,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,7 +4601,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4661,6 +4721,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4677,11 +4740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569026816"/>
-        <c:axId val="615190528"/>
+        <c:axId val="482712960"/>
+        <c:axId val="482718848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569026816"/>
+        <c:axId val="482712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,14 +4787,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615190528"/>
+        <c:crossAx val="482718848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615190528"/>
+        <c:axId val="482718848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,12 +4845,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569026816"/>
+        <c:crossAx val="482712960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="615198720"/>
+        <c:axId val="482720384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4824,12 +4887,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615200640"/>
+        <c:crossAx val="482722176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="615200640"/>
+        <c:axId val="482722176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="615198720"/>
+        <c:crossAx val="482720384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4988,7 +5051,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5108,6 +5171,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,7 +5183,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5237,6 +5303,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1190634.3541354798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1193244.6096218787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5279,7 +5348,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5399,6 +5468,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5408,7 +5480,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5528,6 +5600,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1279057.6882400552</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1298344.0380658712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5570,7 +5645,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5690,6 +5765,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,7 +5777,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5819,6 +5897,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>88423.33410457545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105099.42844399251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5840,11 +5921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442402688"/>
-        <c:axId val="442404224"/>
+        <c:axId val="483608448"/>
+        <c:axId val="483609984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442402688"/>
+        <c:axId val="483608448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,14 +5968,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442404224"/>
+        <c:crossAx val="483609984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442404224"/>
+        <c:axId val="483609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5945,7 +6026,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442402688"/>
+        <c:crossAx val="483608448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6106,7 +6187,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6226,6 +6307,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,8 +6324,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442424320"/>
-        <c:axId val="442422784"/>
+        <c:axId val="483627008"/>
+        <c:axId val="483625216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6266,7 +6350,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6386,6 +6470,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6482,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6515,6 +6602,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6531,11 +6621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442419456"/>
-        <c:axId val="442421248"/>
+        <c:axId val="483621888"/>
+        <c:axId val="483623680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442419456"/>
+        <c:axId val="483621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6578,14 +6668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442421248"/>
+        <c:crossAx val="483623680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442421248"/>
+        <c:axId val="483623680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,12 +6726,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442419456"/>
+        <c:crossAx val="483621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442422784"/>
+        <c:axId val="483625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,12 +6768,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442424320"/>
+        <c:crossAx val="483627008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442424320"/>
+        <c:axId val="483627008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442422784"/>
+        <c:crossAx val="483625216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6842,7 +6932,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6962,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,7 +7064,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7091,6 +7184,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9912624.4727933221</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9914349.3927184548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,7 +7229,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7253,6 +7349,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7262,7 +7361,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7382,6 +7481,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10888943.501168342</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11032636.254719432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7424,7 +7526,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7544,6 +7646,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7553,7 +7658,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7673,6 +7778,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>976319.02837502025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1118286.8620009776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7694,11 +7802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442452224"/>
-        <c:axId val="442458112"/>
+        <c:axId val="483763712"/>
+        <c:axId val="483765248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442452224"/>
+        <c:axId val="483763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7741,14 +7849,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442458112"/>
+        <c:crossAx val="483765248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442458112"/>
+        <c:axId val="483765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7799,7 +7907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442452224"/>
+        <c:crossAx val="483763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7960,7 +8068,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8080,6 +8188,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>14196796.901716258</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14199016.87585127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8094,8 +8205,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442485376"/>
-        <c:axId val="442483840"/>
+        <c:axId val="483781632"/>
+        <c:axId val="483780096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8120,7 +8231,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8240,6 +8351,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8249,7 +8363,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8369,6 +8483,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8385,11 +8502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442480512"/>
-        <c:axId val="442482048"/>
+        <c:axId val="483776768"/>
+        <c:axId val="483778560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442480512"/>
+        <c:axId val="483776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,14 +8549,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442482048"/>
+        <c:crossAx val="483778560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442482048"/>
+        <c:axId val="483778560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8490,12 +8607,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442480512"/>
+        <c:crossAx val="483776768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442483840"/>
+        <c:axId val="483780096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8532,12 +8649,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442485376"/>
+        <c:crossAx val="483781632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442485376"/>
+        <c:axId val="483781632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8546,7 +8663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442483840"/>
+        <c:crossAx val="483780096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8696,7 +8813,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8816,6 +8933,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8825,7 +8945,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8941,10 +9061,13 @@
                   <c:v>8690301.5533902626</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8843578.2113486119</c:v>
+                  <c:v>8843578.2113650963</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8844960.8656280953</c:v>
+                  <c:v>8844960.8656466193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8844960.8656466193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8987,7 +9110,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9107,6 +9230,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9116,7 +9242,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9232,10 +9358,13 @@
                   <c:v>8518977.2265610788</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8362717.5694464147</c:v>
+                  <c:v>8362717.5694628982</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10516471.816311741</c:v>
+                  <c:v>10516471.816334506</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10653583.439789366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9278,7 +9407,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9398,6 +9527,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9407,7 +9539,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9523,10 +9655,13 @@
                   <c:v>-171324.32682918385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-480860.64190219715</c:v>
+                  <c:v>-480860.64190219808</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1671510.9506836459</c:v>
+                  <c:v>1671510.9506878871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1808622.5741427466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9548,11 +9683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443147776"/>
-        <c:axId val="443149312"/>
+        <c:axId val="484692352"/>
+        <c:axId val="484693888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443147776"/>
+        <c:axId val="484692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9595,14 +9730,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443149312"/>
+        <c:crossAx val="484693888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443149312"/>
+        <c:axId val="484693888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9653,7 +9788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443147776"/>
+        <c:crossAx val="484692352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10367,7 +10502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12191,6 +12326,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1575775.9429142717</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1127257.6528514628</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="K43" s="15">
+        <v>97120.270572085166</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12207,7 +12380,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14945,6 +15118,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:21" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1674172.2609108819</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1300831.8634922137</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1191001.5492941844</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1300831.8634922137</v>
+      </c>
+      <c r="K43" s="15">
+        <v>109830.31419802923</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="23">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="N43" s="23">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="O43" s="23">
+        <v>0.79266667366027832</v>
+      </c>
+      <c r="P43" s="23">
+        <v>0.65721428678149274</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>0.13545238687878558</v>
+      </c>
+      <c r="R43" s="23">
+        <v>3.3816329475973732E-2</v>
+      </c>
+      <c r="S43" s="9">
+        <v>5.0724494213960592E-4</v>
+      </c>
+      <c r="T43" s="9">
+        <v>267.03546083167419</v>
+      </c>
+      <c r="U43" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14961,7 +15199,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17014,6 +17252,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1670970.4264266083</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1298344.0380658712</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1193244.6096218787</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1298344.0380658712</v>
+      </c>
+      <c r="K43" s="15">
+        <v>105099.42844399251</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17030,7 +17312,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19083,6 +19365,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="15">
+        <v>14199016.87585127</v>
+      </c>
+      <c r="H43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="I43" s="15">
+        <v>9914349.3927184548</v>
+      </c>
+      <c r="J43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1118286.8620009776</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19099,7 +19425,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21311,7 +21637,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
         <v>6956200</v>
@@ -21320,25 +21646,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="14">
-        <v>153276.65795835006</v>
+        <v>153276.65797483371</v>
       </c>
       <c r="H41" s="15">
-        <v>251273.20387517713</v>
+        <v>251273.20390219952</v>
       </c>
       <c r="I41" s="15">
-        <v>13709372.743167646</v>
+        <v>13709372.743194669</v>
       </c>
       <c r="J41" s="15">
-        <v>8362717.5694464147</v>
+        <v>8362717.5694628982</v>
       </c>
       <c r="K41" s="15">
-        <v>8843578.2113486119</v>
+        <v>8843578.2113650963</v>
       </c>
       <c r="L41" s="15">
-        <v>8362717.5694464147</v>
+        <v>8362717.5694628982</v>
       </c>
       <c r="M41" s="15">
-        <v>-480860.64190219715</v>
+        <v>-480860.64190219808</v>
       </c>
       <c r="N41" s="14">
         <v>0</v>
@@ -21361,7 +21687,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
         <v>12479809</v>
@@ -21370,25 +21696,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="14">
-        <v>1382.6542794842405</v>
+        <v>1382.6542815230166</v>
       </c>
       <c r="H42" s="15">
-        <v>1802.6782845388486</v>
+        <v>1802.678287196966</v>
       </c>
       <c r="I42" s="15">
-        <v>13711175.421452185</v>
+        <v>13711175.421481866</v>
       </c>
       <c r="J42" s="15">
-        <v>10516471.816311741</v>
+        <v>10516471.816334506</v>
       </c>
       <c r="K42" s="15">
-        <v>8844960.8656280953</v>
+        <v>8844960.8656466193</v>
       </c>
       <c r="L42" s="15">
-        <v>10516471.816311741</v>
+        <v>10516471.816334506</v>
       </c>
       <c r="M42" s="15">
-        <v>1671510.9506836459</v>
+        <v>1671510.9506878871</v>
       </c>
       <c r="N42" s="14">
         <v>0</v>
@@ -21397,6 +21723,56 @@
         <v>265.35751850843906</v>
       </c>
       <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>13711175.421481866</v>
+      </c>
+      <c r="J43" s="15">
+        <v>10653583.439789366</v>
+      </c>
+      <c r="K43" s="15">
+        <v>8844960.8656466193</v>
+      </c>
+      <c r="L43" s="15">
+        <v>10653583.439789366</v>
+      </c>
+      <c r="M43" s="15">
+        <v>1808622.5741427466</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="P43" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -685,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +697,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -817,6 +820,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1127257.6528514628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1130707.2667107254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +865,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -982,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +1000,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1114,6 +1123,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1224377.923423548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1234130.6538280728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1168,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1279,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1303,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1411,6 +1426,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>97120.270572085166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103423.38711734745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,11 +1450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87315968"/>
-        <c:axId val="87317888"/>
+        <c:axId val="472283776"/>
+        <c:axId val="472618112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87315968"/>
+        <c:axId val="472283776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,14 +1497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87317888"/>
+        <c:crossAx val="472618112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87317888"/>
+        <c:axId val="472618112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87315968"/>
+        <c:crossAx val="472283776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1698,7 +1716,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1820,7 +1838,10 @@
                   <c:v>1382.6542815230166</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>569.72274312846628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075.6306281980965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,8 +1856,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485914496"/>
-        <c:axId val="485912960"/>
+        <c:axId val="497305088"/>
+        <c:axId val="497303552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1861,7 +1882,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1984,6 +2005,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2017,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2116,6 +2140,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,11 +2159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485893248"/>
-        <c:axId val="485894784"/>
+        <c:axId val="497300224"/>
+        <c:axId val="497301760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485893248"/>
+        <c:axId val="497300224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,14 +2206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485894784"/>
+        <c:crossAx val="497301760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485894784"/>
+        <c:axId val="497301760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,12 +2264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485893248"/>
+        <c:crossAx val="497300224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485912960"/>
+        <c:axId val="497303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,12 +2306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485914496"/>
+        <c:crossAx val="497305088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485914496"/>
+        <c:axId val="497305088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485912960"/>
+        <c:crossAx val="497303552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2425,7 +2452,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2548,6 +2575,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2562,8 +2592,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482671616"/>
-        <c:axId val="482668928"/>
+        <c:axId val="504732672"/>
+        <c:axId val="504730752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2588,7 +2618,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2711,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2753,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2843,6 +2876,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,11 +2895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482653312"/>
-        <c:axId val="482654848"/>
+        <c:axId val="497858048"/>
+        <c:axId val="497859968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482653312"/>
+        <c:axId val="497858048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,14 +2942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482654848"/>
+        <c:crossAx val="497859968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482654848"/>
+        <c:axId val="497859968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,12 +3000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482653312"/>
+        <c:crossAx val="497858048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482668928"/>
+        <c:axId val="504730752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,12 +3042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482671616"/>
+        <c:crossAx val="504732672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482671616"/>
+        <c:axId val="504732672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482668928"/>
+        <c:crossAx val="504730752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3170,7 +3206,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3293,6 +3329,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,7 +3341,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3425,6 +3464,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1191001.5492941844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1194451.163153447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3509,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3590,6 +3632,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3599,7 +3644,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3722,6 +3767,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1300831.8634922137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1310978.1799663482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,7 +3812,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3887,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,7 +3947,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4019,6 +4070,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>109830.31419802923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>116527.01681290125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4040,11 +4094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493918848"/>
-        <c:axId val="482689408"/>
+        <c:axId val="494586112"/>
+        <c:axId val="494587904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493918848"/>
+        <c:axId val="494586112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,14 +4141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482689408"/>
+        <c:crossAx val="494587904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482689408"/>
+        <c:axId val="494587904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493918848"/>
+        <c:crossAx val="494586112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4306,7 +4360,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4429,6 +4483,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4443,8 +4500,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482722176"/>
-        <c:axId val="482720384"/>
+        <c:axId val="494604288"/>
+        <c:axId val="494602496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4469,7 +4526,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4592,6 +4649,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4601,7 +4661,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4724,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,11 +4803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482712960"/>
-        <c:axId val="482718848"/>
+        <c:axId val="494599168"/>
+        <c:axId val="494600960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482712960"/>
+        <c:axId val="494599168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,14 +4850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482718848"/>
+        <c:crossAx val="494600960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482718848"/>
+        <c:axId val="494600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,12 +4908,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482712960"/>
+        <c:crossAx val="494599168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482720384"/>
+        <c:axId val="494602496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,12 +4950,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482722176"/>
+        <c:crossAx val="494604288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482722176"/>
+        <c:axId val="494604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,7 +4964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482720384"/>
+        <c:crossAx val="494602496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5051,7 +5114,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5174,6 +5237,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5249,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5306,6 +5372,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1193244.6096218787</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1196694.2234811413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,7 +5417,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5471,6 +5540,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,7 +5552,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5603,6 +5675,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1298344.0380658712</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1308477.5471761138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5720,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5768,6 +5843,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5777,7 +5855,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5900,6 +5978,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>105099.42844399251</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111783.32369497255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5921,11 +6002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483608448"/>
-        <c:axId val="483609984"/>
+        <c:axId val="494626304"/>
+        <c:axId val="494627840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483608448"/>
+        <c:axId val="494626304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,14 +6049,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483609984"/>
+        <c:crossAx val="494627840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483609984"/>
+        <c:axId val="494627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6026,7 +6107,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483608448"/>
+        <c:crossAx val="494626304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6187,7 +6268,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6310,6 +6391,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,8 +6408,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483627008"/>
-        <c:axId val="483625216"/>
+        <c:axId val="494652416"/>
+        <c:axId val="494650880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6350,7 +6434,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6473,6 +6557,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6482,7 +6569,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6605,6 +6692,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,11 +6711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483621888"/>
-        <c:axId val="483623680"/>
+        <c:axId val="494647552"/>
+        <c:axId val="494649344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483621888"/>
+        <c:axId val="494647552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,14 +6758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483623680"/>
+        <c:crossAx val="494649344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483623680"/>
+        <c:axId val="494649344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,12 +6816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483621888"/>
+        <c:crossAx val="494647552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483625216"/>
+        <c:axId val="494650880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6768,12 +6858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483627008"/>
+        <c:crossAx val="494652416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483627008"/>
+        <c:axId val="494652416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,7 +6872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483625216"/>
+        <c:crossAx val="494650880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6932,7 +7022,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7055,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,7 +7157,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7187,6 +7280,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9914349.3927184548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9917362.0093711168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7229,7 +7325,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7352,6 +7448,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7361,7 +7460,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7484,6 +7583,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11032636.254719432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11092445.05397602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,7 +7628,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7649,6 +7751,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7658,7 +7763,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7781,6 +7886,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1118286.8620009776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1175083.0446049031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,11 +7910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483763712"/>
-        <c:axId val="483765248"/>
+        <c:axId val="494715648"/>
+        <c:axId val="494717184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483763712"/>
+        <c:axId val="494715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7849,14 +7957,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483765248"/>
+        <c:crossAx val="494717184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483765248"/>
+        <c:axId val="494717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7907,7 +8015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483763712"/>
+        <c:crossAx val="494715648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8068,7 +8176,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8191,6 +8299,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>14199016.87585127</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14202874.25943996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8205,8 +8316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483781632"/>
-        <c:axId val="483780096"/>
+        <c:axId val="494745856"/>
+        <c:axId val="494744320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8231,7 +8342,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8354,6 +8465,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,7 +8477,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8486,6 +8600,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8502,11 +8619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483776768"/>
-        <c:axId val="483778560"/>
+        <c:axId val="494732800"/>
+        <c:axId val="494734336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483776768"/>
+        <c:axId val="494732800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8549,14 +8666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483778560"/>
+        <c:crossAx val="494734336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483778560"/>
+        <c:axId val="494734336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8607,12 +8724,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483776768"/>
+        <c:crossAx val="494732800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483780096"/>
+        <c:axId val="494744320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,12 +8766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483781632"/>
+        <c:crossAx val="494745856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483781632"/>
+        <c:axId val="494745856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8663,7 +8780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483780096"/>
+        <c:crossAx val="494744320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8813,7 +8930,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8936,6 +9053,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8945,7 +9065,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9067,7 +9187,10 @@
                   <c:v>8844960.8656466193</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8844960.8656466193</c:v>
+                  <c:v>8845530.5883897487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8846606.2190179471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9110,7 +9233,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9233,6 +9356,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9242,7 +9368,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9364,7 +9490,10 @@
                   <c:v>10516471.816334506</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10653583.439789366</c:v>
+                  <c:v>10654153.162532493</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10710076.538934106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9407,7 +9536,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9530,6 +9659,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9539,7 +9671,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9661,7 +9793,10 @@
                   <c:v>1671510.9506878871</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1808622.5741427466</c:v>
+                  <c:v>1808622.5741427448</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1863470.3199161589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9683,11 +9818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484692352"/>
-        <c:axId val="484693888"/>
+        <c:axId val="494780416"/>
+        <c:axId val="494781952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484692352"/>
+        <c:axId val="494780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9730,14 +9865,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484693888"/>
+        <c:crossAx val="494781952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484693888"/>
+        <c:axId val="494781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9788,7 +9923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484692352"/>
+        <c:crossAx val="494780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10502,7 +10637,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12364,6 +12499,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1580192.8619657813</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1130707.2667107254</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="K44" s="15">
+        <v>103423.38711734745</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12380,7 +12553,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15183,6 +15356,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:21" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1678589.1799623915</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1310978.1799663482</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1194451.163153447</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1310978.1799663482</v>
+      </c>
+      <c r="K44" s="15">
+        <v>116527.01681290125</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="23">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="N44" s="23">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="O44" s="23">
+        <v>0.79633335272471106</v>
+      </c>
+      <c r="P44" s="23">
+        <v>0.66442857327915372</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>0.13190477944555734</v>
+      </c>
+      <c r="R44" s="23">
+        <v>4.3340140256751959E-2</v>
+      </c>
+      <c r="S44" s="9">
+        <v>6.5010210385127941E-4</v>
+      </c>
+      <c r="T44" s="9">
+        <v>202.89855803286639</v>
+      </c>
+      <c r="U44" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15199,7 +15437,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17296,6 +17534,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1675387.3454781179</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1308477.5471761138</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1196694.2234811413</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1308477.5471761138</v>
+      </c>
+      <c r="K44" s="15">
+        <v>111783.32369497255</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17312,7 +17594,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19409,6 +19691,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="15">
+        <v>14202874.25943996</v>
+      </c>
+      <c r="H44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="I44" s="15">
+        <v>9917362.0093711168</v>
+      </c>
+      <c r="J44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1175083.0446049031</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19425,7 +19751,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21740,31 +22066,31 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="14">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="14">
-        <v>0</v>
+        <v>569.72274312846628</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>733.23389419069474</v>
       </c>
       <c r="I43" s="15">
-        <v>13711175.421481866</v>
+        <v>13711908.655376056</v>
       </c>
       <c r="J43" s="15">
-        <v>10653583.439789366</v>
+        <v>10654153.162532493</v>
       </c>
       <c r="K43" s="15">
-        <v>8844960.8656466193</v>
+        <v>8845530.5883897487</v>
       </c>
       <c r="L43" s="15">
-        <v>10653583.439789366</v>
+        <v>10654153.162532493</v>
       </c>
       <c r="M43" s="15">
-        <v>1808622.5741427466</v>
+        <v>1808622.5741427448</v>
       </c>
       <c r="N43" s="14">
         <v>0</v>
@@ -21773,6 +22099,56 @@
         <v>15.433066648351565</v>
       </c>
       <c r="P43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="14">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1075.6306281980965</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1377.2478914758306</v>
+      </c>
+      <c r="I44" s="15">
+        <v>13713285.903267533</v>
+      </c>
+      <c r="J44" s="15">
+        <v>10710076.538934106</v>
+      </c>
+      <c r="K44" s="15">
+        <v>8846606.2190179471</v>
+      </c>
+      <c r="L44" s="15">
+        <v>10710076.538934106</v>
+      </c>
+      <c r="M44" s="15">
+        <v>1863470.3199161589</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="P44" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +398,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,7 +563,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -688,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +701,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -823,6 +827,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1130707.2667107254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1133785.7241357749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +872,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -991,6 +998,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1010,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1126,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1234130.6538280728</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1249850.5855808333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1181,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1294,6 +1307,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1319,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1429,6 +1445,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>103423.38711734745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116064.86144505837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,11 +1469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472283776"/>
-        <c:axId val="472618112"/>
+        <c:axId val="426407808"/>
+        <c:axId val="426409344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472283776"/>
+        <c:axId val="426407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,14 +1516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472618112"/>
+        <c:crossAx val="426409344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472618112"/>
+        <c:axId val="426409344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472283776"/>
+        <c:crossAx val="426407808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,7 +1735,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1842,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1075.6306281980965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1246.0388886215089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,8 +1878,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497305088"/>
-        <c:axId val="497303552"/>
+        <c:axId val="442316672"/>
+        <c:axId val="442315136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1882,7 +1904,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2008,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2042,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2143,6 +2168,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,11 +2187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497300224"/>
-        <c:axId val="497301760"/>
+        <c:axId val="442311808"/>
+        <c:axId val="442313344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497300224"/>
+        <c:axId val="442311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,14 +2234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497301760"/>
+        <c:crossAx val="442313344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497301760"/>
+        <c:axId val="442313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,12 +2292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497300224"/>
+        <c:crossAx val="442311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497303552"/>
+        <c:axId val="442315136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,12 +2334,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497305088"/>
+        <c:crossAx val="442316672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497305088"/>
+        <c:axId val="442316672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497303552"/>
+        <c:crossAx val="442315136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2452,7 +2480,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2578,6 +2606,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,8 +2623,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504732672"/>
-        <c:axId val="504730752"/>
+        <c:axId val="370201728"/>
+        <c:axId val="370199936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2618,7 +2649,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2744,6 +2775,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,7 +2787,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2879,6 +2913,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,11 +2932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497858048"/>
-        <c:axId val="497859968"/>
+        <c:axId val="370196864"/>
+        <c:axId val="370198400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497858048"/>
+        <c:axId val="370196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,14 +2979,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497859968"/>
+        <c:crossAx val="370198400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497859968"/>
+        <c:axId val="370198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,12 +3037,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497858048"/>
+        <c:crossAx val="370196864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504730752"/>
+        <c:axId val="370199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,12 +3079,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504732672"/>
+        <c:crossAx val="370201728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504732672"/>
+        <c:axId val="370201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504730752"/>
+        <c:crossAx val="370199936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3206,7 +3243,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3332,6 +3369,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3381,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3467,6 +3507,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1194451.163153447</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1197529.6205784965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,7 +3552,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3635,6 +3678,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3690,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3770,6 +3816,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1310978.1799663482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1327485.2779934506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3812,7 +3861,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3938,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3999,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4073,6 +4125,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>116527.01681290125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129955.65741495416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,11 +4149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494586112"/>
-        <c:axId val="494587904"/>
+        <c:axId val="438774400"/>
+        <c:axId val="438780288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494586112"/>
+        <c:axId val="438774400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,14 +4196,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494587904"/>
+        <c:crossAx val="438780288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494587904"/>
+        <c:axId val="438780288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494586112"/>
+        <c:crossAx val="438774400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4360,7 +4415,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4486,6 +4541,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,8 +4558,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494604288"/>
-        <c:axId val="494602496"/>
+        <c:axId val="438796672"/>
+        <c:axId val="438794880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4526,7 +4584,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4652,6 +4710,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,7 +4722,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4787,6 +4848,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4803,11 +4867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494599168"/>
-        <c:axId val="494600960"/>
+        <c:axId val="438791552"/>
+        <c:axId val="438793344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494599168"/>
+        <c:axId val="438791552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4850,14 +4914,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494600960"/>
+        <c:crossAx val="438793344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494600960"/>
+        <c:axId val="438793344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,12 +4972,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494599168"/>
+        <c:crossAx val="438791552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494602496"/>
+        <c:axId val="438794880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,12 +5014,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494604288"/>
+        <c:crossAx val="438796672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494604288"/>
+        <c:axId val="438796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4964,7 +5028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494602496"/>
+        <c:crossAx val="438794880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5114,7 +5178,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5240,6 +5304,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5249,7 +5316,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5375,6 +5442,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1196694.2234811413</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1199772.6809061908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,7 +5487,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5543,6 +5613,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,7 +5625,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5678,6 +5751,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1308477.5471761138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1324959.0306662766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5796,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5846,6 +5922,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,7 +5934,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5981,6 +6060,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>111783.32369497255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125186.34976008581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6002,11 +6084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494626304"/>
-        <c:axId val="494627840"/>
+        <c:axId val="439052544"/>
+        <c:axId val="439054336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494626304"/>
+        <c:axId val="439052544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,14 +6131,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494627840"/>
+        <c:crossAx val="439054336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494627840"/>
+        <c:axId val="439054336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6107,7 +6189,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494626304"/>
+        <c:crossAx val="439052544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6268,7 +6350,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6394,6 +6476,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6408,8 +6493,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494652416"/>
-        <c:axId val="494650880"/>
+        <c:axId val="439083008"/>
+        <c:axId val="439077120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6434,7 +6519,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6560,6 +6645,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,7 +6657,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6695,6 +6783,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,11 +6802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494647552"/>
-        <c:axId val="494649344"/>
+        <c:axId val="439069696"/>
+        <c:axId val="439075584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494647552"/>
+        <c:axId val="439069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6758,14 +6849,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494649344"/>
+        <c:crossAx val="439075584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494649344"/>
+        <c:axId val="439075584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6816,12 +6907,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494647552"/>
+        <c:crossAx val="439069696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494650880"/>
+        <c:axId val="439077120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6858,12 +6949,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494652416"/>
+        <c:crossAx val="439083008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494652416"/>
+        <c:axId val="439083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6872,7 +6963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494650880"/>
+        <c:crossAx val="439077120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7022,7 +7113,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7148,6 +7239,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,7 +7251,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7283,6 +7377,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9917362.0093711168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9919761.2245908231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7325,7 +7422,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7451,6 +7548,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7460,7 +7560,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7586,6 +7686,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11092445.05397602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11208466.646977551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7628,7 +7731,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7754,6 +7857,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7763,7 +7869,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7889,6 +7995,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1175083.0446049031</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1288705.4223867282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7910,11 +8019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494715648"/>
-        <c:axId val="494717184"/>
+        <c:axId val="439108736"/>
+        <c:axId val="439110272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494715648"/>
+        <c:axId val="439108736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7957,14 +8066,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494717184"/>
+        <c:crossAx val="439110272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494717184"/>
+        <c:axId val="439110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8015,7 +8124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494715648"/>
+        <c:crossAx val="439108736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8176,7 +8285,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8302,6 +8411,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>14202874.25943996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14205915.089980589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8316,8 +8428,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494745856"/>
-        <c:axId val="494744320"/>
+        <c:axId val="442051200"/>
+        <c:axId val="442049664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8342,7 +8454,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8468,6 +8580,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8477,7 +8592,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8603,6 +8718,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,11 +8737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494732800"/>
-        <c:axId val="494734336"/>
+        <c:axId val="442042240"/>
+        <c:axId val="442043776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494732800"/>
+        <c:axId val="442042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,14 +8784,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494734336"/>
+        <c:crossAx val="442043776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494734336"/>
+        <c:axId val="442043776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,12 +8842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494732800"/>
+        <c:crossAx val="442042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494744320"/>
+        <c:axId val="442049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8766,12 +8884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494745856"/>
+        <c:crossAx val="442051200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494745856"/>
+        <c:axId val="442051200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8780,7 +8898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494744320"/>
+        <c:crossAx val="442049664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8930,7 +9048,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9056,6 +9174,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9065,7 +9186,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9191,6 +9312,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8846606.2190179471</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8847852.2579065692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9233,7 +9357,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9359,6 +9483,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9368,7 +9495,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9494,6 +9621,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10710076.538934106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10821028.269999478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9536,7 +9666,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9662,6 +9792,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9671,7 +9804,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9797,6 +9930,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1863470.3199161589</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1973176.0120929088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9818,11 +9954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494780416"/>
-        <c:axId val="494781952"/>
+        <c:axId val="442270080"/>
+        <c:axId val="442271616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494780416"/>
+        <c:axId val="442270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9865,14 +10001,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494781952"/>
+        <c:crossAx val="442271616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494781952"/>
+        <c:axId val="442271616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9923,7 +10059,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494780416"/>
+        <c:crossAx val="442270080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10637,7 +10773,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10817,6 +10953,16 @@
         <f>-AC3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -10900,9 +11046,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -10983,9 +11136,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -11061,7 +11221,16 @@
       <c r="AD6" s="20">
         <v>731948.73696905444</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -11101,13 +11270,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="9"/>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1133785.7241357749</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="T7" s="8">
+        <v>116064.86144505837</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.10236930927449144</v>
+      </c>
+      <c r="W7" s="19">
+        <v>4.4302839298554275E-2</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AD7" s="10">
         <v>-8.8470898848600599E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>1249850.5855808333</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -11147,6 +11345,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="9"/>
+      <c r="AG8" s="10">
+        <v>4.4302839298554275E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -12536,6 +12737,47 @@
       <c r="L44" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1584094.582528082</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1133785.7241357749</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="K45" s="15">
+        <v>116064.86144505837</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12553,7 +12795,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12777,6 +13019,16 @@
         <f>-AI3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AK3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AM3" s="11">
+        <f>-AL3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -12872,9 +13124,16 @@
         <f>-AI4</f>
         <v>-417772.19570939441</v>
       </c>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
+      <c r="AK4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>417772.19570939441</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>-AL4</f>
+        <v>-417772.19570939441</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -12967,9 +13226,16 @@
         <f>-AI5</f>
         <v>-408088.678461281</v>
       </c>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
+      <c r="AK5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>408088.678461281</v>
+      </c>
+      <c r="AM5" s="9">
+        <f>-AL5</f>
+        <v>-408088.678461281</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -13057,7 +13323,16 @@
       <c r="AJ6" s="20">
         <v>776865.95413218427</v>
       </c>
-      <c r="AK6" s="17"/>
+      <c r="AK6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>300198.52745174943</v>
+      </c>
+      <c r="AM6" s="11">
+        <f>-AL6</f>
+        <v>-300198.52745174943</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -13109,13 +13384,42 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="9"/>
+      <c r="V7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="W7" s="18">
+        <v>300198.52745174943</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1197529.6205784965</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>129955.65741495416</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0.1085197853829919</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>4.7158551078285926E-2</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AJ7" s="10">
         <v>-8.5780570033674008E-2</v>
       </c>
-      <c r="AM7" s="10"/>
+      <c r="AK7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>1327485.2779934506</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -13167,6 +13471,9 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
+      <c r="AM8" s="10">
+        <v>4.7158551078285926E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -15420,6 +15727,74 @@
       <c r="U44" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:21" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1682490.9005246921</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1197529.6205784965</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="K45" s="15">
+        <v>129955.65741495416</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="23">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="N45" s="23">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="O45" s="23">
+        <v>0.80433332920074463</v>
+      </c>
+      <c r="P45" s="23">
+        <v>0.67442857367651798</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>0.12990475552422664</v>
+      </c>
+      <c r="R45" s="23">
+        <v>5.7612248018485322E-2</v>
+      </c>
+      <c r="S45" s="9">
+        <v>8.641837202772798E-4</v>
+      </c>
+      <c r="T45" s="9">
+        <v>150.32076221309254</v>
+      </c>
+      <c r="U45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15437,7 +15812,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15627,6 +16002,16 @@
         <f>-AC3</f>
         <v>-73512.136806401439</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>73512.136806401439</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-73512.136806401439</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -15715,9 +16100,16 @@
         <f>-AC4</f>
         <v>-435170.13774605485</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>435170.13774605485</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-435170.13774605485</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -15803,9 +16195,16 @@
         <f>-AC5</f>
         <v>-391913.02163792512</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-391913.02163792512</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -15886,7 +16285,16 @@
       <c r="AD6" s="20">
         <v>775812.18625010748</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>299177.38471580937</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-299177.38471580937</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -15930,6 +16338,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>299177.38471580937</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1199772.6809061908</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="T7" s="8">
+        <v>125186.34976008581</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.10434172385516588</v>
+      </c>
+      <c r="W7" s="19">
+        <v>4.5025641537120853E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -15937,7 +16369,12 @@
       <c r="AD7" s="10">
         <v>-8.750731270976897E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>1324959.0306662766</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -15982,6 +16419,9 @@
       <c r="N8" s="9">
         <v>1</v>
       </c>
+      <c r="AG8" s="10">
+        <v>4.5025641537120853E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -17577,6 +18017,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1679289.0660404186</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1199772.6809061908</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="K45" s="15">
+        <v>125186.34976008581</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17594,7 +18081,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17784,6 +18271,16 @@
         <f>-AC3</f>
         <v>-250495.52419829773</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-250495.52419829773</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -17872,9 +18369,16 @@
         <f>-AC4</f>
         <v>-3805407.5827613538</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-3805407.5827613538</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -17960,9 +18464,16 @@
         <f>-AC5</f>
         <v>-3238983.9113250882</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-3238983.9113250882</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -18043,7 +18554,16 @@
       <c r="AD6" s="20">
         <v>6428643.6917510191</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-2624874.2063060831</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -18087,6 +18607,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="S7" s="8">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.12991294782298407</v>
+      </c>
+      <c r="W7" s="19">
+        <v>5.736790008357473E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -18094,7 +18638,12 @@
       <c r="AD7" s="10">
         <v>-7.6986041644461101E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>11208466.646977551</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -18139,6 +18688,9 @@
       <c r="N8" s="9">
         <v>1</v>
       </c>
+      <c r="AG8" s="10">
+        <v>5.736790008357473E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -19734,6 +20286,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="15">
+        <v>14205915.089980589</v>
+      </c>
+      <c r="H45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="I45" s="15">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="J45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19751,7 +20350,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19955,6 +20554,16 @@
         <f>-AE3</f>
         <v>-51416.609508268921</v>
       </c>
+      <c r="AG3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>51416.609508268921</v>
+      </c>
+      <c r="AI3" s="11">
+        <f>-AH3</f>
+        <v>-51416.609508268921</v>
+      </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -20049,9 +20658,16 @@
         <f>-AE4</f>
         <v>-1285809.4346860019</v>
       </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
+      <c r="AG4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>1285809.4346860019</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>-AH4</f>
+        <v>-1285809.4346860019</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -20143,9 +20759,16 @@
         <f>-AE5</f>
         <v>-2098253.5703782365</v>
       </c>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
+      <c r="AG5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>-AH5</f>
+        <v>-2098253.5703782365</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -20232,7 +20855,16 @@
       <c r="AF6" s="20">
         <v>3148524.074557675</v>
       </c>
-      <c r="AG6" s="17"/>
+      <c r="AG6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>5412372.6433340618</v>
+      </c>
+      <c r="AI6" s="11">
+        <f>-AH6</f>
+        <v>-5412372.6433340618</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -20282,6 +20914,30 @@
       </c>
       <c r="P7" s="9">
         <v>1</v>
+      </c>
+      <c r="R7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="S7" s="18">
+        <v>5412372.6433340618</v>
+      </c>
+      <c r="T7" s="8">
+        <v>8847852.2579065692</v>
+      </c>
+      <c r="U7" s="8">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1973176.0120929088</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.22301186260537412</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.13562189669002489</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -20289,7 +20945,12 @@
       <c r="AF7" s="10">
         <v>-6.0576496447798278E-2</v>
       </c>
-      <c r="AI7" s="10"/>
+      <c r="AG7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>10821028.269999478</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -20340,6 +21001,9 @@
       <c r="P8" s="9">
         <v>1</v>
       </c>
+      <c r="AI8" s="10">
+        <v>0.13562189669002489</v>
+      </c>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -22151,6 +22815,59 @@
       <c r="P44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="14">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1246.0388886215089</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1579.263534262662</v>
+      </c>
+      <c r="I45" s="15">
+        <v>13714865.166801795</v>
+      </c>
+      <c r="J45" s="15">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="K45" s="15">
+        <v>8847852.2579065692</v>
+      </c>
+      <c r="L45" s="15">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="M45" s="15">
+        <v>1973176.0120929088</v>
+      </c>
+      <c r="N45" s="14">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,7 +398,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -817,19 +816,19 @@
                   <c:v>1102813.3837142217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1123194.2613669224</c:v>
+                  <c:v>1123194.2613680183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1124647.3973650639</c:v>
+                  <c:v>1124647.3973672311</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1127257.6528514628</c:v>
+                  <c:v>1127257.65285363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1130707.2667107254</c:v>
+                  <c:v>1130707.2667128926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1133785.7241357749</c:v>
+                  <c:v>1133785.7241379421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,19 +1125,19 @@
                   <c:v>972991.0953141842</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>958018.42403340735</c:v>
+                  <c:v>958018.42403450317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1206043.51752501</c:v>
+                  <c:v>1206043.5175274594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1224377.923423548</c:v>
+                  <c:v>1224377.9234260293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1234130.6538280728</c:v>
+                  <c:v>1234130.6538305667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1249850.5855808333</c:v>
+                  <c:v>1249850.5855833527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,19 +1434,19 @@
                   <c:v>-129822.28840003745</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-165175.83733351505</c:v>
+                  <c:v>-165175.83733351517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81396.120159946149</c:v>
+                  <c:v>81396.12016022834</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97120.270572085166</c:v>
+                  <c:v>97120.270572399255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>103423.38711734745</c:v>
+                  <c:v>103423.38711767411</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>116064.86144505837</c:v>
+                  <c:v>116064.86144541064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,11 +1468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426407808"/>
-        <c:axId val="426409344"/>
+        <c:axId val="424904576"/>
+        <c:axId val="428998656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426407808"/>
+        <c:axId val="424904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,14 +1515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426409344"/>
+        <c:crossAx val="428998656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426409344"/>
+        <c:axId val="428998656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +1573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426407808"/>
+        <c:crossAx val="424904576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1878,8 +1877,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442316672"/>
-        <c:axId val="442315136"/>
+        <c:axId val="435131904"/>
+        <c:axId val="435130368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2187,11 +2186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442311808"/>
-        <c:axId val="442313344"/>
+        <c:axId val="435114752"/>
+        <c:axId val="435116288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442311808"/>
+        <c:axId val="435114752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,14 +2233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442313344"/>
+        <c:crossAx val="435116288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442313344"/>
+        <c:axId val="435116288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,12 +2291,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442311808"/>
+        <c:crossAx val="435114752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442315136"/>
+        <c:axId val="435130368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,12 +2333,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442316672"/>
+        <c:crossAx val="435131904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442316672"/>
+        <c:axId val="435131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442315136"/>
+        <c:crossAx val="435130368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,10 +2595,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -2623,8 +2622,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370201728"/>
-        <c:axId val="370199936"/>
+        <c:axId val="453156864"/>
+        <c:axId val="446326656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2932,11 +2931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370196864"/>
-        <c:axId val="370198400"/>
+        <c:axId val="435136384"/>
+        <c:axId val="446325120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370196864"/>
+        <c:axId val="435136384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,14 +2978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370198400"/>
+        <c:crossAx val="446325120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370198400"/>
+        <c:axId val="446325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,12 +3036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370196864"/>
+        <c:crossAx val="435136384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370199936"/>
+        <c:axId val="446326656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,12 +3078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370201728"/>
+        <c:crossAx val="453156864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370201728"/>
+        <c:axId val="453156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370199936"/>
+        <c:crossAx val="446326656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3497,19 +3496,19 @@
                   <c:v>1166557.2801569432</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1186938.157809644</c:v>
+                  <c:v>1186938.1578107399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1188391.2938077855</c:v>
+                  <c:v>1188391.2938099527</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1191001.5492941844</c:v>
+                  <c:v>1191001.5492963516</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1194451.163153447</c:v>
+                  <c:v>1194451.1631556142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1197529.6205784965</c:v>
+                  <c:v>1197529.6205806637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,19 +3805,19 @@
                   <c:v>1035275.9662012851</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1018040.1794189102</c:v>
+                  <c:v>1018040.179420006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1281513.4953520899</c:v>
+                  <c:v>1281513.4953545392</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1300831.8634922137</c:v>
+                  <c:v>1300831.8634946949</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1310978.1799663482</c:v>
+                  <c:v>1310978.1799688421</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1327485.2779934506</c:v>
+                  <c:v>1327485.2779959701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,19 +4114,19 @@
                   <c:v>-131281.31395565812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-168897.97839073383</c:v>
+                  <c:v>-168897.97839073394</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93122.201544304378</c:v>
+                  <c:v>93122.201544586569</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>109830.31419802923</c:v>
+                  <c:v>109830.31419834332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>116527.01681290125</c:v>
+                  <c:v>116527.01681322791</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>129955.65741495416</c:v>
+                  <c:v>129955.65741530643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,11 +4148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438774400"/>
-        <c:axId val="438780288"/>
+        <c:axId val="457342336"/>
+        <c:axId val="457360512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="438774400"/>
+        <c:axId val="457342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,14 +4195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438780288"/>
+        <c:crossAx val="457360512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="438780288"/>
+        <c:axId val="457360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4254,7 +4253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438774400"/>
+        <c:crossAx val="457342336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4531,10 +4530,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -4558,8 +4557,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="438796672"/>
-        <c:axId val="438794880"/>
+        <c:axId val="500174208"/>
+        <c:axId val="500172288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4867,11 +4866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438791552"/>
-        <c:axId val="438793344"/>
+        <c:axId val="498661632"/>
+        <c:axId val="500170752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="438791552"/>
+        <c:axId val="498661632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,14 +4913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438793344"/>
+        <c:crossAx val="500170752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="438793344"/>
+        <c:axId val="500170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,12 +4971,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438791552"/>
+        <c:crossAx val="498661632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438794880"/>
+        <c:axId val="500172288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,12 +5013,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438796672"/>
+        <c:crossAx val="500174208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="438796672"/>
+        <c:axId val="500174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438794880"/>
+        <c:crossAx val="500172288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5432,19 +5431,19 @@
                   <c:v>1168800.3404846375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1189181.2181373383</c:v>
+                  <c:v>1189181.2181384342</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1190634.3541354798</c:v>
+                  <c:v>1190634.354137647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1193244.6096218787</c:v>
+                  <c:v>1193244.6096240459</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1196694.2234811413</c:v>
+                  <c:v>1196694.2234833085</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1199772.6809061908</c:v>
+                  <c:v>1199772.680908358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5741,19 +5740,19 @@
                   <c:v>1033249.2049208303</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1016087.0603377006</c:v>
+                  <c:v>1016087.0603387966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1279057.6882400552</c:v>
+                  <c:v>1279057.6882425046</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1298344.0380658712</c:v>
+                  <c:v>1298344.0380683525</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1308477.5471761138</c:v>
+                  <c:v>1308477.5471786079</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1324959.0306662766</c:v>
+                  <c:v>1324959.0306687963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,16 +6052,16 @@
                   <c:v>-173094.15779963764</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88423.33410457545</c:v>
+                  <c:v>88423.33410485764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105099.42844399251</c:v>
+                  <c:v>105099.4284443066</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>111783.32369497255</c:v>
+                  <c:v>111783.32369529945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>125186.34976008581</c:v>
+                  <c:v>125186.34976043832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6084,11 +6083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439052544"/>
-        <c:axId val="439054336"/>
+        <c:axId val="533552128"/>
+        <c:axId val="535209472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439052544"/>
+        <c:axId val="533552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,14 +6130,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439054336"/>
+        <c:crossAx val="535209472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439054336"/>
+        <c:axId val="535209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6188,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439052544"/>
+        <c:crossAx val="533552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6466,10 +6465,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -6493,8 +6492,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439083008"/>
-        <c:axId val="439077120"/>
+        <c:axId val="434949504"/>
+        <c:axId val="434947968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6802,11 +6801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439069696"/>
-        <c:axId val="439075584"/>
+        <c:axId val="434944640"/>
+        <c:axId val="434946432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439069696"/>
+        <c:axId val="434944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,14 +6848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439075584"/>
+        <c:crossAx val="434946432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439075584"/>
+        <c:axId val="434946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6907,12 +6906,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439069696"/>
+        <c:crossAx val="434944640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439077120"/>
+        <c:axId val="434947968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,12 +6948,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439083008"/>
+        <c:crossAx val="434949504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439083008"/>
+        <c:axId val="434949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6963,7 +6962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439077120"/>
+        <c:crossAx val="434947968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7367,19 +7366,19 @@
                   <c:v>9806930.351749409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9912089.8894441836</c:v>
+                  <c:v>9912089.8894554917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9912624.4727933221</c:v>
+                  <c:v>9912624.4728054181</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9914349.3927184548</c:v>
+                  <c:v>9914349.3927305508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9917362.0093711168</c:v>
+                  <c:v>9917362.0093832128</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9919761.2245908231</c:v>
+                  <c:v>9919761.2246029191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7676,19 +7675,19 @@
                   <c:v>8877006.9111881889</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8659621.1555818245</c:v>
+                  <c:v>8659621.1555931326</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10888943.501168342</c:v>
+                  <c:v>10888943.50118335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11032636.254719432</c:v>
+                  <c:v>11032636.254734635</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11092445.05397602</c:v>
+                  <c:v>11092445.053991303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11208466.646977551</c:v>
+                  <c:v>11208466.646992989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7988,16 +7987,16 @@
                   <c:v>-1252468.7338623591</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>976319.02837502025</c:v>
+                  <c:v>976319.02837793157</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1118286.8620009776</c:v>
+                  <c:v>1118286.8620040845</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1175083.0446049031</c:v>
+                  <c:v>1175083.0446080901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1288705.4223867282</c:v>
+                  <c:v>1288705.4223900698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8019,11 +8018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439108736"/>
-        <c:axId val="439110272"/>
+        <c:axId val="434971776"/>
+        <c:axId val="434973312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439108736"/>
+        <c:axId val="434971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8066,14 +8065,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439110272"/>
+        <c:crossAx val="434973312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439110272"/>
+        <c:axId val="434973312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8124,7 +8123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439108736"/>
+        <c:crossAx val="434971776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8401,19 +8400,19 @@
                   <c:v>14023707.241436571</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14196099.922139321</c:v>
+                  <c:v>14196099.922157859</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14196796.901716258</c:v>
+                  <c:v>14196796.901735825</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14199016.87585127</c:v>
+                  <c:v>14199016.875870837</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14202874.25943996</c:v>
+                  <c:v>14202874.259459527</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14205915.089980589</c:v>
+                  <c:v>14205915.090000156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8428,8 +8427,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442051200"/>
-        <c:axId val="442049664"/>
+        <c:axId val="434989696"/>
+        <c:axId val="434988160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8737,11 +8736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442042240"/>
-        <c:axId val="442043776"/>
+        <c:axId val="434984832"/>
+        <c:axId val="434986368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442042240"/>
+        <c:axId val="434984832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8784,14 +8783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442043776"/>
+        <c:crossAx val="434986368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442043776"/>
+        <c:axId val="434986368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8842,12 +8841,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442042240"/>
+        <c:crossAx val="434984832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442049664"/>
+        <c:axId val="434988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8884,12 +8883,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442051200"/>
+        <c:crossAx val="434989696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442051200"/>
+        <c:axId val="434989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8898,7 +8897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442049664"/>
+        <c:crossAx val="434988160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9954,11 +9953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442270080"/>
-        <c:axId val="442271616"/>
+        <c:axId val="435093504"/>
+        <c:axId val="435095040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442270080"/>
+        <c:axId val="435093504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10001,14 +10000,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442271616"/>
+        <c:crossAx val="435095040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442271616"/>
+        <c:axId val="435095040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10059,7 +10058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442270080"/>
+        <c:crossAx val="435093504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10773,7 +10772,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11274,22 +11273,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>283147.89461647021</v>
+        <v>283147.89461863739</v>
       </c>
       <c r="R7" s="8">
-        <v>1133785.7241357749</v>
+        <v>1133785.7241379421</v>
       </c>
       <c r="S7" s="8">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="T7" s="8">
-        <v>116064.86144505837</v>
+        <v>116064.86144541064</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.10236930927449144</v>
+        <v>0.10236930927460647</v>
       </c>
       <c r="W7" s="19">
         <v>4.4302839298554275E-2</v>
@@ -12597,28 +12596,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1570521.9697818202</v>
+        <v>1570521.9697836167</v>
       </c>
       <c r="H41" s="15">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="I41" s="15">
-        <v>1123194.2613669224</v>
+        <v>1123194.2613680183</v>
       </c>
       <c r="J41" s="15">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="K41" s="15">
-        <v>-165175.83733351505</v>
+        <v>-165175.83733351517</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -12635,28 +12634,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1572416.5407871683</v>
+        <v>1572416.5407903616</v>
       </c>
       <c r="H42" s="15">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="I42" s="15">
-        <v>1124647.3973650639</v>
+        <v>1124647.3973672311</v>
       </c>
       <c r="J42" s="15">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="K42" s="15">
-        <v>81396.120159946149</v>
+        <v>81396.12016022834</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -12682,19 +12681,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1575775.9429142717</v>
+        <v>1575775.942917465</v>
       </c>
       <c r="H43" s="15">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="I43" s="15">
-        <v>1127257.6528514628</v>
+        <v>1127257.65285363</v>
       </c>
       <c r="J43" s="15">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="K43" s="15">
-        <v>97120.270572085166</v>
+        <v>97120.270572399255</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -12720,19 +12719,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1580192.8619657813</v>
+        <v>1580192.8619689746</v>
       </c>
       <c r="H44" s="15">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="I44" s="15">
-        <v>1130707.2667107254</v>
+        <v>1130707.2667128926</v>
       </c>
       <c r="J44" s="15">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="K44" s="15">
-        <v>103423.38711734745</v>
+        <v>103423.38711767411</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -12758,26 +12757,23 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1584094.582528082</v>
+        <v>1584094.5825312752</v>
       </c>
       <c r="H45" s="15">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="I45" s="15">
-        <v>1133785.7241357749</v>
+        <v>1133785.7241379421</v>
       </c>
       <c r="J45" s="15">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="K45" s="15">
-        <v>116064.86144505837</v>
+        <v>116064.86144541064</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12795,7 +12791,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13388,22 +13384,22 @@
         <v>45657</v>
       </c>
       <c r="W7" s="18">
-        <v>300198.52745174943</v>
+        <v>300198.52745391661</v>
       </c>
       <c r="X7" s="8">
-        <v>1197529.6205784965</v>
+        <v>1197529.6205806637</v>
       </c>
       <c r="Y7" s="8">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="Z7" s="8">
-        <v>129955.65741495416</v>
+        <v>129955.65741530643</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
       </c>
       <c r="AB7" s="19">
-        <v>0.1085197853829919</v>
+        <v>0.10851978538308968</v>
       </c>
       <c r="AC7" s="19">
         <v>4.7158551078285926E-2</v>
@@ -15479,28 +15475,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1668918.2877784304</v>
+        <v>1668918.2877802269</v>
       </c>
       <c r="H41" s="15">
-        <v>1018040.1794189102</v>
+        <v>1018040.179420006</v>
       </c>
       <c r="I41" s="15">
-        <v>1186938.157809644</v>
+        <v>1186938.1578107399</v>
       </c>
       <c r="J41" s="15">
-        <v>1018040.1794189102</v>
+        <v>1018040.179420006</v>
       </c>
       <c r="K41" s="15">
-        <v>-168897.97839073383</v>
+        <v>-168897.97839073394</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -15544,28 +15540,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1670812.8587837785</v>
+        <v>1670812.8587869718</v>
       </c>
       <c r="H42" s="15">
-        <v>1281513.4953520899</v>
+        <v>1281513.4953545392</v>
       </c>
       <c r="I42" s="15">
-        <v>1188391.2938077855</v>
+        <v>1188391.2938099527</v>
       </c>
       <c r="J42" s="15">
-        <v>1281513.4953520899</v>
+        <v>1281513.4953545392</v>
       </c>
       <c r="K42" s="15">
-        <v>93122.201544304378</v>
+        <v>93122.201544586569</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -15618,19 +15614,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1674172.2609108819</v>
+        <v>1674172.2609140752</v>
       </c>
       <c r="H43" s="15">
-        <v>1300831.8634922137</v>
+        <v>1300831.8634946949</v>
       </c>
       <c r="I43" s="15">
-        <v>1191001.5492941844</v>
+        <v>1191001.5492963516</v>
       </c>
       <c r="J43" s="15">
-        <v>1300831.8634922137</v>
+        <v>1300831.8634946949</v>
       </c>
       <c r="K43" s="15">
-        <v>109830.31419802923</v>
+        <v>109830.31419834332</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -15683,19 +15679,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1678589.1799623915</v>
+        <v>1678589.1799655848</v>
       </c>
       <c r="H44" s="15">
-        <v>1310978.1799663482</v>
+        <v>1310978.1799688421</v>
       </c>
       <c r="I44" s="15">
-        <v>1194451.163153447</v>
+        <v>1194451.1631556142</v>
       </c>
       <c r="J44" s="15">
-        <v>1310978.1799663482</v>
+        <v>1310978.1799688421</v>
       </c>
       <c r="K44" s="15">
-        <v>116527.01681290125</v>
+        <v>116527.01681322791</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -15748,19 +15744,19 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1682490.9005246921</v>
+        <v>1682490.9005278854</v>
       </c>
       <c r="H45" s="15">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="I45" s="15">
-        <v>1197529.6205784965</v>
+        <v>1197529.6205806637</v>
       </c>
       <c r="J45" s="15">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="K45" s="15">
-        <v>129955.65741495416</v>
+        <v>129955.65741530643</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -15792,9 +15788,6 @@
       <c r="U45" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15812,7 +15805,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16343,22 +16336,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>299177.38471580937</v>
+        <v>299177.38471797656</v>
       </c>
       <c r="R7" s="8">
-        <v>1199772.6809061908</v>
+        <v>1199772.680908358</v>
       </c>
       <c r="S7" s="8">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="T7" s="8">
-        <v>125186.34976008581</v>
+        <v>125186.34976043832</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.10434172385516588</v>
+        <v>0.10434172385527121</v>
       </c>
       <c r="W7" s="19">
         <v>4.5025641537120853E-2</v>
@@ -17853,25 +17846,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1665716.4532941568</v>
+        <v>1665716.4532959533</v>
       </c>
       <c r="H41" s="15">
-        <v>1016087.0603377006</v>
+        <v>1016087.0603387966</v>
       </c>
       <c r="I41" s="15">
-        <v>1189181.2181373383</v>
+        <v>1189181.2181384342</v>
       </c>
       <c r="J41" s="15">
-        <v>1016087.0603377006</v>
+        <v>1016087.0603387966</v>
       </c>
       <c r="K41" s="15">
         <v>-173094.15779963764</v>
@@ -17897,28 +17890,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1667611.0242995049</v>
+        <v>1667611.0243026982</v>
       </c>
       <c r="H42" s="15">
-        <v>1279057.6882400552</v>
+        <v>1279057.6882425046</v>
       </c>
       <c r="I42" s="15">
-        <v>1190634.3541354798</v>
+        <v>1190634.354137647</v>
       </c>
       <c r="J42" s="15">
-        <v>1279057.6882400552</v>
+        <v>1279057.6882425046</v>
       </c>
       <c r="K42" s="15">
-        <v>88423.33410457545</v>
+        <v>88423.33410485764</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -17950,19 +17943,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1670970.4264266083</v>
+        <v>1670970.4264298016</v>
       </c>
       <c r="H43" s="15">
-        <v>1298344.0380658712</v>
+        <v>1298344.0380683525</v>
       </c>
       <c r="I43" s="15">
-        <v>1193244.6096218787</v>
+        <v>1193244.6096240459</v>
       </c>
       <c r="J43" s="15">
-        <v>1298344.0380658712</v>
+        <v>1298344.0380683525</v>
       </c>
       <c r="K43" s="15">
-        <v>105099.42844399251</v>
+        <v>105099.4284443066</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -17994,19 +17987,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1675387.3454781179</v>
+        <v>1675387.3454813112</v>
       </c>
       <c r="H44" s="15">
-        <v>1308477.5471761138</v>
+        <v>1308477.5471786079</v>
       </c>
       <c r="I44" s="15">
-        <v>1196694.2234811413</v>
+        <v>1196694.2234833085</v>
       </c>
       <c r="J44" s="15">
-        <v>1308477.5471761138</v>
+        <v>1308477.5471786079</v>
       </c>
       <c r="K44" s="15">
-        <v>111783.32369497255</v>
+        <v>111783.32369529945</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -18038,19 +18031,19 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1679289.0660404186</v>
+        <v>1679289.0660436118</v>
       </c>
       <c r="H45" s="15">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="I45" s="15">
-        <v>1199772.6809061908</v>
+        <v>1199772.680908358</v>
       </c>
       <c r="J45" s="15">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="K45" s="15">
-        <v>125186.34976008581</v>
+        <v>125186.34976043832</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -18061,9 +18054,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18081,7 +18071,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18612,22 +18602,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>2624874.2063060831</v>
+        <v>2624874.2063181791</v>
       </c>
       <c r="R7" s="8">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="S7" s="8">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="T7" s="8">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.12991294782298407</v>
+        <v>0.12991294782316251</v>
       </c>
       <c r="W7" s="19">
         <v>5.736790008357473E-2</v>
@@ -20122,25 +20112,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="15">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="15">
-        <v>14196099.922139321</v>
+        <v>14196099.922157859</v>
       </c>
       <c r="H41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="I41" s="15">
-        <v>9912089.8894441836</v>
+        <v>9912089.8894554917</v>
       </c>
       <c r="J41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="K41" s="15">
         <v>-1252468.7338623591</v>
@@ -20166,28 +20156,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="15">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="15">
-        <v>14196796.901716258</v>
+        <v>14196796.901735825</v>
       </c>
       <c r="H42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="I42" s="15">
-        <v>9912624.4727933221</v>
+        <v>9912624.4728054181</v>
       </c>
       <c r="J42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="K42" s="15">
-        <v>976319.02837502025</v>
+        <v>976319.02837793157</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -20219,19 +20209,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="15">
-        <v>14199016.87585127</v>
+        <v>14199016.875870837</v>
       </c>
       <c r="H43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="I43" s="15">
-        <v>9914349.3927184548</v>
+        <v>9914349.3927305508</v>
       </c>
       <c r="J43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="K43" s="15">
-        <v>1118286.8620009776</v>
+        <v>1118286.8620040845</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -20263,19 +20253,19 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="15">
-        <v>14202874.25943996</v>
+        <v>14202874.259459527</v>
       </c>
       <c r="H44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="I44" s="15">
-        <v>9917362.0093711168</v>
+        <v>9917362.0093832128</v>
       </c>
       <c r="J44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="K44" s="15">
-        <v>1175083.0446049031</v>
+        <v>1175083.0446080901</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -20307,19 +20297,19 @@
         <v>3040.8305406285012</v>
       </c>
       <c r="G45" s="15">
-        <v>14205915.089980589</v>
+        <v>14205915.090000156</v>
       </c>
       <c r="H45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="I45" s="15">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="J45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="K45" s="15">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -20330,9 +20320,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20350,7 +20337,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22866,9 +22853,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="31"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -691,6 +691,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,7 +703,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -829,6 +832,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1133785.7241379421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +877,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1000,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1018,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1138,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1249850.5855833527</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1241682.0665966475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +1192,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1309,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1333,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1447,6 +1462,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>116064.86144541064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103392.17352248007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,11 +1486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424904576"/>
-        <c:axId val="428998656"/>
+        <c:axId val="106195584"/>
+        <c:axId val="367346432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424904576"/>
+        <c:axId val="106195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,14 +1533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428998656"/>
+        <c:crossAx val="367346432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428998656"/>
+        <c:axId val="367346432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424904576"/>
+        <c:crossAx val="106195584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,7 +1752,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1863,6 +1881,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1246.0388886215089</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946.09824206255894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,8 +1898,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435131904"/>
-        <c:axId val="435130368"/>
+        <c:axId val="525159424"/>
+        <c:axId val="525157888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1903,7 +1924,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2032,6 +2053,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +2065,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2170,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,11 +2213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435114752"/>
-        <c:axId val="435116288"/>
+        <c:axId val="525154560"/>
+        <c:axId val="525156352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435114752"/>
+        <c:axId val="525154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,14 +2260,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435116288"/>
+        <c:crossAx val="525156352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435116288"/>
+        <c:axId val="525156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,12 +2318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435114752"/>
+        <c:crossAx val="525154560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435130368"/>
+        <c:axId val="525157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,12 +2360,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435131904"/>
+        <c:crossAx val="525159424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435131904"/>
+        <c:axId val="525159424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435130368"/>
+        <c:crossAx val="525157888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2506,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2608,6 +2635,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,8 +2652,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453156864"/>
-        <c:axId val="446326656"/>
+        <c:axId val="534570496"/>
+        <c:axId val="521637248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2648,7 +2678,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2777,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2819,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2915,6 +2948,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,11 +2967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435136384"/>
-        <c:axId val="446325120"/>
+        <c:axId val="521633792"/>
+        <c:axId val="521635328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435136384"/>
+        <c:axId val="521633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,14 +3014,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446325120"/>
+        <c:crossAx val="521635328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446325120"/>
+        <c:axId val="521635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,12 +3072,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435136384"/>
+        <c:crossAx val="521633792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446326656"/>
+        <c:axId val="521637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,12 +3114,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453156864"/>
+        <c:crossAx val="534570496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453156864"/>
+        <c:axId val="534570496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446326656"/>
+        <c:crossAx val="521637248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3242,7 +3278,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3371,6 +3407,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3419,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3509,6 +3548,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1197529.6205806637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,7 +3593,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3680,6 +3722,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,7 +3734,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3818,6 +3863,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1327485.2779959701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1318529.5927349227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,7 +3908,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3989,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +4049,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4127,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>129955.65741530643</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116495.80321803363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,11 +4202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457342336"/>
-        <c:axId val="457360512"/>
+        <c:axId val="524050432"/>
+        <c:axId val="524051968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457342336"/>
+        <c:axId val="524050432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,14 +4249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457360512"/>
+        <c:crossAx val="524051968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457360512"/>
+        <c:axId val="524051968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457342336"/>
+        <c:crossAx val="524050432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4414,7 +4468,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4543,6 +4597,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4557,8 +4614,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500174208"/>
-        <c:axId val="500172288"/>
+        <c:axId val="524068352"/>
+        <c:axId val="524066816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4583,7 +4640,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4712,6 +4769,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,7 +4781,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4850,6 +4910,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4866,11 +4929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498661632"/>
-        <c:axId val="500170752"/>
+        <c:axId val="524063488"/>
+        <c:axId val="524065024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498661632"/>
+        <c:axId val="524063488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,14 +4976,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500170752"/>
+        <c:crossAx val="524065024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500170752"/>
+        <c:axId val="524065024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4971,12 +5034,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498661632"/>
+        <c:crossAx val="524063488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500172288"/>
+        <c:axId val="524066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5013,12 +5076,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500174208"/>
+        <c:crossAx val="524068352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500174208"/>
+        <c:axId val="524068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,7 +5090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500172288"/>
+        <c:crossAx val="524066816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5177,7 +5240,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5306,6 +5369,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5315,7 +5381,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5444,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1199772.680908358</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5486,7 +5555,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5615,6 +5684,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5624,7 +5696,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5753,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1324959.0306687963</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1316028.9599446885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5795,7 +5870,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5924,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5933,7 +6011,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6062,6 +6140,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>125186.34976043832</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111752.11010010517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,11 +6164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533552128"/>
-        <c:axId val="535209472"/>
+        <c:axId val="524139904"/>
+        <c:axId val="524141696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533552128"/>
+        <c:axId val="524139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6130,14 +6211,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535209472"/>
+        <c:crossAx val="524141696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535209472"/>
+        <c:axId val="524141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6188,7 +6269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533552128"/>
+        <c:crossAx val="524139904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6349,7 +6430,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6478,6 +6559,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,8 +6576,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434949504"/>
-        <c:axId val="434947968"/>
+        <c:axId val="525018240"/>
+        <c:axId val="525016448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6518,7 +6602,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6647,6 +6731,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6656,7 +6743,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6785,6 +6872,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6801,11 +6891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434944640"/>
-        <c:axId val="434946432"/>
+        <c:axId val="525013376"/>
+        <c:axId val="525014912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434944640"/>
+        <c:axId val="525013376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6848,14 +6938,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434946432"/>
+        <c:crossAx val="525014912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434946432"/>
+        <c:axId val="525014912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6906,12 +6996,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434944640"/>
+        <c:crossAx val="525013376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434947968"/>
+        <c:axId val="525016448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,12 +7038,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434949504"/>
+        <c:crossAx val="525018240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434949504"/>
+        <c:axId val="525018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6962,7 +7052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434947968"/>
+        <c:crossAx val="525016448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7112,7 +7202,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7241,6 +7331,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,7 +7343,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7379,6 +7472,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9919761.2246029191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7421,7 +7517,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7550,6 +7646,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7559,7 +7658,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7688,6 +7787,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11208466.646992989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11099956.028219154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,7 +7832,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7859,6 +7961,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7868,7 +7973,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7997,6 +8102,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1288705.4223900698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1175058.7180957142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8018,11 +8126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434971776"/>
-        <c:axId val="434973312"/>
+        <c:axId val="525036160"/>
+        <c:axId val="525037952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434971776"/>
+        <c:axId val="525036160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8065,14 +8173,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434973312"/>
+        <c:crossAx val="525037952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434973312"/>
+        <c:axId val="525037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8123,7 +8231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434971776"/>
+        <c:crossAx val="525036160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8284,7 +8392,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8413,6 +8521,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>14205915.090000156</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14212491.38372789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8427,8 +8538,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434989696"/>
-        <c:axId val="434988160"/>
+        <c:axId val="525058432"/>
+        <c:axId val="525056640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8453,7 +8564,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8582,6 +8693,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8591,7 +8705,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8720,6 +8834,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8736,11 +8853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434984832"/>
-        <c:axId val="434986368"/>
+        <c:axId val="525049216"/>
+        <c:axId val="525055104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434984832"/>
+        <c:axId val="525049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8783,14 +8900,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434986368"/>
+        <c:crossAx val="525055104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434986368"/>
+        <c:axId val="525055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8841,12 +8958,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434984832"/>
+        <c:crossAx val="525049216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434988160"/>
+        <c:axId val="525056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8883,12 +9000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434989696"/>
+        <c:crossAx val="525058432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434989696"/>
+        <c:axId val="525058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8897,7 +9014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434988160"/>
+        <c:crossAx val="525056640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9047,7 +9164,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9176,6 +9293,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9185,7 +9305,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9314,6 +9434,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>8847852.2579065692</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9356,7 +9479,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9485,6 +9608,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,7 +9620,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9623,6 +9749,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10821028.269999478</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10712256.042025045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,7 +9794,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9794,6 +9923,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9803,7 +9935,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9932,6 +10064,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1973176.0120929088</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1863457.6858764123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9953,11 +10088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435093504"/>
-        <c:axId val="435095040"/>
+        <c:axId val="525129216"/>
+        <c:axId val="525130752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435093504"/>
+        <c:axId val="525129216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10000,14 +10135,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435095040"/>
+        <c:crossAx val="525130752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435095040"/>
+        <c:axId val="525130752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10058,7 +10193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435093504"/>
+        <c:crossAx val="525129216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10772,7 +10907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12775,6 +12910,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1589861.7641339963</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="K46" s="15">
+        <v>103392.17352248007</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12791,7 +12964,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15789,6 +15962,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:21" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1688258.0821306065</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1318529.5927349227</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1318529.5927349227</v>
+      </c>
+      <c r="K46" s="15">
+        <v>116495.80321803363</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="23">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="N46" s="23">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0.77233334382375085</v>
+      </c>
+      <c r="P46" s="23">
+        <v>0.68245238349551252</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>8.9880960328238335E-2</v>
+      </c>
+      <c r="R46" s="23">
+        <v>6.5867351025951162E-2</v>
+      </c>
+      <c r="S46" s="9">
+        <v>9.8801026538926731E-4</v>
+      </c>
+      <c r="T46" s="9">
+        <v>90.9716867089696</v>
+      </c>
+      <c r="U46" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15805,7 +16043,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18055,6 +18293,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1685056.247646333</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1316028.9599446885</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1316028.9599446885</v>
+      </c>
+      <c r="K46" s="15">
+        <v>111752.11010010517</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18071,7 +18353,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20321,6 +20603,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="15">
+        <v>14212491.38372789</v>
+      </c>
+      <c r="H46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="I46" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1175058.7180957142</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20337,7 +20663,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22853,6 +23179,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:16" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="14">
+        <v>946.09824206255894</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1211.3933676214326</v>
+      </c>
+      <c r="I46" s="15">
+        <v>13716076.560169417</v>
+      </c>
+      <c r="J46" s="15">
+        <v>10712256.042025045</v>
+      </c>
+      <c r="K46" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L46" s="15">
+        <v>10712256.042025045</v>
+      </c>
+      <c r="M46" s="15">
+        <v>1863457.6858764123</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -694,6 +694,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +706,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -834,6 +837,9 @@
                   <c:v>1133785.7241379421</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -877,7 +883,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1009,6 +1015,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1027,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1150,6 +1159,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1241682.0665966475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1314815.7138116525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,7 +1204,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1324,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1348,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1465,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>103392.17352248007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176525.82073748508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,11 +1504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106195584"/>
-        <c:axId val="367346432"/>
+        <c:axId val="425412864"/>
+        <c:axId val="435466240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106195584"/>
+        <c:axId val="425412864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,14 +1551,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367346432"/>
+        <c:crossAx val="435466240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367346432"/>
+        <c:axId val="435466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106195584"/>
+        <c:crossAx val="425412864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,7 +1770,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1884,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>946.09824206255894</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-295.3426593807647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,8 +1919,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525159424"/>
-        <c:axId val="525157888"/>
+        <c:axId val="425256064"/>
+        <c:axId val="425250176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1924,7 +1945,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2056,6 +2077,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2089,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2197,6 +2221,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,11 +2240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525154560"/>
-        <c:axId val="525156352"/>
+        <c:axId val="425247104"/>
+        <c:axId val="425248640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525154560"/>
+        <c:axId val="425247104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,14 +2287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525156352"/>
+        <c:crossAx val="425248640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525156352"/>
+        <c:axId val="425248640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,12 +2345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525154560"/>
+        <c:crossAx val="425247104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525157888"/>
+        <c:axId val="425250176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,12 +2387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525159424"/>
+        <c:crossAx val="425256064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525159424"/>
+        <c:axId val="425256064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525157888"/>
+        <c:crossAx val="425250176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2506,7 +2533,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2638,6 +2665,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,8 +2682,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="534570496"/>
-        <c:axId val="521637248"/>
+        <c:axId val="492526976"/>
+        <c:axId val="492525056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2678,7 +2708,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2810,6 +2840,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2852,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2951,6 +2984,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,11 +3003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521633792"/>
-        <c:axId val="521635328"/>
+        <c:axId val="452359296"/>
+        <c:axId val="452360832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521633792"/>
+        <c:axId val="452359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,14 +3050,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521635328"/>
+        <c:crossAx val="452360832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521635328"/>
+        <c:axId val="452360832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,12 +3108,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521633792"/>
+        <c:crossAx val="452359296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521637248"/>
+        <c:axId val="492525056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,12 +3150,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534570496"/>
+        <c:crossAx val="492526976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="534570496"/>
+        <c:axId val="492526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521637248"/>
+        <c:crossAx val="492525056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3278,7 +3314,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3410,6 +3446,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,7 +3458,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3550,6 +3589,9 @@
                   <c:v>1197529.6205806637</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
@@ -3593,7 +3635,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3725,6 +3767,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3734,7 +3779,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3866,6 +3911,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1318529.5927349227</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1396189.4709531241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,7 +3956,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4040,6 +4088,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,7 +4100,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4181,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>116495.80321803363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194155.68143623509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,11 +4256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524050432"/>
-        <c:axId val="524051968"/>
+        <c:axId val="616153088"/>
+        <c:axId val="616155008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524050432"/>
+        <c:axId val="616153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,14 +4303,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524051968"/>
+        <c:crossAx val="616155008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524051968"/>
+        <c:axId val="616155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,7 +4361,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524050432"/>
+        <c:crossAx val="616153088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4468,7 +4522,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4600,6 +4654,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2449.1291176605582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,8 +4671,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524068352"/>
-        <c:axId val="524066816"/>
+        <c:axId val="421649792"/>
+        <c:axId val="421648256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4640,7 +4697,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4772,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4781,7 +4841,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4913,6 +4973,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,11 +4992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524063488"/>
-        <c:axId val="524065024"/>
+        <c:axId val="421644928"/>
+        <c:axId val="421646720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524063488"/>
+        <c:axId val="421644928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,14 +5039,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524065024"/>
+        <c:crossAx val="421646720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524065024"/>
+        <c:axId val="421646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5034,12 +5097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524063488"/>
+        <c:crossAx val="421644928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524066816"/>
+        <c:axId val="421648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5076,12 +5139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524068352"/>
+        <c:crossAx val="421649792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524068352"/>
+        <c:axId val="421649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5090,7 +5153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524066816"/>
+        <c:crossAx val="421648256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5240,7 +5303,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5372,6 +5435,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5381,7 +5447,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5512,6 +5578,9 @@
                   <c:v>1199772.680908358</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
@@ -5555,7 +5624,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5687,6 +5756,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,7 +5768,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5828,6 +5900,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1316028.9599446885</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1393541.5537643991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,7 +5945,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6002,6 +6077,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,7 +6089,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6143,6 +6221,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>111752.11010010517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189264.70391981583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6164,11 +6245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524139904"/>
-        <c:axId val="524141696"/>
+        <c:axId val="421680640"/>
+        <c:axId val="421682176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524139904"/>
+        <c:axId val="421680640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6211,14 +6292,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524141696"/>
+        <c:crossAx val="421682176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524141696"/>
+        <c:axId val="421682176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,7 +6350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524139904"/>
+        <c:crossAx val="421680640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6430,7 +6511,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6562,6 +6643,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6576,8 +6660,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525018240"/>
-        <c:axId val="525016448"/>
+        <c:axId val="421710848"/>
+        <c:axId val="421709312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6602,7 +6686,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6734,6 +6818,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6743,7 +6830,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6875,6 +6962,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,11 +6981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525013376"/>
-        <c:axId val="525014912"/>
+        <c:axId val="421701888"/>
+        <c:axId val="421707776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525013376"/>
+        <c:axId val="421701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,14 +7028,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525014912"/>
+        <c:crossAx val="421707776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525014912"/>
+        <c:axId val="421707776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6996,12 +7086,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525013376"/>
+        <c:crossAx val="421701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525016448"/>
+        <c:axId val="421709312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7038,12 +7128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525018240"/>
+        <c:crossAx val="421710848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525018240"/>
+        <c:axId val="421710848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7052,7 +7142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525016448"/>
+        <c:crossAx val="421709312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7202,7 +7292,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7334,6 +7424,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7343,7 +7436,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7474,6 +7567,9 @@
                   <c:v>9919761.2246029191</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -7517,7 +7613,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7649,6 +7745,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7658,7 +7757,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7790,6 +7889,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11099956.028219154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11753730.686086988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7832,7 +7934,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7964,6 +8066,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7973,7 +8078,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8105,6 +8210,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1175058.7180957142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1828833.3759635482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8126,11 +8234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525036160"/>
-        <c:axId val="525037952"/>
+        <c:axId val="424989440"/>
+        <c:axId val="424990976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525036160"/>
+        <c:axId val="424989440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8173,14 +8281,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525037952"/>
+        <c:crossAx val="424990976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525037952"/>
+        <c:axId val="424990976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,7 +8339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525036160"/>
+        <c:crossAx val="424989440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8392,7 +8500,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8524,6 +8632,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>14212491.38372789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14211216.242597092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8538,8 +8649,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525058432"/>
-        <c:axId val="525056640"/>
+        <c:axId val="425203968"/>
+        <c:axId val="425202432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8564,7 +8675,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8696,6 +8807,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8705,7 +8819,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8837,6 +8951,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8853,11 +8970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525049216"/>
-        <c:axId val="525055104"/>
+        <c:axId val="425199104"/>
+        <c:axId val="425200640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525049216"/>
+        <c:axId val="425199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8900,14 +9017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525055104"/>
+        <c:crossAx val="425200640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525055104"/>
+        <c:axId val="425200640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8958,12 +9075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525049216"/>
+        <c:crossAx val="425199104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525056640"/>
+        <c:axId val="425202432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9000,12 +9117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525058432"/>
+        <c:crossAx val="425203968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525058432"/>
+        <c:axId val="425203968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,7 +9131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525056640"/>
+        <c:crossAx val="425202432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9164,7 +9281,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9296,6 +9413,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9305,7 +9425,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9436,6 +9556,9 @@
                   <c:v>8847852.2579065692</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
@@ -9479,7 +9602,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9611,6 +9734,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9620,7 +9746,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9752,6 +9878,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10712256.042025045</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11343195.616115516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9794,7 +9923,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9926,6 +10055,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9935,7 +10067,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10067,6 +10199,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1863457.6858764123</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2494397.2599668838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10088,11 +10223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525129216"/>
-        <c:axId val="525130752"/>
+        <c:axId val="425221504"/>
+        <c:axId val="425223296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525129216"/>
+        <c:axId val="425221504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10135,14 +10270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525130752"/>
+        <c:crossAx val="425223296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525130752"/>
+        <c:axId val="425223296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10193,7 +10328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525129216"/>
+        <c:crossAx val="425221504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10907,7 +11042,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12948,6 +13083,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1587393.879155457</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1312774.7728802687</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1314815.7138116525</v>
+      </c>
+      <c r="K47" s="15">
+        <v>176525.82073748508</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2040.9409313837987</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12964,7 +13137,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16027,6 +16200,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:21" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2449.1291176605582</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2961.4619742470895</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1685296.6201563594</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1393740.3418354637</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1396189.4709531241</v>
+      </c>
+      <c r="K47" s="15">
+        <v>194155.68143623509</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2449.1291176605582</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="O47" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P47" s="23">
+        <v>0.69597619346209938</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0.12935714352698546</v>
+      </c>
+      <c r="R47" s="23">
+        <v>7.4687078696529879E-2</v>
+      </c>
+      <c r="S47" s="9">
+        <v>1.1203061804479482E-3</v>
+      </c>
+      <c r="T47" s="9">
+        <v>115.46588404543365</v>
+      </c>
+      <c r="U47" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16043,7 +16281,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18337,6 +18575,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1682588.3626677936</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1391500.6128330154</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1393541.5537643991</v>
+      </c>
+      <c r="K47" s="15">
+        <v>189264.70391981583</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2040.9409313837987</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18353,7 +18635,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20647,6 +20929,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="15">
+        <v>14211216.242597092</v>
+      </c>
+      <c r="H47" s="15">
+        <v>11752676.144343849</v>
+      </c>
+      <c r="I47" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11753730.686086988</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1828833.3759635482</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1054.5417431386754</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20663,7 +20989,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23229,6 +23555,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:16" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="14">
+        <v>-295.3426593807647</v>
+      </c>
+      <c r="H47" s="15">
+        <v>-357.12533439830196</v>
+      </c>
+      <c r="I47" s="15">
+        <v>13715719.434835019</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11342900.273456136</v>
+      </c>
+      <c r="K47" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L47" s="15">
+        <v>11343195.616115516</v>
+      </c>
+      <c r="M47" s="15">
+        <v>2494397.2599668838</v>
+      </c>
+      <c r="N47" s="14">
+        <v>295.3426593807647</v>
+      </c>
+      <c r="O47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="P47" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -697,6 +697,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +709,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -840,6 +843,9 @@
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -883,7 +889,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1018,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1036,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1162,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1314815.7138116525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1294179.5752163501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,7 +1216,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1339,6 +1351,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1363,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1483,6 +1498,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>176525.82073748508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155889.68214218272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,11 +1522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425412864"/>
-        <c:axId val="435466240"/>
+        <c:axId val="160766592"/>
+        <c:axId val="161386880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425412864"/>
+        <c:axId val="160766592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,14 +1569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435466240"/>
+        <c:crossAx val="161386880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435466240"/>
+        <c:axId val="161386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425412864"/>
+        <c:crossAx val="160766592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,7 +1788,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1905,6 +1923,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-295.3426593807647</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.0445561652667319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,8 +1940,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425256064"/>
-        <c:axId val="425250176"/>
+        <c:axId val="457000832"/>
+        <c:axId val="456999296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1945,7 +1966,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2080,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,7 +2113,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2224,6 +2248,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,11 +2267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425247104"/>
-        <c:axId val="425248640"/>
+        <c:axId val="456991872"/>
+        <c:axId val="456993408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425247104"/>
+        <c:axId val="456991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,14 +2314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425248640"/>
+        <c:crossAx val="456993408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425248640"/>
+        <c:axId val="456993408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,12 +2372,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425247104"/>
+        <c:crossAx val="456991872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425250176"/>
+        <c:axId val="456999296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,12 +2414,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425256064"/>
+        <c:crossAx val="457000832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425256064"/>
+        <c:axId val="457000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425250176"/>
+        <c:crossAx val="456999296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2533,7 +2560,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2668,6 +2695,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,8 +2712,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492526976"/>
-        <c:axId val="492525056"/>
+        <c:axId val="469849600"/>
+        <c:axId val="463517952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2708,7 +2738,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2843,6 +2873,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2885,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2987,6 +3020,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,11 +3039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452359296"/>
-        <c:axId val="452360832"/>
+        <c:axId val="463231616"/>
+        <c:axId val="463516032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452359296"/>
+        <c:axId val="463231616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,14 +3086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452360832"/>
+        <c:crossAx val="463516032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452360832"/>
+        <c:axId val="463516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,12 +3144,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452359296"/>
+        <c:crossAx val="463231616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492525056"/>
+        <c:axId val="463517952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +3186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492526976"/>
+        <c:crossAx val="469849600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492526976"/>
+        <c:axId val="469849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492525056"/>
+        <c:crossAx val="463517952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3314,7 +3350,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3449,6 +3485,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,7 +3497,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3592,6 +3631,9 @@
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
@@ -3635,7 +3677,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3770,6 +3812,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3779,7 +3824,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3914,6 +3959,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1396189.4709531241</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1374280.5956044022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +4004,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4091,6 +4139,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,7 +4151,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4235,6 +4286,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>194155.68143623509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>172246.80608751322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,11 +4310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616153088"/>
-        <c:axId val="616155008"/>
+        <c:axId val="659876480"/>
+        <c:axId val="451645824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616153088"/>
+        <c:axId val="659876480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,14 +4357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616155008"/>
+        <c:crossAx val="451645824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616155008"/>
+        <c:axId val="451645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +4415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616153088"/>
+        <c:crossAx val="659876480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4522,7 +4576,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4657,6 +4711,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2449.1291176605582</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4671,8 +4728,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421649792"/>
-        <c:axId val="421648256"/>
+        <c:axId val="451666304"/>
+        <c:axId val="451664512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4697,7 +4754,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4832,6 +4889,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4901,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4976,6 +5036,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,11 +5055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421644928"/>
-        <c:axId val="421646720"/>
+        <c:axId val="451661184"/>
+        <c:axId val="451662976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421644928"/>
+        <c:axId val="451661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,14 +5102,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421646720"/>
+        <c:crossAx val="451662976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421646720"/>
+        <c:axId val="451662976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,12 +5160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421644928"/>
+        <c:crossAx val="451661184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421648256"/>
+        <c:axId val="451664512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5139,12 +5202,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421649792"/>
+        <c:crossAx val="451666304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="421649792"/>
+        <c:axId val="451666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,7 +5216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421648256"/>
+        <c:crossAx val="451664512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5303,7 +5366,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5438,6 +5501,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5447,7 +5513,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5581,6 +5647,9 @@
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
@@ -5624,7 +5693,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5759,6 +5828,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5768,7 +5840,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5903,6 +5975,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1393541.5537643991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1371667.8857940221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5945,7 +6020,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6080,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,7 +6167,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6224,6 +6302,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>189264.70391981583</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>167391.03594943881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6245,11 +6326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421680640"/>
-        <c:axId val="421682176"/>
+        <c:axId val="455161728"/>
+        <c:axId val="455163264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421680640"/>
+        <c:axId val="455161728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6292,14 +6373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421682176"/>
+        <c:crossAx val="455163264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421682176"/>
+        <c:axId val="455163264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,7 +6431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421680640"/>
+        <c:crossAx val="455161728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6511,7 +6592,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6646,6 +6727,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6660,8 +6744,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421710848"/>
-        <c:axId val="421709312"/>
+        <c:axId val="455188480"/>
+        <c:axId val="455186688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6686,7 +6770,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6821,6 +6905,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,7 +6917,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6965,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6981,11 +7071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421701888"/>
-        <c:axId val="421707776"/>
+        <c:axId val="455183360"/>
+        <c:axId val="455185152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421701888"/>
+        <c:axId val="455183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,14 +7118,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421707776"/>
+        <c:crossAx val="455185152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421707776"/>
+        <c:axId val="455185152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,12 +7176,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421701888"/>
+        <c:crossAx val="455183360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421709312"/>
+        <c:axId val="455186688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,12 +7218,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421710848"/>
+        <c:crossAx val="455188480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="421710848"/>
+        <c:axId val="455188480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421709312"/>
+        <c:crossAx val="455186688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7292,7 +7382,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7427,6 +7517,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7436,7 +7529,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7570,6 +7663,9 @@
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -7613,7 +7709,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7748,6 +7844,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7757,7 +7856,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7892,6 +7991,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11753730.686086988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11568984.712298762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7934,7 +8036,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8069,6 +8171,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,7 +8183,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8213,6 +8318,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1828833.3759635482</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1644087.4021753222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8234,11 +8342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424989440"/>
-        <c:axId val="424990976"/>
+        <c:axId val="455271936"/>
+        <c:axId val="455273472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424989440"/>
+        <c:axId val="455271936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8281,14 +8389,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424990976"/>
+        <c:crossAx val="455273472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424990976"/>
+        <c:axId val="455273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8339,7 +8447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424989440"/>
+        <c:crossAx val="455271936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8500,7 +8608,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8635,6 +8743,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>14211216.242597092</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14211202.666488077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8649,8 +8760,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425203968"/>
-        <c:axId val="425202432"/>
+        <c:axId val="456473600"/>
+        <c:axId val="456472064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8675,7 +8786,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8810,6 +8921,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8819,7 +8933,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8954,6 +9068,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8970,11 +9087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425199104"/>
-        <c:axId val="425200640"/>
+        <c:axId val="456468736"/>
+        <c:axId val="456470528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425199104"/>
+        <c:axId val="456468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9017,14 +9134,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425200640"/>
+        <c:crossAx val="456470528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425200640"/>
+        <c:axId val="456470528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9075,12 +9192,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425199104"/>
+        <c:crossAx val="456468736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425202432"/>
+        <c:axId val="456472064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9117,12 +9234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425203968"/>
+        <c:crossAx val="456473600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425203968"/>
+        <c:axId val="456473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9131,7 +9248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425202432"/>
+        <c:crossAx val="456472064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9281,7 +9398,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9416,6 +9533,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9425,7 +9545,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9559,6 +9679,9 @@
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
@@ -9602,7 +9725,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9737,6 +9860,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9746,7 +9872,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9881,6 +10007,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11343195.616115516</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11164891.106498707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9923,7 +10052,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10058,6 +10187,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10067,7 +10199,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10202,6 +10334,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2494397.2599668838</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2316092.7503500748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10223,11 +10358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425221504"/>
-        <c:axId val="425223296"/>
+        <c:axId val="456516352"/>
+        <c:axId val="456517888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425221504"/>
+        <c:axId val="456516352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10270,14 +10405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425223296"/>
+        <c:crossAx val="456517888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425223296"/>
+        <c:axId val="456517888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10328,7 +10463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425221504"/>
+        <c:crossAx val="456516352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11042,7 +11177,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13121,6 +13256,44 @@
         <v>2040.9409313837987</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1587137.2098113052</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1291929.7054361342</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1294179.5752163501</v>
+      </c>
+      <c r="K48" s="15">
+        <v>155889.68214218272</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13137,7 +13310,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16265,6 +16438,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="48" spans="1:21" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1685039.9508122075</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1371622.5376379094</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1374280.5956044022</v>
+      </c>
+      <c r="K48" s="15">
+        <v>172246.80608751322</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="N48" s="23">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="O48" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0.71290476549239379</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>0.11242857149669105</v>
+      </c>
+      <c r="R48" s="23">
+        <v>7.6986397204755905E-2</v>
+      </c>
+      <c r="S48" s="9">
+        <v>1.1547959580713385E-3</v>
+      </c>
+      <c r="T48" s="9">
+        <v>97.357953767401114</v>
+      </c>
+      <c r="U48" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16281,7 +16519,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18619,6 +18857,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1682331.6933236418</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1369418.0160138062</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1371667.8857940221</v>
+      </c>
+      <c r="K48" s="15">
+        <v>167391.03594943881</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18635,7 +18917,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20973,6 +21255,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="15">
+        <v>14211202.666488077</v>
+      </c>
+      <c r="H48" s="15">
+        <v>11567919.119602744</v>
+      </c>
+      <c r="I48" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11568984.712298762</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1644087.4021753222</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20989,7 +21315,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23605,6 +23931,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:16" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2900300</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="G48" s="14">
+        <v>-7.0445561652667319</v>
+      </c>
+      <c r="H48" s="15">
+        <v>-8.6542457917445699</v>
+      </c>
+      <c r="I48" s="15">
+        <v>13715710.780589227</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11164588.719283162</v>
+      </c>
+      <c r="K48" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L48" s="15">
+        <v>11164891.106498707</v>
+      </c>
+      <c r="M48" s="15">
+        <v>2316092.7503500748</v>
+      </c>
+      <c r="N48" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="P48" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -700,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +712,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -847,6 +850,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1144330.9676563484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +895,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1027,6 +1033,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1045,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1174,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1294179.5752163501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1228799.4488688125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,7 +1228,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1354,6 +1366,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,7 +1378,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1501,6 +1516,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>155889.68214218272</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84468.481212464161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,11 +1540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160766592"/>
-        <c:axId val="161386880"/>
+        <c:axId val="429412352"/>
+        <c:axId val="429414272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160766592"/>
+        <c:axId val="429412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,14 +1587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161386880"/>
+        <c:crossAx val="429414272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161386880"/>
+        <c:axId val="429414272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160766592"/>
+        <c:crossAx val="429412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1806,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1926,6 +1944,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-7.0445561652667319</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3763.8330854783617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,8 +1961,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="457000832"/>
-        <c:axId val="456999296"/>
+        <c:axId val="449257472"/>
+        <c:axId val="449251584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1966,7 +1987,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2104,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2137,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2251,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,11 +2294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456991872"/>
-        <c:axId val="456993408"/>
+        <c:axId val="448723968"/>
+        <c:axId val="449250048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456991872"/>
+        <c:axId val="448723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,14 +2341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456993408"/>
+        <c:crossAx val="449250048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456993408"/>
+        <c:axId val="449250048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,12 +2399,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456991872"/>
+        <c:crossAx val="448723968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456999296"/>
+        <c:axId val="449251584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,12 +2441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457000832"/>
+        <c:crossAx val="449257472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="457000832"/>
+        <c:axId val="449257472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456999296"/>
+        <c:crossAx val="449251584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2560,7 +2587,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2698,6 +2725,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,8 +2742,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="469849600"/>
-        <c:axId val="463517952"/>
+        <c:axId val="468647936"/>
+        <c:axId val="456222592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2738,7 +2768,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2876,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2918,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3023,6 +3056,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,11 +3075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463231616"/>
-        <c:axId val="463516032"/>
+        <c:axId val="452991616"/>
+        <c:axId val="456221056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463231616"/>
+        <c:axId val="452991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,14 +3122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463516032"/>
+        <c:crossAx val="456221056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463516032"/>
+        <c:axId val="456221056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,12 +3180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463231616"/>
+        <c:crossAx val="452991616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463517952"/>
+        <c:axId val="456222592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,12 +3222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469849600"/>
+        <c:crossAx val="468647936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="469849600"/>
+        <c:axId val="468647936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463517952"/>
+        <c:crossAx val="456222592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3350,7 +3386,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3488,6 +3524,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,7 +3536,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3635,6 +3674,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1208074.86409907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,7 +3719,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3815,6 +3857,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,7 +3869,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3962,6 +4007,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1374280.5956044022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1304494.8442778958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4052,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4142,6 +4190,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,7 +4202,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4289,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>172246.80608751322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96419.98017882579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,11 +4364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="659876480"/>
-        <c:axId val="451645824"/>
+        <c:axId val="528063488"/>
+        <c:axId val="530974208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="659876480"/>
+        <c:axId val="528063488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,14 +4411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451645824"/>
+        <c:crossAx val="530974208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451645824"/>
+        <c:axId val="530974208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,7 +4469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659876480"/>
+        <c:crossAx val="528063488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4576,7 +4630,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4714,6 +4768,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,8 +4785,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451666304"/>
-        <c:axId val="451664512"/>
+        <c:axId val="446867712"/>
+        <c:axId val="446866176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4754,7 +4811,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4892,6 +4949,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4901,7 +4961,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5039,6 +5099,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,11 +5118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451661184"/>
-        <c:axId val="451662976"/>
+        <c:axId val="446858752"/>
+        <c:axId val="446860288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451661184"/>
+        <c:axId val="446858752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,14 +5165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451662976"/>
+        <c:crossAx val="446860288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451662976"/>
+        <c:axId val="446860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,12 +5223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451661184"/>
+        <c:crossAx val="446858752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451664512"/>
+        <c:axId val="446866176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5202,12 +5265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451666304"/>
+        <c:crossAx val="446867712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451666304"/>
+        <c:axId val="446867712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,7 +5279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451664512"/>
+        <c:crossAx val="446866176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5366,7 +5429,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5504,6 +5567,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,7 +5579,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5651,6 +5717,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1210317.9244267642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,7 +5762,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5831,6 +5900,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5840,7 +5912,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5978,6 +6050,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1371667.8857940221</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1302004.0060997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6020,7 +6095,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6158,6 +6233,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +6245,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6305,6 +6383,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>167391.03594943881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91686.081672935747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6326,11 +6407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455161728"/>
-        <c:axId val="455163264"/>
+        <c:axId val="448176512"/>
+        <c:axId val="448178048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455161728"/>
+        <c:axId val="448176512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6373,14 +6454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455163264"/>
+        <c:crossAx val="448178048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455163264"/>
+        <c:axId val="448178048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6431,7 +6512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455161728"/>
+        <c:crossAx val="448176512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6592,7 +6673,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6730,6 +6811,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,8 +6828,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455188480"/>
-        <c:axId val="455186688"/>
+        <c:axId val="448202624"/>
+        <c:axId val="448201088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6770,7 +6854,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6908,6 +6992,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6917,7 +7004,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7055,6 +7142,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7071,11 +7161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455183360"/>
-        <c:axId val="455185152"/>
+        <c:axId val="448197760"/>
+        <c:axId val="448199296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455183360"/>
+        <c:axId val="448197760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,14 +7208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455185152"/>
+        <c:crossAx val="448199296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455185152"/>
+        <c:axId val="448199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,12 +7266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455183360"/>
+        <c:crossAx val="448197760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455186688"/>
+        <c:axId val="448201088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7218,12 +7308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455188480"/>
+        <c:crossAx val="448202624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="455188480"/>
+        <c:axId val="448202624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7232,7 +7322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455186688"/>
+        <c:crossAx val="448201088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7472,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7520,6 +7610,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7529,7 +7622,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7667,6 +7760,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9934136.4448341932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,7 +7805,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7847,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7856,7 +7955,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7994,6 +8093,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11568984.712298762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10938719.489842519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8036,7 +8138,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8174,6 +8276,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8183,7 +8288,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8321,6 +8426,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1644087.4021753222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1004583.0450083259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,11 +8450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455271936"/>
-        <c:axId val="455273472"/>
+        <c:axId val="448253312"/>
+        <c:axId val="448259200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455271936"/>
+        <c:axId val="448253312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8389,14 +8497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455273472"/>
+        <c:crossAx val="448259200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455273472"/>
+        <c:axId val="448259200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8447,7 +8555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455271936"/>
+        <c:crossAx val="448253312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8608,7 +8716,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8746,6 +8854,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>14211202.666488077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14223217.146052744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8760,8 +8871,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456473600"/>
-        <c:axId val="456472064"/>
+        <c:axId val="448545920"/>
+        <c:axId val="448540032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8786,7 +8897,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8924,6 +9035,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8933,7 +9047,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9071,6 +9185,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9087,11 +9204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456468736"/>
-        <c:axId val="456470528"/>
+        <c:axId val="448536960"/>
+        <c:axId val="448538496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456468736"/>
+        <c:axId val="448536960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,14 +9251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456470528"/>
+        <c:crossAx val="448538496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456470528"/>
+        <c:axId val="448538496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9192,12 +9309,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456468736"/>
+        <c:crossAx val="448536960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456472064"/>
+        <c:axId val="448540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,12 +9351,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456473600"/>
+        <c:crossAx val="448545920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="456473600"/>
+        <c:axId val="448545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9248,7 +9365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456472064"/>
+        <c:crossAx val="448540032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9398,7 +9515,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9536,6 +9653,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9545,7 +9665,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9683,6 +9803,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8852562.1892341115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9725,7 +9848,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9863,6 +9986,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9872,7 +9998,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10010,6 +10136,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11164891.106498707</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10551447.725552052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10052,7 +10181,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10190,6 +10319,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10199,7 +10331,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10337,6 +10469,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2316092.7503500748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1698885.5363179408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10358,11 +10493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456516352"/>
-        <c:axId val="456517888"/>
+        <c:axId val="448690816"/>
+        <c:axId val="448700800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456516352"/>
+        <c:axId val="448690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10405,14 +10540,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456517888"/>
+        <c:crossAx val="448700800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456517888"/>
+        <c:axId val="448700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10463,7 +10598,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456516352"/>
+        <c:crossAx val="448690816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11177,7 +11312,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13294,6 +13429,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1594992.9635575702</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1226549.5790885966</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1144330.9676563484</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1228799.4488688125</v>
+      </c>
+      <c r="K49" s="15">
+        <v>84468.481212464161</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13310,7 +13483,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16503,6 +16676,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:21" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1692895.7045584726</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1301836.7863114029</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1208074.86409907</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1304494.8442778958</v>
+      </c>
+      <c r="K49" s="15">
+        <v>96419.98017882579</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M49" s="23">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="N49" s="23">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="O49" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="P49" s="23">
+        <v>0.72328571762357441</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>2.6714282376425591E-2</v>
+      </c>
+      <c r="R49" s="23">
+        <v>7.1904764288947695E-2</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1.0785714643342153E-3</v>
+      </c>
+      <c r="T49" s="9">
+        <v>24.768208004571939</v>
+      </c>
+      <c r="U49" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16519,7 +16757,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18901,6 +19139,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1690187.4470699069</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1299754.1363194841</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1210317.9244267642</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1302004.0060997</v>
+      </c>
+      <c r="K49" s="15">
+        <v>91686.081672935747</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18917,7 +19199,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21299,6 +21581,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F49" s="15">
+        <v>12014.479564667186</v>
+      </c>
+      <c r="G49" s="15">
+        <v>14223217.146052744</v>
+      </c>
+      <c r="H49" s="15">
+        <v>10937653.897146501</v>
+      </c>
+      <c r="I49" s="15">
+        <v>9934136.4448341932</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10938719.489842519</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1004583.0450083259</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21315,7 +21641,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23981,6 +24307,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:16" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1839402</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4515206.3014686154</v>
+      </c>
+      <c r="G49" s="14">
+        <v>3763.8330854783617</v>
+      </c>
+      <c r="H49" s="15">
+        <v>4894.4513859798353</v>
+      </c>
+      <c r="I49" s="15">
+        <v>13720605.231975207</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10551145.338336507</v>
+      </c>
+      <c r="K49" s="15">
+        <v>8852562.1892341115</v>
+      </c>
+      <c r="L49" s="15">
+        <v>10551447.725552052</v>
+      </c>
+      <c r="M49" s="15">
+        <v>1698885.5363179408</v>
+      </c>
+      <c r="N49" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -703,6 +703,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +715,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -853,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1144330.9676563484</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1153045.7236434985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +901,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1036,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1054,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1186,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1228799.4488688125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1258249.131635457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1240,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1369,6 +1381,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,7 +1393,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1519,6 +1534,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>84468.481212464161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105203.40799195855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,11 +1558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429412352"/>
-        <c:axId val="429414272"/>
+        <c:axId val="536840448"/>
+        <c:axId val="542404608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429412352"/>
+        <c:axId val="536840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,14 +1605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429414272"/>
+        <c:crossAx val="542404608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429414272"/>
+        <c:axId val="542404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429412352"/>
+        <c:crossAx val="536840448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1824,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1947,6 +1965,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3763.8330854783617</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11244.055887534907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,8 +1982,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449257472"/>
-        <c:axId val="449251584"/>
+        <c:axId val="543602560"/>
+        <c:axId val="543601024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1987,7 +2008,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2128,6 +2149,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2161,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2278,6 +2302,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,11 +2321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448723968"/>
-        <c:axId val="449250048"/>
+        <c:axId val="543597696"/>
+        <c:axId val="543599232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448723968"/>
+        <c:axId val="543597696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,14 +2368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449250048"/>
+        <c:crossAx val="543599232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449250048"/>
+        <c:axId val="543599232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,12 +2426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448723968"/>
+        <c:crossAx val="543597696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449251584"/>
+        <c:axId val="543601024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449257472"/>
+        <c:crossAx val="543602560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="449257472"/>
+        <c:axId val="543602560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449251584"/>
+        <c:crossAx val="543601024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2614,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2728,6 +2755,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,8 +2772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468647936"/>
-        <c:axId val="456222592"/>
+        <c:axId val="580158976"/>
+        <c:axId val="545308032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2768,7 +2798,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2909,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,7 +2951,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3059,6 +3092,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,11 +3111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452991616"/>
-        <c:axId val="456221056"/>
+        <c:axId val="545304576"/>
+        <c:axId val="545306112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452991616"/>
+        <c:axId val="545304576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,14 +3158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456221056"/>
+        <c:crossAx val="545306112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456221056"/>
+        <c:axId val="545306112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,12 +3216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452991616"/>
+        <c:crossAx val="545304576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456222592"/>
+        <c:axId val="545308032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,12 +3258,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468647936"/>
+        <c:crossAx val="580158976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468647936"/>
+        <c:axId val="580158976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456222592"/>
+        <c:crossAx val="545308032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3386,7 +3422,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3527,6 +3563,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,7 +3575,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3677,6 +3716,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1208074.86409907</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1216789.6200862201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3761,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3860,6 +3902,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,7 +3914,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4010,6 +4055,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1304494.8442778958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1335217.26379796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,7 +4100,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4193,6 +4241,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,7 +4253,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4343,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96419.98017882579</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118427.64371173992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4364,11 +4418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528063488"/>
-        <c:axId val="530974208"/>
+        <c:axId val="659149184"/>
+        <c:axId val="659152256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528063488"/>
+        <c:axId val="659149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4411,14 +4465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530974208"/>
+        <c:crossAx val="659152256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530974208"/>
+        <c:axId val="659152256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4469,7 +4523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528063488"/>
+        <c:crossAx val="659149184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4630,7 +4684,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4771,6 +4825,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4785,8 +4842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446867712"/>
-        <c:axId val="446866176"/>
+        <c:axId val="542250112"/>
+        <c:axId val="704253312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4811,7 +4868,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4952,6 +5009,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,7 +5021,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5102,6 +5162,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5118,11 +5181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446858752"/>
-        <c:axId val="446860288"/>
+        <c:axId val="704077184"/>
+        <c:axId val="704251008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446858752"/>
+        <c:axId val="704077184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5165,14 +5228,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446860288"/>
+        <c:crossAx val="704251008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446860288"/>
+        <c:axId val="704251008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5223,12 +5286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446858752"/>
+        <c:crossAx val="704077184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446866176"/>
+        <c:axId val="704253312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,12 +5328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446867712"/>
+        <c:crossAx val="542250112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446867712"/>
+        <c:axId val="542250112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446866176"/>
+        <c:crossAx val="704253312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5429,7 +5492,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5570,6 +5633,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5579,7 +5645,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5720,6 +5786,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1210317.9244267642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1220775.6316113444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,7 +5831,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5903,6 +5972,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5912,7 +5984,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6053,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1302004.0060997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1334434.1694388492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6095,7 +6170,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6236,6 +6311,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6245,7 +6323,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6386,6 +6464,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>91686.081672935747</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113658.5378275048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6407,11 +6488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448176512"/>
-        <c:axId val="448178048"/>
+        <c:axId val="542313088"/>
+        <c:axId val="542314880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448176512"/>
+        <c:axId val="542313088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,14 +6535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448178048"/>
+        <c:crossAx val="542314880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448178048"/>
+        <c:axId val="542314880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,7 +6593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448176512"/>
+        <c:crossAx val="542313088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6673,7 +6754,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6814,6 +6895,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10457.707184580269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6828,8 +6912,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448202624"/>
-        <c:axId val="448201088"/>
+        <c:axId val="542343168"/>
+        <c:axId val="542341376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6854,7 +6938,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6995,6 +7079,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7004,7 +7091,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7145,6 +7232,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,11 +7251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448197760"/>
-        <c:axId val="448199296"/>
+        <c:axId val="542338048"/>
+        <c:axId val="542339840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448197760"/>
+        <c:axId val="542338048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7208,14 +7298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448199296"/>
+        <c:crossAx val="542339840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448199296"/>
+        <c:axId val="542339840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7266,12 +7356,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448197760"/>
+        <c:crossAx val="542338048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448201088"/>
+        <c:axId val="542341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7308,12 +7398,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448202624"/>
+        <c:crossAx val="542343168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448202624"/>
+        <c:axId val="542343168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7322,7 +7412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448201088"/>
+        <c:crossAx val="542341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7472,7 +7562,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7613,6 +7703,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7622,7 +7715,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7763,6 +7856,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9934136.4448341932</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9957208.9426313285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7805,7 +7901,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7946,6 +8042,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8054,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8096,6 +8195,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10938719.489842519</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11146693.973310143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8138,7 +8240,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8279,6 +8381,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8288,7 +8393,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8429,6 +8534,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1004583.0450083259</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1189485.0306788143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8450,11 +8558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448253312"/>
-        <c:axId val="448259200"/>
+        <c:axId val="542459392"/>
+        <c:axId val="542460928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448253312"/>
+        <c:axId val="542459392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,14 +8605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448259200"/>
+        <c:crossAx val="542460928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448259200"/>
+        <c:axId val="542460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8555,7 +8663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448253312"/>
+        <c:crossAx val="542459392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8716,7 +8824,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8857,6 +8965,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>14223217.146052744</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14252721.618741207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8871,8 +8982,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448545920"/>
-        <c:axId val="448540032"/>
+        <c:axId val="542501888"/>
+        <c:axId val="542500352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8897,7 +9008,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9038,6 +9149,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9047,7 +9161,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9188,6 +9302,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9204,11 +9321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448536960"/>
-        <c:axId val="448538496"/>
+        <c:axId val="542488832"/>
+        <c:axId val="542498816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448536960"/>
+        <c:axId val="542488832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9251,14 +9368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448538496"/>
+        <c:crossAx val="542498816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448538496"/>
+        <c:axId val="542498816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9309,12 +9426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448536960"/>
+        <c:crossAx val="542488832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448540032"/>
+        <c:axId val="542500352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9351,12 +9468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448545920"/>
+        <c:crossAx val="542501888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448545920"/>
+        <c:axId val="542501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9365,7 +9482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448540032"/>
+        <c:crossAx val="542500352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9515,7 +9632,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9656,6 +9773,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,7 +9785,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9806,6 +9926,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8852562.1892341115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8863806.2451216467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9848,7 +9971,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9989,6 +10112,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9998,7 +10124,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10139,6 +10265,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10551447.725552052</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10741059.806475131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10181,7 +10310,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10322,6 +10451,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10331,7 +10463,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10472,6 +10604,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1698885.5363179408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1877253.5613534842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10493,11 +10628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448690816"/>
-        <c:axId val="448700800"/>
+        <c:axId val="543576832"/>
+        <c:axId val="543578368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448690816"/>
+        <c:axId val="543576832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10540,14 +10675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448700800"/>
+        <c:crossAx val="543578368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448700800"/>
+        <c:axId val="543578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10598,7 +10733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448690816"/>
+        <c:crossAx val="543576832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11312,7 +11447,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13467,6 +13602,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F50" s="15">
+        <v>11144.189167131237</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1606137.1527247014</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1255999.2618552411</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1153045.7236434985</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1258249.131635457</v>
+      </c>
+      <c r="K50" s="15">
+        <v>105203.40799195855</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13483,7 +13656,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16741,6 +16914,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:21" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F50" s="15">
+        <v>11144.189167131237</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1704039.8937256038</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1332559.2058314672</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1216789.6200862201</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1335217.26379796</v>
+      </c>
+      <c r="K50" s="15">
+        <v>118427.64371173992</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M50" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N50" s="23">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="O50" s="23">
+        <v>0.79000000158945716</v>
+      </c>
+      <c r="P50" s="23">
+        <v>0.73328571660178044</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>5.6714284987676722E-2</v>
+      </c>
+      <c r="R50" s="23">
+        <v>7.0006806023266852E-2</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1.0501020903490028E-3</v>
+      </c>
+      <c r="T50" s="9">
+        <v>54.008353577153301</v>
+      </c>
+      <c r="U50" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16757,7 +16995,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19183,6 +19421,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>10457.707184580269</v>
+      </c>
+      <c r="F50" s="15">
+        <v>13373.027000557482</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1703560.4740704643</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1332184.2996586333</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1220775.6316113444</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1334434.1694388492</v>
+      </c>
+      <c r="K50" s="15">
+        <v>113658.5378275048</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19199,7 +19481,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21625,6 +21907,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>23072.497797135398</v>
+      </c>
+      <c r="F50" s="15">
+        <v>29504.472688463273</v>
+      </c>
+      <c r="G50" s="15">
+        <v>14252721.618741207</v>
+      </c>
+      <c r="H50" s="15">
+        <v>11145628.380614124</v>
+      </c>
+      <c r="I50" s="15">
+        <v>9957208.9426313285</v>
+      </c>
+      <c r="J50" s="15">
+        <v>11146693.973310143</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1189485.0306788143</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21641,7 +21967,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24357,6 +24683,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:16" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2171902</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4456684.012585436</v>
+      </c>
+      <c r="G50" s="14">
+        <v>11244.055887534907</v>
+      </c>
+      <c r="H50" s="15">
+        <v>14378.587995033518</v>
+      </c>
+      <c r="I50" s="15">
+        <v>13734983.819970241</v>
+      </c>
+      <c r="J50" s="15">
+        <v>10740757.419259585</v>
+      </c>
+      <c r="K50" s="15">
+        <v>8863806.2451216467</v>
+      </c>
+      <c r="L50" s="15">
+        <v>10741059.806475131</v>
+      </c>
+      <c r="M50" s="15">
+        <v>1877253.5613534842</v>
+      </c>
+      <c r="N50" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -706,6 +706,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +718,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -859,6 +862,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1153045.7236434985</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1157665.4717863523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +907,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1045,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1063,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1198,6 +1207,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1258249.131635457</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1311052.9484080994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1252,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1384,6 +1396,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,7 +1408,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1537,6 +1552,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>105203.40799195855</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>153387.47662174702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536840448"/>
-        <c:axId val="542404608"/>
+        <c:axId val="103308288"/>
+        <c:axId val="161207424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536840448"/>
+        <c:axId val="103308288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,14 +1623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542404608"/>
+        <c:crossAx val="161207424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542404608"/>
+        <c:axId val="161207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536840448"/>
+        <c:crossAx val="103308288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1824,7 +1842,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1968,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11244.055887534907</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>816.82875284245119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,8 +2003,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543602560"/>
-        <c:axId val="543601024"/>
+        <c:axId val="486830080"/>
+        <c:axId val="486828288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2008,7 +2029,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2152,6 +2173,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,7 +2185,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2305,6 +2329,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,11 +2348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543597696"/>
-        <c:axId val="543599232"/>
+        <c:axId val="486800384"/>
+        <c:axId val="486826752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543597696"/>
+        <c:axId val="486800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,14 +2395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543599232"/>
+        <c:crossAx val="486826752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543599232"/>
+        <c:axId val="486826752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,12 +2453,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543597696"/>
+        <c:crossAx val="486800384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543601024"/>
+        <c:axId val="486828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2495,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543602560"/>
+        <c:crossAx val="486830080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543602560"/>
+        <c:axId val="486830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543601024"/>
+        <c:crossAx val="486828288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2614,7 +2641,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2758,6 +2785,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,8 +2802,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="580158976"/>
-        <c:axId val="545308032"/>
+        <c:axId val="161875456"/>
+        <c:axId val="161340032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2798,7 +2828,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2942,6 +2972,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,7 +2984,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3095,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,11 +3147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545304576"/>
-        <c:axId val="545306112"/>
+        <c:axId val="161303552"/>
+        <c:axId val="161338112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545304576"/>
+        <c:axId val="161303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,14 +3194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545306112"/>
+        <c:crossAx val="161338112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545306112"/>
+        <c:axId val="161338112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,12 +3252,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545304576"/>
+        <c:crossAx val="161303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545308032"/>
+        <c:axId val="161340032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,12 +3294,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580158976"/>
+        <c:crossAx val="161875456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="580158976"/>
+        <c:axId val="161875456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545308032"/>
+        <c:crossAx val="161340032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3422,7 +3458,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3566,6 +3602,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,7 +3614,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3719,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1216789.6200862201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1221409.3682290739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3761,7 +3803,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3905,6 +3947,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3959,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4058,6 +4103,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1335217.26379796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1390958.1599996095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,7 +4148,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4244,6 +4292,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,7 +4304,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4397,6 +4448,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>118427.64371173992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>169548.79177053552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4418,11 +4472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="659149184"/>
-        <c:axId val="659152256"/>
+        <c:axId val="443951360"/>
+        <c:axId val="443994112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="659149184"/>
+        <c:axId val="443951360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,14 +4519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659152256"/>
+        <c:crossAx val="443994112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="659152256"/>
+        <c:axId val="443994112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659149184"/>
+        <c:crossAx val="443951360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4684,7 +4738,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4828,6 +4882,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,8 +4899,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542250112"/>
-        <c:axId val="704253312"/>
+        <c:axId val="489330560"/>
+        <c:axId val="489329024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4868,7 +4925,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5012,6 +5069,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5021,7 +5081,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5165,6 +5225,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,11 +5244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704077184"/>
-        <c:axId val="704251008"/>
+        <c:axId val="488362368"/>
+        <c:axId val="488364288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704077184"/>
+        <c:axId val="488362368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,14 +5291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704251008"/>
+        <c:crossAx val="488364288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704251008"/>
+        <c:axId val="488364288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5286,12 +5349,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704077184"/>
+        <c:crossAx val="488362368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="704253312"/>
+        <c:axId val="489329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,12 +5391,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542250112"/>
+        <c:crossAx val="489330560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542250112"/>
+        <c:axId val="489330560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704253312"/>
+        <c:crossAx val="489329024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5492,7 +5555,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5636,6 +5699,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5711,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5789,6 +5855,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1220775.6316113444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1225395.3797541982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,7 +5900,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5975,6 +6044,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,7 +6056,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6128,6 +6200,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1334434.1694388492</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1390160.6830645609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,7 +6245,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6314,6 +6389,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,7 +6401,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6467,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>113658.5378275048</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>164765.30331036262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6488,11 +6569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542313088"/>
-        <c:axId val="542314880"/>
+        <c:axId val="551376768"/>
+        <c:axId val="577048960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542313088"/>
+        <c:axId val="551376768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6535,14 +6616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542314880"/>
+        <c:crossAx val="577048960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542314880"/>
+        <c:axId val="577048960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,7 +6674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542313088"/>
+        <c:crossAx val="551376768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6754,7 +6835,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6898,6 +6979,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10457.707184580269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,8 +6996,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542343168"/>
-        <c:axId val="542341376"/>
+        <c:axId val="486589184"/>
+        <c:axId val="486587392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6938,7 +7022,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7082,6 +7166,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,7 +7178,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7235,6 +7322,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7251,11 +7341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542338048"/>
-        <c:axId val="542339840"/>
+        <c:axId val="486584320"/>
+        <c:axId val="486585856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542338048"/>
+        <c:axId val="486584320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,14 +7388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542339840"/>
+        <c:crossAx val="486585856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542339840"/>
+        <c:axId val="486585856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7356,12 +7446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542338048"/>
+        <c:crossAx val="486584320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542341376"/>
+        <c:axId val="486587392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7398,12 +7488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542343168"/>
+        <c:crossAx val="486589184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542343168"/>
+        <c:axId val="486589184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7412,7 +7502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542341376"/>
+        <c:crossAx val="486587392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7562,7 +7652,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7706,6 +7796,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,7 +7808,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7859,6 +7952,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9957208.9426313285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9962611.9990625698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7901,7 +7997,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8045,6 +8141,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,7 +8153,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8198,6 +8297,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11146693.973310143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11579678.270529984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8240,7 +8342,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8384,6 +8486,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8393,7 +8498,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8537,6 +8642,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1189485.0306788143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1617066.2714674138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8558,11 +8666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542459392"/>
-        <c:axId val="542460928"/>
+        <c:axId val="486617088"/>
+        <c:axId val="486618624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542459392"/>
+        <c:axId val="486617088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,14 +8713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542460928"/>
+        <c:crossAx val="486618624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542460928"/>
+        <c:axId val="486618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8663,7 +8771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542459392"/>
+        <c:crossAx val="486617088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8824,7 +8932,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8968,6 +9076,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>14252721.618741207</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14259375.629315976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8982,8 +9093,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542501888"/>
-        <c:axId val="542500352"/>
+        <c:axId val="486642048"/>
+        <c:axId val="486632064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9008,7 +9119,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9152,6 +9263,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9161,7 +9275,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9305,6 +9419,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9321,11 +9438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542488832"/>
-        <c:axId val="542498816"/>
+        <c:axId val="486628736"/>
+        <c:axId val="486630528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542488832"/>
+        <c:axId val="486628736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9368,14 +9485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542498816"/>
+        <c:crossAx val="486630528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542498816"/>
+        <c:axId val="486630528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9426,12 +9543,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542488832"/>
+        <c:crossAx val="486628736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542500352"/>
+        <c:axId val="486632064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9468,12 +9585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542501888"/>
+        <c:crossAx val="486642048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542501888"/>
+        <c:axId val="486642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9482,7 +9599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542500352"/>
+        <c:crossAx val="486632064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9632,7 +9749,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9776,6 +9893,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9785,7 +9905,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9929,6 +10049,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8863806.2451216467</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8864623.0738744885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9971,7 +10094,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10115,6 +10238,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10124,7 +10250,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10268,6 +10394,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10741059.806475131</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11153925.756866042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10310,7 +10439,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10454,6 +10583,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10463,7 +10595,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10607,6 +10739,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1877253.5613534842</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2289302.6829915531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10628,11 +10763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543576832"/>
-        <c:axId val="543578368"/>
+        <c:axId val="486784384"/>
+        <c:axId val="486786176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543576832"/>
+        <c:axId val="486784384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10675,14 +10810,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543578368"/>
+        <c:crossAx val="486786176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543578368"/>
+        <c:axId val="486786176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10733,7 +10868,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543576832"/>
+        <c:crossAx val="486784384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11447,7 +11582,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13640,6 +13775,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="51" spans="1:12" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1611826.497891925</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1308803.0786278835</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1157665.4717863523</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1311052.9484080994</v>
+      </c>
+      <c r="K51" s="15">
+        <v>153387.47662174702</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13656,7 +13829,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16979,6 +17152,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:21" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1709729.2388928274</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1388300.1020331166</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1221409.3682290739</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1390958.1599996095</v>
+      </c>
+      <c r="K51" s="15">
+        <v>169548.79177053552</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M51" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N51" s="23">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="O51" s="23">
+        <v>0.79966666301091516</v>
+      </c>
+      <c r="P51" s="23">
+        <v>0.74359524108114694</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>5.6071421929768217E-2</v>
+      </c>
+      <c r="R51" s="23">
+        <v>6.6234695465386323E-2</v>
+      </c>
+      <c r="S51" s="9">
+        <v>9.9352043198079479E-4</v>
+      </c>
+      <c r="T51" s="9">
+        <v>56.437110022969414</v>
+      </c>
+      <c r="U51" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16995,7 +17233,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19465,6 +19703,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1709249.8192376879</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1387910.813284345</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1225395.3797541982</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1390160.6830645609</v>
+      </c>
+      <c r="K51" s="15">
+        <v>164765.30331036262</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19481,7 +19763,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21951,6 +22233,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6654.0105747686748</v>
+      </c>
+      <c r="G51" s="15">
+        <v>14259375.629315976</v>
+      </c>
+      <c r="H51" s="15">
+        <v>11578612.677833965</v>
+      </c>
+      <c r="I51" s="15">
+        <v>9962611.9990625698</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11579678.270529984</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1617066.2714674138</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21967,7 +22293,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24733,6 +25059,56 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="51" spans="1:16" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>667200</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4413310.9153900621</v>
+      </c>
+      <c r="G51" s="14">
+        <v>816.82875284245119</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1005.94676889953</v>
+      </c>
+      <c r="I51" s="15">
+        <v>13735989.766739141</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11153623.369650496</v>
+      </c>
+      <c r="K51" s="15">
+        <v>8864623.0738744885</v>
+      </c>
+      <c r="L51" s="15">
+        <v>11153925.756866042</v>
+      </c>
+      <c r="M51" s="15">
+        <v>2289302.6829915531</v>
+      </c>
+      <c r="N51" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -709,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,7 +721,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -865,6 +868,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1157665.4717863523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +913,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1054,6 +1060,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1072,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1210,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1311052.9484080994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1365070.86430949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1264,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1399,6 +1411,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,7 +1423,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1555,6 +1570,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>153387.47662174702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>206577.83482726617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103308288"/>
-        <c:axId val="161207424"/>
+        <c:axId val="420642176"/>
+        <c:axId val="436921856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103308288"/>
+        <c:axId val="420642176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,14 +1641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161207424"/>
+        <c:crossAx val="436921856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161207424"/>
+        <c:axId val="436921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103308288"/>
+        <c:crossAx val="420642176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,7 +1860,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1989,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>816.82875284245119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.212160278304367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,8 +2024,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486830080"/>
-        <c:axId val="486828288"/>
+        <c:axId val="471517440"/>
+        <c:axId val="471515904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2029,7 +2050,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2176,6 +2197,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,7 +2209,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2332,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,11 +2375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486800384"/>
-        <c:axId val="486826752"/>
+        <c:axId val="471504384"/>
+        <c:axId val="471505920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486800384"/>
+        <c:axId val="471504384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,14 +2422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486826752"/>
+        <c:crossAx val="471505920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486826752"/>
+        <c:axId val="471505920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,12 +2480,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486800384"/>
+        <c:crossAx val="471504384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486828288"/>
+        <c:axId val="471515904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,12 +2522,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486830080"/>
+        <c:crossAx val="471517440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486830080"/>
+        <c:axId val="471517440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486828288"/>
+        <c:crossAx val="471515904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +2668,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2788,6 +2815,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,8 +2832,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161875456"/>
-        <c:axId val="161340032"/>
+        <c:axId val="472322816"/>
+        <c:axId val="464124160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2828,7 +2858,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2975,6 +3005,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2984,7 +3017,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3131,6 +3164,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,11 +3183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161303552"/>
-        <c:axId val="161338112"/>
+        <c:axId val="455338240"/>
+        <c:axId val="464122624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161303552"/>
+        <c:axId val="455338240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,14 +3230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161338112"/>
+        <c:crossAx val="464122624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161338112"/>
+        <c:axId val="464122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,12 +3288,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303552"/>
+        <c:crossAx val="455338240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161340032"/>
+        <c:axId val="464124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,12 +3330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161875456"/>
+        <c:crossAx val="472322816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161875456"/>
+        <c:axId val="472322816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161340032"/>
+        <c:crossAx val="464124160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3458,7 +3494,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3605,6 +3641,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3653,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3761,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1221409.3682290739</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3845,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3950,6 +3992,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,7 +4004,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4151,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1390958.1599996095</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1448206.8714425494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,7 +4196,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4295,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,7 +4355,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4451,6 +4502,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>169548.79177053552</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>225969.94551760401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4472,11 +4526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443951360"/>
-        <c:axId val="443994112"/>
+        <c:axId val="535098496"/>
+        <c:axId val="535100032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443951360"/>
+        <c:axId val="535098496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,14 +4573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443994112"/>
+        <c:crossAx val="535100032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443994112"/>
+        <c:axId val="535100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443951360"/>
+        <c:crossAx val="535098496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4738,7 +4792,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4885,6 +4939,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4899,8 +4956,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489330560"/>
-        <c:axId val="489329024"/>
+        <c:axId val="469958016"/>
+        <c:axId val="469956480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4925,7 +4982,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5072,6 +5129,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5081,7 +5141,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5228,6 +5288,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5244,11 +5307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488362368"/>
-        <c:axId val="488364288"/>
+        <c:axId val="469949056"/>
+        <c:axId val="469954944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488362368"/>
+        <c:axId val="469949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,14 +5354,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488364288"/>
+        <c:crossAx val="469954944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488364288"/>
+        <c:axId val="469954944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,12 +5412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488362368"/>
+        <c:crossAx val="469949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489329024"/>
+        <c:axId val="469956480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,12 +5454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489330560"/>
+        <c:crossAx val="469958016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489330560"/>
+        <c:axId val="469958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5405,7 +5468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489329024"/>
+        <c:crossAx val="469956480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5555,7 +5618,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5702,6 +5765,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5711,7 +5777,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5858,6 +5924,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1225395.3797541982</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,7 +5969,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6047,6 +6116,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6056,7 +6128,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6203,6 +6275,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1390160.6830645609</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1447393.573633963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6245,7 +6320,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6392,6 +6467,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6401,7 +6479,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6548,6 +6626,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>164765.30331036262</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>221170.63618389331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,11 +6650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551376768"/>
-        <c:axId val="577048960"/>
+        <c:axId val="470088320"/>
+        <c:axId val="470094208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551376768"/>
+        <c:axId val="470088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,14 +6697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577048960"/>
+        <c:crossAx val="470094208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577048960"/>
+        <c:axId val="470094208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,7 +6755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551376768"/>
+        <c:crossAx val="470088320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6835,7 +6916,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6982,6 +7063,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,8 +7080,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486589184"/>
-        <c:axId val="486587392"/>
+        <c:axId val="470142336"/>
+        <c:axId val="470140800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7022,7 +7106,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7169,6 +7253,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7178,7 +7265,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7325,6 +7412,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7341,11 +7431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486584320"/>
-        <c:axId val="486585856"/>
+        <c:axId val="470116992"/>
+        <c:axId val="470139264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486584320"/>
+        <c:axId val="470116992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,14 +7478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486585856"/>
+        <c:crossAx val="470139264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486585856"/>
+        <c:axId val="470139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7446,12 +7536,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486584320"/>
+        <c:crossAx val="470116992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486587392"/>
+        <c:axId val="470140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7488,12 +7578,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486589184"/>
+        <c:crossAx val="470142336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486589184"/>
+        <c:axId val="470142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7502,7 +7592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486587392"/>
+        <c:crossAx val="470140800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7652,7 +7742,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7799,6 +7889,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7808,7 +7901,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7955,6 +8048,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9962611.9990625698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7997,7 +8093,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8144,6 +8240,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8153,7 +8252,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8300,6 +8399,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11579678.270529984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12050411.787619369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,7 +8444,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8489,6 +8591,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8498,7 +8603,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8645,6 +8750,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1617066.2714674138</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2087626.4083694592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8666,11 +8774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486617088"/>
-        <c:axId val="486618624"/>
+        <c:axId val="470178432"/>
+        <c:axId val="470200704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486617088"/>
+        <c:axId val="470178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,14 +8821,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486618624"/>
+        <c:crossAx val="470200704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486618624"/>
+        <c:axId val="470200704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8771,7 +8879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486617088"/>
+        <c:crossAx val="470178432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8932,7 +9040,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9079,6 +9187,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>14259375.629315976</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14259580.812962687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9093,8 +9204,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486642048"/>
-        <c:axId val="486632064"/>
+        <c:axId val="470236160"/>
+        <c:axId val="470234624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9119,7 +9230,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9266,6 +9377,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9275,7 +9389,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9422,6 +9536,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,11 +9555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486628736"/>
-        <c:axId val="486630528"/>
+        <c:axId val="470210816"/>
+        <c:axId val="470233088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486628736"/>
+        <c:axId val="470210816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9485,14 +9602,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486630528"/>
+        <c:crossAx val="470233088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486630528"/>
+        <c:axId val="470233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9543,12 +9660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486628736"/>
+        <c:crossAx val="470210816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486632064"/>
+        <c:axId val="470234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,12 +9702,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486642048"/>
+        <c:crossAx val="470236160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486642048"/>
+        <c:axId val="470236160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9599,7 +9716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486632064"/>
+        <c:crossAx val="470234624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9749,7 +9866,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9896,6 +10013,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9905,7 +10025,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10052,6 +10172,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>8864623.0738744885</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10094,7 +10217,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10241,6 +10364,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10250,7 +10376,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10397,6 +10523,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11153925.756866042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11607303.345260218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10439,7 +10568,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10586,6 +10715,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10595,7 +10727,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10742,6 +10874,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2289302.6829915531</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2742591.0592254512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10763,11 +10898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486784384"/>
-        <c:axId val="486786176"/>
+        <c:axId val="471484288"/>
+        <c:axId val="471485824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486784384"/>
+        <c:axId val="471484288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,14 +10945,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486786176"/>
+        <c:crossAx val="471485824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486786176"/>
+        <c:axId val="471485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10868,7 +11003,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486784384"/>
+        <c:crossAx val="471484288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11582,7 +11717,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13813,6 +13948,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1612805.8560787318</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1362820.9945292741</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1365070.86430949</v>
+      </c>
+      <c r="K52" s="15">
+        <v>206577.83482726617</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13829,7 +14002,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17217,6 +17390,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:21" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1710708.5970796342</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1445548.8134760566</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1448206.8714425494</v>
+      </c>
+      <c r="K52" s="15">
+        <v>225969.94551760401</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="N52" s="23">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0.83933335542678833</v>
+      </c>
+      <c r="P52" s="23">
+        <v>0.75640476601464413</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>8.2928589412144205E-2</v>
+      </c>
+      <c r="R52" s="23">
+        <v>6.2527214183288354E-2</v>
+      </c>
+      <c r="S52" s="9">
+        <v>9.3790821274932531E-4</v>
+      </c>
+      <c r="T52" s="9">
+        <v>88.418662172764797</v>
+      </c>
+      <c r="U52" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17233,7 +17471,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19747,6 +19985,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1710229.1774244946</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1445143.7038537471</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1447393.573633963</v>
+      </c>
+      <c r="K52" s="15">
+        <v>221170.63618389331</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19763,7 +20045,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22277,6 +22559,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F52" s="15">
+        <v>205.18364671053826</v>
+      </c>
+      <c r="G52" s="15">
+        <v>14259580.812962687</v>
+      </c>
+      <c r="H52" s="15">
+        <v>12049346.194923351</v>
+      </c>
+      <c r="I52" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J52" s="15">
+        <v>12050411.787619369</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2087626.4083694592</v>
+      </c>
+      <c r="L52" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22293,7 +22619,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25109,6 +25435,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:16" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2249304</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4371430.3934544772</v>
+      </c>
+      <c r="G52" s="14">
+        <v>89.212160278304367</v>
+      </c>
+      <c r="H52" s="15">
+        <v>105.5765174647763</v>
+      </c>
+      <c r="I52" s="15">
+        <v>13736095.343256606</v>
+      </c>
+      <c r="J52" s="15">
+        <v>11607000.958044672</v>
+      </c>
+      <c r="K52" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L52" s="15">
+        <v>11607303.345260218</v>
+      </c>
+      <c r="M52" s="15">
+        <v>2742591.0592254512</v>
+      </c>
+      <c r="N52" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -712,6 +712,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +724,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -870,6 +873,9 @@
                   <c:v>1157665.4717863523</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -913,7 +919,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1063,6 +1069,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1081,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1222,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1365070.86430949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1629570.8878162566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1276,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1414,6 +1426,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1438,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1573,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>206577.83482726617</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>471077.85833403282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,11 +1612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420642176"/>
-        <c:axId val="436921856"/>
+        <c:axId val="94623232"/>
+        <c:axId val="100823808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420642176"/>
+        <c:axId val="94623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,14 +1659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436921856"/>
+        <c:crossAx val="100823808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436921856"/>
+        <c:axId val="100823808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420642176"/>
+        <c:crossAx val="94623232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,7 +1878,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2010,6 +2028,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>89.212160278304367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-91356.780627580432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,8 +2045,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471517440"/>
-        <c:axId val="471515904"/>
+        <c:axId val="452641536"/>
+        <c:axId val="452639744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2050,7 +2071,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2200,6 +2221,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,7 +2233,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2359,6 +2383,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,11 +2402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471504384"/>
-        <c:axId val="471505920"/>
+        <c:axId val="452636672"/>
+        <c:axId val="452638208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471504384"/>
+        <c:axId val="452636672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471505920"/>
+        <c:crossAx val="452638208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471505920"/>
+        <c:axId val="452638208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,12 +2507,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471504384"/>
+        <c:crossAx val="452636672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471515904"/>
+        <c:axId val="452639744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,12 +2549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471517440"/>
+        <c:crossAx val="452641536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471517440"/>
+        <c:axId val="452641536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471515904"/>
+        <c:crossAx val="452639744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,7 +2695,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2818,6 +2845,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17883.962059553654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,8 +2862,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472322816"/>
-        <c:axId val="464124160"/>
+        <c:axId val="495567232"/>
+        <c:axId val="468609280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2858,7 +2888,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3008,6 +3038,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,7 +3050,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3167,6 +3200,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3183,11 +3219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455338240"/>
-        <c:axId val="464122624"/>
+        <c:axId val="442661888"/>
+        <c:axId val="468607744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455338240"/>
+        <c:axId val="442661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3230,14 +3266,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464122624"/>
+        <c:crossAx val="468607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464122624"/>
+        <c:axId val="468607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,12 +3324,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455338240"/>
+        <c:crossAx val="442661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464124160"/>
+        <c:axId val="468609280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,12 +3366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472322816"/>
+        <c:crossAx val="495567232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="472322816"/>
+        <c:axId val="495567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3344,7 +3380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464124160"/>
+        <c:crossAx val="468609280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3494,7 +3530,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3644,6 +3680,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,7 +3692,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3802,6 +3841,9 @@
                   <c:v>1221409.3682290739</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -3845,7 +3887,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3995,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4049,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4154,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1448206.8714425494</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1728762.9361637714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,7 +4244,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4346,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,7 +4406,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4505,6 +4556,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>225969.94551760401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>506526.01023882604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4526,11 +4580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535098496"/>
-        <c:axId val="535100032"/>
+        <c:axId val="532551168"/>
+        <c:axId val="532552704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535098496"/>
+        <c:axId val="532551168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,14 +4627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535100032"/>
+        <c:crossAx val="532552704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535100032"/>
+        <c:axId val="532552704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +4685,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535098496"/>
+        <c:crossAx val="532551168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4792,7 +4846,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4942,6 +4996,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-21460.754471464385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4956,8 +5013,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="469958016"/>
-        <c:axId val="469956480"/>
+        <c:axId val="91465600"/>
+        <c:axId val="91464064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4982,7 +5039,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5132,6 +5189,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,7 +5201,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5291,6 +5351,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,11 +5370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469949056"/>
-        <c:axId val="469954944"/>
+        <c:axId val="91460736"/>
+        <c:axId val="91462272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469949056"/>
+        <c:axId val="91460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,14 +5417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469954944"/>
+        <c:crossAx val="91462272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469954944"/>
+        <c:axId val="91462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,12 +5475,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469949056"/>
+        <c:crossAx val="91460736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469956480"/>
+        <c:axId val="91464064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5454,12 +5517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469958016"/>
+        <c:crossAx val="91465600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="469958016"/>
+        <c:axId val="91465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5468,7 +5531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469956480"/>
+        <c:crossAx val="91464064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5618,7 +5681,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5768,6 +5831,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5777,7 +5843,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5926,6 +5992,9 @@
                   <c:v>1225395.3797541982</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -5969,7 +6038,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6119,6 +6188,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6128,7 +6200,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6278,6 +6350,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1447393.573633963</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1727871.0135724342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6320,7 +6395,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6470,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6479,7 +6557,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6629,6 +6707,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>221170.63618389331</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>501648.07612236449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6650,11 +6731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470088320"/>
-        <c:axId val="470094208"/>
+        <c:axId val="91534848"/>
+        <c:axId val="91536384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470088320"/>
+        <c:axId val="91534848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,14 +6778,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470094208"/>
+        <c:crossAx val="91536384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470094208"/>
+        <c:axId val="91536384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6755,7 +6836,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470088320"/>
+        <c:crossAx val="91534848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6916,7 +6997,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7066,6 +7147,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-21460.754471464385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,8 +7164,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="470142336"/>
-        <c:axId val="470140800"/>
+        <c:axId val="93537792"/>
+        <c:axId val="93536256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7106,7 +7190,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7256,6 +7340,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7265,7 +7352,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7415,6 +7502,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,11 +7521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470116992"/>
-        <c:axId val="470139264"/>
+        <c:axId val="93532928"/>
+        <c:axId val="93534464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470116992"/>
+        <c:axId val="93532928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7478,14 +7568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470139264"/>
+        <c:crossAx val="93534464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470139264"/>
+        <c:axId val="93534464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,12 +7626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470116992"/>
+        <c:crossAx val="93532928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470140800"/>
+        <c:axId val="93536256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,12 +7668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470142336"/>
+        <c:crossAx val="93537792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="470142336"/>
+        <c:axId val="93537792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7592,7 +7682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470140800"/>
+        <c:crossAx val="93536256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7742,7 +7832,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7892,6 +7982,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7901,7 +7994,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8050,6 +8143,9 @@
                   <c:v>9962611.9990625698</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8093,7 +8189,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8243,6 +8339,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8252,7 +8351,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8402,6 +8501,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12050411.787619369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14388981.830634605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8444,7 +8546,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8594,6 +8696,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,7 +8708,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8753,6 +8858,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2087626.4083694592</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4426196.4513846952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8774,11 +8882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470178432"/>
-        <c:axId val="470200704"/>
+        <c:axId val="93573888"/>
+        <c:axId val="93575424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470178432"/>
+        <c:axId val="93573888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8821,14 +8929,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470200704"/>
+        <c:crossAx val="93575424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470200704"/>
+        <c:axId val="93575424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8879,7 +8987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470178432"/>
+        <c:crossAx val="93573888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9040,7 +9148,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9190,6 +9298,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>14259580.812962687</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14163282.098822901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9204,8 +9315,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="470236160"/>
-        <c:axId val="470234624"/>
+        <c:axId val="370701440"/>
+        <c:axId val="370699648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9230,7 +9341,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9380,6 +9491,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9389,7 +9503,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9539,6 +9653,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9555,11 +9672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470210816"/>
-        <c:axId val="470233088"/>
+        <c:axId val="370696576"/>
+        <c:axId val="370698112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470210816"/>
+        <c:axId val="370696576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9602,14 +9719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470233088"/>
+        <c:crossAx val="370698112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470233088"/>
+        <c:axId val="370698112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9660,12 +9777,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470210816"/>
+        <c:crossAx val="370696576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470234624"/>
+        <c:axId val="370699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9702,12 +9819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470236160"/>
+        <c:crossAx val="370701440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="470236160"/>
+        <c:axId val="370701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9716,7 +9833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470234624"/>
+        <c:crossAx val="370699648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9866,7 +9983,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10016,6 +10133,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10025,7 +10145,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10174,6 +10294,9 @@
                   <c:v>8864623.0738744885</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10217,7 +10340,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10367,6 +10490,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,7 +10502,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10526,6 +10652,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11607303.345260218</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13860021.815675542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10568,7 +10697,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10718,6 +10847,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10727,7 +10859,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10877,6 +11009,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2742591.0592254512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4995309.5296407752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10898,11 +11033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471484288"/>
-        <c:axId val="471485824"/>
+        <c:axId val="452620672"/>
+        <c:axId val="452622208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471484288"/>
+        <c:axId val="452620672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10945,14 +11080,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471485824"/>
+        <c:crossAx val="452622208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471485824"/>
+        <c:axId val="452622208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11003,7 +11138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471484288"/>
+        <c:crossAx val="452620672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11717,7 +11852,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13986,6 +14121,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-17883.962059553654</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-17724.443069228022</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1595081.4130095039</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1609437.055976487</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1629570.8878162566</v>
+      </c>
+      <c r="K53" s="15">
+        <v>471077.85833403282</v>
+      </c>
+      <c r="L53" s="14">
+        <v>20133.831839769646</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14002,7 +14175,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17455,6 +17628,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:21" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-21460.754471464385</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-21269.331683073629</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1689439.2653965605</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1704644.1237258143</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1728762.9361637714</v>
+      </c>
+      <c r="K53" s="15">
+        <v>506526.01023882604</v>
+      </c>
+      <c r="L53" s="14">
+        <v>24118.812437957135</v>
+      </c>
+      <c r="M53" s="23">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="N53" s="23">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="O53" s="23">
+        <v>0.95633329947789514</v>
+      </c>
+      <c r="P53" s="23">
+        <v>0.77864285877772754</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>0.1776904407001676</v>
+      </c>
+      <c r="R53" s="23">
+        <v>6.0221088581344666E-2</v>
+      </c>
+      <c r="S53" s="9">
+        <v>9.0331632872016994E-4</v>
+      </c>
+      <c r="T53" s="9">
+        <v>196.70898781595332</v>
+      </c>
+      <c r="U53" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17471,7 +17709,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20029,6 +20267,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-21460.754471464385</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-21269.331683073629</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1688959.845741421</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1704160.3893207537</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1727871.0135724342</v>
+      </c>
+      <c r="K53" s="15">
+        <v>501648.07612236449</v>
+      </c>
+      <c r="L53" s="14">
+        <v>23710.624251680376</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20045,7 +20327,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22603,6 +22885,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-97165.397148624164</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-96298.714139785108</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14163282.098822901</v>
+      </c>
+      <c r="H53" s="15">
+        <v>14290750.840789963</v>
+      </c>
+      <c r="I53" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J53" s="15">
+        <v>14388981.830634605</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4426196.4513846952</v>
+      </c>
+      <c r="L53" s="14">
+        <v>98230.989844642419</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22619,7 +22945,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25485,6 +25811,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:16" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4079918</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4339325.9928879309</v>
+      </c>
+      <c r="G53" s="14">
+        <v>-91356.780627580432</v>
+      </c>
+      <c r="H53" s="15">
+        <v>-90541.908545175917</v>
+      </c>
+      <c r="I53" s="15">
+        <v>13645553.43471143</v>
+      </c>
+      <c r="J53" s="15">
+        <v>13768362.647832416</v>
+      </c>
+      <c r="K53" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L53" s="15">
+        <v>13860021.815675542</v>
+      </c>
+      <c r="M53" s="15">
+        <v>4995309.5296407752</v>
+      </c>
+      <c r="N53" s="14">
+        <v>91659.167843126459</v>
+      </c>
+      <c r="O53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="P53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -715,6 +715,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,7 +727,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -876,6 +879,9 @@
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -919,7 +925,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1072,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,7 +1090,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1234,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1629570.8878162566</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1755582.5035077769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,7 +1288,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1429,6 +1441,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,7 +1453,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1591,6 +1606,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>471077.85833403282</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>597089.47402555309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,11 +1630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94623232"/>
-        <c:axId val="100823808"/>
+        <c:axId val="90573440"/>
+        <c:axId val="91572480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94623232"/>
+        <c:axId val="90573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,14 +1677,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100823808"/>
+        <c:crossAx val="91572480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100823808"/>
+        <c:axId val="91572480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94623232"/>
+        <c:crossAx val="90573440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1878,7 +1896,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2031,6 +2049,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-91356.780627580432</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-179733.24736579991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,8 +2066,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452641536"/>
-        <c:axId val="452639744"/>
+        <c:axId val="525575680"/>
+        <c:axId val="525574144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2071,7 +2092,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2224,6 +2245,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,7 +2257,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2386,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,11 +2429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452636672"/>
-        <c:axId val="452638208"/>
+        <c:axId val="525558528"/>
+        <c:axId val="525560064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452636672"/>
+        <c:axId val="525558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,14 +2476,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452638208"/>
+        <c:crossAx val="525560064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452638208"/>
+        <c:axId val="525560064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,12 +2534,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452636672"/>
+        <c:crossAx val="525558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452639744"/>
+        <c:axId val="525574144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,12 +2576,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452641536"/>
+        <c:crossAx val="525575680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452641536"/>
+        <c:axId val="525575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452639744"/>
+        <c:crossAx val="525574144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2695,7 +2722,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2848,6 +2875,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-17883.962059553654</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-28655.058483172998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,8 +2892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495567232"/>
-        <c:axId val="468609280"/>
+        <c:axId val="536845696"/>
+        <c:axId val="536843008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2888,7 +2918,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3041,6 +3071,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,7 +3083,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3203,6 +3236,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,11 +3255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442661888"/>
-        <c:axId val="468607744"/>
+        <c:axId val="519142784"/>
+        <c:axId val="536815104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442661888"/>
+        <c:axId val="519142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,14 +3302,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468607744"/>
+        <c:crossAx val="536815104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468607744"/>
+        <c:axId val="536815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,12 +3360,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442661888"/>
+        <c:crossAx val="519142784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468609280"/>
+        <c:axId val="536843008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,12 +3402,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495567232"/>
+        <c:crossAx val="536845696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495567232"/>
+        <c:axId val="536845696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468609280"/>
+        <c:crossAx val="536843008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3530,7 +3566,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3683,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,7 +3731,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3844,6 +3883,9 @@
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -3887,7 +3929,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4040,6 +4082,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,7 +4094,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4202,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1728762.9361637714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1862228.8330822547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4292,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4397,6 +4445,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,7 +4457,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4559,6 +4610,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>506526.01023882604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>639991.90715730935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,11 +4634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532551168"/>
-        <c:axId val="532552704"/>
+        <c:axId val="613533568"/>
+        <c:axId val="613535104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532551168"/>
+        <c:axId val="613533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,14 +4681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532552704"/>
+        <c:crossAx val="613535104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532552704"/>
+        <c:axId val="613535104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,7 +4739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532551168"/>
+        <c:crossAx val="613533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4846,7 +4900,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4999,6 +5053,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-21460.754471464385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-34386.070179807597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,8 +5070,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91465600"/>
-        <c:axId val="91464064"/>
+        <c:axId val="703005440"/>
+        <c:axId val="655707136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5039,7 +5096,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5192,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,7 +5261,7 @@
               <c:f>'model2(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5354,6 +5414,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5370,11 +5433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91460736"/>
-        <c:axId val="91462272"/>
+        <c:axId val="654466432"/>
+        <c:axId val="655664640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91460736"/>
+        <c:axId val="654466432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,14 +5480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91462272"/>
+        <c:crossAx val="655664640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91462272"/>
+        <c:axId val="655664640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,12 +5538,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91460736"/>
+        <c:crossAx val="654466432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91464064"/>
+        <c:axId val="655707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5517,12 +5580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91465600"/>
+        <c:crossAx val="703005440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91465600"/>
+        <c:axId val="703005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5531,7 +5594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91464064"/>
+        <c:crossAx val="655707136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5681,7 +5744,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5834,6 +5897,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5843,7 +5909,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5995,6 +6061,9 @@
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -6038,7 +6107,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6191,6 +6260,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6200,7 +6272,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6353,6 +6425,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1727871.0135724342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1861299.0362828393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6470,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6548,6 +6623,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,7 +6635,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6710,6 +6788,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>501648.07612236449</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>635076.09883276955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6731,11 +6812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91534848"/>
-        <c:axId val="91536384"/>
+        <c:axId val="521066368"/>
+        <c:axId val="521067904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91534848"/>
+        <c:axId val="521066368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,14 +6859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91536384"/>
+        <c:crossAx val="521067904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91536384"/>
+        <c:axId val="521067904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6836,7 +6917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91534848"/>
+        <c:crossAx val="521066368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6997,7 +7078,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7150,6 +7231,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-21460.754471464385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-34386.070179807597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7164,8 +7248,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93537792"/>
-        <c:axId val="93536256"/>
+        <c:axId val="521353472"/>
+        <c:axId val="521351936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7190,7 +7274,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7343,6 +7427,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7352,7 +7439,7 @@
               <c:f>'model2(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7505,6 +7592,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7521,11 +7611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93532928"/>
-        <c:axId val="93534464"/>
+        <c:axId val="521348608"/>
+        <c:axId val="521350144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93532928"/>
+        <c:axId val="521348608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7568,14 +7658,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93534464"/>
+        <c:crossAx val="521350144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93534464"/>
+        <c:axId val="521350144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7626,12 +7716,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93532928"/>
+        <c:crossAx val="521348608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93536256"/>
+        <c:axId val="521351936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7668,12 +7758,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93537792"/>
+        <c:crossAx val="521353472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93537792"/>
+        <c:axId val="521353472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7682,7 +7772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93536256"/>
+        <c:crossAx val="521351936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7832,7 +7922,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7985,6 +8075,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,7 +8087,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8146,6 +8239,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8189,7 +8285,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8342,6 +8438,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8351,7 +8450,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8504,6 +8603,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14388981.830634605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15507882.750807777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8546,7 +8648,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8699,6 +8801,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8708,7 +8813,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8861,6 +8966,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4426196.4513846952</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5545097.3715578672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8882,11 +8990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93573888"/>
-        <c:axId val="93575424"/>
+        <c:axId val="525342208"/>
+        <c:axId val="525343744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93573888"/>
+        <c:axId val="525342208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8929,14 +9037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93575424"/>
+        <c:crossAx val="525343744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93575424"/>
+        <c:axId val="525343744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8987,7 +9095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93573888"/>
+        <c:crossAx val="525342208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9148,7 +9256,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9301,6 +9409,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14163282.098822901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13934006.503499825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9315,8 +9426,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370701440"/>
-        <c:axId val="370699648"/>
+        <c:axId val="525367168"/>
+        <c:axId val="525365632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9341,7 +9452,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9494,6 +9605,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9503,7 +9617,7 @@
               <c:f>'model2(2)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9656,6 +9770,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9672,11 +9789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370696576"/>
-        <c:axId val="370698112"/>
+        <c:axId val="525358208"/>
+        <c:axId val="525359744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370696576"/>
+        <c:axId val="525358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9719,14 +9836,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370698112"/>
+        <c:crossAx val="525359744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370698112"/>
+        <c:axId val="525359744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9777,12 +9894,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370696576"/>
+        <c:crossAx val="525358208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370699648"/>
+        <c:axId val="525365632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9819,12 +9936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370701440"/>
+        <c:crossAx val="525367168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370701440"/>
+        <c:axId val="525367168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,7 +9950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370699648"/>
+        <c:crossAx val="525365632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9983,7 +10100,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10136,6 +10253,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10145,7 +10265,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10297,6 +10417,9 @@
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10340,7 +10463,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10493,6 +10616,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10502,7 +10628,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10655,6 +10781,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>13860021.815675542</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14938022.11164082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10697,7 +10826,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10850,6 +10979,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10859,7 +10991,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11012,6 +11144,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4995309.5296407752</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6073309.8256060537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11033,11 +11168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452620672"/>
-        <c:axId val="452622208"/>
+        <c:axId val="525534336"/>
+        <c:axId val="525535872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452620672"/>
+        <c:axId val="525534336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11080,14 +11215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452622208"/>
+        <c:crossAx val="525535872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452622208"/>
+        <c:axId val="525535872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,7 +11273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452620672"/>
+        <c:crossAx val="525534336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11852,7 +11987,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14159,6 +14294,44 @@
         <v>20133.831839769646</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-28655.058483172998</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-26337.368498071821</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1568744.0445114321</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1706793.6131848341</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1755582.5035077769</v>
+      </c>
+      <c r="K54" s="15">
+        <v>597089.47402555309</v>
+      </c>
+      <c r="L54" s="14">
+        <v>48788.890322942643</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14175,7 +14348,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17693,6 +17866,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="54" spans="1:21" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-34386.070179807597</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-31604.842197686183</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1657834.4231988743</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1803723.9504644901</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1862228.8330822547</v>
+      </c>
+      <c r="K54" s="15">
+        <v>639991.90715730935</v>
+      </c>
+      <c r="L54" s="14">
+        <v>58504.882617764728</v>
+      </c>
+      <c r="M54" s="23">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="N54" s="23">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="O54" s="23">
+        <v>1.0426666935284932</v>
+      </c>
+      <c r="P54" s="23">
+        <v>0.808000004007703</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>0.23466668952079017</v>
+      </c>
+      <c r="R54" s="23">
+        <v>6.4142857481833279E-2</v>
+      </c>
+      <c r="S54" s="9">
+        <v>9.6214286222749917E-4</v>
+      </c>
+      <c r="T54" s="9">
+        <v>243.90004721076767</v>
+      </c>
+      <c r="U54" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17709,7 +17947,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20311,6 +20549,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-34386.070179807597</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-31604.842197686183</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1657355.0035437348</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1803202.3418513513</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1861299.0362828393</v>
+      </c>
+      <c r="K54" s="15">
+        <v>635076.09883276955</v>
+      </c>
+      <c r="L54" s="14">
+        <v>58096.694431487973</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20327,7 +20609,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22929,6 +23211,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-249451.86126807026</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-229275.59532307627</v>
+      </c>
+      <c r="G54" s="15">
+        <v>13934006.503499825</v>
+      </c>
+      <c r="H54" s="15">
+        <v>15160199.899695065</v>
+      </c>
+      <c r="I54" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J54" s="15">
+        <v>15507882.750807777</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5545097.3715578672</v>
+      </c>
+      <c r="L54" s="14">
+        <v>347682.8511127127</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22945,7 +23271,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25861,6 +26187,56 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="54" spans="1:16" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3128893</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4342592.1135788327</v>
+      </c>
+      <c r="G54" s="14">
+        <v>-179733.24736579991</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-165195.99043945145</v>
+      </c>
+      <c r="I54" s="15">
+        <v>13480357.444271978</v>
+      </c>
+      <c r="J54" s="15">
+        <v>14666629.696431894</v>
+      </c>
+      <c r="K54" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L54" s="15">
+        <v>14938022.11164082</v>
+      </c>
+      <c r="M54" s="15">
+        <v>6073309.8256060537</v>
+      </c>
+      <c r="N54" s="14">
+        <v>271392.41520892637</v>
+      </c>
+      <c r="O54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="P54" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -718,6 +718,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +730,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -882,6 +885,9 @@
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -925,7 +931,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1081,6 +1087,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,7 +1099,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1246,6 +1255,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1755582.5035077769</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1732051.178272306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1300,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1444,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,7 +1468,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1609,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>597089.47402555309</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>573558.1487900822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90573440"/>
-        <c:axId val="91572480"/>
+        <c:axId val="452451328"/>
+        <c:axId val="465831040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90573440"/>
+        <c:axId val="452451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91572480"/>
+        <c:crossAx val="465831040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91572480"/>
+        <c:axId val="465831040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90573440"/>
+        <c:crossAx val="452451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1896,7 +1914,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2052,6 +2070,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-179733.24736579991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-80175.124714138117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,8 +2087,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525575680"/>
-        <c:axId val="525574144"/>
+        <c:axId val="467842944"/>
+        <c:axId val="467841408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2092,7 +2113,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2248,6 +2269,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2281,7 @@
               <c:f>'model2(2)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2413,6 +2437,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,11 +2456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525558528"/>
-        <c:axId val="525560064"/>
+        <c:axId val="467825792"/>
+        <c:axId val="467827328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525558528"/>
+        <c:axId val="467825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,14 +2503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525560064"/>
+        <c:crossAx val="467827328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525560064"/>
+        <c:axId val="467827328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,12 +2561,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525558528"/>
+        <c:crossAx val="467825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525574144"/>
+        <c:axId val="467841408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,12 +2603,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525575680"/>
+        <c:crossAx val="467842944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525575680"/>
+        <c:axId val="467842944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx v